--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512BC105-3824-4E27-AFA1-663427503E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C96960-C4C7-474A-9866-921A600C004B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
     <sheet name="EnhanceTable" sheetId="2" r:id="rId2"/>
-    <sheet name="EquipOptionTable" sheetId="4" r:id="rId3"/>
+    <sheet name="EnhanceGradeTable" sheetId="6" r:id="rId3"/>
+    <sheet name="EquipOptionTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equipType|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ulti</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,11 +152,86 @@
   <si>
     <t>전투 중 레벨업 회복량</t>
   </si>
+  <si>
+    <t>requiredGold|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innergrade|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoHanded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipType참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>gradeOne|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradeZero|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradeTwo|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradeThree|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradeFour|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,67 +592,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="9" collapsed="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" collapsed="1"/>
+    <col min="12" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A33" si="0">"Equip"&amp;C2&amp;D2&amp;TEXT(B2,"00")</f>
+        <f t="shared" ref="A2:A13" si="0">"Equip"&amp;C2&amp;E2&amp;TEXT(B2,"00")</f>
         <v>Equip0001</v>
       </c>
       <c r="B2">
@@ -588,149 +653,245 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E63" si="1">INT(D2/2)+3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H33" si="1">INT(E2/2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0002</v>
+        <v>Equip0101</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>105</v>
-      </c>
-      <c r="G3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0003</v>
+        <v>Equip0201</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="str">
+        <f>VLOOKUP(C4,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>800</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0101</v>
+        <v>Equip0202</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="str">
+        <f>VLOOKUP(C5,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0102</v>
+        <v>Equip0301</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="str">
+        <f>VLOOKUP(C6,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>1000</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0103</v>
+        <v>Equip0302</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="str">
+        <f>VLOOKUP(C7,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>125</v>
-      </c>
-      <c r="G7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0201</v>
+        <v>Equip0401</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -738,24 +899,40 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>2</v>
+      <c r="D8" t="str">
+        <f>VLOOKUP(C8,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>800</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0202</v>
+        <v>Equip0402</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -763,24 +940,40 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0203</v>
+        <v>Equip0403</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -788,24 +981,40 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>2</v>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0204</v>
+        <v>Equip0404</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -813,24 +1022,34 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>2</v>
+      <c r="D11" t="str">
+        <f>VLOOKUP(C11,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0205</v>
+        <v>Equip0405</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -838,1292 +1057,3195 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>2</v>
+      <c r="D12" t="str">
+        <f>VLOOKUP(C12,$L:$M,2,0)</f>
+        <v>Axe</v>
       </c>
       <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>Equip0301</v>
+        <v>Equip1001</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
+        <f t="shared" ref="C13:C44" si="2">C2+1</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(C13,$L:$M,2,0)</f>
+        <v>Dagger</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0302</v>
+        <f t="shared" ref="A14:A77" si="3">"Equip"&amp;C14&amp;E14&amp;TEXT(B14,"00")</f>
+        <v>Equip1101</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(C14,$L:$M,2,0)</f>
+        <v>Dagger</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0303</v>
+        <f t="shared" si="3"/>
+        <v>Equip1201</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,$L:$M,2,0)</f>
+        <v>Dagger</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0304</v>
+        <f t="shared" si="3"/>
+        <v>Equip1202</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,$L:$M,2,0)</f>
+        <v>Dagger</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0305</v>
+        <f t="shared" si="3"/>
+        <v>Equip1301</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(C17,$L:$M,2,0)</f>
+        <v>Dagger</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip1302</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(C18,$L:$M,2,0)</f>
+        <v>Dagger</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip1401</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(C19,$L:$M,2,0)</f>
+        <v>Dagger</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip1402</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(C20,$L:$M,2,0)</f>
+        <v>Dagger</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip1403</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(C21,$L:$M,2,0)</f>
+        <v>Dagger</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0401</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip1404</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(C22,$L:$M,2,0)</f>
+        <v>Dagger</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip1405</v>
+      </c>
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0402</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(C23,$L:$M,2,0)</f>
+        <v>Dagger</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2001</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(C24,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2101</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(C25,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2201</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(C26,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2202</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(C27,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2301</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(C28,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2302</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(C29,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2401</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(C30,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2402</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(C31,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2403</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(C32,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
         <v>5</v>
       </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0403</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2404</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(C33,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0404</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip2405</v>
+      </c>
+      <c r="B34">
         <v>5</v>
       </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0405</v>
-      </c>
-      <c r="B22">
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(C34,$L:$M,2,0)</f>
+        <v>Bow</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H65" si="4">INT(E34/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3001</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(C35,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3101</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(C36,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3201</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(C37,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3202</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(C38,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3301</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(C39,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3302</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(C40,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3401</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(C41,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3402</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(C42,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3403</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(C43,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3404</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(C44,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
         <v>5</v>
       </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-      <c r="G22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0406</v>
-      </c>
-      <c r="B23">
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip3405</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C76" si="5">C34+1</f>
+        <v>3</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(C45,$L:$M,2,0)</f>
+        <v>Staff</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4001</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(C46,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4101</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(C47,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4201</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(C48,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4202</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(C49,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4301</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(C50,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4302</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(C51,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4401</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(C52,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4402</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(C53,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4403</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(C54,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
         <v>5</v>
       </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0407</v>
-      </c>
-      <c r="B24">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4404</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(C55,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip4405</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(C56,$L:$M,2,0)</f>
+        <v>Hammer</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5001</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(C57,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5101</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(C58,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5201</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(C59,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5202</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(C60,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5301</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(C61,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5302</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(C62,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5401</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(C63,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5402</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(C64,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5403</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(C65,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5404</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H100" si="6">INT(E66/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip5405</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(C67,$L:$M,2,0)</f>
+        <v>Sword</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6001</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6101</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(C69,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6201</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(C70,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6202</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(C71,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6301</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(C72,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6302</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(C73,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6401</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(C74,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6402</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(C75,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6403</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(C76,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <f t="shared" si="3"/>
+        <v>Equip6404</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:C100" si="7">C66+1</f>
+        <v>6</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(C77,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <f t="shared" ref="A78:A100" si="8">"Equip"&amp;C78&amp;E78&amp;TEXT(B78,"00")</f>
+        <v>Equip6405</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(C78,$L:$M,2,0)</f>
+        <v>Gun</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+      <c r="J78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7001</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
+      <c r="D79" t="str">
+        <f>VLOOKUP(C79,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+      <c r="J79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7101</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(C80,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+      <c r="J80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7201</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(C81,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>100</v>
+      </c>
+      <c r="J81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7202</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(C82,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7301</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(C83,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7302</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(C84,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>100</v>
+      </c>
+      <c r="J84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7401</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(C85,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7402</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(C86,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>100</v>
+      </c>
+      <c r="J86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7403</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(C87,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0408</v>
-      </c>
-      <c r="B25">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>100</v>
+      </c>
+      <c r="J87">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7404</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D88" t="str">
+        <f>VLOOKUP(C88,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>100</v>
+      </c>
+      <c r="J88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip7405</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D89" t="str">
+        <f>VLOOKUP(C89,$L:$M,2,0)</f>
+        <v>Shield</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8001</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
+      <c r="D90" t="str">
+        <f>VLOOKUP(C90,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>100</v>
+      </c>
+      <c r="J90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8101</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D91" t="str">
+        <f>VLOOKUP(C91,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+      <c r="J91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8201</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(C92,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>100</v>
+      </c>
+      <c r="J92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8202</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D93" t="str">
+        <f>VLOOKUP(C93,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+      <c r="J93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8301</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D94" t="str">
+        <f>VLOOKUP(C94,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8302</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D95" t="str">
+        <f>VLOOKUP(C95,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>100</v>
+      </c>
+      <c r="J95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8401</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D96" t="str">
+        <f>VLOOKUP(C96,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8402</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D97" t="str">
+        <f>VLOOKUP(C97,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8403</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D98" t="str">
+        <f>VLOOKUP(C98,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
         <v>5</v>
       </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0409</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>100</v>
+      </c>
+      <c r="J98">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8404</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D99" t="str">
+        <f>VLOOKUP(C99,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
         <v>5</v>
       </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0410</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
+      </c>
+      <c r="J99">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f t="shared" si="8"/>
+        <v>Equip8405</v>
+      </c>
+      <c r="B100">
         <v>5</v>
       </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0411</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0412</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0413</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0414</v>
-      </c>
-      <c r="B31">
-        <v>14</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0415</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip1001</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>100</v>
-      </c>
-      <c r="G33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <f t="shared" ref="A34:A63" si="2">"Equip"&amp;C34&amp;D34&amp;TEXT(B34,"00")</f>
-        <v>Equip1002</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1003</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1101</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1102</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>100</v>
-      </c>
-      <c r="G37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1103</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
-      <c r="G38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1201</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1202</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-      <c r="G40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1203</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1204</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1205</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1301</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1302</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1303</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1304</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F47">
-        <v>100</v>
-      </c>
-      <c r="G47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1305</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>100</v>
-      </c>
-      <c r="G48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1401</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F49">
-        <v>100</v>
-      </c>
-      <c r="G49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1402</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F50">
-        <v>100</v>
-      </c>
-      <c r="G50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1403</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F51">
-        <v>100</v>
-      </c>
-      <c r="G51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1404</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F52">
-        <v>100</v>
-      </c>
-      <c r="G52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1405</v>
-      </c>
-      <c r="B53">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1406</v>
-      </c>
-      <c r="B54">
+      <c r="C100">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D100" t="str">
+        <f>VLOOKUP(C100,$L:$M,2,0)</f>
+        <v>TwoHanded</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
         <v>6</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1407</v>
-      </c>
-      <c r="B55">
-        <v>7</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
-      </c>
-      <c r="G55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1408</v>
-      </c>
-      <c r="B56">
-        <v>8</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F56">
-        <v>100</v>
-      </c>
-      <c r="G56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1409</v>
-      </c>
-      <c r="B57">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F57">
-        <v>100</v>
-      </c>
-      <c r="G57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1410</v>
-      </c>
-      <c r="B58">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F58">
-        <v>100</v>
-      </c>
-      <c r="G58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1411</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>100</v>
-      </c>
-      <c r="G59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1412</v>
-      </c>
-      <c r="B60">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-      <c r="G60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1413</v>
-      </c>
-      <c r="B61">
-        <v>13</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F61">
-        <v>100</v>
-      </c>
-      <c r="G61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1414</v>
-      </c>
-      <c r="B62">
-        <v>14</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F62">
-        <v>100</v>
-      </c>
-      <c r="G62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="str">
-        <f t="shared" si="2"/>
-        <v>Equip1415</v>
-      </c>
-      <c r="B63">
-        <v>15</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>4</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F63">
-        <v>100</v>
-      </c>
-      <c r="G63">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
         <v>1000</v>
       </c>
     </row>
@@ -2136,113 +4258,916 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B11" si="0">B2*1.2</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B3:B32" si="0">B2*1.09</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C32" si="1">C2+2500</f>
+        <v>2500</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>D3*EnhanceGradeTable!$G$6</f>
+        <v>0.24112654320987661</v>
+      </c>
+      <c r="F3">
+        <f>D3*EnhanceGradeTable!$F$6</f>
+        <v>0.12056327160493831</v>
+      </c>
+      <c r="G3">
+        <f>1-(1-E3)^50</f>
+        <v>0.99999898031005685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.1881000000000002</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D32" si="2">D3/1.05</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="E4">
+        <f>D4*EnhanceGradeTable!$G$6</f>
+        <v>0.22964432686654915</v>
+      </c>
+      <c r="F4">
+        <f>D4*EnhanceGradeTable!$F$6</f>
+        <v>0.11482216343327457</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G32" si="3">1-(1-E4)^50</f>
+        <v>0.99999783945030707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>1.728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.2950290000000002</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0.90702947845804982</v>
+      </c>
+      <c r="E5">
+        <f>D5*EnhanceGradeTable!$G$6</f>
+        <v>0.21870888273004679</v>
+      </c>
+      <c r="F5">
+        <f>D5*EnhanceGradeTable!$F$6</f>
+        <v>0.1093544413650234</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.99999562836055667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>2.0735999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.4115816100000003</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.86383759853147601</v>
+      </c>
+      <c r="E6">
+        <f>D6*EnhanceGradeTable!$G$6</f>
+        <v>0.208294174028616</v>
+      </c>
+      <c r="F6">
+        <f>D6*EnhanceGradeTable!$F$6</f>
+        <v>0.104147087014308</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.99999152397866964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>2.4883199999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.5386239549000005</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0.82270247479188185</v>
+      </c>
+      <c r="E7">
+        <f>D7*EnhanceGradeTable!$G$6</f>
+        <v>0.19837540383677713</v>
+      </c>
+      <c r="F7">
+        <f>D7*EnhanceGradeTable!$F$6</f>
+        <v>9.9187701918388563E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.99998420383334752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>2.9859839999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.6771001108410006</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.78352616646845885</v>
+      </c>
+      <c r="E8">
+        <f>D8*EnhanceGradeTable!$G$6</f>
+        <v>0.18892895603502582</v>
+      </c>
+      <c r="F8">
+        <f>D8*EnhanceGradeTable!$F$6</f>
+        <v>9.4464478017512912E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.99997162441349707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>3.5831807999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.8280391208166908</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>17500</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.74621539663662739</v>
+      </c>
+      <c r="E9">
+        <f>D9*EnhanceGradeTable!$G$6</f>
+        <v>0.17993233908097694</v>
+      </c>
+      <c r="F9">
+        <f>D9*EnhanceGradeTable!$F$6</f>
+        <v>8.9966169540488472E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0.99995074114652927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>4.2998169599999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1.9925626416901931</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.71068133013012125</v>
+      </c>
+      <c r="E10">
+        <f>D10*EnhanceGradeTable!$G$6</f>
+        <v>0.17136413245807328</v>
+      </c>
+      <c r="F10">
+        <f>D10*EnhanceGradeTable!$F$6</f>
+        <v>8.5682066229036638E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.99991717024223015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>5.1597803519999994</v>
+        <v>2.1718932794423105</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.67683936202868689</v>
+      </c>
+      <c r="E11">
+        <f>D11*EnhanceGradeTable!$G$6</f>
+        <v>0.16320393567435548</v>
+      </c>
+      <c r="F11">
+        <f>D11*EnhanceGradeTable!$F$6</f>
+        <v>8.1601967837177741E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.99986479851981669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3673636745921187</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.64460891621779703</v>
+      </c>
+      <c r="E12">
+        <f>D12*EnhanceGradeTable!$G$6</f>
+        <v>0.15543231968986237</v>
+      </c>
+      <c r="F12">
+        <f>D12*EnhanceGradeTable!$F$6</f>
+        <v>7.7716159844931187E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.99978535395184709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5804264053054098</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.6139132535407591</v>
+      </c>
+      <c r="E13">
+        <f>D13*EnhanceGradeTable!$G$6</f>
+        <v>0.14803078065701178</v>
+      </c>
+      <c r="F13">
+        <f>D13*EnhanceGradeTable!$F$6</f>
+        <v>7.401539032850589E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.99966795631515892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8126647817828969</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.58467928908643718</v>
+      </c>
+      <c r="E14">
+        <f>D14*EnhanceGradeTable!$G$6</f>
+        <v>0.14098169586382073</v>
+      </c>
+      <c r="F14">
+        <f>D14*EnhanceGradeTable!$F$6</f>
+        <v>7.0490847931910364E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.99949867322721386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0658046121433578</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.55683741817755916</v>
+      </c>
+      <c r="E15">
+        <f>D15*EnhanceGradeTable!$G$6</f>
+        <v>0.13426828177506736</v>
+      </c>
+      <c r="F15">
+        <f>D15*EnhanceGradeTable!$F$6</f>
+        <v>6.713414088753368E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.99926011118323466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.34172702723626</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.5303213506452944</v>
+      </c>
+      <c r="E16">
+        <f>D16*EnhanceGradeTable!$G$6</f>
+        <v>0.1278745540714927</v>
+      </c>
+      <c r="F16">
+        <f>D16*EnhanceGradeTable!$F$6</f>
+        <v>6.3937277035746351E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.99893107335608333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6424824596875238</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.50506795299551843</v>
+      </c>
+      <c r="E17">
+        <f>D17*EnhanceGradeTable!$G$6</f>
+        <v>0.1217852895918978</v>
+      </c>
+      <c r="F17">
+        <f>D17*EnhanceGradeTable!$F$6</f>
+        <v>6.08926447959489E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.99848631547564071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9703058810594012</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.48101709809096993</v>
+      </c>
+      <c r="E18">
+        <f>D18*EnhanceGradeTable!$G$6</f>
+        <v>0.11598599008752172</v>
+      </c>
+      <c r="F18">
+        <f>D18*EnhanceGradeTable!$F$6</f>
+        <v>5.7992995043760862E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.99789642795958344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.327633410354748</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>42500</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.45811152199139993</v>
+      </c>
+      <c r="E19">
+        <f>D19*EnhanceGradeTable!$G$6</f>
+        <v>0.11046284770240164</v>
+      </c>
+      <c r="F19">
+        <f>D19*EnhanceGradeTable!$F$6</f>
+        <v>5.523142385120082E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.99712786681839594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7171204172866759</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.43629668761085705</v>
+      </c>
+      <c r="E20">
+        <f>D20*EnhanceGradeTable!$G$6</f>
+        <v>0.10520271209752537</v>
+      </c>
+      <c r="F20">
+        <f>D20*EnhanceGradeTable!$F$6</f>
+        <v>5.2601356048762683E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.99614314816949945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1416612548424769</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>47500</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.41552065486748291</v>
+      </c>
+      <c r="E21">
+        <f>D21*EnhanceGradeTable!$G$6</f>
+        <v>0.10019305914050035</v>
+      </c>
+      <c r="F21">
+        <f>D21*EnhanceGradeTable!$F$6</f>
+        <v>5.0096529570250174E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.99490121213600191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6044107677783002</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.39573395701665037</v>
+      </c>
+      <c r="E22">
+        <f>D22*EnhanceGradeTable!$G$6</f>
+        <v>9.5421961086190804E-2</v>
+      </c>
+      <c r="F22">
+        <f>D22*EnhanceGradeTable!$F$6</f>
+        <v>4.7710980543095402E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.99335795225591639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1088077368783473</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>52500</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.37688948287300034</v>
+      </c>
+      <c r="E23">
+        <f>D23*EnhanceGradeTable!$G$6</f>
+        <v>9.0878058177324569E-2</v>
+      </c>
+      <c r="F23">
+        <f>D23*EnhanceGradeTable!$F$6</f>
+        <v>4.5439029088662285E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.99146689708860414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6586004331973987</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>55000</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.35894236464095269</v>
+      </c>
+      <c r="E24">
+        <f>D24*EnhanceGradeTable!$G$6</f>
+        <v>8.6550531597451963E-2</v>
+      </c>
+      <c r="F24">
+        <f>D24*EnhanceGradeTable!$F$6</f>
+        <v>4.3275265798725981E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.98918002221079637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2578744721851649</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>57500</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.34184987108662163</v>
+      </c>
+      <c r="E25">
+        <f>D25*EnhanceGradeTable!$G$6</f>
+        <v>8.242907771185902E-2</v>
+      </c>
+      <c r="F25">
+        <f>D25*EnhanceGradeTable!$F$6</f>
+        <v>4.121453885592951E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.98644866384391205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9110831746818304</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.32557130579678251</v>
+      </c>
+      <c r="E26">
+        <f>D26*EnhanceGradeTable!$G$6</f>
+        <v>7.8503883535103833E-2</v>
+      </c>
+      <c r="F26">
+        <f>D26*EnhanceGradeTable!$F$6</f>
+        <v>3.9251941767551916E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.98322450036698017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6230806604031951</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>62500</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.31006791028265002</v>
+      </c>
+      <c r="E27">
+        <f>D27*EnhanceGradeTable!$G$6</f>
+        <v>7.4765603366765548E-2</v>
+      </c>
+      <c r="F27">
+        <f>D27*EnhanceGradeTable!$F$6</f>
+        <v>3.7382801683382774E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.97946056516595859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3991579198394835</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>65000</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0.29530277169776192</v>
+      </c>
+      <c r="E28">
+        <f>D28*EnhanceGradeTable!$G$6</f>
+        <v>7.1205336539776717E-2</v>
+      </c>
+      <c r="F28">
+        <f>D28*EnhanceGradeTable!$F$6</f>
+        <v>3.5602668269888359E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.97511225367680665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>10.245082132625038</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>67500</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.28124073495024943</v>
+      </c>
+      <c r="E29">
+        <f>D29*EnhanceGradeTable!$G$6</f>
+        <v>6.7814606228358776E-2</v>
+      </c>
+      <c r="F29">
+        <f>D29*EnhanceGradeTable!$F$6</f>
+        <v>3.3907303114179388E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.97013828895105569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>11.167139524561293</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.26784831900023753</v>
+      </c>
+      <c r="E30">
+        <f>D30*EnhanceGradeTable!$G$6</f>
+        <v>6.4585339265103597E-2</v>
+      </c>
+      <c r="F30">
+        <f>D30*EnhanceGradeTable!$F$6</f>
+        <v>3.2292669632551799E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.96450161332813344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>12.17218208177181</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>72500</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0.25509363714308336</v>
+      </c>
+      <c r="E31">
+        <f>D31*EnhanceGradeTable!$G$6</f>
+        <v>6.150984691914628E-2</v>
+      </c>
+      <c r="F31">
+        <f>D31*EnhanceGradeTable!$F$6</f>
+        <v>3.075492345957314E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.95817017846482766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>13.267678469131274</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0.2429463210886508</v>
+      </c>
+      <c r="E32">
+        <f>D32*EnhanceGradeTable!$G$6</f>
+        <v>5.8580806589663116E-2</v>
+      </c>
+      <c r="F32">
+        <f>D32*EnhanceGradeTable!$F$6</f>
+        <v>2.9290403294831558E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.95111761162638075</v>
       </c>
     </row>
   </sheetData>
@@ -2253,10 +5178,188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059BAE38-C5F0-49B8-A438-E94545765F83}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f>MIN(1,C2*2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:G2" si="0">MIN(1,D2*2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>D3/1.2</f>
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D3">
+        <f>C2/1.2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G5" si="1">MIN(1,D3*2)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <f>D4/1.2</f>
+        <v>0.24112654320987661</v>
+      </c>
+      <c r="D4">
+        <f>E4/1.2</f>
+        <v>0.28935185185185192</v>
+      </c>
+      <c r="E4">
+        <f>D3/1.2</f>
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:E5" si="2">D5/1.2</f>
+        <v>0.16744898834019209</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0.20093878600823051</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.24112654320987661</v>
+      </c>
+      <c r="F5">
+        <f>E4/1.2</f>
+        <v>0.28935185185185192</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.57870370370370383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="3">D6/2</f>
+        <v>1.5070408950617288E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>3.0140817901234577E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>6.0281635802469154E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.12056327160493831</v>
+      </c>
+      <c r="G6">
+        <f>F5/1.2</f>
+        <v>0.24112654320987661</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2265,7 +5368,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -2309,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2326,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2343,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2360,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2377,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2394,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2411,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2428,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2445,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2462,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2479,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2496,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2513,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2530,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2547,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2564,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2581,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2598,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2615,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2632,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2649,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2666,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2683,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2700,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2717,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -2734,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2751,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2768,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2785,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2802,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2819,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2836,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2853,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2870,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2887,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2904,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2921,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2938,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2955,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2972,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -2989,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3006,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3023,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3040,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -3057,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -3074,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3091,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3108,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3125,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3142,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -3159,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3176,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3193,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3210,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3227,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -3244,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3261,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3278,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3295,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -3312,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -3329,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3346,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3363,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -3380,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -3397,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>4</v>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630365F-8FFC-4089-B932-A19366CC6037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FC173-983F-4DC4-B94F-37BA0E29F08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="EnhanceGradeTable" sheetId="6" r:id="rId3"/>
     <sheet name="EquipOptionTable" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +259,18 @@
     <t>강화감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>prefabAddress|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shotAddress|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot_RunicAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -331,815 +340,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="에너지"/>
-      <sheetName val="챕터별골드"/>
-      <sheetName val="골드시뮬"/>
-      <sheetName val="재화비"/>
-      <sheetName val="드랍"/>
-      <sheetName val="드랍시뮬"/>
-      <sheetName val="표준성장표"/>
-      <sheetName val="상점 모델"/>
-      <sheetName val="상자"/>
-      <sheetName val="강화모델"/>
-      <sheetName val="강화시뮬"/>
-      <sheetName val="기하분포"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="1">
-          <cell r="G1" t="str">
-            <v>p*q^(x-1)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="G2">
-            <v>5.8580806589663116E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>2</v>
-          </cell>
-          <cell r="G3">
-            <v>5.51490956889676E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>3</v>
-          </cell>
-          <cell r="G4">
-            <v>5.1918417180817363E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>4</v>
-          </cell>
-          <cell r="G5">
-            <v>4.8876994425506456E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>5</v>
-          </cell>
-          <cell r="G6">
-            <v>4.6013740668381813E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>6</v>
-          </cell>
-          <cell r="G7">
-            <v>4.3318218625820422E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>7</v>
-          </cell>
-          <cell r="G8">
-            <v>4.0780602438692491E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>8</v>
-          </cell>
-          <cell r="G9">
-            <v>3.8391641854621503E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>9</v>
-          </cell>
-          <cell r="G10">
-            <v>3.6142628508476299E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>10</v>
-          </cell>
-          <cell r="G11">
-            <v>3.402536417817921E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>11</v>
-          </cell>
-          <cell r="G12">
-            <v>3.203213090011444E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>12</v>
-          </cell>
-          <cell r="G13">
-            <v>3.0155662835200058E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>13</v>
-          </cell>
-          <cell r="G14">
-            <v>2.8389119783068111E-2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>14</v>
-          </cell>
-          <cell r="G15">
-            <v>2.672606224780542E-2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>15</v>
-          </cell>
-          <cell r="G16">
-            <v>2.5160427964363428E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>16</v>
-          </cell>
-          <cell r="G17">
-            <v>2.3686509800069908E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>17</v>
-          </cell>
-          <cell r="G18">
-            <v>2.2298934950687847E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>18</v>
-          </cell>
-          <cell r="G19">
-            <v>2.0992645355186121E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>19</v>
-          </cell>
-          <cell r="G20">
-            <v>1.9762879257828575E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>20</v>
-          </cell>
-          <cell r="G21">
-            <v>1.8605153850370853E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>21</v>
-          </cell>
-          <cell r="G22">
-            <v>1.751524893109135E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>22</v>
-          </cell>
-          <cell r="G23">
-            <v>1.6489191521089283E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>23</v>
-          </cell>
-          <cell r="G24">
-            <v>1.5523241381772438E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>24</v>
-          </cell>
-          <cell r="G25">
-            <v>1.4613877380742173E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>25</v>
-          </cell>
-          <cell r="G26">
-            <v>1.3757784656375862E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>26</v>
-          </cell>
-          <cell r="G27">
-            <v>1.2951842534318471E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>27</v>
-          </cell>
-          <cell r="G28">
-            <v>1.2193113151835787E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>28</v>
-          </cell>
-          <cell r="G29">
-            <v>1.1478830748562218E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>29</v>
-          </cell>
-          <cell r="G30">
-            <v>1.0806391584605215E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>30</v>
-          </cell>
-          <cell r="G31">
-            <v>1.0173344449255295E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>31</v>
-          </cell>
-          <cell r="G32">
-            <v>9.5773817257034464E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>32</v>
-          </cell>
-          <cell r="G33">
-            <v>9.0163309791946381E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>33</v>
-          </cell>
-          <cell r="G34">
-            <v>8.4881470379540493E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>34</v>
-          </cell>
-          <cell r="G35">
-            <v>7.9909045380190408E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>35</v>
-          </cell>
-          <cell r="G36">
-            <v>7.5227909048008858E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>36</v>
-          </cell>
-          <cell r="G37">
-            <v>7.0820997457922679E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>37</v>
-          </cell>
-          <cell r="G38">
-            <v>6.6672246303353085E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>38</v>
-          </cell>
-          <cell r="G39">
-            <v>6.2766532337757974E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>39</v>
-          </cell>
-          <cell r="G40">
-            <v>5.908961824657593E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>40</v>
-          </cell>
-          <cell r="G41">
-            <v>5.5628100748616243E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>41</v>
-          </cell>
-          <cell r="G42">
-            <v>5.2369361737711253E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>42</v>
-          </cell>
-          <cell r="G43">
-            <v>4.9301522286530289E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>43</v>
-          </cell>
-          <cell r="G44">
-            <v>4.641339934488709E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>44</v>
-          </cell>
-          <cell r="G45">
-            <v>4.3694464974695455E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>45</v>
-          </cell>
-          <cell r="G46">
-            <v>4.1134807972974009E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>46</v>
-          </cell>
-          <cell r="G47">
-            <v>3.8725097743006285E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>47</v>
-          </cell>
-          <cell r="G48">
-            <v>3.6456550281957433E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>48</v>
-          </cell>
-          <cell r="G49">
-            <v>3.4320896160963759E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>49</v>
-          </cell>
-          <cell r="G50">
-            <v>3.231035038097442E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>50</v>
-          </cell>
-          <cell r="G51">
-            <v>3.0417583994462312E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>51</v>
-          </cell>
-          <cell r="G52">
-            <v>2.8635697389557879E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>52</v>
-          </cell>
-          <cell r="G53">
-            <v>2.6958195139220064E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>53</v>
-          </cell>
-          <cell r="G54">
-            <v>2.5378962323763018E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>54</v>
-          </cell>
-          <cell r="G55">
-            <v>2.3892242240428309E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>55</v>
-          </cell>
-          <cell r="G56">
-            <v>2.2492615418748395E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>56</v>
-          </cell>
-          <cell r="G57">
-            <v>2.1174979865207027E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>57</v>
-          </cell>
-          <cell r="G58">
-            <v>1.9934532465183319E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>58</v>
-          </cell>
-          <cell r="G59">
-            <v>1.8766751474385056E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>59</v>
-          </cell>
-          <cell r="G60">
-            <v>1.7667380035947826E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>60</v>
-          </cell>
-          <cell r="G61">
-            <v>1.663241066311589E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>61</v>
-          </cell>
-          <cell r="G62">
-            <v>1.5658070630940046E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>62</v>
-          </cell>
-          <cell r="G63">
-            <v>1.4740808223741664E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>63</v>
-          </cell>
-          <cell r="G64">
-            <v>1.3877279788211336E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>64</v>
-          </cell>
-          <cell r="G65">
-            <v>1.3064337544947487E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66">
-            <v>65</v>
-          </cell>
-          <cell r="G66">
-            <v>1.2299018114004844E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>66</v>
-          </cell>
-          <cell r="G67">
-            <v>1.1578531712625564E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>67</v>
-          </cell>
-          <cell r="G68">
-            <v>1.0900251985775961E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>68</v>
-          </cell>
-          <cell r="G69">
-            <v>1.0261706432418631E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>69</v>
-          </cell>
-          <cell r="G70">
-            <v>9.660567392621211E-4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>70</v>
-          </cell>
-          <cell r="G71">
-            <v>9.0946435626476619E-4</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72">
-            <v>71</v>
-          </cell>
-          <cell r="G72">
-            <v>8.561872007102272E-4</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73">
-            <v>72</v>
-          </cell>
-          <cell r="G73">
-            <v>8.0603106390087658E-4</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74">
-            <v>73</v>
-          </cell>
-          <cell r="G74">
-            <v>7.5881311404123869E-4</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>74</v>
-          </cell>
-          <cell r="G75">
-            <v>7.1436122976988893E-4</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>75</v>
-          </cell>
-          <cell r="G76">
-            <v>6.7251337273358512E-4</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>76</v>
-          </cell>
-          <cell r="G77">
-            <v>6.3311699691651687E-4</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78">
-            <v>77</v>
-          </cell>
-          <cell r="G78">
-            <v>5.9602849257152206E-4</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>78</v>
-          </cell>
-          <cell r="G79">
-            <v>5.6111266272626135E-4</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>79</v>
-          </cell>
-          <cell r="G80">
-            <v>5.2824223035608322E-4</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81">
-            <v>80</v>
-          </cell>
-          <cell r="G81">
-            <v>4.9729737442710125E-4</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82">
-            <v>81</v>
-          </cell>
-          <cell r="G82">
-            <v>4.6816529311823985E-4</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>82</v>
-          </cell>
-          <cell r="G83">
-            <v>4.4073979263008738E-4</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>83</v>
-          </cell>
-          <cell r="G84">
-            <v>4.149209000816559E-4</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>84</v>
-          </cell>
-          <cell r="G85">
-            <v>3.9061449908396351E-4</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>85</v>
-          </cell>
-          <cell r="G86">
-            <v>3.6773198666200762E-4</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>86</v>
-          </cell>
-          <cell r="G87">
-            <v>3.4618995027452801E-4</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88">
-            <v>87</v>
-          </cell>
-          <cell r="G88">
-            <v>3.2590986375421072E-4</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89">
-            <v>88</v>
-          </cell>
-          <cell r="G89">
-            <v>3.0681780105996193E-4</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90">
-            <v>89</v>
-          </cell>
-          <cell r="G90">
-            <v>2.8884416679780247E-4</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>90</v>
-          </cell>
-          <cell r="G91">
-            <v>2.7192344252806804E-4</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92">
-            <v>91</v>
-          </cell>
-          <cell r="G92">
-            <v>2.5599394793413585E-4</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93">
-            <v>92</v>
-          </cell>
-          <cell r="G93">
-            <v>2.4099761598208195E-4</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94">
-            <v>93</v>
-          </cell>
-          <cell r="G94">
-            <v>2.2687978125166569E-4</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95">
-            <v>94</v>
-          </cell>
-          <cell r="G95">
-            <v>2.135889806670568E-4</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96">
-            <v>95</v>
-          </cell>
-          <cell r="G96">
-            <v>2.0107676590091662E-4</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97">
-            <v>96</v>
-          </cell>
-          <cell r="G97">
-            <v>1.8929752676800007E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1439,22 +639,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" collapsed="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" collapsed="1"/>
+    <col min="14" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1485,8 +688,14 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A13" si="0">"Equip"&amp;C2&amp;E2&amp;TEXT(B2,"00")</f>
         <v>Equip0001</v>
@@ -1498,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="1">VLOOKUP(C2,$L:$M,2,0)</f>
+        <f t="shared" ref="D2:D33" si="1">VLOOKUP(C2,$N:$O,2,0)</f>
         <v>Axe</v>
       </c>
       <c r="E2">
@@ -1520,14 +729,17 @@
       <c r="J2">
         <v>115</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Equip0101</v>
@@ -1561,14 +773,14 @@
       <c r="J3">
         <v>1000</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Equip0201</v>
@@ -1602,14 +814,14 @@
       <c r="J4">
         <v>1000</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Equip0202</v>
@@ -1643,14 +855,14 @@
       <c r="J5">
         <v>1000</v>
       </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Equip0301</v>
@@ -1684,14 +896,14 @@
       <c r="J6">
         <v>1000</v>
       </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Equip0302</v>
@@ -1725,14 +937,14 @@
       <c r="J7">
         <v>1000</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Equip0401</v>
@@ -1766,14 +978,14 @@
       <c r="J8">
         <v>1000</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Equip0402</v>
@@ -1807,14 +1019,14 @@
       <c r="J9">
         <v>1000</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Equip0403</v>
@@ -1848,14 +1060,14 @@
       <c r="J10">
         <v>1000</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>8</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Equip0404</v>
@@ -1890,7 +1102,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Equip0405</v>
@@ -1925,7 +1137,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Equip1001</v>
@@ -1961,7 +1173,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" ref="A14:A77" si="4">"Equip"&amp;C14&amp;E14&amp;TEXT(B14,"00")</f>
         <v>Equip1101</v>
@@ -1997,7 +1209,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="4"/>
         <v>Equip1201</v>
@@ -2033,7 +1245,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="4"/>
         <v>Equip1202</v>
@@ -2694,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="5">VLOOKUP(C34,$L:$M,2,0)</f>
+        <f t="shared" ref="D34:D65" si="5">VLOOKUP(C34,$N:$O,2,0)</f>
         <v>Bow</v>
       </c>
       <c r="E34">
@@ -3846,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D97" si="8">VLOOKUP(C66,$L:$M,2,0)</f>
+        <f t="shared" ref="D66:D97" si="8">VLOOKUP(C66,$N:$O,2,0)</f>
         <v>Sword</v>
       </c>
       <c r="E66">
@@ -4998,7 +4210,7 @@
         <v>8</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98:D100" si="12">VLOOKUP(C98,$L:$M,2,0)</f>
+        <f t="shared" ref="D98:D100" si="12">VLOOKUP(C98,$N:$O,2,0)</f>
         <v>TwoHanded</v>
       </c>
       <c r="E98">
@@ -5104,7 +4316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
@@ -5188,11 +4400,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>IF(B2=0,1,C1*1.09)</f>
+        <f t="shared" ref="C2:C33" si="0">IF(B2=0,1,C1*1.09)</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>IF(B2=0,0,D1+2500)</f>
+        <f t="shared" ref="D2:D33" si="1">IF(B2=0,0,D1+2500)</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -5221,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J33" si="0">IF(B2=0,0,
+        <f t="shared" ref="J2:J33" si="2">IF(B2=0,0,
 IF(B2=1,1,
 J1/IF(B2=5,1.2,
 IF(B2=10,1.3,
@@ -5233,43 +4445,43 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>1-(1-E2)^K$1</f>
+        <f t="shared" ref="K2:K33" si="3">1-(1-E2)^K$1</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>1-(1-F2)^L$1</f>
+        <f t="shared" ref="L2:L33" si="4">1-(1-F2)^L$1</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>1-(1-G2)^M$1</f>
+        <f t="shared" ref="M2:M33" si="5">1-(1-G2)^M$1</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>1-(1-H2)^N$1</f>
+        <f t="shared" ref="N2:N33" si="6">1-(1-H2)^N$1</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>1-(1-I2)^O$1</f>
+        <f t="shared" ref="O2:O33" si="7">1-(1-I2)^O$1</f>
         <v>0</v>
       </c>
       <c r="P2" t="e">
-        <f>SQRT((1-E2)/E2^2)</f>
+        <f t="shared" ref="P2:P33" si="8">SQRT((1-E2)/E2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q2" t="e">
-        <f>SQRT((1-F2)/F2^2)</f>
+        <f t="shared" ref="Q2:Q33" si="9">SQRT((1-F2)/F2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R2" t="e">
-        <f>SQRT((1-G2)/G2^2)</f>
+        <f t="shared" ref="R2:R33" si="10">SQRT((1-G2)/G2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S2" t="e">
-        <f>SQRT((1-H2)/H2^2)</f>
+        <f t="shared" ref="S2:S33" si="11">SQRT((1-H2)/H2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T2" t="e">
-        <f>SQRT((1-I2)/I2^2)</f>
+        <f t="shared" ref="T2:T33" si="12">SQRT((1-I2)/I2^2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5281,11 +4493,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f>IF(B3=0,1,C2*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="D3">
-        <f>IF(B3=0,0,D2+2500)</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="E3">
@@ -5314,47 +4526,47 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K3">
-        <f>1-(1-E3)^K$1</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f>1-(1-F3)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M3">
-        <f>1-(1-G3)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N3">
-        <f>1-(1-H3)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O3">
-        <f>1-(1-I3)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P3">
-        <f>SQRT((1-E3)/E3^2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SQRT((1-F3)/F3^2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SQRT((1-G3)/G3^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SQRT((1-H3)/H3^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SQRT((1-I3)/I3^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5366,11 +4578,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f>IF(B4=0,1,C3*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.1881000000000002</v>
       </c>
       <c r="D4">
-        <f>IF(B4=0,0,D3+2500)</f>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="E4">
@@ -5399,47 +4611,47 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="K4">
-        <f>1-(1-E4)^K$1</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L4">
-        <f>1-(1-F4)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M4">
-        <f>1-(1-G4)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N4">
-        <f>1-(1-H4)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O4">
-        <f>1-(1-I4)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P4">
-        <f>SQRT((1-E4)/E4^2)</f>
+        <f t="shared" si="8"/>
         <v>0.29393876913398159</v>
       </c>
       <c r="Q4">
-        <f>SQRT((1-F4)/F4^2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SQRT((1-G4)/G4^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SQRT((1-H4)/H4^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SQRT((1-I4)/I4^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5451,11 +4663,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f>IF(B5=0,1,C4*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.2950290000000002</v>
       </c>
       <c r="D5">
-        <f>IF(B5=0,0,D4+2500)</f>
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="E5">
@@ -5484,47 +4696,47 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8573388203017831</v>
       </c>
       <c r="K5">
-        <f>1-(1-E5)^K$1</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f>1-(1-F5)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M5">
-        <f>1-(1-G5)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N5">
-        <f>1-(1-H5)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O5">
-        <f>1-(1-I5)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P5">
-        <f>SQRT((1-E5)/E5^2)</f>
+        <f t="shared" si="8"/>
         <v>0.44055528597441695</v>
       </c>
       <c r="Q5">
-        <f>SQRT((1-F5)/F5^2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>SQRT((1-G5)/G5^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SQRT((1-H5)/H5^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SQRT((1-I5)/I5^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5536,11 +4748,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f>IF(B6=0,1,C5*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.4115816100000003</v>
       </c>
       <c r="D6">
-        <f>IF(B6=0,0,D5+2500)</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="E6">
@@ -5569,47 +4781,47 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.79383224102016947</v>
       </c>
       <c r="K6">
-        <f>1-(1-E6)^K$1</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>1-(1-F6)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M6">
-        <f>1-(1-G6)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N6">
-        <f>1-(1-H6)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>1-(1-I6)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P6">
-        <f>SQRT((1-E6)/E6^2)</f>
+        <f t="shared" si="8"/>
         <v>0.57198105121061538</v>
       </c>
       <c r="Q6">
-        <f>SQRT((1-F6)/F6^2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SQRT((1-G6)/G6^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SQRT((1-H6)/H6^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SQRT((1-I6)/I6^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5621,11 +4833,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f>IF(B7=0,1,C6*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.5386239549000005</v>
       </c>
       <c r="D7">
-        <f>IF(B7=0,0,D6+2500)</f>
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="E7">
@@ -5654,47 +4866,47 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66152686751680789</v>
       </c>
       <c r="K7">
-        <f>1-(1-E7)^K$1</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L7">
-        <f>1-(1-F7)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>1-(1-G7)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N7">
-        <f>1-(1-H7)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>1-(1-I7)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P7">
-        <f>SQRT((1-E7)/E7^2)</f>
+        <f t="shared" si="8"/>
         <v>0.87945700579355257</v>
       </c>
       <c r="Q7">
-        <f>SQRT((1-F7)/F7^2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SQRT((1-G7)/G7^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SQRT((1-H7)/H7^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SQRT((1-I7)/I7^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5706,11 +4918,11 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <f>IF(B8=0,1,C7*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8">
-        <f>IF(B8=0,0,D7+2500)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8">
@@ -5739,47 +4951,47 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>1-(1-E8)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>1-(1-F8)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>1-(1-G8)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>1-(1-H8)^N$1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>1-(1-I8)^O$1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8" t="e">
-        <f>SQRT((1-E8)/E8^2)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q8" t="e">
-        <f>SQRT((1-F8)/F8^2)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" t="e">
-        <f>SQRT((1-G8)/G8^2)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S8" t="e">
-        <f>SQRT((1-H8)/H8^2)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T8" t="e">
-        <f>SQRT((1-I8)/I8^2)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5791,11 +5003,11 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <f>IF(B9=0,1,C8*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="D9">
-        <f>IF(B9=0,0,D8+2500)</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="E9">
@@ -5824,47 +5036,47 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K9">
-        <f>1-(1-E9)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99999995061464086</v>
       </c>
       <c r="L9">
-        <f>1-(1-F9)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M9">
-        <f>1-(1-G9)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N9">
-        <f>1-(1-H9)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O9">
-        <f>1-(1-I9)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P9">
-        <f>SQRT((1-E9)/E9^2)</f>
+        <f t="shared" si="8"/>
         <v>2.9580398915498085</v>
       </c>
       <c r="Q9">
-        <f>SQRT((1-F9)/F9^2)</f>
+        <f t="shared" si="9"/>
         <v>0.74833147735478822</v>
       </c>
       <c r="R9">
-        <f>SQRT((1-G9)/G9^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SQRT((1-H9)/H9^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SQRT((1-I9)/I9^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5876,11 +5088,11 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <f>IF(B10=0,1,C9*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.1881000000000002</v>
       </c>
       <c r="D10">
-        <f>IF(B10=0,0,D9+2500)</f>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="E10">
@@ -5909,47 +5121,47 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="K10">
-        <f>1-(1-E10)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99999978735762995</v>
       </c>
       <c r="L10">
-        <f>1-(1-F10)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M10">
-        <f>1-(1-G10)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N10">
-        <f>1-(1-H10)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O10">
-        <f>1-(1-I10)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P10">
-        <f>SQRT((1-E10)/E10^2)</f>
+        <f t="shared" si="8"/>
         <v>3.2416662382176251</v>
       </c>
       <c r="Q10">
-        <f>SQRT((1-F10)/F10^2)</f>
+        <f t="shared" si="9"/>
         <v>0.87985453343152153</v>
       </c>
       <c r="R10">
-        <f>SQRT((1-G10)/G10^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>SQRT((1-H10)/H10^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SQRT((1-I10)/I10^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5961,11 +5173,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <f>IF(B11=0,1,C10*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.2950290000000002</v>
       </c>
       <c r="D11">
-        <f>IF(B11=0,0,D10+2500)</f>
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="E11">
@@ -5994,47 +5206,47 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8573388203017831</v>
       </c>
       <c r="K11">
-        <f>1-(1-E11)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99999920809691645</v>
       </c>
       <c r="L11">
-        <f>1-(1-F11)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M11">
-        <f>1-(1-G11)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N11">
-        <f>1-(1-H11)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O11">
-        <f>1-(1-I11)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P11">
-        <f>SQRT((1-E11)/E11^2)</f>
+        <f t="shared" si="8"/>
         <v>3.5473355860420095</v>
       </c>
       <c r="Q11">
-        <f>SQRT((1-F11)/F11^2)</f>
+        <f t="shared" si="9"/>
         <v>1.0166603963959651</v>
       </c>
       <c r="R11">
-        <f>SQRT((1-G11)/G11^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>SQRT((1-H11)/H11^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SQRT((1-I11)/I11^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6046,11 +5258,11 @@
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <f>IF(B12=0,1,C11*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.4115816100000003</v>
       </c>
       <c r="D12">
-        <f>IF(B12=0,0,D11+2500)</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="E12">
@@ -6079,47 +5291,47 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.79383224102016947</v>
       </c>
       <c r="K12">
-        <f>1-(1-E12)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99999740382739888</v>
       </c>
       <c r="L12">
-        <f>1-(1-F12)^L$1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M12">
-        <f>1-(1-G12)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <f>1-(1-H12)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O12">
-        <f>1-(1-I12)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P12">
-        <f>SQRT((1-E12)/E12^2)</f>
+        <f t="shared" si="8"/>
         <v>3.8768825692899198</v>
       </c>
       <c r="Q12">
-        <f>SQRT((1-F12)/F12^2)</f>
+        <f t="shared" si="9"/>
         <v>1.1604640765531009</v>
       </c>
       <c r="R12">
-        <f>SQRT((1-G12)/G12^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SQRT((1-H12)/H12^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>SQRT((1-I12)/I12^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6131,11 +5343,11 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <f>IF(B13=0,1,C12*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.5386239549000005</v>
       </c>
       <c r="D13">
-        <f>IF(B13=0,0,D12+2500)</f>
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="E13">
@@ -6164,47 +5376,47 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66152686751680789</v>
       </c>
       <c r="K13">
-        <f>1-(1-E13)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99997176178950831</v>
       </c>
       <c r="L13">
-        <f>1-(1-F13)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99999999999998712</v>
       </c>
       <c r="M13">
-        <f>1-(1-G13)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N13">
-        <f>1-(1-H13)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O13">
-        <f>1-(1-I13)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P13">
-        <f>SQRT((1-E13)/E13^2)</f>
+        <f t="shared" si="8"/>
         <v>4.7646272316658909</v>
       </c>
       <c r="Q13">
-        <f>SQRT((1-F13)/F13^2)</f>
+        <f t="shared" si="9"/>
         <v>1.5370354352054305</v>
       </c>
       <c r="R13">
-        <f>SQRT((1-G13)/G13^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>SQRT((1-H13)/H13^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>SQRT((1-I13)/I13^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6216,11 +5428,11 @@
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <f>IF(B14=0,1,C13*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.6771001108410006</v>
       </c>
       <c r="D14">
-        <f>IF(B14=0,0,D13+2500)</f>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="E14">
@@ -6249,47 +5461,47 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.61252487733037764</v>
       </c>
       <c r="K14">
-        <f>1-(1-E14)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99993354765013409</v>
       </c>
       <c r="L14">
-        <f>1-(1-F14)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99999999999967981</v>
       </c>
       <c r="M14">
-        <f>1-(1-G14)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N14">
-        <f>1-(1-H14)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O14">
-        <f>1-(1-I14)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P14">
-        <f>SQRT((1-E14)/E14^2)</f>
+        <f t="shared" si="8"/>
         <v>5.1900245931375331</v>
       </c>
       <c r="Q14">
-        <f>SQRT((1-F14)/F14^2)</f>
+        <f t="shared" si="9"/>
         <v>1.7141890131194943</v>
       </c>
       <c r="R14">
-        <f>SQRT((1-G14)/G14^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>SQRT((1-H14)/H14^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>SQRT((1-I14)/I14^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6301,11 +5513,11 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <f>IF(B15=0,1,C14*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.8280391208166908</v>
       </c>
       <c r="D15">
-        <f>IF(B15=0,0,D14+2500)</f>
+        <f t="shared" si="1"/>
         <v>17500</v>
       </c>
       <c r="E15">
@@ -6334,47 +5546,47 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56715266419479404</v>
       </c>
       <c r="K15">
-        <f>1-(1-E15)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99985509924802984</v>
       </c>
       <c r="L15">
-        <f>1-(1-F15)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99999999999472933</v>
       </c>
       <c r="M15">
-        <f>1-(1-G15)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N15">
-        <f>1-(1-H15)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O15">
-        <f>1-(1-I15)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P15">
-        <f>SQRT((1-E15)/E15^2)</f>
+        <f t="shared" si="8"/>
         <v>5.6490936467128954</v>
       </c>
       <c r="Q15">
-        <f>SQRT((1-F15)/F15^2)</f>
+        <f t="shared" si="9"/>
         <v>1.903911432624616</v>
       </c>
       <c r="R15">
-        <f>SQRT((1-G15)/G15^2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>SQRT((1-H15)/H15^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>SQRT((1-I15)/I15^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6386,11 +5598,11 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <f>IF(B16=0,1,C15*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.9925626416901931</v>
       </c>
       <c r="D16">
-        <f>IF(B16=0,0,D15+2500)</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="E16">
@@ -6419,47 +5631,47 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52514135573592036</v>
       </c>
       <c r="K16">
-        <f>1-(1-E16)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99970493717493758</v>
       </c>
       <c r="L16">
-        <f>1-(1-F16)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99999999993827049</v>
       </c>
       <c r="M16">
-        <f>1-(1-G16)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N16">
-        <f>1-(1-H16)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O16">
-        <f>1-(1-I16)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P16">
-        <f>SQRT((1-E16)/E16^2)</f>
+        <f t="shared" si="8"/>
         <v>6.1445625315657777</v>
       </c>
       <c r="Q16">
-        <f>SQRT((1-F16)/F16^2)</f>
+        <f t="shared" si="9"/>
         <v>2.1074473837237244</v>
       </c>
       <c r="R16">
-        <f>SQRT((1-G16)/G16^2)</f>
+        <f t="shared" si="10"/>
         <v>0.26605598849718476</v>
       </c>
       <c r="S16">
-        <f>SQRT((1-H16)/H16^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>SQRT((1-I16)/I16^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6471,11 +5683,11 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <f>IF(B17=0,1,C16*1.09)</f>
+        <f t="shared" si="0"/>
         <v>2.1718932794423105</v>
       </c>
       <c r="D17">
-        <f>IF(B17=0,0,D16+2500)</f>
+        <f t="shared" si="1"/>
         <v>22500</v>
       </c>
       <c r="E17">
@@ -6504,47 +5716,47 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.48624199605177809</v>
       </c>
       <c r="K17">
-        <f>1-(1-E17)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.99943504140278516</v>
       </c>
       <c r="L17">
-        <f>1-(1-F17)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99999999945655205</v>
       </c>
       <c r="M17">
-        <f>1-(1-G17)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N17">
-        <f>1-(1-H17)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O17">
-        <f>1-(1-I17)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P17">
-        <f>SQRT((1-E17)/E17^2)</f>
+        <f t="shared" si="8"/>
         <v>6.6793737433258773</v>
       </c>
       <c r="Q17">
-        <f>SQRT((1-F17)/F17^2)</f>
+        <f t="shared" si="9"/>
         <v>2.3260934017264274</v>
       </c>
       <c r="R17">
-        <f>SQRT((1-G17)/G17^2)</f>
+        <f t="shared" si="10"/>
         <v>0.41797097626143004</v>
       </c>
       <c r="S17">
-        <f>SQRT((1-H17)/H17^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>SQRT((1-I17)/I17^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6556,11 +5768,11 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <f>IF(B18=0,1,C17*1.09)</f>
+        <f t="shared" si="0"/>
         <v>2.3673636745921187</v>
       </c>
       <c r="D18">
-        <f>IF(B18=0,0,D17+2500)</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="E18">
@@ -6589,47 +5801,47 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37403230465521392</v>
       </c>
       <c r="K18">
-        <f>1-(1-E18)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.9964858357074996</v>
       </c>
       <c r="L18">
-        <f>1-(1-F18)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99999982205633386</v>
       </c>
       <c r="M18">
-        <f>1-(1-G18)^M$1</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N18">
-        <f>1-(1-H18)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O18">
-        <f>1-(1-I18)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P18">
-        <f>SQRT((1-E18)/E18^2)</f>
+        <f t="shared" si="8"/>
         <v>8.8433568819415775</v>
       </c>
       <c r="Q18">
-        <f>SQRT((1-F18)/F18^2)</f>
+        <f t="shared" si="9"/>
         <v>3.2042157275708933</v>
       </c>
       <c r="R18">
-        <f>SQRT((1-G18)/G18^2)</f>
+        <f t="shared" si="10"/>
         <v>0.86278712315759187</v>
       </c>
       <c r="S18">
-        <f>SQRT((1-H18)/H18^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>SQRT((1-I18)/I18^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6641,11 +5853,11 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f>IF(B19=0,1,C18*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f>IF(B19=0,0,D18+2500)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19">
@@ -6674,47 +5886,47 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>1-(1-E19)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>1-(1-F19)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>1-(1-G19)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>1-(1-H19)^N$1</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>1-(1-I19)^O$1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P19" t="e">
-        <f>SQRT((1-E19)/E19^2)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" t="e">
-        <f>SQRT((1-F19)/F19^2)</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R19" t="e">
-        <f>SQRT((1-G19)/G19^2)</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S19" t="e">
-        <f>SQRT((1-H19)/H19^2)</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T19" t="e">
-        <f>SQRT((1-I19)/I19^2)</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6726,11 +5938,11 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <f>IF(B20=0,1,C19*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="D20">
-        <f>IF(B20=0,0,D19+2500)</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="E20">
@@ -6759,47 +5971,47 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K20">
-        <f>1-(1-E20)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.98584787397433182</v>
       </c>
       <c r="L20">
-        <f>1-(1-F20)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99998894836966268</v>
       </c>
       <c r="M20">
-        <f>1-(1-G20)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="N20">
-        <f>1-(1-H20)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O20">
-        <f>1-(1-I20)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P20">
-        <f>SQRT((1-E20)/E20^2)</f>
+        <f t="shared" si="8"/>
         <v>11.739356881873894</v>
       </c>
       <c r="Q20">
-        <f>SQRT((1-F20)/F20^2)</f>
+        <f t="shared" si="9"/>
         <v>4.3714985988788788</v>
       </c>
       <c r="R20">
-        <f>SQRT((1-G20)/G20^2)</f>
+        <f t="shared" si="10"/>
         <v>1.3717142559585798</v>
       </c>
       <c r="S20">
-        <f>SQRT((1-H20)/H20^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f>SQRT((1-I20)/I20^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6811,11 +6023,11 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <f>IF(B21=0,1,C20*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.1881000000000002</v>
       </c>
       <c r="D21">
-        <f>IF(B21=0,0,D20+2500)</f>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="E21">
@@ -6844,47 +6056,47 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="K21">
-        <f>1-(1-E21)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.98035144384314532</v>
       </c>
       <c r="L21">
-        <f>1-(1-F21)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99997168647845214</v>
       </c>
       <c r="M21">
-        <f>1-(1-G21)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999998701</v>
       </c>
       <c r="N21">
-        <f>1-(1-H21)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>1-(1-I21)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P21">
-        <f>SQRT((1-E21)/E21^2)</f>
+        <f t="shared" si="8"/>
         <v>12.720176885562557</v>
       </c>
       <c r="Q21">
-        <f>SQRT((1-F21)/F21^2)</f>
+        <f t="shared" si="9"/>
         <v>4.7658434720414391</v>
       </c>
       <c r="R21">
-        <f>SQRT((1-G21)/G21^2)</f>
+        <f t="shared" si="10"/>
         <v>1.5375442237542309</v>
       </c>
       <c r="S21">
-        <f>SQRT((1-H21)/H21^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T21">
-        <f>SQRT((1-I21)/I21^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6896,11 +6108,11 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <f>IF(B22=0,1,C21*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.2950290000000002</v>
       </c>
       <c r="D22">
-        <f>IF(B22=0,0,D21+2500)</f>
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="E22">
@@ -6929,47 +6141,47 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8573388203017831</v>
       </c>
       <c r="K22">
-        <f>1-(1-E22)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.97342613999255534</v>
       </c>
       <c r="L22">
-        <f>1-(1-F22)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99993338635406659</v>
       </c>
       <c r="M22">
-        <f>1-(1-G22)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999967693</v>
       </c>
       <c r="N22">
-        <f>1-(1-H22)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O22">
-        <f>1-(1-I22)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P22">
-        <f>SQRT((1-E22)/E22^2)</f>
+        <f t="shared" si="8"/>
         <v>13.779331426451723</v>
       </c>
       <c r="Q22">
-        <f>SQRT((1-F22)/F22^2)</f>
+        <f t="shared" si="9"/>
         <v>5.191337007900759</v>
       </c>
       <c r="R22">
-        <f>SQRT((1-G22)/G22^2)</f>
+        <f t="shared" si="10"/>
         <v>1.7147333287529001</v>
       </c>
       <c r="S22">
-        <f>SQRT((1-H22)/H22^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f>SQRT((1-I22)/I22^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6981,11 +6193,11 @@
         <v>4</v>
       </c>
       <c r="C23" s="1">
-        <f>IF(B23=0,1,C22*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.4115816100000003</v>
       </c>
       <c r="D23">
-        <f>IF(B23=0,0,D22+2500)</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="E23">
@@ -7014,47 +6226,47 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.79383224102016947</v>
       </c>
       <c r="K23">
-        <f>1-(1-E23)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.96491158134123312</v>
       </c>
       <c r="L23">
-        <f>1-(1-F23)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.9998547786628128</v>
       </c>
       <c r="M23">
-        <f>1-(1-G23)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999468814</v>
       </c>
       <c r="N23">
-        <f>1-(1-H23)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O23">
-        <f>1-(1-I23)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P23">
-        <f>SQRT((1-E23)/E23^2)</f>
+        <f t="shared" si="8"/>
         <v>14.923098072678609</v>
       </c>
       <c r="Q23">
-        <f>SQRT((1-F23)/F23^2)</f>
+        <f t="shared" si="9"/>
         <v>5.6505100383846294</v>
       </c>
       <c r="R23">
-        <f>SQRT((1-G23)/G23^2)</f>
+        <f t="shared" si="10"/>
         <v>1.9044949144121315</v>
       </c>
       <c r="S23">
-        <f>SQRT((1-H23)/H23^2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>SQRT((1-I23)/I23^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7066,11 +6278,11 @@
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <f>IF(B24=0,1,C23*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.5386239549000005</v>
       </c>
       <c r="D24">
-        <f>IF(B24=0,0,D23+2500)</f>
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="E24">
@@ -7099,47 +6311,47 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66152686751680789</v>
       </c>
       <c r="K24">
-        <f>1-(1-E24)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.93769735634586593</v>
       </c>
       <c r="L24">
-        <f>1-(1-F24)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99929096491649116</v>
       </c>
       <c r="M24">
-        <f>1-(1-G24)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99999999885489632</v>
       </c>
       <c r="N24">
-        <f>1-(1-H24)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>1-(1-I24)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P24">
-        <f>SQRT((1-E24)/E24^2)</f>
+        <f t="shared" si="8"/>
         <v>18.010827466970227</v>
       </c>
       <c r="Q24">
-        <f>SQRT((1-F24)/F24^2)</f>
+        <f t="shared" si="9"/>
         <v>6.8889854863539268</v>
       </c>
       <c r="R24">
-        <f>SQRT((1-G24)/G24^2)</f>
+        <f t="shared" si="10"/>
         <v>2.4115542271720138</v>
       </c>
       <c r="S24">
-        <f>SQRT((1-H24)/H24^2)</f>
+        <f t="shared" si="11"/>
         <v>0.46841517560236395</v>
       </c>
       <c r="T24">
-        <f>SQRT((1-I24)/I24^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7151,11 +6363,11 @@
         <v>6</v>
       </c>
       <c r="C25" s="1">
-        <f>IF(B25=0,1,C24*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.6771001108410006</v>
       </c>
       <c r="D25">
-        <f>IF(B25=0,0,D24+2500)</f>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="E25">
@@ -7184,47 +6396,47 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.61252487733037764</v>
       </c>
       <c r="K25">
-        <f>1-(1-E25)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.92306324850555088</v>
       </c>
       <c r="L25">
-        <f>1-(1-F25)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99874027236830565</v>
       </c>
       <c r="M25">
-        <f>1-(1-G25)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99999999270148965</v>
       </c>
       <c r="N25">
-        <f>1-(1-H25)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O25">
-        <f>1-(1-I25)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P25">
-        <f>SQRT((1-E25)/E25^2)</f>
+        <f t="shared" si="8"/>
         <v>19.492776134450729</v>
       </c>
       <c r="Q25">
-        <f>SQRT((1-F25)/F25^2)</f>
+        <f t="shared" si="9"/>
         <v>7.4829891338668872</v>
       </c>
       <c r="R25">
-        <f>SQRT((1-G25)/G25^2)</f>
+        <f t="shared" si="10"/>
         <v>2.6531675785858662</v>
       </c>
       <c r="S25">
-        <f>SQRT((1-H25)/H25^2)</f>
+        <f t="shared" si="11"/>
         <v>0.59859744726207254</v>
       </c>
       <c r="T25">
-        <f>SQRT((1-I25)/I25^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7236,11 +6448,11 @@
         <v>7</v>
       </c>
       <c r="C26" s="1">
-        <f>IF(B26=0,1,C25*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.8280391208166908</v>
       </c>
       <c r="D26">
-        <f>IF(B26=0,0,D25+2500)</f>
+        <f t="shared" si="1"/>
         <v>17500</v>
       </c>
       <c r="E26">
@@ -7269,47 +6481,47 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56715266419479404</v>
       </c>
       <c r="K26">
-        <f>1-(1-E26)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.90653895191136247</v>
       </c>
       <c r="L26">
-        <f>1-(1-F26)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99786761625183396</v>
       </c>
       <c r="M26">
-        <f>1-(1-G26)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99999996177281458</v>
       </c>
       <c r="N26">
-        <f>1-(1-H26)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O26">
-        <f>1-(1-I26)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P26">
-        <f>SQRT((1-E26)/E26^2)</f>
+        <f t="shared" si="8"/>
         <v>21.0931974800341</v>
       </c>
       <c r="Q26">
-        <f>SQRT((1-F26)/F26^2)</f>
+        <f t="shared" si="9"/>
         <v>8.1242776499898302</v>
       </c>
       <c r="R26">
-        <f>SQRT((1-G26)/G26^2)</f>
+        <f t="shared" si="10"/>
         <v>2.9132638382885485</v>
       </c>
       <c r="S26">
-        <f>SQRT((1-H26)/H26^2)</f>
+        <f t="shared" si="11"/>
         <v>0.72700115395004161</v>
       </c>
       <c r="T26">
-        <f>SQRT((1-I26)/I26^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7321,11 +6533,11 @@
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <f>IF(B27=0,1,C26*1.09)</f>
+        <f t="shared" si="0"/>
         <v>1.9925626416901931</v>
       </c>
       <c r="D27">
-        <f>IF(B27=0,0,D26+2500)</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="E27">
@@ -7354,47 +6566,47 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52514135573592036</v>
       </c>
       <c r="K27">
-        <f>1-(1-E27)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.88816536062799811</v>
       </c>
       <c r="L27">
-        <f>1-(1-F27)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99654540408633563</v>
       </c>
       <c r="M27">
-        <f>1-(1-G27)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.9999998310911693</v>
       </c>
       <c r="N27">
-        <f>1-(1-H27)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O27">
-        <f>1-(1-I27)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P27">
-        <f>SQRT((1-E27)/E27^2)</f>
+        <f t="shared" si="8"/>
         <v>22.821575931476268</v>
       </c>
       <c r="Q27">
-        <f>SQRT((1-F27)/F27^2)</f>
+        <f t="shared" si="9"/>
         <v>8.8166546868999838</v>
       </c>
       <c r="R27">
-        <f>SQRT((1-G27)/G27^2)</f>
+        <f t="shared" si="10"/>
         <v>3.193422448462949</v>
       </c>
       <c r="S27">
-        <f>SQRT((1-H27)/H27^2)</f>
+        <f t="shared" si="11"/>
         <v>0.85785353742938342</v>
       </c>
       <c r="T27">
-        <f>SQRT((1-I27)/I27^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7406,11 +6618,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="1">
-        <f>IF(B28=0,1,C27*1.09)</f>
+        <f t="shared" si="0"/>
         <v>2.1718932794423105</v>
       </c>
       <c r="D28">
-        <f>IF(B28=0,0,D27+2500)</f>
+        <f t="shared" si="1"/>
         <v>22500</v>
       </c>
       <c r="E28">
@@ -7439,47 +6651,47 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.48624199605177809</v>
       </c>
       <c r="K28">
-        <f>1-(1-E28)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.86802257192653909</v>
       </c>
       <c r="L28">
-        <f>1-(1-F28)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.99462198629222121</v>
       </c>
       <c r="M28">
-        <f>1-(1-G28)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99999935656412742</v>
       </c>
       <c r="N28">
-        <f>1-(1-H28)^N$1</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f>1-(1-I28)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P28">
-        <f>SQRT((1-E28)/E28^2)</f>
+        <f t="shared" si="8"/>
         <v>24.688154113152699</v>
       </c>
       <c r="Q28">
-        <f>SQRT((1-F28)/F28^2)</f>
+        <f t="shared" si="9"/>
         <v>9.5642260817125422</v>
       </c>
       <c r="R28">
-        <f>SQRT((1-G28)/G28^2)</f>
+        <f t="shared" si="10"/>
         <v>3.4953338150505755</v>
       </c>
       <c r="S28">
-        <f>SQRT((1-H28)/H28^2)</f>
+        <f t="shared" si="11"/>
         <v>0.99365881133369804</v>
       </c>
       <c r="T28">
-        <f>SQRT((1-I28)/I28^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7491,11 +6703,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <f>IF(B29=0,1,C28*1.09)</f>
+        <f t="shared" si="0"/>
         <v>2.3673636745921187</v>
       </c>
       <c r="D29">
-        <f>IF(B29=0,0,D28+2500)</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="E29">
@@ -7524,47 +6736,47 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37403230465521392</v>
       </c>
       <c r="K29">
-        <f>1-(1-E29)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.78784857974856237</v>
       </c>
       <c r="L29">
-        <f>1-(1-F29)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.98113014823424405</v>
       </c>
       <c r="M29">
-        <f>1-(1-G29)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99997477023081061</v>
       </c>
       <c r="N29">
-        <f>1-(1-H29)^N$1</f>
+        <f t="shared" si="6"/>
         <v>0.99999999999999167</v>
       </c>
       <c r="O29">
-        <f>1-(1-I29)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P29">
-        <f>SQRT((1-E29)/E29^2)</f>
+        <f t="shared" si="8"/>
         <v>32.247305716491866</v>
       </c>
       <c r="Q29">
-        <f>SQRT((1-F29)/F29^2)</f>
+        <f t="shared" si="9"/>
         <v>12.590548539651952</v>
       </c>
       <c r="R29">
-        <f>SQRT((1-G29)/G29^2)</f>
+        <f t="shared" si="10"/>
         <v>4.7137450667341927</v>
       </c>
       <c r="S29">
-        <f>SQRT((1-H29)/H29^2)</f>
+        <f t="shared" si="11"/>
         <v>1.5157365959997426</v>
       </c>
       <c r="T29">
-        <f>SQRT((1-I29)/I29^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7576,11 +6788,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="1">
-        <f>IF(B30=0,1,C29*1.09)</f>
+        <f t="shared" si="0"/>
         <v>2.5804264053054098</v>
       </c>
       <c r="D30">
-        <f>IF(B30=0,0,D29+2500)</f>
+        <f t="shared" si="1"/>
         <v>27500</v>
       </c>
       <c r="E30">
@@ -7609,47 +6821,47 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.34632620801408692</v>
       </c>
       <c r="K30">
-        <f>1-(1-E30)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.7616328448068701</v>
       </c>
       <c r="L30">
-        <f>1-(1-F30)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.97439694392943166</v>
       </c>
       <c r="M30">
-        <f>1-(1-G30)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99994002314185604</v>
       </c>
       <c r="N30">
-        <f>1-(1-H30)^N$1</f>
+        <f t="shared" si="6"/>
         <v>0.9999999999997804</v>
       </c>
       <c r="O30">
-        <f>1-(1-I30)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P30">
-        <f>SQRT((1-E30)/E30^2)</f>
+        <f t="shared" si="8"/>
         <v>34.867691522099037</v>
       </c>
       <c r="Q30">
-        <f>SQRT((1-F30)/F30^2)</f>
+        <f t="shared" si="9"/>
         <v>13.639348944007711</v>
       </c>
       <c r="R30">
-        <f>SQRT((1-G30)/G30^2)</f>
+        <f t="shared" si="10"/>
         <v>5.135119454506385</v>
       </c>
       <c r="S30">
-        <f>SQRT((1-H30)/H30^2)</f>
+        <f t="shared" si="11"/>
         <v>1.6914063022520935</v>
       </c>
       <c r="T30">
-        <f>SQRT((1-I30)/I30^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7661,11 +6873,11 @@
         <v>12</v>
       </c>
       <c r="C31" s="1">
-        <f>IF(B31=0,1,C30*1.09)</f>
+        <f t="shared" si="0"/>
         <v>2.8126647817828969</v>
       </c>
       <c r="D31">
-        <f>IF(B31=0,0,D30+2500)</f>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="E31">
@@ -7694,47 +6906,47 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.32067241482785824</v>
       </c>
       <c r="K31">
-        <f>1-(1-E31)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.73454323393255239</v>
       </c>
       <c r="L31">
-        <f>1-(1-F31)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.96609360575807135</v>
       </c>
       <c r="M31">
-        <f>1-(1-G31)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.99986802739914704</v>
       </c>
       <c r="N31">
-        <f>1-(1-H31)^N$1</f>
+        <f t="shared" si="6"/>
         <v>0.99999999999621025</v>
       </c>
       <c r="O31">
-        <f>1-(1-I31)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P31">
-        <f>SQRT((1-E31)/E31^2)</f>
+        <f t="shared" si="8"/>
         <v>37.697662714342506</v>
       </c>
       <c r="Q31">
-        <f>SQRT((1-F31)/F31^2)</f>
+        <f t="shared" si="9"/>
         <v>14.771931797775837</v>
       </c>
       <c r="R31">
-        <f>SQRT((1-G31)/G31^2)</f>
+        <f t="shared" si="10"/>
         <v>5.5898390958418318</v>
       </c>
       <c r="S31">
-        <f>SQRT((1-H31)/H31^2)</f>
+        <f t="shared" si="11"/>
         <v>1.8794921141904293</v>
       </c>
       <c r="T31">
-        <f>SQRT((1-I31)/I31^2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7746,11 +6958,11 @@
         <v>13</v>
       </c>
       <c r="C32" s="1">
-        <f>IF(B32=0,1,C31*1.09)</f>
+        <f t="shared" si="0"/>
         <v>3.0658046121433578</v>
       </c>
       <c r="D32">
-        <f>IF(B32=0,0,D31+2500)</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
       <c r="E32">
@@ -7779,47 +6991,47 @@
         <v>0.94680772518618361</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.29691890261838721</v>
       </c>
       <c r="K32">
-        <f>1-(1-E32)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.70678318816328656</v>
       </c>
       <c r="L32">
-        <f>1-(1-F32)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.95608354074418855</v>
       </c>
       <c r="M32">
-        <f>1-(1-G32)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.9997290633221223</v>
       </c>
       <c r="N32">
-        <f>1-(1-H32)^N$1</f>
+        <f t="shared" si="6"/>
         <v>0.99999999995384059</v>
       </c>
       <c r="O32">
-        <f>1-(1-I32)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P32">
-        <f>SQRT((1-E32)/E32^2)</f>
+        <f t="shared" si="8"/>
         <v>40.753989628924046</v>
       </c>
       <c r="Q32">
-        <f>SQRT((1-F32)/F32^2)</f>
+        <f t="shared" si="9"/>
         <v>15.995009649900807</v>
       </c>
       <c r="R32">
-        <f>SQRT((1-G32)/G32^2)</f>
+        <f t="shared" si="10"/>
         <v>6.0806065445044553</v>
       </c>
       <c r="S32">
-        <f>SQRT((1-H32)/H32^2)</f>
+        <f t="shared" si="11"/>
         <v>2.0812335704222531</v>
       </c>
       <c r="T32">
-        <f>SQRT((1-I32)/I32^2)</f>
+        <f t="shared" si="12"/>
         <v>0.24359170155185281</v>
       </c>
     </row>
@@ -7831,11 +7043,11 @@
         <v>14</v>
       </c>
       <c r="C33" s="1">
-        <f>IF(B33=0,1,C32*1.09)</f>
+        <f t="shared" si="0"/>
         <v>3.34172702723626</v>
       </c>
       <c r="D33">
-        <f>IF(B33=0,0,D32+2500)</f>
+        <f t="shared" si="1"/>
         <v>35000</v>
       </c>
       <c r="E33">
@@ -7864,47 +7076,47 @@
         <v>0.87667381961683655</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.27492490983183998</v>
       </c>
       <c r="K33">
-        <f>1-(1-E33)^K$1</f>
+        <f t="shared" si="3"/>
         <v>0.67855414294644989</v>
       </c>
       <c r="L33">
-        <f>1-(1-F33)^L$1</f>
+        <f t="shared" si="4"/>
         <v>0.94426405057167195</v>
       </c>
       <c r="M33">
-        <f>1-(1-G33)^M$1</f>
+        <f t="shared" si="5"/>
         <v>0.9994774120832991</v>
       </c>
       <c r="N33">
-        <f>1-(1-H33)^N$1</f>
+        <f t="shared" si="6"/>
         <v>0.99999999957996144</v>
       </c>
       <c r="O33">
-        <f>1-(1-I33)^O$1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P33">
-        <f>SQRT((1-E33)/E33^2)</f>
+        <f t="shared" si="8"/>
         <v>44.054783948776482</v>
       </c>
       <c r="Q33">
-        <f>SQRT((1-F33)/F33^2)</f>
+        <f t="shared" si="9"/>
         <v>17.315831169991487</v>
       </c>
       <c r="R33">
-        <f>SQRT((1-G33)/G33^2)</f>
+        <f t="shared" si="10"/>
         <v>6.6103365889179404</v>
       </c>
       <c r="S33">
-        <f>SQRT((1-H33)/H33^2)</f>
+        <f t="shared" si="11"/>
         <v>2.2979197800687823</v>
       </c>
       <c r="T33">
-        <f>SQRT((1-I33)/I33^2)</f>
+        <f t="shared" si="12"/>
         <v>0.40058031448284692</v>
       </c>
     </row>
@@ -7916,11 +7128,11 @@
         <v>15</v>
       </c>
       <c r="C34" s="1">
-        <f>IF(B34=0,1,C33*1.09)</f>
+        <f t="shared" ref="C34:C65" si="13">IF(B34=0,1,C33*1.09)</f>
         <v>3.6424824596875238</v>
       </c>
       <c r="D34">
-        <f>IF(B34=0,0,D33+2500)</f>
+        <f t="shared" ref="D34:D65" si="14">IF(B34=0,0,D33+2500)</f>
         <v>37500</v>
       </c>
       <c r="E34">
@@ -7949,7 +7161,7 @@
         <v>0.54792113726052283</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J65" si="1">IF(B34=0,0,
+        <f t="shared" ref="J34:J65" si="15">IF(B34=0,0,
 IF(B34=1,1,
 J33/IF(B34=5,1.2,
 IF(B34=10,1.3,
@@ -7961,43 +7173,43 @@
         <v>0.17182806864489997</v>
       </c>
       <c r="K34">
-        <f>1-(1-E34)^K$1</f>
+        <f t="shared" ref="K34:K65" si="16">1-(1-E34)^K$1</f>
         <v>0.50653547444863078</v>
       </c>
       <c r="L34">
-        <f>1-(1-F34)^L$1</f>
+        <f t="shared" ref="L34:L65" si="17">1-(1-F34)^L$1</f>
         <v>0.83217408527573689</v>
       </c>
       <c r="M34">
-        <f>1-(1-G34)^M$1</f>
+        <f t="shared" ref="M34:M65" si="18">1-(1-G34)^M$1</f>
         <v>0.98982205476854423</v>
       </c>
       <c r="N34">
-        <f>1-(1-H34)^N$1</f>
+        <f t="shared" ref="N34:N65" si="19">1-(1-H34)^N$1</f>
         <v>0.99999575509953176</v>
       </c>
       <c r="O34">
-        <f>1-(1-I34)^O$1</f>
+        <f t="shared" ref="O34:O65" si="20">1-(1-I34)^O$1</f>
         <v>1</v>
       </c>
       <c r="P34">
-        <f>SQRT((1-E34)/E34^2)</f>
+        <f t="shared" ref="P34:P65" si="21">SQRT((1-E34)/E34^2)</f>
         <v>70.790428220517242</v>
       </c>
       <c r="Q34">
-        <f>SQRT((1-F34)/F34^2)</f>
+        <f t="shared" ref="Q34:Q65" si="22">SQRT((1-F34)/F34^2)</f>
         <v>28.012415637879695</v>
       </c>
       <c r="R34">
-        <f>SQRT((1-G34)/G34^2)</f>
+        <f t="shared" ref="R34:R65" si="23">SQRT((1-G34)/G34^2)</f>
         <v>10.895284216466951</v>
       </c>
       <c r="S34">
-        <f>SQRT((1-H34)/H34^2)</f>
+        <f t="shared" ref="S34:S65" si="24">SQRT((1-H34)/H34^2)</f>
         <v>4.0318153053699834</v>
       </c>
       <c r="T34">
-        <f>SQRT((1-I34)/I34^2)</f>
+        <f t="shared" ref="T34:T65" si="25">SQRT((1-I34)/I34^2)</f>
         <v>1.2271256845241072</v>
       </c>
     </row>
@@ -8009,11 +7221,11 @@
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <f>IF(B35=0,1,C34*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D35">
-        <f>IF(B35=0,0,D34+2500)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E35">
@@ -8042,47 +7254,47 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>1-(1-E35)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>1-(1-F35)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>1-(1-G35)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>1-(1-H35)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>1-(1-I35)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P35" t="e">
-        <f>SQRT((1-E35)/E35^2)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" t="e">
-        <f>SQRT((1-F35)/F35^2)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" t="e">
-        <f>SQRT((1-G35)/G35^2)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" t="e">
-        <f>SQRT((1-H35)/H35^2)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" t="e">
-        <f>SQRT((1-I35)/I35^2)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8094,11 +7306,11 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <f>IF(B36=0,1,C35*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="D36">
-        <f>IF(B36=0,0,D35+2500)</f>
+        <f t="shared" si="14"/>
         <v>2500</v>
       </c>
       <c r="E36">
@@ -8127,47 +7339,47 @@
         <v>0.91107871720116629</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K36">
-        <f>1-(1-E36)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.69271996069863517</v>
       </c>
       <c r="L36">
-        <f>1-(1-F36)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.95040703039658259</v>
       </c>
       <c r="M36">
-        <f>1-(1-G36)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.99962096875189077</v>
       </c>
       <c r="N36">
-        <f>1-(1-H36)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99999999985608079</v>
       </c>
       <c r="O36">
-        <f>1-(1-I36)^O$1</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P36">
-        <f>SQRT((1-E36)/E36^2)</f>
+        <f t="shared" si="21"/>
         <v>42.372050044811374</v>
       </c>
       <c r="Q36">
-        <f>SQRT((1-F36)/F36^2)</f>
+        <f t="shared" si="22"/>
         <v>16.642490799156235</v>
       </c>
       <c r="R36">
-        <f>SQRT((1-G36)/G36^2)</f>
+        <f t="shared" si="23"/>
         <v>6.3403154495655807</v>
       </c>
       <c r="S36">
-        <f>SQRT((1-H36)/H36^2)</f>
+        <f t="shared" si="24"/>
         <v>2.1875867982779558</v>
       </c>
       <c r="T36">
-        <f>SQRT((1-I36)/I36^2)</f>
+        <f t="shared" si="25"/>
         <v>0.32730071799493482</v>
       </c>
     </row>
@@ -8179,11 +7391,11 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <f>IF(B37=0,1,C36*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.1881000000000002</v>
       </c>
       <c r="D37">
-        <f>IF(B37=0,0,D36+2500)</f>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="E37">
@@ -8212,47 +7424,47 @@
         <v>0.84359140481589456</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="K37">
-        <f>1-(1-E37)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.66433016881377782</v>
       </c>
       <c r="L37">
-        <f>1-(1-F37)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.93765669717374089</v>
       </c>
       <c r="M37">
-        <f>1-(1-G37)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.99928969908072707</v>
       </c>
       <c r="N37">
-        <f>1-(1-H37)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99999999884820989</v>
       </c>
       <c r="O37">
-        <f>1-(1-I37)^O$1</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P37">
-        <f>SQRT((1-E37)/E37^2)</f>
+        <f t="shared" si="21"/>
         <v>45.802270958981936</v>
       </c>
       <c r="Q37">
-        <f>SQRT((1-F37)/F37^2)</f>
+        <f t="shared" si="22"/>
         <v>18.015062697642772</v>
       </c>
       <c r="R37">
-        <f>SQRT((1-G37)/G37^2)</f>
+        <f t="shared" si="23"/>
         <v>6.8906833797526943</v>
       </c>
       <c r="S37">
-        <f>SQRT((1-H37)/H37^2)</f>
+        <f t="shared" si="24"/>
         <v>2.4122460053651245</v>
       </c>
       <c r="T37">
-        <f>SQRT((1-I37)/I37^2)</f>
+        <f t="shared" si="25"/>
         <v>0.46881139754063156</v>
       </c>
     </row>
@@ -8264,11 +7476,11 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <f>IF(B38=0,1,C37*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.2950290000000002</v>
       </c>
       <c r="D38">
-        <f>IF(B38=0,0,D37+2500)</f>
+        <f t="shared" si="14"/>
         <v>7500</v>
       </c>
       <c r="E38">
@@ -8297,47 +7509,47 @@
         <v>0.78110315260730978</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.8573388203017831</v>
       </c>
       <c r="K38">
-        <f>1-(1-E38)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.63576046535712272</v>
       </c>
       <c r="L38">
-        <f>1-(1-F38)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.92301695513819171</v>
       </c>
       <c r="M38">
-        <f>1-(1-G38)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.99873821392829099</v>
       </c>
       <c r="N38">
-        <f>1-(1-H38)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99999999266347639</v>
       </c>
       <c r="O38">
-        <f>1-(1-I38)^O$1</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P38">
-        <f>SQRT((1-E38)/E38^2)</f>
+        <f t="shared" si="21"/>
         <v>49.506875162546869</v>
       </c>
       <c r="Q38">
-        <f>SQRT((1-F38)/F38^2)</f>
+        <f t="shared" si="22"/>
         <v>19.497349926018153</v>
       </c>
       <c r="R38">
-        <f>SQRT((1-G38)/G38^2)</f>
+        <f t="shared" si="23"/>
         <v>7.4848221262776864</v>
       </c>
       <c r="S38">
-        <f>SQRT((1-H38)/H38^2)</f>
+        <f t="shared" si="24"/>
         <v>2.6539120184969511</v>
       </c>
       <c r="T38">
-        <f>SQRT((1-I38)/I38^2)</f>
+        <f t="shared" si="25"/>
         <v>0.59897867767359603</v>
       </c>
     </row>
@@ -8349,11 +7561,11 @@
         <v>4</v>
       </c>
       <c r="C39" s="1">
-        <f>IF(B39=0,1,C38*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.4115816100000003</v>
       </c>
       <c r="D39">
-        <f>IF(B39=0,0,D38+2500)</f>
+        <f t="shared" si="14"/>
         <v>10000</v>
       </c>
       <c r="E39">
@@ -8382,47 +7594,47 @@
         <v>0.72324365982158301</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.79383224102016947</v>
       </c>
       <c r="K39">
-        <f>1-(1-E39)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.60719003189272158</v>
       </c>
       <c r="L39">
-        <f>1-(1-F39)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.90648708481458029</v>
       </c>
       <c r="M39">
-        <f>1-(1-G39)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.99786442396224551</v>
       </c>
       <c r="N39">
-        <f>1-(1-H39)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99999996159451454</v>
       </c>
       <c r="O39">
-        <f>1-(1-I39)^O$1</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P39">
-        <f>SQRT((1-E39)/E39^2)</f>
+        <f t="shared" si="21"/>
         <v>53.507815943683447</v>
       </c>
       <c r="Q39">
-        <f>SQRT((1-F39)/F39^2)</f>
+        <f t="shared" si="22"/>
         <v>21.09813693789328</v>
       </c>
       <c r="R39">
-        <f>SQRT((1-G39)/G39^2)</f>
+        <f t="shared" si="23"/>
         <v>8.1262566147036903</v>
       </c>
       <c r="S39">
-        <f>SQRT((1-H39)/H39^2)</f>
+        <f t="shared" si="24"/>
         <v>2.9140654786882325</v>
       </c>
       <c r="T39">
-        <f>SQRT((1-I39)/I39^2)</f>
+        <f t="shared" si="25"/>
         <v>0.72738468744756823</v>
       </c>
     </row>
@@ -8434,11 +7646,11 @@
         <v>5</v>
       </c>
       <c r="C40" s="1">
-        <f>IF(B40=0,1,C39*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.5386239549000005</v>
       </c>
       <c r="D40">
-        <f>IF(B40=0,0,D39+2500)</f>
+        <f t="shared" si="14"/>
         <v>12500</v>
       </c>
       <c r="E40">
@@ -8467,47 +7679,47 @@
         <v>0.60270304985131917</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.66152686751680789</v>
       </c>
       <c r="K40">
-        <f>1-(1-E40)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.54043428940988236</v>
       </c>
       <c r="L40">
-        <f>1-(1-F40)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.86010060803089483</v>
       </c>
       <c r="M40">
-        <f>1-(1-G40)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.9937189772187881</v>
       </c>
       <c r="N40">
-        <f>1-(1-H40)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99999897726057796</v>
       </c>
       <c r="O40">
-        <f>1-(1-I40)^O$1</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P40">
-        <f>SQRT((1-E40)/E40^2)</f>
+        <f t="shared" si="21"/>
         <v>64.310238726433525</v>
       </c>
       <c r="Q40">
-        <f>SQRT((1-F40)/F40^2)</f>
+        <f t="shared" si="22"/>
         <v>25.419956039146477</v>
       </c>
       <c r="R40">
-        <f>SQRT((1-G40)/G40^2)</f>
+        <f t="shared" si="23"/>
         <v>9.8572763426182952</v>
       </c>
       <c r="S40">
-        <f>SQRT((1-H40)/H40^2)</f>
+        <f t="shared" si="24"/>
         <v>3.6135516737690039</v>
       </c>
       <c r="T40">
-        <f>SQRT((1-I40)/I40^2)</f>
+        <f t="shared" si="25"/>
         <v>1.0458134585937413</v>
       </c>
     </row>
@@ -8519,11 +7731,11 @@
         <v>6</v>
       </c>
       <c r="C41" s="1">
-        <f>IF(B41=0,1,C40*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.6771001108410006</v>
       </c>
       <c r="D41">
-        <f>IF(B41=0,0,D40+2500)</f>
+        <f t="shared" si="14"/>
         <v>15000</v>
       </c>
       <c r="E41">
@@ -8552,47 +7764,47 @@
         <v>0.55805837949196224</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.61252487733037764</v>
       </c>
       <c r="K41">
-        <f>1-(1-E41)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.51298789723441796</v>
       </c>
       <c r="L41">
-        <f>1-(1-F41)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.837724119078744</v>
       </c>
       <c r="M41">
-        <f>1-(1-G41)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.99068847127981829</v>
       </c>
       <c r="N41">
-        <f>1-(1-H41)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99999672803946049</v>
       </c>
       <c r="O41">
-        <f>1-(1-I41)^O$1</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P41">
-        <f>SQRT((1-E41)/E41^2)</f>
+        <f t="shared" si="21"/>
         <v>69.495358333997359</v>
       </c>
       <c r="Q41">
-        <f>SQRT((1-F41)/F41^2)</f>
+        <f t="shared" si="22"/>
         <v>27.494316778513181</v>
       </c>
       <c r="R41">
-        <f>SQRT((1-G41)/G41^2)</f>
+        <f t="shared" si="23"/>
         <v>10.687855993955244</v>
       </c>
       <c r="S41">
-        <f>SQRT((1-H41)/H41^2)</f>
+        <f t="shared" si="24"/>
         <v>3.9482846517331049</v>
       </c>
       <c r="T41">
-        <f>SQRT((1-I41)/I41^2)</f>
+        <f t="shared" si="25"/>
         <v>1.1912497383759093</v>
       </c>
     </row>
@@ -8604,11 +7816,11 @@
         <v>7</v>
       </c>
       <c r="C42" s="1">
-        <f>IF(B42=0,1,C41*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.8280391208166908</v>
       </c>
       <c r="D42">
-        <f>IF(B42=0,0,D41+2500)</f>
+        <f t="shared" si="14"/>
         <v>17500</v>
       </c>
       <c r="E42">
@@ -8637,47 +7849,47 @@
         <v>0.51672072175181682</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.56715266419479404</v>
       </c>
       <c r="K42">
-        <f>1-(1-E42)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.48614595929293947</v>
       </c>
       <c r="L42">
-        <f>1-(1-F42)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.81389891300370043</v>
       </c>
       <c r="M42">
-        <f>1-(1-G42)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.98662930413798178</v>
       </c>
       <c r="N42">
-        <f>1-(1-H42)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99999062020641494</v>
       </c>
       <c r="O42">
-        <f>1-(1-I42)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="P42">
-        <f>SQRT((1-E42)/E42^2)</f>
+        <f t="shared" si="21"/>
         <v>75.095265017455858</v>
       </c>
       <c r="Q42">
-        <f>SQRT((1-F42)/F42^2)</f>
+        <f t="shared" si="22"/>
         <v>29.73456825639785</v>
       </c>
       <c r="R42">
-        <f>SQRT((1-G42)/G42^2)</f>
+        <f t="shared" si="23"/>
         <v>11.584723676729224</v>
       </c>
       <c r="S42">
-        <f>SQRT((1-H42)/H42^2)</f>
+        <f t="shared" si="24"/>
         <v>4.3092933912435205</v>
       </c>
       <c r="T42">
-        <f>SQRT((1-I42)/I42^2)</f>
+        <f t="shared" si="25"/>
         <v>1.3453745527478667</v>
       </c>
     </row>
@@ -8689,11 +7901,11 @@
         <v>8</v>
       </c>
       <c r="C43" s="1">
-        <f>IF(B43=0,1,C42*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.9925626416901931</v>
       </c>
       <c r="D43">
-        <f>IF(B43=0,0,D42+2500)</f>
+        <f t="shared" si="14"/>
         <v>20000</v>
       </c>
       <c r="E43">
@@ -8722,47 +7934,47 @@
         <v>0.47844511273316365</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.52514135573592036</v>
       </c>
       <c r="K43">
-        <f>1-(1-E43)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.46000268387198673</v>
       </c>
       <c r="L43">
-        <f>1-(1-F43)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.78880100492770344</v>
       </c>
       <c r="M43">
-        <f>1-(1-G43)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.98135164020521448</v>
       </c>
       <c r="N43">
-        <f>1-(1-H43)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99997560636986038</v>
       </c>
       <c r="O43">
-        <f>1-(1-I43)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999999999999267</v>
       </c>
       <c r="P43">
-        <f>SQRT((1-E43)/E43^2)</f>
+        <f t="shared" si="21"/>
         <v>81.143143442569112</v>
       </c>
       <c r="Q43">
-        <f>SQRT((1-F43)/F43^2)</f>
+        <f t="shared" si="22"/>
         <v>32.153986258299341</v>
       </c>
       <c r="R43">
-        <f>SQRT((1-G43)/G43^2)</f>
+        <f t="shared" si="23"/>
         <v>12.553195748969245</v>
       </c>
       <c r="S43">
-        <f>SQRT((1-H43)/H43^2)</f>
+        <f t="shared" si="24"/>
         <v>4.6987317330909963</v>
       </c>
       <c r="T43">
-        <f>SQRT((1-I43)/I43^2)</f>
+        <f t="shared" si="25"/>
         <v>1.5094470639897937</v>
       </c>
     </row>
@@ -8774,11 +7986,11 @@
         <v>9</v>
       </c>
       <c r="C44" s="1">
-        <f>IF(B44=0,1,C43*1.09)</f>
+        <f t="shared" si="13"/>
         <v>2.1718932794423105</v>
       </c>
       <c r="D44">
-        <f>IF(B44=0,0,D43+2500)</f>
+        <f t="shared" si="14"/>
         <v>22500</v>
       </c>
       <c r="E44">
@@ -8807,47 +8019,47 @@
         <v>0.44300473401218854</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.48624199605177809</v>
       </c>
       <c r="K44">
-        <f>1-(1-E44)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.43463627338099275</v>
       </c>
       <c r="L44">
-        <f>1-(1-F44)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.7626215538640928</v>
       </c>
       <c r="M44">
-        <f>1-(1-G44)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.97467364255234212</v>
       </c>
       <c r="N44">
-        <f>1-(1-H44)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99994183467266917</v>
       </c>
       <c r="O44">
-        <f>1-(1-I44)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999999999980382</v>
       </c>
       <c r="P44">
-        <f>SQRT((1-E44)/E44^2)</f>
+        <f t="shared" si="21"/>
         <v>87.674832917592752</v>
       </c>
       <c r="Q44">
-        <f>SQRT((1-F44)/F44^2)</f>
+        <f t="shared" si="22"/>
         <v>34.766908264462622</v>
       </c>
       <c r="R44">
-        <f>SQRT((1-G44)/G44^2)</f>
+        <f t="shared" si="23"/>
         <v>13.599012641172656</v>
       </c>
       <c r="S44">
-        <f>SQRT((1-H44)/H44^2)</f>
+        <f t="shared" si="24"/>
         <v>5.1189193038200411</v>
       </c>
       <c r="T44">
-        <f>SQRT((1-I44)/I44^2)</f>
+        <f t="shared" si="25"/>
         <v>1.6846798632697264</v>
       </c>
     </row>
@@ -8859,11 +8071,11 @@
         <v>10</v>
       </c>
       <c r="C45" s="1">
-        <f>IF(B45=0,1,C44*1.09)</f>
+        <f t="shared" si="13"/>
         <v>2.3673636745921187</v>
       </c>
       <c r="D45">
-        <f>IF(B45=0,0,D44+2500)</f>
+        <f t="shared" si="14"/>
         <v>25000</v>
       </c>
       <c r="E45">
@@ -8892,47 +8104,47 @@
         <v>0.3407728723170681</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.37403230465521392</v>
       </c>
       <c r="K45">
-        <f>1-(1-E45)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.35474069881716797</v>
       </c>
       <c r="L45">
-        <f>1-(1-F45)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.66797342997184672</v>
       </c>
       <c r="M45">
-        <f>1-(1-G45)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.93939153607811743</v>
       </c>
       <c r="N45">
-        <f>1-(1-H45)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99934246941197624</v>
       </c>
       <c r="O45">
-        <f>1-(1-I45)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999999910514326</v>
       </c>
       <c r="P45">
-        <f>SQRT((1-E45)/E45^2)</f>
+        <f t="shared" si="21"/>
         <v>114.12804096150597</v>
       </c>
       <c r="Q45">
-        <f>SQRT((1-F45)/F45^2)</f>
+        <f t="shared" si="22"/>
         <v>45.348898164141019</v>
       </c>
       <c r="R45">
-        <f>SQRT((1-G45)/G45^2)</f>
+        <f t="shared" si="23"/>
         <v>17.833653951879821</v>
       </c>
       <c r="S45">
-        <f>SQRT((1-H45)/H45^2)</f>
+        <f t="shared" si="24"/>
         <v>6.8179553601735163</v>
       </c>
       <c r="T45">
-        <f>SQRT((1-I45)/I45^2)</f>
+        <f t="shared" si="25"/>
         <v>2.382607587210491</v>
       </c>
     </row>
@@ -8944,11 +8156,11 @@
         <v>11</v>
       </c>
       <c r="C46" s="1">
-        <f>IF(B46=0,1,C45*1.09)</f>
+        <f t="shared" si="13"/>
         <v>2.5804264053054098</v>
       </c>
       <c r="D46">
-        <f>IF(B46=0,0,D45+2500)</f>
+        <f t="shared" si="14"/>
         <v>27500</v>
       </c>
       <c r="E46">
@@ -8977,47 +8189,47 @@
         <v>0.31553043733061859</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.34632620801408692</v>
       </c>
       <c r="K46">
-        <f>1-(1-E46)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.33336924661921019</v>
       </c>
       <c r="L46">
-        <f>1-(1-F46)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.63941647274490587</v>
       </c>
       <c r="M46">
-        <f>1-(1-G46)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.92499426534384088</v>
       </c>
       <c r="N46">
-        <f>1-(1-H46)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99882429204030132</v>
       </c>
       <c r="O46">
-        <f>1-(1-I46)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999999414257112</v>
       </c>
       <c r="P46">
-        <f>SQRT((1-E46)/E46^2)</f>
+        <f t="shared" si="21"/>
         <v>123.29845331864429</v>
       </c>
       <c r="Q46">
-        <f>SQRT((1-F46)/F46^2)</f>
+        <f t="shared" si="22"/>
         <v>49.017236788864956</v>
       </c>
       <c r="R46">
-        <f>SQRT((1-G46)/G46^2)</f>
+        <f t="shared" si="23"/>
         <v>19.301439623600448</v>
       </c>
       <c r="S46">
-        <f>SQRT((1-H46)/H46^2)</f>
+        <f t="shared" si="24"/>
         <v>7.4063075759621491</v>
       </c>
       <c r="T46">
-        <f>SQRT((1-I46)/I46^2)</f>
+        <f t="shared" si="25"/>
         <v>2.6220188578038188</v>
       </c>
     </row>
@@ -9029,11 +8241,11 @@
         <v>12</v>
       </c>
       <c r="C47" s="1">
-        <f>IF(B47=0,1,C46*1.09)</f>
+        <f t="shared" si="13"/>
         <v>2.8126647817828969</v>
       </c>
       <c r="D47">
-        <f>IF(B47=0,0,D46+2500)</f>
+        <f t="shared" si="14"/>
         <v>30000</v>
       </c>
       <c r="E47">
@@ -9062,47 +8274,47 @@
         <v>0.29215781234316535</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.32067241482785824</v>
       </c>
       <c r="K47">
-        <f>1-(1-E47)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.31296324533200603</v>
       </c>
       <c r="L47">
-        <f>1-(1-F47)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.61083660216625035</v>
       </c>
       <c r="M47">
-        <f>1-(1-G47)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.90870459889284994</v>
       </c>
       <c r="N47">
-        <f>1-(1-H47)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99799829097289061</v>
       </c>
       <c r="O47">
-        <f>1-(1-I47)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999996860777063</v>
       </c>
       <c r="P47">
-        <f>SQRT((1-E47)/E47^2)</f>
+        <f t="shared" si="21"/>
         <v>133.20248606626203</v>
       </c>
       <c r="Q47">
-        <f>SQRT((1-F47)/F47^2)</f>
+        <f t="shared" si="22"/>
         <v>52.979010421119668</v>
       </c>
       <c r="R47">
-        <f>SQRT((1-G47)/G47^2)</f>
+        <f t="shared" si="23"/>
         <v>20.886564065966535</v>
       </c>
       <c r="S47">
-        <f>SQRT((1-H47)/H47^2)</f>
+        <f t="shared" si="24"/>
         <v>8.0414897784486996</v>
       </c>
       <c r="T47">
-        <f>SQRT((1-I47)/I47^2)</f>
+        <f t="shared" si="25"/>
         <v>2.8797230174151798</v>
       </c>
     </row>
@@ -9114,11 +8326,11 @@
         <v>13</v>
       </c>
       <c r="C48" s="1">
-        <f>IF(B48=0,1,C47*1.09)</f>
+        <f t="shared" si="13"/>
         <v>3.0658046121433578</v>
       </c>
       <c r="D48">
-        <f>IF(B48=0,0,D47+2500)</f>
+        <f t="shared" si="14"/>
         <v>32500</v>
       </c>
       <c r="E48">
@@ -9147,47 +8359,47 @@
         <v>0.27051649291033825</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.29691890261838721</v>
       </c>
       <c r="K48">
-        <f>1-(1-E48)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.29352371395202415</v>
       </c>
       <c r="L48">
-        <f>1-(1-F48)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.58240113246968739</v>
       </c>
       <c r="M48">
-        <f>1-(1-G48)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.89055832044216032</v>
       </c>
       <c r="N48">
-        <f>1-(1-H48)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99674003630423724</v>
       </c>
       <c r="O48">
-        <f>1-(1-I48)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999985849432138</v>
       </c>
       <c r="P48">
-        <f>SQRT((1-E48)/E48^2)</f>
+        <f t="shared" si="21"/>
         <v>143.89882977935738</v>
       </c>
       <c r="Q48">
-        <f>SQRT((1-F48)/F48^2)</f>
+        <f t="shared" si="22"/>
         <v>57.257696306022765</v>
       </c>
       <c r="R48">
-        <f>SQRT((1-G48)/G48^2)</f>
+        <f t="shared" si="23"/>
         <v>22.598421067701803</v>
       </c>
       <c r="S48">
-        <f>SQRT((1-H48)/H48^2)</f>
+        <f t="shared" si="24"/>
         <v>8.7272695122992694</v>
       </c>
       <c r="T48">
-        <f>SQRT((1-I48)/I48^2)</f>
+        <f t="shared" si="25"/>
         <v>3.1572864827840914</v>
       </c>
     </row>
@@ -9199,11 +8411,11 @@
         <v>14</v>
       </c>
       <c r="C49" s="1">
-        <f>IF(B49=0,1,C48*1.09)</f>
+        <f t="shared" si="13"/>
         <v>3.34172702723626</v>
       </c>
       <c r="D49">
-        <f>IF(B49=0,0,D48+2500)</f>
+        <f t="shared" si="14"/>
         <v>35000</v>
       </c>
       <c r="E49">
@@ -9232,47 +8444,47 @@
         <v>0.2504782341762391</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.27492490983183998</v>
       </c>
       <c r="K49">
-        <f>1-(1-E49)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.27504411671219542</v>
       </c>
       <c r="L49">
-        <f>1-(1-F49)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.55426218286602102</v>
       </c>
       <c r="M49">
-        <f>1-(1-G49)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.87063082881864551</v>
       </c>
       <c r="N49">
-        <f>1-(1-H49)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.9949007119070441</v>
       </c>
       <c r="O49">
-        <f>1-(1-I49)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.999999451454754</v>
       </c>
       <c r="P49">
-        <f>SQRT((1-E49)/E49^2)</f>
+        <f t="shared" si="21"/>
         <v>155.45087020749941</v>
       </c>
       <c r="Q49">
-        <f>SQRT((1-F49)/F49^2)</f>
+        <f t="shared" si="22"/>
         <v>61.878649677305447</v>
       </c>
       <c r="R49">
-        <f>SQRT((1-G49)/G49^2)</f>
+        <f t="shared" si="23"/>
         <v>24.447155356142012</v>
       </c>
       <c r="S49">
-        <f>SQRT((1-H49)/H49^2)</f>
+        <f t="shared" si="24"/>
         <v>9.4677135839316442</v>
       </c>
       <c r="T49">
-        <f>SQRT((1-I49)/I49^2)</f>
+        <f t="shared" si="25"/>
         <v>3.4563851584645136</v>
       </c>
     </row>
@@ -9284,11 +8496,11 @@
         <v>15</v>
       </c>
       <c r="C50" s="1">
-        <f>IF(B50=0,1,C49*1.09)</f>
+        <f t="shared" si="13"/>
         <v>3.6424824596875238</v>
       </c>
       <c r="D50">
-        <f>IF(B50=0,0,D49+2500)</f>
+        <f t="shared" si="14"/>
         <v>37500</v>
       </c>
       <c r="E50">
@@ -9317,47 +8529,47 @@
         <v>0.1565488963601494</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.17182806864489997</v>
       </c>
       <c r="K50">
-        <f>1-(1-E50)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.18191185804965715</v>
       </c>
       <c r="L50">
-        <f>1-(1-F50)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.39557817053612732</v>
       </c>
       <c r="M50">
-        <f>1-(1-G50)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.71870263825305081</v>
       </c>
       <c r="N50">
-        <f>1-(1-H50)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.96057294089892964</v>
       </c>
       <c r="O50">
-        <f>1-(1-I50)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99979909278124168</v>
       </c>
       <c r="P50">
-        <f>SQRT((1-E50)/E50^2)</f>
+        <f t="shared" si="21"/>
         <v>249.02217694597701</v>
       </c>
       <c r="Q50">
-        <f>SQRT((1-F50)/F50^2)</f>
+        <f t="shared" si="22"/>
         <v>99.307812858848365</v>
       </c>
       <c r="R50">
-        <f>SQRT((1-G50)/G50^2)</f>
+        <f t="shared" si="23"/>
         <v>39.420457810558766</v>
       </c>
       <c r="S50">
-        <f>SQRT((1-H50)/H50^2)</f>
+        <f t="shared" si="24"/>
         <v>15.461368896994507</v>
       </c>
       <c r="T50">
-        <f>SQRT((1-I50)/I50^2)</f>
+        <f t="shared" si="25"/>
         <v>5.8665117539294807</v>
       </c>
     </row>
@@ -9369,11 +8581,11 @@
         <v>16</v>
       </c>
       <c r="C51" s="1">
-        <f>IF(B51=0,1,C50*1.09)</f>
+        <f t="shared" si="13"/>
         <v>3.9703058810594012</v>
       </c>
       <c r="D51">
-        <f>IF(B51=0,0,D50+2500)</f>
+        <f t="shared" si="14"/>
         <v>40000</v>
       </c>
       <c r="E51">
@@ -9402,47 +8614,47 @@
         <v>0.14495268181495313</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.15910006356009254</v>
       </c>
       <c r="K51">
-        <f>1-(1-E51)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.16963053238624615</v>
       </c>
       <c r="L51">
-        <f>1-(1-F51)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.37250121031241756</v>
       </c>
       <c r="M51">
-        <f>1-(1-G51)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.69064947950449374</v>
       </c>
       <c r="N51">
-        <f>1-(1-H51)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.94953602673587079</v>
       </c>
       <c r="O51">
-        <f>1-(1-I51)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99960234407375859</v>
       </c>
       <c r="P51">
-        <f>SQRT((1-E51)/E51^2)</f>
+        <f t="shared" si="21"/>
         <v>268.98402851029505</v>
       </c>
       <c r="Q51">
-        <f>SQRT((1-F51)/F51^2)</f>
+        <f t="shared" si="22"/>
         <v>107.29263225686654</v>
       </c>
       <c r="R51">
-        <f>SQRT((1-G51)/G51^2)</f>
+        <f t="shared" si="23"/>
         <v>42.61458574840178</v>
       </c>
       <c r="S51">
-        <f>SQRT((1-H51)/H51^2)</f>
+        <f t="shared" si="24"/>
         <v>16.739541882069428</v>
       </c>
       <c r="T51">
-        <f>SQRT((1-I51)/I51^2)</f>
+        <f t="shared" si="25"/>
         <v>6.3792382124801383</v>
       </c>
     </row>
@@ -9454,11 +8666,11 @@
         <v>17</v>
       </c>
       <c r="C52" s="1">
-        <f>IF(B52=0,1,C51*1.09)</f>
+        <f t="shared" si="13"/>
         <v>4.327633410354748</v>
       </c>
       <c r="D52">
-        <f>IF(B52=0,0,D51+2500)</f>
+        <f t="shared" si="14"/>
         <v>42500</v>
       </c>
       <c r="E52">
@@ -9487,47 +8699,47 @@
         <v>0.13421544612495659</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.14731487366675233</v>
       </c>
       <c r="K52">
-        <f>1-(1-E52)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.15809793739607525</v>
       </c>
       <c r="L52">
-        <f>1-(1-F52)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.35036503816434983</v>
       </c>
       <c r="M52">
-        <f>1-(1-G52)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.66224015272592651</v>
       </c>
       <c r="N52">
-        <f>1-(1-H52)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.93664816993211542</v>
       </c>
       <c r="O52">
-        <f>1-(1-I52)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99925785003145573</v>
       </c>
       <c r="P52">
-        <f>SQRT((1-E52)/E52^2)</f>
+        <f t="shared" si="21"/>
         <v>290.54282245035961</v>
       </c>
       <c r="Q52">
-        <f>SQRT((1-F52)/F52^2)</f>
+        <f t="shared" si="22"/>
         <v>115.91622271168249</v>
       </c>
       <c r="R52">
-        <f>SQRT((1-G52)/G52^2)</f>
+        <f t="shared" si="23"/>
         <v>46.064206904948392</v>
       </c>
       <c r="S52">
-        <f>SQRT((1-H52)/H52^2)</f>
+        <f t="shared" si="24"/>
         <v>18.119870980286287</v>
       </c>
       <c r="T52">
-        <f>SQRT((1-I52)/I52^2)</f>
+        <f t="shared" si="25"/>
         <v>6.9327001618130399</v>
       </c>
     </row>
@@ -9539,11 +8751,11 @@
         <v>18</v>
       </c>
       <c r="C53" s="1">
-        <f>IF(B53=0,1,C52*1.09)</f>
+        <f t="shared" si="13"/>
         <v>4.7171204172866759</v>
       </c>
       <c r="D53">
-        <f>IF(B53=0,0,D52+2500)</f>
+        <f t="shared" si="14"/>
         <v>45000</v>
       </c>
       <c r="E53">
@@ -9572,47 +8784,47 @@
         <v>0.12427356122681166</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.13640266080254845</v>
       </c>
       <c r="K53">
-        <f>1-(1-E53)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.14727973640089953</v>
       </c>
       <c r="L53">
-        <f>1-(1-F53)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.32918728141757803</v>
       </c>
       <c r="M53">
-        <f>1-(1-G53)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.63366446566699852</v>
       </c>
       <c r="N53">
-        <f>1-(1-H53)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.9218694090979267</v>
       </c>
       <c r="O53">
-        <f>1-(1-I53)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99868652116986523</v>
       </c>
       <c r="P53">
-        <f>SQRT((1-E53)/E53^2)</f>
+        <f t="shared" si="21"/>
         <v>313.82631458431831</v>
       </c>
       <c r="Q53">
-        <f>SQRT((1-F53)/F53^2)</f>
+        <f t="shared" si="22"/>
         <v>125.22968699552688</v>
       </c>
       <c r="R53">
-        <f>SQRT((1-G53)/G53^2)</f>
+        <f t="shared" si="23"/>
         <v>49.789763570053637</v>
       </c>
       <c r="S53">
-        <f>SQRT((1-H53)/H53^2)</f>
+        <f t="shared" si="24"/>
         <v>19.610536536331221</v>
       </c>
       <c r="T53">
-        <f>SQRT((1-I53)/I53^2)</f>
+        <f t="shared" si="25"/>
         <v>7.5301822427349014</v>
       </c>
     </row>
@@ -9624,11 +8836,11 @@
         <v>19</v>
       </c>
       <c r="C54" s="1">
-        <f>IF(B54=0,1,C53*1.09)</f>
+        <f t="shared" si="13"/>
         <v>5.1416612548424769</v>
       </c>
       <c r="D54">
-        <f>IF(B54=0,0,D53+2500)</f>
+        <f t="shared" si="14"/>
         <v>47500</v>
       </c>
       <c r="E54">
@@ -9657,47 +8869,47 @@
         <v>0.11506811224704783</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.12629876000235968</v>
       </c>
       <c r="K54">
-        <f>1-(1-E54)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.13714148405939897</v>
       </c>
       <c r="L54">
-        <f>1-(1-F54)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.30897584376081866</v>
       </c>
       <c r="M54">
-        <f>1-(1-G54)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.60510066489321446</v>
       </c>
       <c r="N54">
-        <f>1-(1-H54)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.90520212890624507</v>
       </c>
       <c r="O54">
-        <f>1-(1-I54)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99778439549024334</v>
       </c>
       <c r="P54">
-        <f>SQRT((1-E54)/E54^2)</f>
+        <f t="shared" si="21"/>
         <v>338.97248116374482</v>
       </c>
       <c r="Q54">
-        <f>SQRT((1-F54)/F54^2)</f>
+        <f t="shared" si="22"/>
         <v>135.28821601982503</v>
       </c>
       <c r="R54">
-        <f>SQRT((1-G54)/G54^2)</f>
+        <f t="shared" si="23"/>
         <v>53.813333193730813</v>
       </c>
       <c r="S54">
-        <f>SQRT((1-H54)/H54^2)</f>
+        <f t="shared" si="24"/>
         <v>21.220372646822131</v>
       </c>
       <c r="T54">
-        <f>SQRT((1-I54)/I54^2)</f>
+        <f t="shared" si="25"/>
         <v>8.1752291385838749</v>
       </c>
     </row>
@@ -9709,11 +8921,11 @@
         <v>20</v>
       </c>
       <c r="C55" s="1">
-        <f>IF(B55=0,1,C54*1.09)</f>
+        <f t="shared" si="13"/>
         <v>5.6044107677783002</v>
       </c>
       <c r="D55">
-        <f>IF(B55=0,0,D54+2500)</f>
+        <f t="shared" si="14"/>
         <v>50000</v>
       </c>
       <c r="E55">
@@ -9742,47 +8954,47 @@
         <v>6.7687124851204608E-2</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>7.4293388236682162E-2</v>
       </c>
       <c r="K55">
-        <f>1-(1-E55)^K$1</f>
+        <f t="shared" si="16"/>
         <v>8.306131221450197E-2</v>
       </c>
       <c r="L55">
-        <f>1-(1-F55)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.1951258178458003</v>
       </c>
       <c r="M55">
-        <f>1-(1-G55)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.4198395249321768</v>
       </c>
       <c r="N55">
-        <f>1-(1-H55)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.74650377211252139</v>
       </c>
       <c r="O55">
-        <f>1-(1-I55)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.96993341582290715</v>
       </c>
       <c r="P55">
-        <f>SQRT((1-E55)/E55^2)</f>
+        <f t="shared" si="21"/>
         <v>576.60362808590901</v>
       </c>
       <c r="Q55">
-        <f>SQRT((1-F55)/F55^2)</f>
+        <f t="shared" si="22"/>
         <v>230.34099527596882</v>
       </c>
       <c r="R55">
-        <f>SQRT((1-G55)/G55^2)</f>
+        <f t="shared" si="23"/>
         <v>91.835254056642412</v>
       </c>
       <c r="S55">
-        <f>SQRT((1-H55)/H55^2)</f>
+        <f t="shared" si="24"/>
         <v>36.431215109855756</v>
       </c>
       <c r="T55">
-        <f>SQRT((1-I55)/I55^2)</f>
+        <f t="shared" si="25"/>
         <v>14.265098472974183</v>
       </c>
     </row>
@@ -9794,11 +9006,11 @@
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <f>IF(B56=0,1,C55*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D56">
-        <f>IF(B56=0,0,D55+2500)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E56">
@@ -9827,47 +9039,47 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f>1-(1-E56)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f>1-(1-F56)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f>1-(1-G56)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f>1-(1-H56)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f>1-(1-I56)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P56" t="e">
-        <f>SQRT((1-E56)/E56^2)</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" t="e">
-        <f>SQRT((1-F56)/F56^2)</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R56" t="e">
-        <f>SQRT((1-G56)/G56^2)</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S56" t="e">
-        <f>SQRT((1-H56)/H56^2)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T56" t="e">
-        <f>SQRT((1-I56)/I56^2)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9879,11 +9091,11 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <f>IF(B57=0,1,C56*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="D57">
-        <f>IF(B57=0,0,D56+2500)</f>
+        <f t="shared" si="14"/>
         <v>2500</v>
       </c>
       <c r="E57">
@@ -9912,47 +9124,47 @@
         <v>0.26030820491461892</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K57">
-        <f>1-(1-E57)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.28416790587957108</v>
       </c>
       <c r="L57">
-        <f>1-(1-F57)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.5682907530451039</v>
       </c>
       <c r="M57">
-        <f>1-(1-G57)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.88081463506676128</v>
       </c>
       <c r="N57">
-        <f>1-(1-H57)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99590350417553475</v>
       </c>
       <c r="O57">
-        <f>1-(1-I57)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999971650848207</v>
       </c>
       <c r="P57">
-        <f>SQRT((1-E57)/E57^2)</f>
+        <f t="shared" si="21"/>
         <v>149.56166422666604</v>
       </c>
       <c r="Q57">
-        <f>SQRT((1-F57)/F57^2)</f>
+        <f t="shared" si="22"/>
         <v>59.522900004956071</v>
       </c>
       <c r="R57">
-        <f>SQRT((1-G57)/G57^2)</f>
+        <f t="shared" si="23"/>
         <v>23.504682512214451</v>
       </c>
       <c r="S57">
-        <f>SQRT((1-H57)/H57^2)</f>
+        <f t="shared" si="24"/>
         <v>9.0902594022392993</v>
       </c>
       <c r="T57">
-        <f>SQRT((1-I57)/I57^2)</f>
+        <f t="shared" si="25"/>
         <v>3.3039810168946184</v>
       </c>
     </row>
@@ -9964,11 +9176,11 @@
         <v>2</v>
       </c>
       <c r="C58" s="1">
-        <f>IF(B58=0,1,C57*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.1881000000000002</v>
       </c>
       <c r="D58">
-        <f>IF(B58=0,0,D57+2500)</f>
+        <f t="shared" si="14"/>
         <v>5000</v>
       </c>
       <c r="E58">
@@ -9997,47 +9209,47 @@
         <v>0.24102611566168416</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="K58">
-        <f>1-(1-E58)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.26616360247830539</v>
       </c>
       <c r="L58">
-        <f>1-(1-F58)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.54035197533916801</v>
       </c>
       <c r="M58">
-        <f>1-(1-G58)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.86003644684254532</v>
       </c>
       <c r="N58">
-        <f>1-(1-H58)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99371131164511206</v>
       </c>
       <c r="O58">
-        <f>1-(1-I58)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999897354096445</v>
       </c>
       <c r="P58">
-        <f>SQRT((1-E58)/E58^2)</f>
+        <f t="shared" si="21"/>
         <v>161.56672632770028</v>
       </c>
       <c r="Q58">
-        <f>SQRT((1-F58)/F58^2)</f>
+        <f t="shared" si="22"/>
         <v>64.325056774168502</v>
       </c>
       <c r="R58">
-        <f>SQRT((1-G58)/G58^2)</f>
+        <f t="shared" si="23"/>
         <v>25.425884225332261</v>
       </c>
       <c r="S58">
-        <f>SQRT((1-H58)/H58^2)</f>
+        <f t="shared" si="24"/>
         <v>9.8596502058845896</v>
       </c>
       <c r="T58">
-        <f>SQRT((1-I58)/I58^2)</f>
+        <f t="shared" si="25"/>
         <v>3.6145090329371152</v>
       </c>
     </row>
@@ -10049,11 +9261,11 @@
         <v>3</v>
       </c>
       <c r="C59" s="1">
-        <f>IF(B59=0,1,C58*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.2950290000000002</v>
       </c>
       <c r="D59">
-        <f>IF(B59=0,0,D58+2500)</f>
+        <f t="shared" si="14"/>
         <v>7500</v>
       </c>
       <c r="E59">
@@ -10082,47 +9294,47 @@
         <v>0.22317232931637421</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.8573388203017831</v>
       </c>
       <c r="K59">
-        <f>1-(1-E59)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.24909769531018167</v>
       </c>
       <c r="L59">
-        <f>1-(1-F59)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.51290722283260681</v>
       </c>
       <c r="M59">
-        <f>1-(1-G59)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.83765541373243146</v>
       </c>
       <c r="N59">
-        <f>1-(1-H59)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.99067803199858695</v>
       </c>
       <c r="O59">
-        <f>1-(1-I59)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999671727623252</v>
       </c>
       <c r="P59">
-        <f>SQRT((1-E59)/E59^2)</f>
+        <f t="shared" si="21"/>
         <v>174.53218380118324</v>
       </c>
       <c r="Q59">
-        <f>SQRT((1-F59)/F59^2)</f>
+        <f t="shared" si="22"/>
         <v>69.511361756087055</v>
       </c>
       <c r="R59">
-        <f>SQRT((1-G59)/G59^2)</f>
+        <f t="shared" si="23"/>
         <v>27.500719039866869</v>
       </c>
       <c r="S59">
-        <f>SQRT((1-H59)/H59^2)</f>
+        <f t="shared" si="24"/>
         <v>10.690419274918613</v>
       </c>
       <c r="T59">
-        <f>SQRT((1-I59)/I59^2)</f>
+        <f t="shared" si="25"/>
         <v>3.9493170219378722</v>
       </c>
     </row>
@@ -10134,11 +9346,11 @@
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <f>IF(B60=0,1,C59*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.4115816100000003</v>
       </c>
       <c r="D60">
-        <f>IF(B60=0,0,D59+2500)</f>
+        <f t="shared" si="14"/>
         <v>10000</v>
       </c>
       <c r="E60">
@@ -10167,47 +9379,47 @@
         <v>0.20664104566330943</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.79383224102016947</v>
       </c>
       <c r="K60">
-        <f>1-(1-E60)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.23294948624241563</v>
       </c>
       <c r="L60">
-        <f>1-(1-F60)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.48606722872690744</v>
       </c>
       <c r="M60">
-        <f>1-(1-G60)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.81382615765742339</v>
       </c>
       <c r="N60">
-        <f>1-(1-H60)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.98661552513015194</v>
       </c>
       <c r="O60">
-        <f>1-(1-I60)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99999059223650832</v>
       </c>
       <c r="P60">
-        <f>SQRT((1-E60)/E60^2)</f>
+        <f t="shared" si="21"/>
         <v>188.53486899383637</v>
       </c>
       <c r="Q60">
-        <f>SQRT((1-F60)/F60^2)</f>
+        <f t="shared" si="22"/>
         <v>75.112548649101811</v>
       </c>
       <c r="R60">
-        <f>SQRT((1-G60)/G60^2)</f>
+        <f t="shared" si="23"/>
         <v>29.741482532957058</v>
       </c>
       <c r="S60">
-        <f>SQRT((1-H60)/H60^2)</f>
+        <f t="shared" si="24"/>
         <v>11.587491570331792</v>
       </c>
       <c r="T60">
-        <f>SQRT((1-I60)/I60^2)</f>
+        <f t="shared" si="25"/>
         <v>4.3104069380142827</v>
       </c>
     </row>
@@ -10219,11 +9431,11 @@
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <f>IF(B61=0,1,C60*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.5386239549000005</v>
       </c>
       <c r="D61">
-        <f>IF(B61=0,0,D60+2500)</f>
+        <f t="shared" si="14"/>
         <v>12500</v>
       </c>
       <c r="E61">
@@ -10252,47 +9464,47 @@
         <v>0.17220087138609119</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.66152686751680789</v>
       </c>
       <c r="K61">
-        <f>1-(1-E61)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.1982066598910639</v>
       </c>
       <c r="L61">
-        <f>1-(1-F61)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.42541185579533358</v>
       </c>
       <c r="M61">
-        <f>1-(1-G61)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.7526475252749768</v>
       </c>
       <c r="N61">
-        <f>1-(1-H61)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.97179834273124521</v>
       </c>
       <c r="O61">
-        <f>1-(1-I61)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99992125042019242</v>
       </c>
       <c r="P61">
-        <f>SQRT((1-E61)/E61^2)</f>
+        <f t="shared" si="21"/>
         <v>226.34208613926219</v>
       </c>
       <c r="Q61">
-        <f>SQRT((1-F61)/F61^2)</f>
+        <f t="shared" si="22"/>
         <v>90.235670109129842</v>
       </c>
       <c r="R61">
-        <f>SQRT((1-G61)/G61^2)</f>
+        <f t="shared" si="23"/>
         <v>35.79132984845063</v>
       </c>
       <c r="S61">
-        <f>SQRT((1-H61)/H61^2)</f>
+        <f t="shared" si="24"/>
         <v>14.009008867751312</v>
       </c>
       <c r="T61">
-        <f>SQRT((1-I61)/I61^2)</f>
+        <f t="shared" si="25"/>
         <v>5.2835660104945772</v>
       </c>
     </row>
@@ -10304,11 +9516,11 @@
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <f>IF(B62=0,1,C61*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.6771001108410006</v>
       </c>
       <c r="D62">
-        <f>IF(B62=0,0,D61+2500)</f>
+        <f t="shared" si="14"/>
         <v>15000</v>
       </c>
       <c r="E62">
@@ -10337,47 +9549,47 @@
         <v>0.15944525128341777</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.61252487733037764</v>
       </c>
       <c r="K62">
-        <f>1-(1-E62)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.18495144068770342</v>
       </c>
       <c r="L62">
-        <f>1-(1-F62)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.40121096873902184</v>
       </c>
       <c r="M62">
-        <f>1-(1-G62)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.72531072290032994</v>
       </c>
       <c r="N62">
-        <f>1-(1-H62)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.96293706721144745</v>
       </c>
       <c r="O62">
-        <f>1-(1-I62)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99983083897722935</v>
       </c>
       <c r="P62">
-        <f>SQRT((1-E62)/E62^2)</f>
+        <f t="shared" si="21"/>
         <v>244.48953820321441</v>
       </c>
       <c r="Q62">
-        <f>SQRT((1-F62)/F62^2)</f>
+        <f t="shared" si="22"/>
         <v>97.49473767674894</v>
       </c>
       <c r="R62">
-        <f>SQRT((1-G62)/G62^2)</f>
+        <f t="shared" si="23"/>
         <v>38.695177673658279</v>
       </c>
       <c r="S62">
-        <f>SQRT((1-H62)/H62^2)</f>
+        <f t="shared" si="24"/>
         <v>15.17112606669763</v>
       </c>
       <c r="T62">
-        <f>SQRT((1-I62)/I62^2)</f>
+        <f t="shared" si="25"/>
         <v>5.750047253820723</v>
       </c>
     </row>
@@ -10389,11 +9601,11 @@
         <v>7</v>
       </c>
       <c r="C63" s="1">
-        <f>IF(B63=0,1,C62*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.8280391208166908</v>
       </c>
       <c r="D63">
-        <f>IF(B63=0,0,D62+2500)</f>
+        <f t="shared" si="14"/>
         <v>17500</v>
       </c>
       <c r="E63">
@@ -10422,47 +9634,47 @@
         <v>0.14763449192909051</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.56715266419479404</v>
       </c>
       <c r="K63">
-        <f>1-(1-E63)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.17248674748250425</v>
       </c>
       <c r="L63">
-        <f>1-(1-F63)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.37791369264995112</v>
       </c>
       <c r="M63">
-        <f>1-(1-G63)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.6973714026243254</v>
       </c>
       <c r="N63">
-        <f>1-(1-H63)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.95233059736071357</v>
       </c>
       <c r="O63">
-        <f>1-(1-I63)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99966014523833491</v>
       </c>
       <c r="P63">
-        <f>SQRT((1-E63)/E63^2)</f>
+        <f t="shared" si="21"/>
         <v>264.08878010450962</v>
       </c>
       <c r="Q63">
-        <f>SQRT((1-F63)/F63^2)</f>
+        <f t="shared" si="22"/>
         <v>105.33451468303706</v>
       </c>
       <c r="R63">
-        <f>SQRT((1-G63)/G63^2)</f>
+        <f t="shared" si="23"/>
         <v>41.831292461893817</v>
       </c>
       <c r="S63">
-        <f>SQRT((1-H63)/H63^2)</f>
+        <f t="shared" si="24"/>
         <v>16.426104142903039</v>
       </c>
       <c r="T63">
-        <f>SQRT((1-I63)/I63^2)</f>
+        <f t="shared" si="25"/>
         <v>6.2535280152469372</v>
       </c>
     </row>
@@ -10474,11 +9686,11 @@
         <v>8</v>
       </c>
       <c r="C64" s="1">
-        <f>IF(B64=0,1,C63*1.09)</f>
+        <f t="shared" si="13"/>
         <v>1.9925626416901931</v>
       </c>
       <c r="D64">
-        <f>IF(B64=0,0,D63+2500)</f>
+        <f t="shared" si="14"/>
         <v>20000</v>
       </c>
       <c r="E64">
@@ -10507,47 +9719,47 @@
         <v>0.13669860363804676</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.52514135573592036</v>
       </c>
       <c r="K64">
-        <f>1-(1-E64)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.16077890783183635</v>
       </c>
       <c r="L64">
-        <f>1-(1-F64)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.35555143398285494</v>
       </c>
       <c r="M64">
-        <f>1-(1-G64)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.66902932000230586</v>
       </c>
       <c r="N64">
-        <f>1-(1-H64)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.93988883499380504</v>
       </c>
       <c r="O64">
-        <f>1-(1-I64)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99935713146711214</v>
       </c>
       <c r="P64">
-        <f>SQRT((1-E64)/E64^2)</f>
+        <f t="shared" si="21"/>
         <v>285.25595550153179</v>
       </c>
       <c r="Q64">
-        <f>SQRT((1-F64)/F64^2)</f>
+        <f t="shared" si="22"/>
         <v>113.80145908276268</v>
       </c>
       <c r="R64">
-        <f>SQRT((1-G64)/G64^2)</f>
+        <f t="shared" si="23"/>
         <v>45.21825870710763</v>
       </c>
       <c r="S64">
-        <f>SQRT((1-H64)/H64^2)</f>
+        <f t="shared" si="24"/>
         <v>17.781380760847213</v>
       </c>
       <c r="T64">
-        <f>SQRT((1-I64)/I64^2)</f>
+        <f t="shared" si="25"/>
         <v>6.7969980193215278</v>
       </c>
     </row>
@@ -10559,11 +9771,11 @@
         <v>9</v>
       </c>
       <c r="C65" s="1">
-        <f>IF(B65=0,1,C64*1.09)</f>
+        <f t="shared" si="13"/>
         <v>2.1718932794423105</v>
       </c>
       <c r="D65">
-        <f>IF(B65=0,0,D64+2500)</f>
+        <f t="shared" si="14"/>
         <v>22500</v>
       </c>
       <c r="E65">
@@ -10592,47 +9804,47 @@
         <v>0.12657278114633957</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.48624199605177809</v>
       </c>
       <c r="K65">
-        <f>1-(1-E65)^K$1</f>
+        <f t="shared" si="16"/>
         <v>0.14979366414966377</v>
       </c>
       <c r="L65">
-        <f>1-(1-F65)^L$1</f>
+        <f t="shared" si="17"/>
         <v>0.33414432082010592</v>
       </c>
       <c r="M65">
-        <f>1-(1-G65)^M$1</f>
+        <f t="shared" si="18"/>
         <v>0.64047661107156628</v>
       </c>
       <c r="N65">
-        <f>1-(1-H65)^N$1</f>
+        <f t="shared" si="19"/>
         <v>0.92556186265487073</v>
       </c>
       <c r="O65">
-        <f>1-(1-I65)^O$1</f>
+        <f t="shared" si="20"/>
         <v>0.99884830868511576</v>
       </c>
       <c r="P65">
-        <f>SQRT((1-E65)/E65^2)</f>
+        <f t="shared" si="21"/>
         <v>308.11649951003403</v>
       </c>
       <c r="Q65">
-        <f>SQRT((1-F65)/F65^2)</f>
+        <f t="shared" si="22"/>
         <v>122.94574537576555</v>
       </c>
       <c r="R65">
-        <f>SQRT((1-G65)/G65^2)</f>
+        <f t="shared" si="23"/>
         <v>48.876147414267074</v>
       </c>
       <c r="S65">
-        <f>SQRT((1-H65)/H65^2)</f>
+        <f t="shared" si="24"/>
         <v>19.244987830863611</v>
       </c>
       <c r="T65">
-        <f>SQRT((1-I65)/I65^2)</f>
+        <f t="shared" si="25"/>
         <v>7.3836829153028312</v>
       </c>
     </row>
@@ -10644,11 +9856,11 @@
         <v>10</v>
       </c>
       <c r="C66" s="1">
-        <f>IF(B66=0,1,C65*1.09)</f>
+        <f t="shared" ref="C66:C97" si="26">IF(B66=0,1,C65*1.09)</f>
         <v>2.3673636745921187</v>
       </c>
       <c r="D66">
-        <f>IF(B66=0,0,D65+2500)</f>
+        <f t="shared" ref="D66:D86" si="27">IF(B66=0,0,D65+2500)</f>
         <v>25000</v>
       </c>
       <c r="E66">
@@ -10677,7 +9889,7 @@
         <v>9.7363677804876606E-2</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J86" si="2">IF(B66=0,0,
+        <f t="shared" ref="J66:J86" si="28">IF(B66=0,0,
 IF(B66=1,1,
 J65/IF(B66=5,1.2,
 IF(B66=10,1.3,
@@ -10689,43 +9901,43 @@
         <v>0.37403230465521392</v>
       </c>
       <c r="K66">
-        <f>1-(1-E66)^K$1</f>
+        <f t="shared" ref="K66:K86" si="29">1-(1-E66)^K$1</f>
         <v>0.11730988121705888</v>
       </c>
       <c r="L66">
-        <f>1-(1-F66)^L$1</f>
+        <f t="shared" ref="L66:L86" si="30">1-(1-F66)^L$1</f>
         <v>0.26841256718538231</v>
       </c>
       <c r="M66">
-        <f>1-(1-G66)^M$1</f>
+        <f t="shared" ref="M66:M86" si="31">1-(1-G66)^M$1</f>
         <v>0.54389862261737931</v>
       </c>
       <c r="N66">
-        <f>1-(1-H66)^N$1</f>
+        <f t="shared" ref="N66:N86" si="32">1-(1-H66)^N$1</f>
         <v>0.86278503436281473</v>
       </c>
       <c r="O66">
-        <f>1-(1-I66)^O$1</f>
+        <f t="shared" ref="O66:O86" si="33">1-(1-I66)^O$1</f>
         <v>0.99403459024697649</v>
       </c>
       <c r="P66">
-        <f>SQRT((1-E66)/E66^2)</f>
+        <f t="shared" ref="P66:P86" si="34">SQRT((1-E66)/E66^2)</f>
         <v>400.70166480795109</v>
       </c>
       <c r="Q66">
-        <f>SQRT((1-F66)/F66^2)</f>
+        <f t="shared" ref="Q66:Q86" si="35">SQRT((1-F66)/F66^2)</f>
         <v>159.98000935853088</v>
       </c>
       <c r="R66">
-        <f>SQRT((1-G66)/G66^2)</f>
+        <f t="shared" ref="R66:R86" si="36">SQRT((1-G66)/G66^2)</f>
         <v>63.690353691339169</v>
       </c>
       <c r="S66">
-        <f>SQRT((1-H66)/H66^2)</f>
+        <f t="shared" ref="S66:S86" si="37">SQRT((1-H66)/H66^2)</f>
         <v>25.171961159688241</v>
       </c>
       <c r="T66">
-        <f>SQRT((1-I66)/I66^2)</f>
+        <f t="shared" ref="T66:T86" si="38">SQRT((1-I66)/I66^2)</f>
         <v>9.7579689596213353</v>
       </c>
     </row>
@@ -10737,11 +9949,11 @@
         <v>11</v>
       </c>
       <c r="C67" s="1">
-        <f>IF(B67=0,1,C66*1.09)</f>
+        <f t="shared" si="26"/>
         <v>2.5804264053054098</v>
       </c>
       <c r="D67">
-        <f>IF(B67=0,0,D66+2500)</f>
+        <f t="shared" si="27"/>
         <v>27500</v>
       </c>
       <c r="E67">
@@ -10770,47 +9982,47 @@
         <v>9.0151553523033875E-2</v>
       </c>
       <c r="J67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.34632620801408692</v>
       </c>
       <c r="K67">
-        <f>1-(1-E67)^K$1</f>
+        <f t="shared" si="29"/>
         <v>0.10910379541277471</v>
       </c>
       <c r="L67">
-        <f>1-(1-F67)^L$1</f>
+        <f t="shared" si="30"/>
         <v>0.25122775624726457</v>
       </c>
       <c r="M67">
-        <f>1-(1-G67)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.51638418953624177</v>
       </c>
       <c r="N67">
-        <f>1-(1-H67)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.84060080796228265</v>
       </c>
       <c r="O67">
-        <f>1-(1-I67)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.99111918355054207</v>
       </c>
       <c r="P67">
-        <f>SQRT((1-E67)/E67^2)</f>
+        <f t="shared" si="34"/>
         <v>432.7978460831165</v>
       </c>
       <c r="Q67">
-        <f>SQRT((1-F67)/F67^2)</f>
+        <f t="shared" si="35"/>
         <v>172.81853066003441</v>
       </c>
       <c r="R67">
-        <f>SQRT((1-G67)/G67^2)</f>
+        <f t="shared" si="36"/>
         <v>68.825885431052612</v>
       </c>
       <c r="S67">
-        <f>SQRT((1-H67)/H67^2)</f>
+        <f t="shared" si="37"/>
         <v>27.22648990374493</v>
       </c>
       <c r="T67">
-        <f>SQRT((1-I67)/I67^2)</f>
+        <f t="shared" si="38"/>
         <v>10.580624794619146</v>
       </c>
     </row>
@@ -10822,11 +10034,11 @@
         <v>12</v>
       </c>
       <c r="C68" s="1">
-        <f>IF(B68=0,1,C67*1.09)</f>
+        <f t="shared" si="26"/>
         <v>2.8126647817828969</v>
       </c>
       <c r="D68">
-        <f>IF(B68=0,0,D67+2500)</f>
+        <f t="shared" si="27"/>
         <v>30000</v>
       </c>
       <c r="E68">
@@ -10855,47 +10067,47 @@
         <v>8.3473660669475813E-2</v>
       </c>
       <c r="J68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.32067241482785824</v>
       </c>
       <c r="K68">
-        <f>1-(1-E68)^K$1</f>
+        <f t="shared" si="29"/>
         <v>0.10143893324416275</v>
       </c>
       <c r="L68">
-        <f>1-(1-F68)^L$1</f>
+        <f t="shared" si="30"/>
         <v>0.23496353039437479</v>
       </c>
       <c r="M68">
-        <f>1-(1-G68)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.48946129108879255</v>
       </c>
       <c r="N68">
-        <f>1-(1-H68)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.81694726390564854</v>
       </c>
       <c r="O68">
-        <f>1-(1-I68)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.98719889333699928</v>
       </c>
       <c r="P68">
-        <f>SQRT((1-E68)/E68^2)</f>
+        <f t="shared" si="34"/>
         <v>467.461718292081</v>
       </c>
       <c r="Q68">
-        <f>SQRT((1-F68)/F68^2)</f>
+        <f t="shared" si="35"/>
         <v>186.68412469839834</v>
       </c>
       <c r="R68">
-        <f>SQRT((1-G68)/G68^2)</f>
+        <f t="shared" si="36"/>
         <v>74.372236995256202</v>
       </c>
       <c r="S68">
-        <f>SQRT((1-H68)/H68^2)</f>
+        <f t="shared" si="37"/>
         <v>29.445322233895411</v>
       </c>
       <c r="T68">
-        <f>SQRT((1-I68)/I68^2)</f>
+        <f t="shared" si="38"/>
         <v>11.468932998889491</v>
       </c>
     </row>
@@ -10907,11 +10119,11 @@
         <v>13</v>
       </c>
       <c r="C69" s="1">
-        <f>IF(B69=0,1,C68*1.09)</f>
+        <f t="shared" si="26"/>
         <v>3.0658046121433578</v>
       </c>
       <c r="D69">
-        <f>IF(B69=0,0,D68+2500)</f>
+        <f t="shared" si="27"/>
         <v>32500</v>
       </c>
       <c r="E69">
@@ -10940,47 +10152,47 @@
         <v>7.729042654581092E-2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.29691890261838721</v>
       </c>
       <c r="K69">
-        <f>1-(1-E69)^K$1</f>
+        <f t="shared" si="29"/>
         <v>9.428423758418869E-2</v>
       </c>
       <c r="L69">
-        <f>1-(1-F69)^L$1</f>
+        <f t="shared" si="30"/>
         <v>0.21959565913227486</v>
       </c>
       <c r="M69">
-        <f>1-(1-G69)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.46322618054746145</v>
       </c>
       <c r="N69">
-        <f>1-(1-H69)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.79199808241665248</v>
       </c>
       <c r="O69">
-        <f>1-(1-I69)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.98208357606660879</v>
       </c>
       <c r="P69">
-        <f>SQRT((1-E69)/E69^2)</f>
+        <f t="shared" si="34"/>
         <v>504.89869697471141</v>
       </c>
       <c r="Q69">
-        <f>SQRT((1-F69)/F69^2)</f>
+        <f t="shared" si="35"/>
         <v>201.6589579621745</v>
       </c>
       <c r="R69">
-        <f>SQRT((1-G69)/G69^2)</f>
+        <f t="shared" si="36"/>
         <v>80.362275686703256</v>
       </c>
       <c r="S69">
-        <f>SQRT((1-H69)/H69^2)</f>
+        <f t="shared" si="37"/>
         <v>31.841607011842658</v>
       </c>
       <c r="T69">
-        <f>SQRT((1-I69)/I69^2)</f>
+        <f t="shared" si="38"/>
         <v>12.428159242107688</v>
       </c>
     </row>
@@ -10992,11 +10204,11 @@
         <v>14</v>
       </c>
       <c r="C70" s="1">
-        <f>IF(B70=0,1,C69*1.09)</f>
+        <f t="shared" si="26"/>
         <v>3.34172702723626</v>
       </c>
       <c r="D70">
-        <f>IF(B70=0,0,D69+2500)</f>
+        <f t="shared" si="27"/>
         <v>35000</v>
       </c>
       <c r="E70">
@@ -11025,47 +10237,47 @@
         <v>7.1565209764639731E-2</v>
       </c>
       <c r="J70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.27492490983183998</v>
       </c>
       <c r="K70">
-        <f>1-(1-E70)^K$1</f>
+        <f t="shared" si="29"/>
         <v>8.760975761931844E-2</v>
       </c>
       <c r="L70">
-        <f>1-(1-F70)^L$1</f>
+        <f t="shared" si="30"/>
         <v>0.20509663713700554</v>
       </c>
       <c r="M70">
-        <f>1-(1-G70)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.43775901792908745</v>
       </c>
       <c r="N70">
-        <f>1-(1-H70)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.76594287395381921</v>
       </c>
       <c r="O70">
-        <f>1-(1-I70)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.97558985850330704</v>
       </c>
       <c r="P70">
-        <f>SQRT((1-E70)/E70^2)</f>
+        <f t="shared" si="34"/>
         <v>545.33063089430038</v>
       </c>
       <c r="Q70">
-        <f>SQRT((1-F70)/F70^2)</f>
+        <f t="shared" si="35"/>
         <v>217.83177020862911</v>
       </c>
       <c r="R70">
-        <f>SQRT((1-G70)/G70^2)</f>
+        <f t="shared" si="36"/>
         <v>86.831498060238204</v>
       </c>
       <c r="S70">
-        <f>SQRT((1-H70)/H70^2)</f>
+        <f t="shared" si="37"/>
         <v>34.429544635868851</v>
       </c>
       <c r="T70">
-        <f>SQRT((1-I70)/I70^2)</f>
+        <f t="shared" si="38"/>
         <v>13.463989193474202</v>
       </c>
     </row>
@@ -11077,11 +10289,11 @@
         <v>15</v>
       </c>
       <c r="C71" s="1">
-        <f>IF(B71=0,1,C70*1.09)</f>
+        <f t="shared" si="26"/>
         <v>3.6424824596875238</v>
       </c>
       <c r="D71">
-        <f>IF(B71=0,0,D70+2500)</f>
+        <f t="shared" si="27"/>
         <v>37500</v>
       </c>
       <c r="E71">
@@ -11110,47 +10322,47 @@
         <v>4.4728256102899829E-2</v>
       </c>
       <c r="J71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.17182806864489997</v>
       </c>
       <c r="K71">
-        <f>1-(1-E71)^K$1</f>
+        <f t="shared" si="29"/>
         <v>5.5675074163236471E-2</v>
       </c>
       <c r="L71">
-        <f>1-(1-F71)^L$1</f>
+        <f t="shared" si="30"/>
         <v>0.13353682951909851</v>
       </c>
       <c r="M71">
-        <f>1-(1-G71)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.30170427097397468</v>
       </c>
       <c r="N71">
-        <f>1-(1-H71)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.59451213777897172</v>
       </c>
       <c r="O71">
-        <f>1-(1-I71)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.89852791264171261</v>
       </c>
       <c r="P71">
-        <f>SQRT((1-E71)/E71^2)</f>
+        <f t="shared" si="34"/>
         <v>872.82923296836384</v>
       </c>
       <c r="Q71">
-        <f>SQRT((1-F71)/F71^2)</f>
+        <f t="shared" si="35"/>
         <v>348.83139213319004</v>
       </c>
       <c r="R71">
-        <f>SQRT((1-G71)/G71^2)</f>
+        <f t="shared" si="36"/>
         <v>139.23180240842731</v>
       </c>
       <c r="S71">
-        <f>SQRT((1-H71)/H71^2)</f>
+        <f t="shared" si="37"/>
         <v>55.39082343004619</v>
       </c>
       <c r="T71">
-        <f>SQRT((1-I71)/I71^2)</f>
+        <f t="shared" si="38"/>
         <v>21.851512350938815</v>
       </c>
     </row>
@@ -11162,11 +10374,11 @@
         <v>16</v>
       </c>
       <c r="C72" s="1">
-        <f>IF(B72=0,1,C71*1.09)</f>
+        <f t="shared" si="26"/>
         <v>3.9703058810594012</v>
       </c>
       <c r="D72">
-        <f>IF(B72=0,0,D71+2500)</f>
+        <f t="shared" si="27"/>
         <v>40000</v>
       </c>
       <c r="E72">
@@ -11195,47 +10407,47 @@
         <v>4.1415051947129466E-2</v>
       </c>
       <c r="J72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.15910006356009254</v>
       </c>
       <c r="K72">
-        <f>1-(1-E72)^K$1</f>
+        <f t="shared" si="29"/>
         <v>5.1657341872527351E-2</v>
       </c>
       <c r="L72">
-        <f>1-(1-F72)^L$1</f>
+        <f t="shared" si="30"/>
         <v>0.12427583201194725</v>
       </c>
       <c r="M72">
-        <f>1-(1-G72)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.2828161254010324</v>
       </c>
       <c r="N72">
-        <f>1-(1-H72)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.56622902441035805</v>
       </c>
       <c r="O72">
-        <f>1-(1-I72)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.87934918351055014</v>
       </c>
       <c r="P72">
-        <f>SQRT((1-E72)/E72^2)</f>
+        <f t="shared" si="34"/>
         <v>942.69559367678289</v>
       </c>
       <c r="Q72">
-        <f>SQRT((1-F72)/F72^2)</f>
+        <f t="shared" si="35"/>
         <v>376.77795874986299</v>
       </c>
       <c r="R72">
-        <f>SQRT((1-G72)/G72^2)</f>
+        <f t="shared" si="36"/>
         <v>150.41048514725205</v>
       </c>
       <c r="S72">
-        <f>SQRT((1-H72)/H72^2)</f>
+        <f t="shared" si="37"/>
         <v>59.862438397279696</v>
       </c>
       <c r="T72">
-        <f>SQRT((1-I72)/I72^2)</f>
+        <f t="shared" si="38"/>
         <v>23.640523652899681</v>
       </c>
     </row>
@@ -11247,11 +10459,11 @@
         <v>17</v>
       </c>
       <c r="C73" s="1">
-        <f>IF(B73=0,1,C72*1.09)</f>
+        <f t="shared" si="26"/>
         <v>4.327633410354748</v>
       </c>
       <c r="D73">
-        <f>IF(B73=0,0,D72+2500)</f>
+        <f t="shared" si="27"/>
         <v>42500</v>
       </c>
       <c r="E73">
@@ -11280,47 +10492,47 @@
         <v>3.8347270321416167E-2</v>
       </c>
       <c r="J73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.14731487366675233</v>
       </c>
       <c r="K73">
-        <f>1-(1-E73)^K$1</f>
+        <f t="shared" si="29"/>
         <v>4.7922285532148945E-2</v>
       </c>
       <c r="L73">
-        <f>1-(1-F73)^L$1</f>
+        <f t="shared" si="30"/>
         <v>0.1156143823514757</v>
       </c>
       <c r="M73">
-        <f>1-(1-G73)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.26488119865818227</v>
       </c>
       <c r="N73">
-        <f>1-(1-H73)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.53832232708971284</v>
       </c>
       <c r="O73">
-        <f>1-(1-I73)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.85844883928416615</v>
       </c>
       <c r="P73">
-        <f>SQRT((1-E73)/E73^2)</f>
+        <f t="shared" si="34"/>
         <v>1018.1512616057363</v>
       </c>
       <c r="Q73">
-        <f>SQRT((1-F73)/F73^2)</f>
+        <f t="shared" si="35"/>
         <v>406.96024659571594</v>
       </c>
       <c r="R73">
-        <f>SQRT((1-G73)/G73^2)</f>
+        <f t="shared" si="36"/>
         <v>162.48345219307447</v>
       </c>
       <c r="S73">
-        <f>SQRT((1-H73)/H73^2)</f>
+        <f t="shared" si="37"/>
         <v>64.691756388991109</v>
       </c>
       <c r="T73">
-        <f>SQRT((1-I73)/I73^2)</f>
+        <f t="shared" si="38"/>
         <v>25.572587860573996</v>
       </c>
     </row>
@@ -11332,11 +10544,11 @@
         <v>18</v>
       </c>
       <c r="C74" s="1">
-        <f>IF(B74=0,1,C73*1.09)</f>
+        <f t="shared" si="26"/>
         <v>4.7171204172866759</v>
       </c>
       <c r="D74">
-        <f>IF(B74=0,0,D73+2500)</f>
+        <f t="shared" si="27"/>
         <v>45000</v>
       </c>
       <c r="E74">
@@ -11365,47 +10577,47 @@
         <v>3.5506731779089043E-2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.13640266080254845</v>
       </c>
       <c r="K74">
-        <f>1-(1-E74)^K$1</f>
+        <f t="shared" si="29"/>
         <v>4.4451048164407037E-2</v>
       </c>
       <c r="L74">
-        <f>1-(1-F74)^L$1</f>
+        <f t="shared" si="30"/>
         <v>0.10751969799339656</v>
       </c>
       <c r="M74">
-        <f>1-(1-G74)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.24788330619993915</v>
       </c>
       <c r="N74">
-        <f>1-(1-H74)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.51091834053376839</v>
       </c>
       <c r="O74">
-        <f>1-(1-I74)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.83595611749448784</v>
       </c>
       <c r="P74">
-        <f>SQRT((1-E74)/E74^2)</f>
+        <f t="shared" si="34"/>
         <v>1099.6433814542418</v>
       </c>
       <c r="Q74">
-        <f>SQRT((1-F74)/F74^2)</f>
+        <f t="shared" si="35"/>
         <v>439.55711367392115</v>
       </c>
       <c r="R74">
-        <f>SQRT((1-G74)/G74^2)</f>
+        <f t="shared" si="36"/>
         <v>175.52224706140109</v>
       </c>
       <c r="S74">
-        <f>SQRT((1-H74)/H74^2)</f>
+        <f t="shared" si="37"/>
         <v>69.907395631252555</v>
       </c>
       <c r="T74">
-        <f>SQRT((1-I74)/I74^2)</f>
+        <f t="shared" si="38"/>
         <v>27.659154545031871</v>
       </c>
     </row>
@@ -11417,11 +10629,11 @@
         <v>19</v>
       </c>
       <c r="C75" s="1">
-        <f>IF(B75=0,1,C74*1.09)</f>
+        <f t="shared" si="26"/>
         <v>5.1416612548424769</v>
       </c>
       <c r="D75">
-        <f>IF(B75=0,0,D74+2500)</f>
+        <f t="shared" si="27"/>
         <v>47500</v>
       </c>
       <c r="E75">
@@ -11450,47 +10662,47 @@
         <v>3.2876603499156519E-2</v>
       </c>
       <c r="J75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>0.12629876000235968</v>
       </c>
       <c r="K75">
-        <f>1-(1-E75)^K$1</f>
+        <f t="shared" si="29"/>
         <v>4.1225882448122753E-2</v>
       </c>
       <c r="L75">
-        <f>1-(1-F75)^L$1</f>
+        <f t="shared" si="30"/>
         <v>9.9959906120793418E-2</v>
       </c>
       <c r="M75">
-        <f>1-(1-G75)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.23180142723133601</v>
       </c>
       <c r="N75">
-        <f>1-(1-H75)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.48412657110787949</v>
       </c>
       <c r="O75">
-        <f>1-(1-I75)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.81202742529080751</v>
       </c>
       <c r="P75">
-        <f>SQRT((1-E75)/E75^2)</f>
+        <f t="shared" si="34"/>
         <v>1187.6548694882215</v>
       </c>
       <c r="Q75">
-        <f>SQRT((1-F75)/F75^2)</f>
+        <f t="shared" si="35"/>
         <v>474.76172660516397</v>
       </c>
       <c r="R75">
-        <f>SQRT((1-G75)/G75^2)</f>
+        <f t="shared" si="36"/>
         <v>189.60413669085338</v>
       </c>
       <c r="S75">
-        <f>SQRT((1-H75)/H75^2)</f>
+        <f t="shared" si="37"/>
         <v>75.540263654659597</v>
       </c>
       <c r="T75">
-        <f>SQRT((1-I75)/I75^2)</f>
+        <f t="shared" si="38"/>
         <v>29.912588802551134</v>
       </c>
     </row>
@@ -11502,11 +10714,11 @@
         <v>20</v>
       </c>
       <c r="C76" s="1">
-        <f>IF(B76=0,1,C75*1.09)</f>
+        <f t="shared" si="26"/>
         <v>5.6044107677783002</v>
       </c>
       <c r="D76">
-        <f>IF(B76=0,0,D75+2500)</f>
+        <f t="shared" si="27"/>
         <v>50000</v>
       </c>
       <c r="E76">
@@ -11535,47 +10747,47 @@
         <v>1.9339178528915601E-2</v>
       </c>
       <c r="J76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>7.4293388236682162E-2</v>
       </c>
       <c r="K76">
-        <f>1-(1-E76)^K$1</f>
+        <f t="shared" si="29"/>
         <v>2.4456256916380092E-2</v>
       </c>
       <c r="L76">
-        <f>1-(1-F76)^L$1</f>
+        <f t="shared" si="30"/>
         <v>6.004539826862787E-2</v>
       </c>
       <c r="M76">
-        <f>1-(1-G76)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.14354481465784852</v>
       </c>
       <c r="N76">
-        <f>1-(1-H76)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.32178256783475512</v>
       </c>
       <c r="O76">
-        <f>1-(1-I76)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.6233471533248911</v>
       </c>
       <c r="P76">
-        <f>SQRT((1-E76)/E76^2)</f>
+        <f t="shared" si="34"/>
         <v>2019.363395153307</v>
       </c>
       <c r="Q76">
-        <f>SQRT((1-F76)/F76^2)</f>
+        <f t="shared" si="35"/>
         <v>807.44522801235371</v>
       </c>
       <c r="R76">
-        <f>SQRT((1-G76)/G76^2)</f>
+        <f t="shared" si="36"/>
         <v>322.6777657455039</v>
       </c>
       <c r="S76">
-        <f>SQRT((1-H76)/H76^2)</f>
+        <f t="shared" si="37"/>
         <v>128.77029053431065</v>
       </c>
       <c r="T76">
-        <f>SQRT((1-I76)/I76^2)</f>
+        <f t="shared" si="38"/>
         <v>51.206063441609857</v>
       </c>
     </row>
@@ -11587,11 +10799,11 @@
         <v>21</v>
       </c>
       <c r="C77" s="1">
-        <f>IF(B77=0,1,C76*1.09)</f>
+        <f t="shared" si="26"/>
         <v>6.1088077368783473</v>
       </c>
       <c r="D77">
-        <f>IF(B77=0,0,D76+2500)</f>
+        <f t="shared" si="27"/>
         <v>52500</v>
       </c>
       <c r="E77">
@@ -11620,47 +10832,47 @@
         <v>1.7906646786032959E-2</v>
       </c>
       <c r="J77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>6.8790174293224218E-2</v>
       </c>
       <c r="K77">
-        <f>1-(1-E77)^K$1</f>
+        <f t="shared" si="29"/>
         <v>2.2664964487980499E-2</v>
       </c>
       <c r="L77">
-        <f>1-(1-F77)^L$1</f>
+        <f t="shared" si="30"/>
         <v>5.5721494350957967E-2</v>
       </c>
       <c r="M77">
-        <f>1-(1-G77)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.13364349091075722</v>
       </c>
       <c r="N77">
-        <f>1-(1-H77)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.30192008077713572</v>
       </c>
       <c r="O77">
-        <f>1-(1-I77)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.59482878116799753</v>
       </c>
       <c r="P77">
-        <f>SQRT((1-E77)/E77^2)</f>
+        <f t="shared" si="34"/>
         <v>2180.9524763039158</v>
       </c>
       <c r="Q77">
-        <f>SQRT((1-F77)/F77^2)</f>
+        <f t="shared" si="35"/>
         <v>872.08087011201019</v>
       </c>
       <c r="R77">
-        <f>SQRT((1-G77)/G77^2)</f>
+        <f t="shared" si="36"/>
         <v>348.53204673203862</v>
       </c>
       <c r="S77">
-        <f>SQRT((1-H77)/H77^2)</f>
+        <f t="shared" si="37"/>
         <v>139.11206359832667</v>
       </c>
       <c r="T77">
-        <f>SQRT((1-I77)/I77^2)</f>
+        <f t="shared" si="38"/>
         <v>55.342926262144871</v>
       </c>
     </row>
@@ -11672,11 +10884,11 @@
         <v>22</v>
       </c>
       <c r="C78" s="1">
-        <f>IF(B78=0,1,C77*1.09)</f>
+        <f t="shared" si="26"/>
         <v>6.6586004331973987</v>
       </c>
       <c r="D78">
-        <f>IF(B78=0,0,D77+2500)</f>
+        <f t="shared" si="27"/>
         <v>55000</v>
       </c>
       <c r="E78">
@@ -11705,47 +10917,47 @@
         <v>1.6580228505586075E-2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>6.3694605827059464E-2</v>
       </c>
       <c r="K78">
-        <f>1-(1-E78)^K$1</f>
+        <f t="shared" si="29"/>
         <v>2.1003486542905625E-2</v>
       </c>
       <c r="L78">
-        <f>1-(1-F78)^L$1</f>
+        <f t="shared" si="30"/>
         <v>5.1700502809993276E-2</v>
       </c>
       <c r="M78">
-        <f>1-(1-G78)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.12437562736509478</v>
       </c>
       <c r="N78">
-        <f>1-(1-H78)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.28302124710974219</v>
       </c>
       <c r="O78">
-        <f>1-(1-I78)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.56654224922994922</v>
       </c>
       <c r="P78">
-        <f>SQRT((1-E78)/E78^2)</f>
+        <f t="shared" si="34"/>
         <v>2355.4686832397942</v>
       </c>
       <c r="Q78">
-        <f>SQRT((1-F78)/F78^2)</f>
+        <f t="shared" si="35"/>
         <v>941.88736181086517</v>
       </c>
       <c r="R78">
-        <f>SQRT((1-G78)/G78^2)</f>
+        <f t="shared" si="36"/>
         <v>376.45466576409899</v>
       </c>
       <c r="S78">
-        <f>SQRT((1-H78)/H78^2)</f>
+        <f t="shared" si="37"/>
         <v>150.28116735178531</v>
       </c>
       <c r="T78">
-        <f>SQRT((1-I78)/I78^2)</f>
+        <f t="shared" si="38"/>
         <v>59.810709759279412</v>
       </c>
     </row>
@@ -11757,11 +10969,11 @@
         <v>23</v>
       </c>
       <c r="C79" s="1">
-        <f>IF(B79=0,1,C78*1.09)</f>
+        <f t="shared" si="26"/>
         <v>7.2578744721851649</v>
       </c>
       <c r="D79">
-        <f>IF(B79=0,0,D78+2500)</f>
+        <f t="shared" si="27"/>
         <v>57500</v>
       </c>
       <c r="E79">
@@ -11790,47 +11002,47 @@
         <v>1.5352063431098217E-2</v>
       </c>
       <c r="J79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>5.897648687690691E-2</v>
       </c>
       <c r="K79">
-        <f>1-(1-E79)^K$1</f>
+        <f t="shared" si="29"/>
         <v>1.946261315079334E-2</v>
       </c>
       <c r="L79">
-        <f>1-(1-F79)^L$1</f>
+        <f t="shared" si="30"/>
         <v>4.796240367336535E-2</v>
       </c>
       <c r="M79">
-        <f>1-(1-G79)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.11570768139979637</v>
       </c>
       <c r="N79">
-        <f>1-(1-H79)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.26507578165186452</v>
       </c>
       <c r="O79">
-        <f>1-(1-I79)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.53863063224761865</v>
       </c>
       <c r="P79">
-        <f>SQRT((1-E79)/E79^2)</f>
+        <f t="shared" si="34"/>
         <v>2543.9461860761526</v>
       </c>
       <c r="Q79">
-        <f>SQRT((1-F79)/F79^2)</f>
+        <f t="shared" si="35"/>
         <v>1017.2783712080845</v>
       </c>
       <c r="R79">
-        <f>SQRT((1-G79)/G79^2)</f>
+        <f t="shared" si="36"/>
         <v>406.61109021503989</v>
       </c>
       <c r="S79">
-        <f>SQRT((1-H79)/H79^2)</f>
+        <f t="shared" si="37"/>
         <v>162.34378908447957</v>
       </c>
       <c r="T79">
-        <f>SQRT((1-I79)/I79^2)</f>
+        <f t="shared" si="38"/>
         <v>64.635889740268098</v>
       </c>
     </row>
@@ -11842,11 +11054,11 @@
         <v>24</v>
       </c>
       <c r="C80" s="1">
-        <f>IF(B80=0,1,C79*1.09)</f>
+        <f t="shared" si="26"/>
         <v>7.9110831746818304</v>
       </c>
       <c r="D80">
-        <f>IF(B80=0,0,D79+2500)</f>
+        <f t="shared" si="27"/>
         <v>60000</v>
       </c>
       <c r="E80">
@@ -11875,47 +11087,47 @@
         <v>1.4214873547313165E-2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>5.4607858219358249E-2</v>
       </c>
       <c r="K80">
-        <f>1-(1-E80)^K$1</f>
+        <f t="shared" si="29"/>
         <v>1.8033759509693104E-2</v>
       </c>
       <c r="L80">
-        <f>1-(1-F80)^L$1</f>
+        <f t="shared" si="30"/>
         <v>4.4488327369396452E-2</v>
       </c>
       <c r="M80">
-        <f>1-(1-G80)^M$1</f>
+        <f t="shared" si="31"/>
         <v>0.10760686115085916</v>
       </c>
       <c r="N80">
-        <f>1-(1-H80)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.24806755915674372</v>
       </c>
       <c r="O80">
-        <f>1-(1-I80)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.51122041176830224</v>
       </c>
       <c r="P80">
-        <f>SQRT((1-E80)/E80^2)</f>
+        <f t="shared" si="34"/>
         <v>2747.5018885335312</v>
       </c>
       <c r="Q80">
-        <f>SQRT((1-F80)/F80^2)</f>
+        <f t="shared" si="35"/>
         <v>1098.7006598410162</v>
       </c>
       <c r="R80">
-        <f>SQRT((1-G80)/G80^2)</f>
+        <f t="shared" si="36"/>
         <v>439.18002482347327</v>
       </c>
       <c r="S80">
-        <f>SQRT((1-H80)/H80^2)</f>
+        <f t="shared" si="37"/>
         <v>175.37141100636882</v>
       </c>
       <c r="T80">
-        <f>SQRT((1-I80)/I80^2)</f>
+        <f t="shared" si="38"/>
         <v>69.847059909717487</v>
       </c>
     </row>
@@ -11927,11 +11139,11 @@
         <v>25</v>
       </c>
       <c r="C81" s="1">
-        <f>IF(B81=0,1,C80*1.09)</f>
+        <f t="shared" si="26"/>
         <v>8.6230806604031951</v>
       </c>
       <c r="D81">
-        <f>IF(B81=0,0,D80+2500)</f>
+        <f t="shared" si="27"/>
         <v>62500</v>
       </c>
       <c r="E81">
@@ -11960,47 +11172,47 @@
         <v>7.1074367736565823E-3</v>
       </c>
       <c r="J81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>2.7303929109679125E-2</v>
       </c>
       <c r="K81">
-        <f>1-(1-E81)^K$1</f>
+        <f t="shared" si="29"/>
         <v>9.057082103522851E-3</v>
       </c>
       <c r="L81">
-        <f>1-(1-F81)^L$1</f>
+        <f t="shared" si="30"/>
         <v>2.2492165233378825E-2</v>
       </c>
       <c r="M81">
-        <f>1-(1-G81)^M$1</f>
+        <f t="shared" si="31"/>
         <v>5.5303766071326366E-2</v>
       </c>
       <c r="N81">
-        <f>1-(1-H81)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.13268338289531678</v>
       </c>
       <c r="O81">
-        <f>1-(1-I81)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.29997606113703879</v>
       </c>
       <c r="P81">
-        <f>SQRT((1-E81)/E81^2)</f>
+        <f t="shared" si="34"/>
         <v>5495.5038453129428</v>
       </c>
       <c r="Q81">
-        <f>SQRT((1-F81)/F81^2)</f>
+        <f t="shared" si="35"/>
         <v>2197.9014903510938</v>
       </c>
       <c r="R81">
-        <f>SQRT((1-G81)/G81^2)</f>
+        <f t="shared" si="36"/>
         <v>878.8604766597914</v>
       </c>
       <c r="S81">
-        <f>SQRT((1-H81)/H81^2)</f>
+        <f t="shared" si="37"/>
         <v>351.24389167786921</v>
       </c>
       <c r="T81">
-        <f>SQRT((1-I81)/I81^2)</f>
+        <f t="shared" si="38"/>
         <v>140.19680742138519</v>
       </c>
     </row>
@@ -12012,11 +11224,11 @@
         <v>26</v>
       </c>
       <c r="C82" s="1">
-        <f>IF(B82=0,1,C81*1.09)</f>
+        <f t="shared" si="26"/>
         <v>9.3991579198394835</v>
       </c>
       <c r="D82">
-        <f>IF(B82=0,0,D81+2500)</f>
+        <f t="shared" si="27"/>
         <v>65000</v>
       </c>
       <c r="E82">
@@ -12045,47 +11257,47 @@
         <v>6.5809599756079459E-3</v>
       </c>
       <c r="J82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>2.5281415842295485E-2</v>
       </c>
       <c r="K82">
-        <f>1-(1-E82)^K$1</f>
+        <f t="shared" si="29"/>
         <v>8.3889531204041079E-3</v>
       </c>
       <c r="L82">
-        <f>1-(1-F82)^L$1</f>
+        <f t="shared" si="30"/>
         <v>2.084322170628583E-2</v>
       </c>
       <c r="M82">
-        <f>1-(1-G82)^M$1</f>
+        <f t="shared" si="31"/>
         <v>5.1312109580950227E-2</v>
       </c>
       <c r="N82">
-        <f>1-(1-H82)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.12347735589588404</v>
       </c>
       <c r="O82">
-        <f>1-(1-I82)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.28117367302441421</v>
       </c>
       <c r="P82">
-        <f>SQRT((1-E82)/E82^2)</f>
+        <f t="shared" si="34"/>
         <v>5935.1841564426677</v>
       </c>
       <c r="Q82">
-        <f>SQRT((1-F82)/F82^2)</f>
+        <f t="shared" si="35"/>
         <v>2373.7736183426359</v>
       </c>
       <c r="R82">
-        <f>SQRT((1-G82)/G82^2)</f>
+        <f t="shared" si="36"/>
         <v>949.2093367120226</v>
       </c>
       <c r="S82">
-        <f>SQRT((1-H82)/H82^2)</f>
+        <f t="shared" si="37"/>
         <v>379.38345787842195</v>
       </c>
       <c r="T82">
-        <f>SQRT((1-I82)/I82^2)</f>
+        <f t="shared" si="38"/>
         <v>151.45268960609346</v>
       </c>
     </row>
@@ -12097,11 +11309,11 @@
         <v>27</v>
       </c>
       <c r="C83" s="1">
-        <f>IF(B83=0,1,C82*1.09)</f>
+        <f t="shared" si="26"/>
         <v>10.245082132625038</v>
       </c>
       <c r="D83">
-        <f>IF(B83=0,0,D82+2500)</f>
+        <f t="shared" si="27"/>
         <v>67500</v>
       </c>
       <c r="E83">
@@ -12130,47 +11342,47 @@
         <v>6.0934814588962461E-3</v>
       </c>
       <c r="J83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>2.3408718372495817E-2</v>
       </c>
       <c r="K83">
-        <f>1-(1-E83)^K$1</f>
+        <f t="shared" si="29"/>
         <v>7.7699215585654846E-3</v>
       </c>
       <c r="L83">
-        <f>1-(1-F83)^L$1</f>
+        <f t="shared" si="30"/>
         <v>1.9313991780768536E-2</v>
       </c>
       <c r="M83">
-        <f>1-(1-G83)^M$1</f>
+        <f t="shared" si="31"/>
         <v>4.7601396492699344E-2</v>
       </c>
       <c r="N83">
-        <f>1-(1-H83)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.11486791190180834</v>
       </c>
       <c r="O83">
-        <f>1-(1-I83)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.26332327845229153</v>
       </c>
       <c r="P83">
-        <f>SQRT((1-E83)/E83^2)</f>
+        <f t="shared" si="34"/>
         <v>6410.0388922031343</v>
       </c>
       <c r="Q83">
-        <f>SQRT((1-F83)/F83^2)</f>
+        <f t="shared" si="35"/>
         <v>2563.7155159241593</v>
       </c>
       <c r="R83">
-        <f>SQRT((1-G83)/G83^2)</f>
+        <f t="shared" si="36"/>
         <v>1025.186103943533</v>
       </c>
       <c r="S83">
-        <f>SQRT((1-H83)/H83^2)</f>
+        <f t="shared" si="37"/>
         <v>409.77418530309825</v>
       </c>
       <c r="T83">
-        <f>SQRT((1-I83)/I83^2)</f>
+        <f t="shared" si="38"/>
         <v>163.60903212490163</v>
       </c>
     </row>
@@ -12182,11 +11394,11 @@
         <v>28</v>
       </c>
       <c r="C84" s="1">
-        <f>IF(B84=0,1,C83*1.09)</f>
+        <f t="shared" si="26"/>
         <v>11.167139524561293</v>
       </c>
       <c r="D84">
-        <f>IF(B84=0,0,D83+2500)</f>
+        <f t="shared" si="27"/>
         <v>70000</v>
       </c>
       <c r="E84">
@@ -12215,47 +11427,47 @@
         <v>5.6421124619409676E-3</v>
       </c>
       <c r="J84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>2.1674739233792421E-2</v>
       </c>
       <c r="K84">
-        <f>1-(1-E84)^K$1</f>
+        <f t="shared" si="29"/>
         <v>7.1964065228594665E-3</v>
       </c>
       <c r="L84">
-        <f>1-(1-F84)^L$1</f>
+        <f t="shared" si="30"/>
         <v>1.7895951371101448E-2</v>
       </c>
       <c r="M84">
-        <f>1-(1-G84)^M$1</f>
+        <f t="shared" si="31"/>
         <v>4.415287075265717E-2</v>
       </c>
       <c r="N84">
-        <f>1-(1-H84)^N$1</f>
+        <f t="shared" si="32"/>
         <v>0.1068223438878777</v>
       </c>
       <c r="O84">
-        <f>1-(1-I84)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.24640822127215523</v>
       </c>
       <c r="P84">
-        <f>SQRT((1-E84)/E84^2)</f>
+        <f t="shared" si="34"/>
         <v>6922.8820065840364</v>
       </c>
       <c r="Q84">
-        <f>SQRT((1-F84)/F84^2)</f>
+        <f t="shared" si="35"/>
         <v>2768.8527647109895</v>
       </c>
       <c r="R84">
-        <f>SQRT((1-G84)/G84^2)</f>
+        <f t="shared" si="36"/>
         <v>1107.2410110492046</v>
       </c>
       <c r="S84">
-        <f>SQRT((1-H84)/H84^2)</f>
+        <f t="shared" si="37"/>
         <v>442.59616715255925</v>
       </c>
       <c r="T84">
-        <f>SQRT((1-I84)/I84^2)</f>
+        <f t="shared" si="38"/>
         <v>176.7378725700955</v>
       </c>
     </row>
@@ -12267,11 +11479,11 @@
         <v>29</v>
       </c>
       <c r="C85" s="1">
-        <f>IF(B85=0,1,C84*1.09)</f>
+        <f t="shared" si="26"/>
         <v>12.17218208177181</v>
       </c>
       <c r="D85">
-        <f>IF(B85=0,0,D84+2500)</f>
+        <f t="shared" si="27"/>
         <v>72500</v>
       </c>
       <c r="E85">
@@ -12300,47 +11512,47 @@
         <v>5.2241782055008961E-3</v>
       </c>
       <c r="J85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>2.0069202994252241E-2</v>
       </c>
       <c r="K85">
-        <f>1-(1-E85)^K$1</f>
+        <f t="shared" si="29"/>
         <v>6.6650844293072442E-3</v>
       </c>
       <c r="L85">
-        <f>1-(1-F85)^L$1</f>
+        <f t="shared" si="30"/>
         <v>1.6581159430354764E-2</v>
       </c>
       <c r="M85">
-        <f>1-(1-G85)^M$1</f>
+        <f t="shared" si="31"/>
         <v>4.0948882200965153E-2</v>
       </c>
       <c r="N85">
-        <f>1-(1-H85)^N$1</f>
+        <f t="shared" si="32"/>
         <v>9.9308866799982853E-2</v>
       </c>
       <c r="O85">
-        <f>1-(1-I85)^O$1</f>
+        <f t="shared" si="33"/>
         <v>0.23040709356296851</v>
       </c>
       <c r="P85">
-        <f>SQRT((1-E85)/E85^2)</f>
+        <f t="shared" si="34"/>
         <v>7476.7525698928212</v>
       </c>
       <c r="Q85">
-        <f>SQRT((1-F85)/F85^2)</f>
+        <f t="shared" si="35"/>
         <v>2990.4009928441096</v>
       </c>
       <c r="R85">
-        <f>SQRT((1-G85)/G85^2)</f>
+        <f t="shared" si="36"/>
         <v>1195.8603093305551</v>
       </c>
       <c r="S85">
-        <f>SQRT((1-H85)/H85^2)</f>
+        <f t="shared" si="37"/>
         <v>478.04390406093614</v>
       </c>
       <c r="T85">
-        <f>SQRT((1-I85)/I85^2)</f>
+        <f t="shared" si="38"/>
         <v>190.91701148363151</v>
       </c>
     </row>
@@ -12352,11 +11564,11 @@
         <v>30</v>
       </c>
       <c r="C86" s="1">
-        <f>IF(B86=0,1,C85*1.09)</f>
+        <f t="shared" si="26"/>
         <v>13.267678469131274</v>
       </c>
       <c r="D86">
-        <f>IF(B86=0,0,D85+2500)</f>
+        <f t="shared" si="27"/>
         <v>75000</v>
       </c>
       <c r="E86">
@@ -12385,47 +11597,47 @@
         <v>1.7413927351669653E-3</v>
       </c>
       <c r="J86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>6.6897343314174136E-3</v>
       </c>
       <c r="K86">
-        <f>1-(1-E86)^K$1</f>
+        <f t="shared" si="29"/>
         <v>2.2265499382680964E-3</v>
       </c>
       <c r="L86">
-        <f>1-(1-F86)^L$1</f>
+        <f t="shared" si="30"/>
         <v>5.5572682349250835E-3</v>
       </c>
       <c r="M86">
-        <f>1-(1-G86)^M$1</f>
+        <f t="shared" si="31"/>
         <v>1.383646684882478E-2</v>
       </c>
       <c r="N86">
-        <f>1-(1-H86)^N$1</f>
+        <f t="shared" si="32"/>
         <v>3.4240064986893581E-2</v>
       </c>
       <c r="O86">
-        <f>1-(1-I86)^O$1</f>
+        <f t="shared" si="33"/>
         <v>8.345630427001749E-2</v>
       </c>
       <c r="P86">
-        <f>SQRT((1-E86)/E86^2)</f>
+        <f t="shared" si="34"/>
         <v>22431.257754261344</v>
       </c>
       <c r="Q86">
-        <f>SQRT((1-F86)/F86^2)</f>
+        <f t="shared" si="35"/>
         <v>8972.2030900016525</v>
       </c>
       <c r="R86">
-        <f>SQRT((1-G86)/G86^2)</f>
+        <f t="shared" si="36"/>
         <v>3588.5812067407205</v>
       </c>
       <c r="S86">
-        <f>SQRT((1-H86)/H86^2)</f>
+        <f t="shared" si="37"/>
         <v>1435.1324095293969</v>
       </c>
       <c r="T86">
-        <f>SQRT((1-I86)/I86^2)</f>
+        <f t="shared" si="38"/>
         <v>573.75278078792201</v>
       </c>
     </row>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FC173-983F-4DC4-B94F-37BA0E29F08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A3AEC-72A3-49A0-A178-3856E948F620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,7 +268,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shot_RunicAxe</t>
+    <t>RunicAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -653,11 +657,11 @@
     <col min="3" max="3" width="9" collapsed="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="9" collapsed="1"/>
-    <col min="14" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="15" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -694,8 +698,11 @@
       <c r="L1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A13" si="0">"Equip"&amp;C2&amp;E2&amp;TEXT(B2,"00")</f>
         <v>Equip0001</v>
@@ -707,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="1">VLOOKUP(C2,$N:$O,2,0)</f>
+        <f t="shared" ref="D2:D33" si="1">VLOOKUP(C2,$O:$P,2,0)</f>
         <v>Axe</v>
       </c>
       <c r="E2">
@@ -729,17 +736,25 @@
       <c r="J2">
         <v>115</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>63</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="L2" t="str">
+        <f>"Shot_"&amp;K2</f>
+        <v>Shot_RunicAxe</v>
+      </c>
+      <c r="M2" t="str">
+        <f>"EquipName_"&amp;K2</f>
+        <v>EquipName_RunicAxe</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Equip0101</v>
@@ -773,14 +788,14 @@
       <c r="J3">
         <v>1000</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Equip0201</v>
@@ -814,14 +829,14 @@
       <c r="J4">
         <v>1000</v>
       </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Equip0202</v>
@@ -855,14 +870,14 @@
       <c r="J5">
         <v>1000</v>
       </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Equip0301</v>
@@ -896,14 +911,14 @@
       <c r="J6">
         <v>1000</v>
       </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Equip0302</v>
@@ -937,14 +952,14 @@
       <c r="J7">
         <v>1000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Equip0401</v>
@@ -978,14 +993,14 @@
       <c r="J8">
         <v>1000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Equip0402</v>
@@ -1019,14 +1034,14 @@
       <c r="J9">
         <v>1000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>7</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Equip0403</v>
@@ -1060,14 +1075,14 @@
       <c r="J10">
         <v>1000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>8</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Equip0404</v>
@@ -1102,7 +1117,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Equip0405</v>
@@ -1137,7 +1152,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Equip1001</v>
@@ -1173,7 +1188,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" ref="A14:A77" si="4">"Equip"&amp;C14&amp;E14&amp;TEXT(B14,"00")</f>
         <v>Equip1101</v>
@@ -1209,7 +1224,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="4"/>
         <v>Equip1201</v>
@@ -1245,7 +1260,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="4"/>
         <v>Equip1202</v>
@@ -1906,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="5">VLOOKUP(C34,$N:$O,2,0)</f>
+        <f t="shared" ref="D34:D65" si="5">VLOOKUP(C34,$O:$P,2,0)</f>
         <v>Bow</v>
       </c>
       <c r="E34">
@@ -3058,7 +3073,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D97" si="8">VLOOKUP(C66,$N:$O,2,0)</f>
+        <f t="shared" ref="D66:D97" si="8">VLOOKUP(C66,$O:$P,2,0)</f>
         <v>Sword</v>
       </c>
       <c r="E66">
@@ -4210,7 +4225,7 @@
         <v>8</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98:D100" si="12">VLOOKUP(C98,$N:$O,2,0)</f>
+        <f t="shared" ref="D98:D100" si="12">VLOOKUP(C98,$O:$P,2,0)</f>
         <v>TwoHanded</v>
       </c>
       <c r="E98">
@@ -9856,7 +9871,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C97" si="26">IF(B66=0,1,C65*1.09)</f>
+        <f t="shared" ref="C66:C86" si="26">IF(B66=0,1,C65*1.09)</f>
         <v>2.3673636745921187</v>
       </c>
       <c r="D66">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A3AEC-72A3-49A0-A178-3856E948F620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9615CDE2-B7D1-4F9A-BD4B-41DF05B88630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -272,7 +272,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name|String</t>
+    <t>nameId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9615CDE2-B7D1-4F9A-BD4B-41DF05B88630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5F3994-931B-4B52-AABB-EA2E1219DD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="85">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equipType참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Axe</t>
   </si>
   <si>
@@ -275,6 +271,88 @@
     <t>nameId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>f1|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티 랜덤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익스포넨셜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리니어</t>
+  </si>
+  <si>
+    <t>리니어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftRight|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwoHanded</t>
+  </si>
+  <si>
+    <t>randType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -322,12 +400,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,42 +724,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" collapsed="1"/>
-    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" collapsed="1"/>
-    <col min="15" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" collapsed="1"/>
+    <col min="2" max="2" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" collapsed="1"/>
+    <col min="11" max="11" width="12.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9" collapsed="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" collapsed="1"/>
+    <col min="22" max="22" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>33</v>
@@ -693,41 +778,71 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A13" si="0">"Equip"&amp;C2&amp;E2&amp;TEXT(B2,"00")</f>
+        <f ca="1">"Equip"&amp;C2&amp;D2&amp;TEXT(F2,"00")</f>
         <v>Equip0001</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="1">VLOOKUP(C2,$O:$P,2,0)</f>
-        <v>Axe</v>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:C65" ca="1" si="0">VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H33" si="2">INT(E2/2)+1</f>
+        <f t="shared" ref="H2:H35" si="1">INT(D2/2)+1</f>
         <v>1</v>
       </c>
       <c r="I2">
@@ -737,122 +852,215 @@
         <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="str">
-        <f>"Shot_"&amp;K2</f>
+        <v>68</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L1:L64" ca="1" si="2">VLOOKUP(K2,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <f>IF(E2&lt;=3,0,
+IF(E2=4,-20,
+IF(E2=5,-10,
+IF(E2=6,-5,
+"없음"))))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="str">
+        <f>"Shot_"&amp;O2</f>
         <v>Shot_RunicAxe</v>
       </c>
-      <c r="M2" t="str">
-        <f>"EquipName_"&amp;K2</f>
+      <c r="Q2" t="str">
+        <f>"EquipName_"&amp;O2</f>
         <v>EquipName_RunicAxe</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0101</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>Axe</v>
+        <f ca="1">"Equip"&amp;C3&amp;D3&amp;TEXT(F3,"00")</f>
+        <v>Equip0002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H3" si="3">INT(D3/2)+1</f>
         <v>1</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>1000</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="4">IF(E3&lt;=3,0,
+IF(E3=4,-20,
+IF(E3=5,-10,
+IF(E3=6,-5,
+"없음"))))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P6" si="5">"Shot_"&amp;O3</f>
+        <v>Shot_RunicAxe</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q6" si="6">"EquipName_"&amp;O3</f>
+        <v>EquipName_RunicAxe</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f ca="1">"Equip"&amp;C4&amp;D4&amp;TEXT(F4,"00")</f>
+        <v>Equip0101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>115</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="5"/>
+        <v>Shot_RunicAxe</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="6"/>
+        <v>EquipName_RunicAxe</v>
+      </c>
+      <c r="S4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0201</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>Axe</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0202</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>Axe</v>
+        <f ca="1">"Equip"&amp;C5&amp;D5&amp;TEXT(F5,"00")</f>
+        <v>Equip0102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -861,1968 +1069,2552 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" ref="H5" si="7">INT(D5/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>1000</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="5"/>
+        <v>Shot_RunicAxe</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="6"/>
+        <v>EquipName_RunicAxe</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0301</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="str">
+        <f ca="1">"Equip"&amp;C6&amp;D6&amp;TEXT(F6,"00")</f>
+        <v>Equip0201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>Axe</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>1000</v>
-      </c>
-      <c r="O6">
+        <v>115</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="5"/>
+        <v>Shot_RunicAxe</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="6"/>
+        <v>EquipName_RunicAxe</v>
+      </c>
+      <c r="S6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6">
         <v>4</v>
       </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0302</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="str">
+        <f ca="1">"Equip"&amp;C7&amp;D7&amp;TEXT(F7,"00")</f>
+        <v>Equip0202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>Axe</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
-        <v>1000</v>
-      </c>
-      <c r="O7">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7">
         <v>5</v>
       </c>
-      <c r="P7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0401</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="str">
+        <f ca="1">"Equip"&amp;C8&amp;D8&amp;TEXT(F8,"00")</f>
+        <v>Equip0301</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>Axe</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>1000</v>
-      </c>
-      <c r="O8">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8">
         <v>6</v>
       </c>
-      <c r="P8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0402</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="str">
+        <f ca="1">"Equip"&amp;C9&amp;D9&amp;TEXT(F9,"00")</f>
+        <v>Equip0302</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>Axe</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>1000</v>
-      </c>
-      <c r="O9">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9">
         <v>7</v>
       </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0403</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>Axe</v>
+        <f ca="1">"Equip"&amp;C10&amp;D10&amp;TEXT(F10,"00")</f>
+        <v>Equip0401</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>1000</v>
-      </c>
-      <c r="O10">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10">
         <v>8</v>
       </c>
-      <c r="P10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0404</v>
-      </c>
-      <c r="B11">
+        <f ca="1">"Equip"&amp;C11&amp;D11&amp;TEXT(F11,"00")</f>
+        <v>Equip0402</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>4</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>Axe</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip0405</v>
-      </c>
-      <c r="B12">
+        <f ca="1">"Equip"&amp;C12&amp;D12&amp;TEXT(F12,"00")</f>
+        <v>Equip0403</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>Axe</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>Equip1001</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:C44" si="3">C2+1</f>
-        <v>1</v>
-      </c>
-      <c r="D13" t="str">
+        <f ca="1">"Equip"&amp;C13&amp;D13&amp;TEXT(F13,"00")</f>
+        <v>Equip0404</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:A77" si="4">"Equip"&amp;C14&amp;E14&amp;TEXT(B14,"00")</f>
-        <v>Equip1101</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D14" t="str">
+        <f ca="1">"Equip"&amp;C14&amp;D14&amp;TEXT(F14,"00")</f>
+        <v>Equip0405</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1201</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D15" t="str">
+        <f ca="1">"Equip"&amp;C15&amp;D15&amp;TEXT(F15,"00")</f>
+        <v>Equip1001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1202</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D16" t="str">
+        <f ca="1">"Equip"&amp;C16&amp;D16&amp;TEXT(F16,"00")</f>
+        <v>Equip1002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1301</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D17" t="str">
+        <f ca="1">"Equip"&amp;C17&amp;D17&amp;TEXT(F17,"00")</f>
+        <v>Equip1101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1302</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D18" t="str">
+        <f ca="1">"Equip"&amp;C18&amp;D18&amp;TEXT(F18,"00")</f>
+        <v>Equip1102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>100</v>
       </c>
       <c r="J18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1401</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D19" t="str">
+        <f ca="1">"Equip"&amp;C19&amp;D19&amp;TEXT(F19,"00")</f>
+        <v>Equip1201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1402</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D20" t="str">
+        <f ca="1">"Equip"&amp;C20&amp;D20&amp;TEXT(F20,"00")</f>
+        <v>Equip1202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1403</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D21" t="str">
+        <f ca="1">"Equip"&amp;C21&amp;D21&amp;TEXT(F21,"00")</f>
+        <v>Equip1301</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1404</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D22" t="str">
+        <f ca="1">"Equip"&amp;C22&amp;D22&amp;TEXT(F22,"00")</f>
+        <v>Equip1302</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
-        <v>Dagger</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>100</v>
       </c>
       <c r="J22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip1405</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>Dagger</v>
+        <f ca="1">"Equip"&amp;C23&amp;D23&amp;TEXT(F23,"00")</f>
+        <v>Equip1401</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2001</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D24" t="str">
+        <f ca="1">"Equip"&amp;C24&amp;D24&amp;TEXT(F24,"00")</f>
+        <v>Equip1402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>100</v>
       </c>
       <c r="J24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2101</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D25" t="str">
+        <f ca="1">"Equip"&amp;C25&amp;D25&amp;TEXT(F25,"00")</f>
+        <v>Equip1403</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>100</v>
       </c>
       <c r="J25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2201</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D26" t="str">
+        <f ca="1">"Equip"&amp;C26&amp;D26&amp;TEXT(F26,"00")</f>
+        <v>Equip1404</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2202</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D27" t="str">
+        <f ca="1">"Equip"&amp;C27&amp;D27&amp;TEXT(F27,"00")</f>
+        <v>Equip1405</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2301</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D28" t="str">
+        <f ca="1">"Equip"&amp;C28&amp;D28&amp;TEXT(F28,"00")</f>
+        <v>Equip2001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2302</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D29" t="str">
+        <f ca="1">"Equip"&amp;C29&amp;D29&amp;TEXT(F29,"00")</f>
+        <v>Equip2002</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>100</v>
       </c>
       <c r="J29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2401</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D30" t="str">
+        <f ca="1">"Equip"&amp;C30&amp;D30&amp;TEXT(F30,"00")</f>
+        <v>Equip2101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>100</v>
       </c>
       <c r="J30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2402</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D31" t="str">
+        <f ca="1">"Equip"&amp;C31&amp;D31&amp;TEXT(F31,"00")</f>
+        <v>Equip2102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2403</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D32" t="str">
+        <f ca="1">"Equip"&amp;C32&amp;D32&amp;TEXT(F32,"00")</f>
+        <v>Equip2201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2404</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D33" t="str">
+        <f ca="1">"Equip"&amp;C33&amp;D33&amp;TEXT(F33,"00")</f>
+        <v>Equip2202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="1"/>
-        <v>Bow</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>100</v>
       </c>
       <c r="J33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip2405</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="5">VLOOKUP(C34,$O:$P,2,0)</f>
-        <v>Bow</v>
+        <f ca="1">"Equip"&amp;C34&amp;D34&amp;TEXT(F34,"00")</f>
+        <v>Equip2301</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="6">INT(E34/2)+1</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>100</v>
       </c>
       <c r="J34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3001</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C35&amp;D35&amp;TEXT(F35,"00")</f>
+        <v>Equip2302</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="J35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3101</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C36&amp;D36&amp;TEXT(F36,"00")</f>
+        <v>Equip2401</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="H36:H67" si="8">INT(D36/2)+1</f>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3201</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C37&amp;D37&amp;TEXT(F37,"00")</f>
+        <v>Equip2402</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3202</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C38&amp;D38&amp;TEXT(F38,"00")</f>
+        <v>Equip2403</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>100</v>
       </c>
       <c r="J38">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3301</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C39&amp;D39&amp;TEXT(F39,"00")</f>
+        <v>Equip2404</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3302</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C40&amp;D40&amp;TEXT(F40,"00")</f>
+        <v>Equip2405</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="J40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3401</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C41&amp;D41&amp;TEXT(F41,"00")</f>
+        <v>Equip3001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>100</v>
       </c>
       <c r="J41">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3402</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C42&amp;D42&amp;TEXT(F42,"00")</f>
+        <v>Equip3002</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
       <c r="J42">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3403</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C43&amp;D43&amp;TEXT(F43,"00")</f>
+        <v>Equip3101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
       <c r="J43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K43" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3404</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C44&amp;D44&amp;TEXT(F44,"00")</f>
+        <v>Equip3102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>100</v>
       </c>
       <c r="J44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K44" t="s">
+        <v>68</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip3405</v>
-      </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:C76" si="7">C34+1</f>
-        <v>3</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="5"/>
-        <v>Staff</v>
+        <f ca="1">"Equip"&amp;C45&amp;D45&amp;TEXT(F45,"00")</f>
+        <v>Equip3201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>100</v>
       </c>
       <c r="J45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4001</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
+        <f ca="1">"Equip"&amp;C46&amp;D46&amp;TEXT(F46,"00")</f>
+        <v>Equip3202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>100</v>
       </c>
       <c r="J46">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K46" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4101</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
+        <f ca="1">"Equip"&amp;C47&amp;D47&amp;TEXT(F47,"00")</f>
+        <v>Equip3301</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>100</v>
       </c>
       <c r="J47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K47" t="s">
+        <v>68</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4201</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
+        <f ca="1">"Equip"&amp;C48&amp;D48&amp;TEXT(F48,"00")</f>
+        <v>Equip3302</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
       <c r="J48">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4202</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C49&amp;D49&amp;TEXT(F49,"00")</f>
+        <v>Equip3401</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
-      </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
       <c r="J49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K49" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4301</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C50&amp;D50&amp;TEXT(F50,"00")</f>
+        <v>Equip3402</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
-      </c>
       <c r="E50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4302</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C51&amp;D51&amp;TEXT(F51,"00")</f>
+        <v>Equip3403</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
-      </c>
       <c r="E51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K51" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4401</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C52&amp;D52&amp;TEXT(F52,"00")</f>
+        <v>Equip3404</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D52">
         <v>4</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
-      </c>
       <c r="E52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K52" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4402</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C53&amp;D53&amp;TEXT(F53,"00")</f>
+        <v>Equip3405</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D53">
         <v>4</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
-      </c>
       <c r="E53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4403</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C54&amp;D54&amp;TEXT(F54,"00")</f>
+        <v>Equip4001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>100</v>
       </c>
       <c r="J54">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K54" t="s">
+        <v>68</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4404</v>
-      </c>
-      <c r="B55">
+        <f ca="1">"Equip"&amp;C55&amp;D55&amp;TEXT(F55,"00")</f>
+        <v>Equip4002</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
+      <c r="D55">
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
       <c r="J55">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K55" t="s">
+        <v>68</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip4405</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C56&amp;D56&amp;TEXT(F56,"00")</f>
+        <v>Equip4101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="5"/>
-        <v>Hammer</v>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
       <c r="J56">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K56" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5001</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
+        <f ca="1">"Equip"&amp;C57&amp;D57&amp;TEXT(F57,"00")</f>
+        <v>Equip4102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K57" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5101</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
+        <f ca="1">"Equip"&amp;C58&amp;D58&amp;TEXT(F58,"00")</f>
+        <v>Equip4201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>100</v>
       </c>
       <c r="J58">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K58" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5201</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
+        <f ca="1">"Equip"&amp;C59&amp;D59&amp;TEXT(F59,"00")</f>
+        <v>Equip4202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2831,358 +3623,462 @@
         <v>2</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5202</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
+        <f ca="1">"Equip"&amp;C60&amp;D60&amp;TEXT(F60,"00")</f>
+        <v>Equip4301</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I60">
         <v>100</v>
       </c>
       <c r="J60">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5301</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
+        <f ca="1">"Equip"&amp;C61&amp;D61&amp;TEXT(F61,"00")</f>
+        <v>Equip4302</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I61">
         <v>100</v>
       </c>
       <c r="J61">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K61" t="s">
+        <v>68</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5302</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
+        <f ca="1">"Equip"&amp;C62&amp;D62&amp;TEXT(F62,"00")</f>
+        <v>Equip4401</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>100</v>
       </c>
       <c r="J62">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K62" t="s">
+        <v>68</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5401</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
+        <f ca="1">"Equip"&amp;C63&amp;D63&amp;TEXT(F63,"00")</f>
+        <v>Equip4402</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
       </c>
       <c r="E63">
         <v>4</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K63" t="s">
+        <v>68</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5402</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C64&amp;D64&amp;TEXT(F64,"00")</f>
+        <v>Equip4403</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
         <v>5</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
-      </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
       <c r="F64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
       <c r="J64">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K64" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5403</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="7"/>
+        <f ca="1">"Equip"&amp;C65&amp;D65&amp;TEXT(F65,"00")</f>
+        <v>Equip4404</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
         <v>5</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="5"/>
-        <v>Sword</v>
-      </c>
-      <c r="E65">
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="F65">
-        <v>5</v>
-      </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
       <c r="J65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K65" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" ref="L65:L118" ca="1" si="9">VLOOKUP(K65,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5404</v>
-      </c>
-      <c r="B66">
+        <f ca="1">"Equip"&amp;C66&amp;D66&amp;TEXT(F66,"00")</f>
+        <v>Equip4405</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" ref="C66:C118" ca="1" si="10">VLOOKUP(B66,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>4</v>
       </c>
-      <c r="C66">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" ref="D66:D97" si="8">VLOOKUP(C66,$O:$P,2,0)</f>
-        <v>Sword</v>
+      <c r="D66">
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H100" si="9">INT(E66/2)+1</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
       <c r="J66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K66" t="s">
+        <v>68</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip5405</v>
-      </c>
-      <c r="B67">
+        <f ca="1">"Equip"&amp;C67&amp;D67&amp;TEXT(F67,"00")</f>
+        <v>Equip5001</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="D67" t="str">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
         <f t="shared" si="8"/>
-        <v>Sword</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-      <c r="F67">
-        <v>6</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
       <c r="J67">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K67" t="s">
+        <v>68</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M118" si="11">IF(E67&lt;=3,0,
+IF(E67=4,-20,
+IF(E67=5,-10,
+IF(E67=6,-5,
+"없음"))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6001</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C68&amp;D68&amp;TEXT(F68,"00")</f>
+        <v>Equip5002</v>
+      </c>
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
+        <f>INT(D68/2)+1</f>
         <v>1</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K68" t="s">
+        <v>68</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6101</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C69&amp;D69&amp;TEXT(F69,"00")</f>
+        <v>Equip5101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3191,1137 +4087,2291 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="9"/>
+        <f>INT(D69/2)+1</f>
         <v>1</v>
       </c>
       <c r="I69">
         <v>100</v>
       </c>
       <c r="J69">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K69" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6201</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C70&amp;D70&amp;TEXT(F70,"00")</f>
+        <v>Equip5102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>INT(D70/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>100</v>
       </c>
       <c r="J70">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6202</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C71&amp;D71&amp;TEXT(F71,"00")</f>
+        <v>Equip5201</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <f t="shared" si="9"/>
+        <f>INT(D71/2)+1</f>
         <v>2</v>
       </c>
       <c r="I71">
         <v>100</v>
       </c>
       <c r="J71">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K71" t="s">
+        <v>68</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6301</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C72&amp;D72&amp;TEXT(F72,"00")</f>
+        <v>Equip5202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <f t="shared" si="9"/>
+        <f>INT(D72/2)+1</f>
         <v>2</v>
       </c>
       <c r="I72">
         <v>100</v>
       </c>
       <c r="J72">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K72" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6302</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C73&amp;D73&amp;TEXT(F73,"00")</f>
+        <v>Equip5301</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
+        <f>INT(D73/2)+1</f>
         <v>2</v>
       </c>
       <c r="I73">
         <v>100</v>
       </c>
       <c r="J73">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K73" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6401</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C74&amp;D74&amp;TEXT(F74,"00")</f>
+        <v>Equip5302</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D74/2)+1</f>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>100</v>
       </c>
       <c r="J74">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K74" t="s">
+        <v>68</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6402</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C75&amp;D75&amp;TEXT(F75,"00")</f>
+        <v>Equip5401</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
       </c>
       <c r="E75">
         <v>4</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
+        <f>INT(D75/2)+1</f>
         <v>3</v>
       </c>
       <c r="I75">
         <v>100</v>
       </c>
       <c r="J75">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K75" t="s">
+        <v>68</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6403</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+        <f ca="1">"Equip"&amp;C76&amp;D76&amp;TEXT(F76,"00")</f>
+        <v>Equip5402</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
       </c>
       <c r="E76">
         <v>4</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <f t="shared" si="9"/>
+        <f>INT(D76/2)+1</f>
         <v>3</v>
       </c>
       <c r="I76">
         <v>100</v>
       </c>
       <c r="J76">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f t="shared" si="4"/>
-        <v>Equip6404</v>
-      </c>
-      <c r="B77">
+        <f ca="1">"Equip"&amp;C77&amp;D77&amp;TEXT(F77,"00")</f>
+        <v>Equip5403</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D77">
         <v>4</v>
       </c>
-      <c r="C77">
-        <f t="shared" ref="C77:C100" si="10">C66+1</f>
-        <v>6</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
-      </c>
       <c r="E77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <f t="shared" si="9"/>
+        <f>INT(D77/2)+1</f>
         <v>3</v>
       </c>
       <c r="I77">
         <v>100</v>
       </c>
       <c r="J77">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K77" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f t="shared" ref="A78:A100" si="11">"Equip"&amp;C78&amp;E78&amp;TEXT(B78,"00")</f>
-        <v>Equip6405</v>
-      </c>
-      <c r="B78">
+        <f ca="1">"Equip"&amp;C78&amp;D78&amp;TEXT(F78,"00")</f>
+        <v>Equip5404</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="C78">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="8"/>
-        <v>Gun</v>
+      <c r="D78">
+        <v>4</v>
       </c>
       <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="F78">
-        <v>6</v>
-      </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <f t="shared" si="9"/>
+        <f>INT(D78/2)+1</f>
         <v>3</v>
       </c>
       <c r="I78">
         <v>100</v>
       </c>
       <c r="J78">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K78" t="s">
+        <v>68</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7001</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C79&amp;D79&amp;TEXT(F79,"00")</f>
+        <v>Equip5405</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>INT(D79/2)+1</f>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>100</v>
       </c>
       <c r="J79">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K79" t="s">
+        <v>68</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7101</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C80&amp;D80&amp;TEXT(F80,"00")</f>
+        <v>Equip6001</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="9"/>
+        <f>INT(D80/2)+1</f>
         <v>1</v>
       </c>
       <c r="I80">
         <v>100</v>
       </c>
       <c r="J80">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K80" t="s">
+        <v>68</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7201</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C81&amp;D81&amp;TEXT(F81,"00")</f>
+        <v>Equip6002</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>2</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>INT(D81/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>100</v>
       </c>
       <c r="J81">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K81" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7202</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C82&amp;D82&amp;TEXT(F82,"00")</f>
+        <v>Equip6101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>INT(D82/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>100</v>
       </c>
       <c r="J82">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K82" t="s">
+        <v>68</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7301</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C83&amp;D83&amp;TEXT(F83,"00")</f>
+        <v>Equip6102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>INT(D83/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>100</v>
       </c>
       <c r="J83">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K83" t="s">
+        <v>68</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7302</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C84&amp;D84&amp;TEXT(F84,"00")</f>
+        <v>Equip6201</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="9"/>
+        <f>INT(D84/2)+1</f>
         <v>2</v>
       </c>
       <c r="I84">
         <v>100</v>
       </c>
       <c r="J84">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K84" t="s">
+        <v>68</v>
+      </c>
+      <c r="L84" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7401</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C85&amp;D85&amp;TEXT(F85,"00")</f>
+        <v>Equip6202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D85/2)+1</f>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>100</v>
       </c>
       <c r="J85">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K85" t="s">
+        <v>68</v>
+      </c>
+      <c r="L85" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7402</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C86&amp;D86&amp;TEXT(F86,"00")</f>
+        <v>Equip6301</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D86/2)+1</f>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>100</v>
       </c>
       <c r="J86">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K86" t="s">
+        <v>68</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7403</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C87&amp;D87&amp;TEXT(F87,"00")</f>
+        <v>Equip6302</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D87/2)+1</f>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>100</v>
       </c>
       <c r="J87">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K87" t="s">
+        <v>68</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7404</v>
-      </c>
-      <c r="B88">
+        <f ca="1">"Equip"&amp;C88&amp;D88&amp;TEXT(F88,"00")</f>
+        <v>Equip6401</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D88">
         <v>4</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
       </c>
       <c r="E88">
         <v>4</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="9"/>
+        <f>INT(D88/2)+1</f>
         <v>3</v>
       </c>
       <c r="I88">
         <v>100</v>
       </c>
       <c r="J88">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip7405</v>
-      </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="8"/>
-        <v>Shield</v>
+        <f ca="1">"Equip"&amp;C89&amp;D89&amp;TEXT(F89,"00")</f>
+        <v>Equip6402</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
       </c>
       <c r="E89">
         <v>4</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" si="9"/>
+        <f>INT(D89/2)+1</f>
         <v>3</v>
       </c>
       <c r="I89">
         <v>100</v>
       </c>
       <c r="J89">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K89" t="s">
+        <v>68</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8001</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="8"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C90&amp;D90&amp;TEXT(F90,"00")</f>
+        <v>Equip6403</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>INT(D90/2)+1</f>
+        <v>3</v>
       </c>
       <c r="I90">
         <v>100</v>
       </c>
       <c r="J90">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K90" t="s">
+        <v>68</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8101</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="8"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C91&amp;D91&amp;TEXT(F91,"00")</f>
+        <v>Equip6404</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>INT(D91/2)+1</f>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>100</v>
       </c>
       <c r="J91">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K91" t="s">
+        <v>68</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8201</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" si="8"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C92&amp;D92&amp;TEXT(F92,"00")</f>
+        <v>Equip6405</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>INT(D92/2)+1</f>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>100</v>
       </c>
       <c r="J92">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K92" t="s">
+        <v>68</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8202</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D93" t="str">
-        <f t="shared" si="8"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C93&amp;D93&amp;TEXT(F93,"00")</f>
+        <v>Equip7001</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>INT(D93/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>100</v>
       </c>
       <c r="J93">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K93" t="s">
+        <v>68</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8301</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D94" t="str">
-        <f t="shared" si="8"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C94&amp;D94&amp;TEXT(F94,"00")</f>
+        <v>Equip7002</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>INT(D94/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>100</v>
       </c>
       <c r="J94">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K94" t="s">
+        <v>68</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8302</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" si="8"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C95&amp;D95&amp;TEXT(F95,"00")</f>
+        <v>Equip7101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>INT(D95/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>100</v>
       </c>
       <c r="J95">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K95" t="s">
+        <v>68</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8401</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" si="8"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C96&amp;D96&amp;TEXT(F96,"00")</f>
+        <v>Equip7102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D96/2)+1</f>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>100</v>
       </c>
       <c r="J96">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K96" t="s">
+        <v>68</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8402</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" si="8"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C97&amp;D97&amp;TEXT(F97,"00")</f>
+        <v>Equip7201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D97/2)+1</f>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>100</v>
       </c>
       <c r="J97">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K97" t="s">
+        <v>68</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8403</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D98" t="str">
-        <f t="shared" ref="D98:D100" si="12">VLOOKUP(C98,$O:$P,2,0)</f>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C98&amp;D98&amp;TEXT(F98,"00")</f>
+        <v>Equip7202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D98/2)+1</f>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>100</v>
       </c>
       <c r="J98">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K98" t="s">
+        <v>68</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8404</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" si="12"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C99&amp;D99&amp;TEXT(F99,"00")</f>
+        <v>Equip7301</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D99/2)+1</f>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>100</v>
       </c>
       <c r="J99">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="K99" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
-        <f t="shared" si="11"/>
-        <v>Equip8405</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="12"/>
-        <v>TwoHanded</v>
+        <f ca="1">"Equip"&amp;C100&amp;D100&amp;TEXT(F100,"00")</f>
+        <v>Equip7302</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INT(D100/2)+1</f>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>100</v>
       </c>
       <c r="J100">
-        <v>1000</v>
+        <v>115</v>
+      </c>
+      <c r="K100" t="s">
+        <v>68</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <f ca="1">"Equip"&amp;C101&amp;D101&amp;TEXT(F101,"00")</f>
+        <v>Equip7401</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <f>INT(D101/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>115</v>
+      </c>
+      <c r="K101" t="s">
+        <v>68</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
+        <f ca="1">"Equip"&amp;C102&amp;D102&amp;TEXT(F102,"00")</f>
+        <v>Equip7402</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <f>INT(D102/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <v>115</v>
+      </c>
+      <c r="K102" t="s">
+        <v>68</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
+        <f ca="1">"Equip"&amp;C103&amp;D103&amp;TEXT(F103,"00")</f>
+        <v>Equip7403</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <f>INT(D103/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <v>115</v>
+      </c>
+      <c r="K103" t="s">
+        <v>68</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
+        <f ca="1">"Equip"&amp;C104&amp;D104&amp;TEXT(F104,"00")</f>
+        <v>Equip7404</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <f>INT(D104/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+      <c r="J104">
+        <v>115</v>
+      </c>
+      <c r="K104" t="s">
+        <v>68</v>
+      </c>
+      <c r="L104" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
+        <f ca="1">"Equip"&amp;C105&amp;D105&amp;TEXT(F105,"00")</f>
+        <v>Equip7405</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <f>INT(D105/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I105">
+        <v>100</v>
+      </c>
+      <c r="J105">
+        <v>115</v>
+      </c>
+      <c r="K105" t="s">
+        <v>68</v>
+      </c>
+      <c r="L105" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
+        <f ca="1">"Equip"&amp;C106&amp;D106&amp;TEXT(F106,"00")</f>
+        <v>Equip8001</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f>INT(D106/2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+      <c r="J106">
+        <v>115</v>
+      </c>
+      <c r="K106" t="s">
+        <v>68</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
+        <f ca="1">"Equip"&amp;C107&amp;D107&amp;TEXT(F107,"00")</f>
+        <v>Equip8002</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f>INT(D107/2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>100</v>
+      </c>
+      <c r="J107">
+        <v>115</v>
+      </c>
+      <c r="K107" t="s">
+        <v>68</v>
+      </c>
+      <c r="L107" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
+        <f ca="1">"Equip"&amp;C108&amp;D108&amp;TEXT(F108,"00")</f>
+        <v>Equip8101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f>INT(D108/2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+      <c r="J108">
+        <v>115</v>
+      </c>
+      <c r="K108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
+        <f ca="1">"Equip"&amp;C109&amp;D109&amp;TEXT(F109,"00")</f>
+        <v>Equip8102</v>
+      </c>
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f>INT(D109/2)+1</f>
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>115</v>
+      </c>
+      <c r="K109" t="s">
+        <v>68</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
+        <f ca="1">"Equip"&amp;C110&amp;D110&amp;TEXT(F110,"00")</f>
+        <v>Equip8201</v>
+      </c>
+      <c r="B110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f>INT(D110/2)+1</f>
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+      <c r="J110">
+        <v>115</v>
+      </c>
+      <c r="K110" t="s">
+        <v>68</v>
+      </c>
+      <c r="L110" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
+        <f ca="1">"Equip"&amp;C111&amp;D111&amp;TEXT(F111,"00")</f>
+        <v>Equip8202</v>
+      </c>
+      <c r="B111" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f>INT(D111/2)+1</f>
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111">
+        <v>115</v>
+      </c>
+      <c r="K111" t="s">
+        <v>68</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
+        <f ca="1">"Equip"&amp;C112&amp;D112&amp;TEXT(F112,"00")</f>
+        <v>Equip8301</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f>INT(D112/2)+1</f>
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>100</v>
+      </c>
+      <c r="J112">
+        <v>115</v>
+      </c>
+      <c r="K112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
+        <f ca="1">"Equip"&amp;C113&amp;D113&amp;TEXT(F113,"00")</f>
+        <v>Equip8302</v>
+      </c>
+      <c r="B113" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f>INT(D113/2)+1</f>
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>100</v>
+      </c>
+      <c r="J113">
+        <v>115</v>
+      </c>
+      <c r="K113" t="s">
+        <v>68</v>
+      </c>
+      <c r="L113" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
+        <f ca="1">"Equip"&amp;C114&amp;D114&amp;TEXT(F114,"00")</f>
+        <v>Equip8401</v>
+      </c>
+      <c r="B114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f>INT(D114/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114">
+        <v>115</v>
+      </c>
+      <c r="K114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L114" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
+        <f ca="1">"Equip"&amp;C115&amp;D115&amp;TEXT(F115,"00")</f>
+        <v>Equip8402</v>
+      </c>
+      <c r="B115" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f>INT(D115/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>115</v>
+      </c>
+      <c r="K115" t="s">
+        <v>68</v>
+      </c>
+      <c r="L115" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="11"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
+        <f ca="1">"Equip"&amp;C116&amp;D116&amp;TEXT(F116,"00")</f>
+        <v>Equip8403</v>
+      </c>
+      <c r="B116" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f>INT(D116/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I116">
+        <v>100</v>
+      </c>
+      <c r="J116">
+        <v>115</v>
+      </c>
+      <c r="K116" t="s">
+        <v>68</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
+        <f ca="1">"Equip"&amp;C117&amp;D117&amp;TEXT(F117,"00")</f>
+        <v>Equip8404</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f>INT(D117/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117">
+        <v>115</v>
+      </c>
+      <c r="K117" t="s">
+        <v>68</v>
+      </c>
+      <c r="L117" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
+        <f ca="1">"Equip"&amp;C118&amp;D118&amp;TEXT(F118,"00")</f>
+        <v>Equip8405</v>
+      </c>
+      <c r="B118" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f>INT(D118/2)+1</f>
+        <v>3</v>
+      </c>
+      <c r="I118">
+        <v>100</v>
+      </c>
+      <c r="J118">
+        <v>115</v>
+      </c>
+      <c r="K118" t="s">
+        <v>68</v>
+      </c>
+      <c r="L118" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="11"/>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B118 K2:K118" xr:uid="{4CFF60CD-122A-4C9B-BDA3-F78EAB505EE2}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4359,22 +6409,22 @@
         <v>31</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1">
         <v>50</v>
@@ -4392,19 +6442,19 @@
         <v>50</v>
       </c>
       <c r="P1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -11685,19 +13735,19 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5F3994-931B-4B52-AABB-EA2E1219DD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F020F3-1C34-4D5D-8623-1D75219B892B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="87">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,14 @@
   </si>
   <si>
     <t>randType|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KenSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrozenNightSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,11 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
-  <dimension ref="A1:Y118"/>
+  <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -743,7 +751,9 @@
     <col min="14" max="14" width="11.625" customWidth="1"/>
     <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="9" collapsed="1"/>
-    <col min="22" max="22" width="17.75" customWidth="1"/>
+    <col min="22" max="22" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="25" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -819,14 +829,14 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f ca="1">"Equip"&amp;C2&amp;D2&amp;TEXT(F2,"00")</f>
+        <f t="shared" ref="A2:A33" ca="1" si="0">"Equip"&amp;C2&amp;D2&amp;TEXT(F2,"00")</f>
         <v>Equip0001</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C65" ca="1" si="0">VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C2:C65" ca="1" si="1">VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -842,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H35" si="1">INT(D2/2)+1</f>
+        <f t="shared" ref="H2:H35" si="2">INT(D2/2)+1</f>
         <v>1</v>
       </c>
       <c r="I2">
@@ -855,7 +865,7 @@
         <v>68</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L1:L64" ca="1" si="2">VLOOKUP(K2,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="L2:L64" ca="1" si="3">VLOOKUP(K2,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="M2">
@@ -870,11 +880,11 @@
         <v>62</v>
       </c>
       <c r="P2" t="str">
-        <f>"Shot_"&amp;O2</f>
+        <f t="shared" ref="P2" si="4">IF(ISBLANK(O2),"","Shot_"&amp;O2)</f>
         <v>Shot_RunicAxe</v>
       </c>
       <c r="Q2" t="str">
-        <f>"EquipName_"&amp;O2</f>
+        <f t="shared" ref="Q2:Q33" si="5">IF(ISBLANK(O2),"","EquipName_"&amp;O2)</f>
         <v>EquipName_RunicAxe</v>
       </c>
       <c r="S2" t="s">
@@ -892,14 +902,14 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f ca="1">"Equip"&amp;C3&amp;D3&amp;TEXT(F3,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0002</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D3">
@@ -915,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3" si="3">INT(D3/2)+1</f>
+        <f t="shared" ref="H3" si="6">INT(D3/2)+1</f>
         <v>1</v>
       </c>
       <c r="I3">
@@ -928,27 +938,24 @@
         <v>68</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="4">IF(E3&lt;=3,0,
+        <f t="shared" ref="M3:M66" si="7">IF(E3&lt;=3,0,
 IF(E3=4,-20,
 IF(E3=5,-10,
 IF(E3=6,-5,
 "없음"))))</f>
         <v>0</v>
       </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P6" si="5">"Shot_"&amp;O3</f>
-        <v>Shot_RunicAxe</v>
+        <f>IF(ISBLANK(O3),"","Shot_"&amp;O3)</f>
+        <v/>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q6" si="6">"EquipName_"&amp;O3</f>
-        <v>EquipName_RunicAxe</v>
+        <f>IF(ISBLANK(O3),"","EquipName_"&amp;O3)</f>
+        <v/>
       </c>
       <c r="S3" t="s">
         <v>37</v>
@@ -971,14 +978,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f ca="1">"Equip"&amp;C4&amp;D4&amp;TEXT(F4,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0101</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D4">
@@ -994,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I4">
@@ -1007,23 +1014,20 @@
         <v>68</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="5"/>
-        <v>Shot_RunicAxe</v>
+        <f t="shared" ref="P4:P67" si="8">IF(ISBLANK(O4),"","Shot_"&amp;O4)</f>
+        <v/>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="6"/>
-        <v>EquipName_RunicAxe</v>
+        <f t="shared" ref="Q4:Q67" si="9">IF(ISBLANK(O4),"","EquipName_"&amp;O4)</f>
+        <v/>
       </c>
       <c r="S4" t="s">
         <v>38</v>
@@ -1046,14 +1050,14 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f ca="1">"Equip"&amp;C5&amp;D5&amp;TEXT(F5,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0102</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D5">
@@ -1069,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5" si="7">INT(D5/2)+1</f>
+        <f t="shared" ref="H5" si="10">INT(D5/2)+1</f>
         <v>1</v>
       </c>
       <c r="I5">
@@ -1082,23 +1086,20 @@
         <v>68</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="5"/>
-        <v>Shot_RunicAxe</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="6"/>
-        <v>EquipName_RunicAxe</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="S5" t="s">
         <v>39</v>
@@ -1118,14 +1119,14 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f ca="1">"Equip"&amp;C6&amp;D6&amp;TEXT(F6,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0201</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D6">
@@ -1141,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I6">
@@ -1154,23 +1155,20 @@
         <v>68</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="5"/>
-        <v>Shot_RunicAxe</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="6"/>
-        <v>EquipName_RunicAxe</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="S6" t="s">
         <v>40</v>
@@ -1187,14 +1185,14 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f ca="1">"Equip"&amp;C7&amp;D7&amp;TEXT(F7,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0202</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D7">
@@ -1210,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I7">
@@ -1223,12 +1221,20 @@
         <v>68</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="S7" t="s">
         <v>41</v>
@@ -1239,14 +1245,14 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f ca="1">"Equip"&amp;C8&amp;D8&amp;TEXT(F8,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0301</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D8">
@@ -1262,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I8">
@@ -1275,12 +1281,20 @@
         <v>68</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="S8" t="s">
         <v>42</v>
@@ -1291,14 +1305,14 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f ca="1">"Equip"&amp;C9&amp;D9&amp;TEXT(F9,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0302</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D9">
@@ -1314,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I9">
@@ -1327,12 +1341,20 @@
         <v>68</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="S9" t="s">
         <v>43</v>
@@ -1343,14 +1365,14 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f ca="1">"Equip"&amp;C10&amp;D10&amp;TEXT(F10,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0401</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D10">
@@ -1366,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I10">
@@ -1379,12 +1401,20 @@
         <v>68</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="S10" t="s">
         <v>35</v>
@@ -1395,14 +1425,14 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f ca="1">"Equip"&amp;C11&amp;D11&amp;TEXT(F11,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0402</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D11">
@@ -1418,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I11">
@@ -1431,24 +1461,32 @@
         <v>68</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f ca="1">"Equip"&amp;C12&amp;D12&amp;TEXT(F12,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0403</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D12">
@@ -1464,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I12">
@@ -1477,24 +1515,32 @@
         <v>68</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f ca="1">"Equip"&amp;C13&amp;D13&amp;TEXT(F13,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0404</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D13">
@@ -1510,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I13">
@@ -1523,24 +1569,32 @@
         <v>68</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f ca="1">"Equip"&amp;C14&amp;D14&amp;TEXT(F14,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip0405</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D14">
@@ -1556,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14">
@@ -1569,24 +1623,32 @@
         <v>68</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f ca="1">"Equip"&amp;C15&amp;D15&amp;TEXT(F15,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1001</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D15">
@@ -1602,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I15">
@@ -1615,24 +1677,32 @@
         <v>68</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f ca="1">"Equip"&amp;C16&amp;D16&amp;TEXT(F16,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1002</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D16">
@@ -1648,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I16">
@@ -1661,24 +1731,32 @@
         <v>68</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f ca="1">"Equip"&amp;C17&amp;D17&amp;TEXT(F17,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1101</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D17">
@@ -1694,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I17">
@@ -1707,24 +1785,32 @@
         <v>68</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f ca="1">"Equip"&amp;C18&amp;D18&amp;TEXT(F18,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1102</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D18">
@@ -1740,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I18">
@@ -1753,24 +1839,32 @@
         <v>68</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f ca="1">"Equip"&amp;C19&amp;D19&amp;TEXT(F19,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1201</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D19">
@@ -1786,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I19">
@@ -1799,24 +1893,32 @@
         <v>68</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f ca="1">"Equip"&amp;C20&amp;D20&amp;TEXT(F20,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1202</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D20">
@@ -1832,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I20">
@@ -1845,24 +1947,32 @@
         <v>68</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f ca="1">"Equip"&amp;C21&amp;D21&amp;TEXT(F21,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1301</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D21">
@@ -1878,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I21">
@@ -1891,24 +2001,32 @@
         <v>68</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f ca="1">"Equip"&amp;C22&amp;D22&amp;TEXT(F22,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1302</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D22">
@@ -1924,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I22">
@@ -1937,24 +2055,32 @@
         <v>68</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f ca="1">"Equip"&amp;C23&amp;D23&amp;TEXT(F23,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1401</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D23">
@@ -1970,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I23">
@@ -1983,24 +2109,32 @@
         <v>68</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f ca="1">"Equip"&amp;C24&amp;D24&amp;TEXT(F24,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1402</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D24">
@@ -2016,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I24">
@@ -2029,24 +2163,32 @@
         <v>68</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f ca="1">"Equip"&amp;C25&amp;D25&amp;TEXT(F25,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1403</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D25">
@@ -2062,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I25">
@@ -2075,24 +2217,32 @@
         <v>68</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f ca="1">"Equip"&amp;C26&amp;D26&amp;TEXT(F26,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1404</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D26">
@@ -2108,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I26">
@@ -2121,24 +2271,32 @@
         <v>68</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P26" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f ca="1">"Equip"&amp;C27&amp;D27&amp;TEXT(F27,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip1405</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D27">
@@ -2154,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I27">
@@ -2167,24 +2325,32 @@
         <v>68</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P27" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f ca="1">"Equip"&amp;C28&amp;D28&amp;TEXT(F28,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip2001</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D28">
@@ -2200,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I28">
@@ -2213,24 +2379,32 @@
         <v>68</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f ca="1">"Equip"&amp;C29&amp;D29&amp;TEXT(F29,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip2002</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D29">
@@ -2246,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I29">
@@ -2259,24 +2433,32 @@
         <v>68</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f ca="1">"Equip"&amp;C30&amp;D30&amp;TEXT(F30,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip2101</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D30">
@@ -2292,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I30">
@@ -2305,24 +2487,32 @@
         <v>68</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f ca="1">"Equip"&amp;C31&amp;D31&amp;TEXT(F31,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip2102</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D31">
@@ -2338,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I31">
@@ -2351,24 +2541,32 @@
         <v>68</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f ca="1">"Equip"&amp;C32&amp;D32&amp;TEXT(F32,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip2201</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D32">
@@ -2384,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I32">
@@ -2397,24 +2595,32 @@
         <v>68</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f ca="1">"Equip"&amp;C33&amp;D33&amp;TEXT(F33,"00")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Equip2202</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D33">
@@ -2430,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I33">
@@ -2443,24 +2649,32 @@
         <v>68</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f ca="1">"Equip"&amp;C34&amp;D34&amp;TEXT(F34,"00")</f>
+        <f t="shared" ref="A34:A65" ca="1" si="11">"Equip"&amp;C34&amp;D34&amp;TEXT(F34,"00")</f>
         <v>Equip2301</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D34">
@@ -2476,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I34">
@@ -2489,24 +2703,32 @@
         <v>68</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f ca="1">"Equip"&amp;C35&amp;D35&amp;TEXT(F35,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip2302</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D35">
@@ -2522,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I35">
@@ -2535,24 +2757,32 @@
         <v>68</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f ca="1">"Equip"&amp;C36&amp;D36&amp;TEXT(F36,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip2401</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D36">
@@ -2568,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H67" si="8">INT(D36/2)+1</f>
+        <f t="shared" ref="H36:H67" si="12">INT(D36/2)+1</f>
         <v>3</v>
       </c>
       <c r="I36">
@@ -2581,24 +2811,32 @@
         <v>68</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P36" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f ca="1">"Equip"&amp;C37&amp;D37&amp;TEXT(F37,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip2402</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D37">
@@ -2614,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I37">
@@ -2627,24 +2865,32 @@
         <v>68</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P37" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f ca="1">"Equip"&amp;C38&amp;D38&amp;TEXT(F38,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip2403</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D38">
@@ -2660,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I38">
@@ -2673,24 +2919,32 @@
         <v>68</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P38" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f ca="1">"Equip"&amp;C39&amp;D39&amp;TEXT(F39,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip2404</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D39">
@@ -2706,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I39">
@@ -2719,24 +2973,32 @@
         <v>68</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f ca="1">"Equip"&amp;C40&amp;D40&amp;TEXT(F40,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip2405</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="D40">
@@ -2752,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I40">
@@ -2765,24 +3027,32 @@
         <v>68</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P40" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f ca="1">"Equip"&amp;C41&amp;D41&amp;TEXT(F41,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3001</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D41">
@@ -2798,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I41">
@@ -2811,24 +3081,32 @@
         <v>68</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f ca="1">"Equip"&amp;C42&amp;D42&amp;TEXT(F42,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3002</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D42">
@@ -2844,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I42">
@@ -2857,24 +3135,32 @@
         <v>68</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f ca="1">"Equip"&amp;C43&amp;D43&amp;TEXT(F43,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3101</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D43">
@@ -2890,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I43">
@@ -2903,24 +3189,32 @@
         <v>68</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f ca="1">"Equip"&amp;C44&amp;D44&amp;TEXT(F44,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3102</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D44">
@@ -2936,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I44">
@@ -2949,24 +3243,32 @@
         <v>68</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f ca="1">"Equip"&amp;C45&amp;D45&amp;TEXT(F45,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3201</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D45">
@@ -2982,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I45">
@@ -2995,24 +3297,32 @@
         <v>68</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f ca="1">"Equip"&amp;C46&amp;D46&amp;TEXT(F46,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3202</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D46">
@@ -3028,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I46">
@@ -3041,24 +3351,32 @@
         <v>68</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f ca="1">"Equip"&amp;C47&amp;D47&amp;TEXT(F47,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3301</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D47">
@@ -3074,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I47">
@@ -3087,24 +3405,32 @@
         <v>68</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f ca="1">"Equip"&amp;C48&amp;D48&amp;TEXT(F48,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3302</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D48">
@@ -3120,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I48">
@@ -3133,24 +3459,32 @@
         <v>68</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f ca="1">"Equip"&amp;C49&amp;D49&amp;TEXT(F49,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3401</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D49">
@@ -3166,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I49">
@@ -3179,24 +3513,32 @@
         <v>68</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P49" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f ca="1">"Equip"&amp;C50&amp;D50&amp;TEXT(F50,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3402</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D50">
@@ -3212,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I50">
@@ -3225,24 +3567,32 @@
         <v>68</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P50" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f ca="1">"Equip"&amp;C51&amp;D51&amp;TEXT(F51,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3403</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D51">
@@ -3258,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I51">
@@ -3271,24 +3621,32 @@
         <v>68</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f ca="1">"Equip"&amp;C52&amp;D52&amp;TEXT(F52,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3404</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D52">
@@ -3304,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I52">
@@ -3317,24 +3675,32 @@
         <v>68</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P52" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f ca="1">"Equip"&amp;C53&amp;D53&amp;TEXT(F53,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip3405</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="D53">
@@ -3350,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I53">
@@ -3363,24 +3729,32 @@
         <v>68</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P53" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f ca="1">"Equip"&amp;C54&amp;D54&amp;TEXT(F54,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4001</v>
       </c>
       <c r="B54" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D54">
@@ -3396,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I54">
@@ -3409,24 +3783,32 @@
         <v>68</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f ca="1">"Equip"&amp;C55&amp;D55&amp;TEXT(F55,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4002</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D55">
@@ -3442,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I55">
@@ -3455,24 +3837,32 @@
         <v>68</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f ca="1">"Equip"&amp;C56&amp;D56&amp;TEXT(F56,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4101</v>
       </c>
       <c r="B56" t="s">
         <v>40</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D56">
@@ -3488,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I56">
@@ -3501,24 +3891,32 @@
         <v>68</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f ca="1">"Equip"&amp;C57&amp;D57&amp;TEXT(F57,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4102</v>
       </c>
       <c r="B57" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D57">
@@ -3534,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I57">
@@ -3547,24 +3945,32 @@
         <v>68</v>
       </c>
       <c r="L57" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f ca="1">"Equip"&amp;C58&amp;D58&amp;TEXT(F58,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4201</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D58">
@@ -3580,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I58">
@@ -3593,24 +3999,32 @@
         <v>68</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f ca="1">"Equip"&amp;C59&amp;D59&amp;TEXT(F59,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4202</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D59">
@@ -3626,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I59">
@@ -3639,24 +4053,32 @@
         <v>68</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f ca="1">"Equip"&amp;C60&amp;D60&amp;TEXT(F60,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4301</v>
       </c>
       <c r="B60" t="s">
         <v>40</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D60">
@@ -3672,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I60">
@@ -3685,24 +4107,32 @@
         <v>68</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f ca="1">"Equip"&amp;C61&amp;D61&amp;TEXT(F61,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4302</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D61">
@@ -3718,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I61">
@@ -3731,24 +4161,32 @@
         <v>68</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M61">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f ca="1">"Equip"&amp;C62&amp;D62&amp;TEXT(F62,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4401</v>
       </c>
       <c r="B62" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D62">
@@ -3764,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I62">
@@ -3777,24 +4215,32 @@
         <v>68</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P62" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f ca="1">"Equip"&amp;C63&amp;D63&amp;TEXT(F63,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4402</v>
       </c>
       <c r="B63" t="s">
         <v>40</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D63">
@@ -3810,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I63">
@@ -3823,24 +4269,32 @@
         <v>68</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P63" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f ca="1">"Equip"&amp;C64&amp;D64&amp;TEXT(F64,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4403</v>
       </c>
       <c r="B64" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D64">
@@ -3856,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I64">
@@ -3869,24 +4323,32 @@
         <v>68</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="M64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P64" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f ca="1">"Equip"&amp;C65&amp;D65&amp;TEXT(F65,"00")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>Equip4404</v>
       </c>
       <c r="B65" t="s">
         <v>40</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="D65">
@@ -3902,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I65">
@@ -3915,24 +4377,32 @@
         <v>68</v>
       </c>
       <c r="L65" s="2">
-        <f t="shared" ref="L65:L118" ca="1" si="9">VLOOKUP(K65,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="L65:L118" ca="1" si="13">VLOOKUP(K65,OFFSET(INDIRECT("$A:$B"),0,MATCH(K$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P65" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f ca="1">"Equip"&amp;C66&amp;D66&amp;TEXT(F66,"00")</f>
+        <f t="shared" ref="A66:A97" ca="1" si="14">"Equip"&amp;C66&amp;D66&amp;TEXT(F66,"00")</f>
         <v>Equip4405</v>
       </c>
       <c r="B66" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" ref="C66:C118" ca="1" si="10">VLOOKUP(B66,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C66:C118" ca="1" si="15">VLOOKUP(B66,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>4</v>
       </c>
       <c r="D66">
@@ -3948,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I66">
@@ -3961,24 +4431,32 @@
         <v>68</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P66" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f ca="1">"Equip"&amp;C67&amp;D67&amp;TEXT(F67,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5001</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D67">
@@ -3994,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I67">
@@ -4007,28 +4485,39 @@
         <v>68</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M118" si="11">IF(E67&lt;=3,0,
+        <f t="shared" ref="M67:M118" si="16">IF(E67&lt;=3,0,
 IF(E67=4,-20,
 IF(E67=5,-10,
 IF(E67=6,-5,
 "없음"))))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O67" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="8"/>
+        <v>Shot_KenSword</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="9"/>
+        <v>EquipName_KenSword</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f ca="1">"Equip"&amp;C68&amp;D68&amp;TEXT(F68,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5002</v>
       </c>
       <c r="B68" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D68">
@@ -4044,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <f>INT(D68/2)+1</f>
+        <f t="shared" ref="H68:H99" si="17">INT(D68/2)+1</f>
         <v>1</v>
       </c>
       <c r="I68">
@@ -4057,24 +4546,32 @@
         <v>68</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M68">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" ref="P68:P118" si="18">IF(ISBLANK(O68),"","Shot_"&amp;O68)</f>
+        <v/>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" ref="Q68:Q118" si="19">IF(ISBLANK(O68),"","EquipName_"&amp;O68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f ca="1">"Equip"&amp;C69&amp;D69&amp;TEXT(F69,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5101</v>
       </c>
       <c r="B69" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D69">
@@ -4090,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <f>INT(D69/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I69">
@@ -4103,24 +4600,32 @@
         <v>68</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M69">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f ca="1">"Equip"&amp;C70&amp;D70&amp;TEXT(F70,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5102</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D70">
@@ -4136,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <f>INT(D70/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I70">
@@ -4149,24 +4654,32 @@
         <v>68</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M70">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f ca="1">"Equip"&amp;C71&amp;D71&amp;TEXT(F71,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5201</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D71">
@@ -4182,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <f>INT(D71/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I71">
@@ -4195,24 +4708,32 @@
         <v>68</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M71">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f ca="1">"Equip"&amp;C72&amp;D72&amp;TEXT(F72,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5202</v>
       </c>
       <c r="B72" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D72">
@@ -4228,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <f>INT(D72/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I72">
@@ -4241,24 +4762,32 @@
         <v>68</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M72">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f ca="1">"Equip"&amp;C73&amp;D73&amp;TEXT(F73,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5301</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D73">
@@ -4274,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <f>INT(D73/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I73">
@@ -4287,24 +4816,32 @@
         <v>68</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M73">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f ca="1">"Equip"&amp;C74&amp;D74&amp;TEXT(F74,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5302</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D74">
@@ -4320,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <f>INT(D74/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I74">
@@ -4333,24 +4870,32 @@
         <v>68</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M74">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f ca="1">"Equip"&amp;C75&amp;D75&amp;TEXT(F75,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5401</v>
       </c>
       <c r="B75" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D75">
@@ -4366,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <f>INT(D75/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I75">
@@ -4379,24 +4924,32 @@
         <v>68</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P75" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f ca="1">"Equip"&amp;C76&amp;D76&amp;TEXT(F76,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5402</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D76">
@@ -4412,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <f>INT(D76/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I76">
@@ -4425,24 +4978,32 @@
         <v>68</v>
       </c>
       <c r="L76" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P76" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f ca="1">"Equip"&amp;C77&amp;D77&amp;TEXT(F77,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5403</v>
       </c>
       <c r="B77" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D77">
@@ -4458,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <f>INT(D77/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I77">
@@ -4471,24 +5032,32 @@
         <v>68</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P77" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f ca="1">"Equip"&amp;C78&amp;D78&amp;TEXT(F78,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5404</v>
       </c>
       <c r="B78" t="s">
         <v>41</v>
       </c>
       <c r="C78" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D78">
@@ -4504,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <f>INT(D78/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I78">
@@ -4517,24 +5086,32 @@
         <v>68</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P78" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f ca="1">"Equip"&amp;C79&amp;D79&amp;TEXT(F79,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip5405</v>
       </c>
       <c r="B79" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="D79">
@@ -4550,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <f>INT(D79/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I79">
@@ -4563,24 +5140,32 @@
         <v>68</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P79" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f ca="1">"Equip"&amp;C80&amp;D80&amp;TEXT(F80,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6001</v>
       </c>
       <c r="B80" t="s">
         <v>42</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D80">
@@ -4596,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <f>INT(D80/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I80">
@@ -4609,24 +5194,32 @@
         <v>68</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f ca="1">"Equip"&amp;C81&amp;D81&amp;TEXT(F81,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6002</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
       </c>
       <c r="C81" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D81">
@@ -4642,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <f>INT(D81/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I81">
@@ -4655,24 +5248,32 @@
         <v>68</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M81">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f ca="1">"Equip"&amp;C82&amp;D82&amp;TEXT(F82,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6101</v>
       </c>
       <c r="B82" t="s">
         <v>42</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D82">
@@ -4688,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <f>INT(D82/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I82">
@@ -4701,24 +5302,32 @@
         <v>68</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M82">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f ca="1">"Equip"&amp;C83&amp;D83&amp;TEXT(F83,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6102</v>
       </c>
       <c r="B83" t="s">
         <v>42</v>
       </c>
       <c r="C83" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D83">
@@ -4734,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f>INT(D83/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I83">
@@ -4747,24 +5356,32 @@
         <v>68</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M83">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
-        <f ca="1">"Equip"&amp;C84&amp;D84&amp;TEXT(F84,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6201</v>
       </c>
       <c r="B84" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D84">
@@ -4780,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f>INT(D84/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I84">
@@ -4793,24 +5410,32 @@
         <v>68</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M84">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f ca="1">"Equip"&amp;C85&amp;D85&amp;TEXT(F85,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6202</v>
       </c>
       <c r="B85" t="s">
         <v>42</v>
       </c>
       <c r="C85" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D85">
@@ -4826,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f>INT(D85/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I85">
@@ -4839,24 +5464,32 @@
         <v>68</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M85">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
-        <f ca="1">"Equip"&amp;C86&amp;D86&amp;TEXT(F86,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6301</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
       </c>
       <c r="C86" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D86">
@@ -4872,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f>INT(D86/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I86">
@@ -4885,24 +5518,32 @@
         <v>68</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M86">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
-        <f ca="1">"Equip"&amp;C87&amp;D87&amp;TEXT(F87,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6302</v>
       </c>
       <c r="B87" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D87">
@@ -4918,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <f>INT(D87/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I87">
@@ -4931,24 +5572,32 @@
         <v>68</v>
       </c>
       <c r="L87" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M87">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
-        <f ca="1">"Equip"&amp;C88&amp;D88&amp;TEXT(F88,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6401</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
       </c>
       <c r="C88" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D88">
@@ -4964,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <f>INT(D88/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I88">
@@ -4977,24 +5626,32 @@
         <v>68</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P88" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f ca="1">"Equip"&amp;C89&amp;D89&amp;TEXT(F89,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6402</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
       </c>
       <c r="C89" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D89">
@@ -5010,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <f>INT(D89/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I89">
@@ -5023,24 +5680,32 @@
         <v>68</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P89" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
-        <f ca="1">"Equip"&amp;C90&amp;D90&amp;TEXT(F90,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6403</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D90">
@@ -5056,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <f>INT(D90/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I90">
@@ -5069,24 +5734,32 @@
         <v>68</v>
       </c>
       <c r="L90" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P90" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
-        <f ca="1">"Equip"&amp;C91&amp;D91&amp;TEXT(F91,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6404</v>
       </c>
       <c r="B91" t="s">
         <v>42</v>
       </c>
       <c r="C91" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D91">
@@ -5102,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <f>INT(D91/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I91">
@@ -5115,24 +5788,32 @@
         <v>68</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P91" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
-        <f ca="1">"Equip"&amp;C92&amp;D92&amp;TEXT(F92,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip6405</v>
       </c>
       <c r="B92" t="s">
         <v>42</v>
       </c>
       <c r="C92" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
       <c r="D92">
@@ -5148,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <f>INT(D92/2)+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I92">
@@ -5161,24 +5842,32 @@
         <v>68</v>
       </c>
       <c r="L92" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P92" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
-        <f ca="1">"Equip"&amp;C93&amp;D93&amp;TEXT(F93,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip7001</v>
       </c>
       <c r="B93" t="s">
         <v>43</v>
       </c>
       <c r="C93" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D93">
@@ -5194,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <f>INT(D93/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I93">
@@ -5207,24 +5896,32 @@
         <v>68</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M93">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
-        <f ca="1">"Equip"&amp;C94&amp;D94&amp;TEXT(F94,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip7002</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D94">
@@ -5240,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <f>INT(D94/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I94">
@@ -5253,24 +5950,32 @@
         <v>68</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M94">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
-        <f ca="1">"Equip"&amp;C95&amp;D95&amp;TEXT(F95,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip7101</v>
       </c>
       <c r="B95" t="s">
         <v>43</v>
       </c>
       <c r="C95" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D95">
@@ -5286,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <f>INT(D95/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I95">
@@ -5299,24 +6004,32 @@
         <v>68</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M95">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
-        <f ca="1">"Equip"&amp;C96&amp;D96&amp;TEXT(F96,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip7102</v>
       </c>
       <c r="B96" t="s">
         <v>43</v>
       </c>
       <c r="C96" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D96">
@@ -5332,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <f>INT(D96/2)+1</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I96">
@@ -5345,24 +6058,32 @@
         <v>68</v>
       </c>
       <c r="L96" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M96">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
-        <f ca="1">"Equip"&amp;C97&amp;D97&amp;TEXT(F97,"00")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>Equip7201</v>
       </c>
       <c r="B97" t="s">
         <v>43</v>
       </c>
       <c r="C97" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D97">
@@ -5378,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <f>INT(D97/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I97">
@@ -5391,24 +6112,32 @@
         <v>68</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M97">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
-        <f ca="1">"Equip"&amp;C98&amp;D98&amp;TEXT(F98,"00")</f>
+        <f t="shared" ref="A98:A118" ca="1" si="20">"Equip"&amp;C98&amp;D98&amp;TEXT(F98,"00")</f>
         <v>Equip7202</v>
       </c>
       <c r="B98" t="s">
         <v>43</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D98">
@@ -5424,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <f>INT(D98/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I98">
@@ -5437,24 +6166,32 @@
         <v>68</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
-        <f ca="1">"Equip"&amp;C99&amp;D99&amp;TEXT(F99,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip7301</v>
       </c>
       <c r="B99" t="s">
         <v>43</v>
       </c>
       <c r="C99" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D99">
@@ -5470,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <f>INT(D99/2)+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I99">
@@ -5483,24 +6220,32 @@
         <v>68</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M99">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
-        <f ca="1">"Equip"&amp;C100&amp;D100&amp;TEXT(F100,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip7302</v>
       </c>
       <c r="B100" t="s">
         <v>43</v>
       </c>
       <c r="C100" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D100">
@@ -5516,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <f>INT(D100/2)+1</f>
+        <f t="shared" ref="H100:H118" si="21">INT(D100/2)+1</f>
         <v>2</v>
       </c>
       <c r="I100">
@@ -5529,24 +6274,32 @@
         <v>68</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M100">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
-        <f ca="1">"Equip"&amp;C101&amp;D101&amp;TEXT(F101,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip7401</v>
       </c>
       <c r="B101" t="s">
         <v>43</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D101">
@@ -5562,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <f>INT(D101/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I101">
@@ -5575,24 +6328,32 @@
         <v>68</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P101" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
-        <f ca="1">"Equip"&amp;C102&amp;D102&amp;TEXT(F102,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip7402</v>
       </c>
       <c r="B102" t="s">
         <v>43</v>
       </c>
       <c r="C102" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D102">
@@ -5608,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <f>INT(D102/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I102">
@@ -5621,24 +6382,32 @@
         <v>68</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P102" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
-        <f ca="1">"Equip"&amp;C103&amp;D103&amp;TEXT(F103,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip7403</v>
       </c>
       <c r="B103" t="s">
         <v>43</v>
       </c>
       <c r="C103" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D103">
@@ -5654,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <f>INT(D103/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I103">
@@ -5667,24 +6436,32 @@
         <v>68</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P103" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
-        <f ca="1">"Equip"&amp;C104&amp;D104&amp;TEXT(F104,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip7404</v>
       </c>
       <c r="B104" t="s">
         <v>43</v>
       </c>
       <c r="C104" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D104">
@@ -5700,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <f>INT(D104/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I104">
@@ -5713,24 +6490,32 @@
         <v>68</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P104" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
-        <f ca="1">"Equip"&amp;C105&amp;D105&amp;TEXT(F105,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip7405</v>
       </c>
       <c r="B105" t="s">
         <v>43</v>
       </c>
       <c r="C105" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>7</v>
       </c>
       <c r="D105">
@@ -5746,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <f>INT(D105/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I105">
@@ -5759,24 +6544,32 @@
         <v>68</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P105" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
-        <f ca="1">"Equip"&amp;C106&amp;D106&amp;TEXT(F106,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8001</v>
       </c>
       <c r="B106" t="s">
         <v>82</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D106">
@@ -5792,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f>INT(D106/2)+1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I106">
@@ -5805,24 +6598,35 @@
         <v>68</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M106">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O106" t="s">
+        <v>86</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="18"/>
+        <v>Shot_FrozenNightSword</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" si="19"/>
+        <v>EquipName_FrozenNightSword</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
-        <f ca="1">"Equip"&amp;C107&amp;D107&amp;TEXT(F107,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8002</v>
       </c>
       <c r="B107" t="s">
         <v>82</v>
       </c>
       <c r="C107" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D107">
@@ -5838,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <f>INT(D107/2)+1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I107">
@@ -5851,24 +6655,32 @@
         <v>68</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M107">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
-        <f ca="1">"Equip"&amp;C108&amp;D108&amp;TEXT(F108,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8101</v>
       </c>
       <c r="B108" t="s">
         <v>82</v>
       </c>
       <c r="C108" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D108">
@@ -5884,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f>INT(D108/2)+1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I108">
@@ -5897,24 +6709,32 @@
         <v>68</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M108">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
-        <f ca="1">"Equip"&amp;C109&amp;D109&amp;TEXT(F109,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8102</v>
       </c>
       <c r="B109" t="s">
         <v>82</v>
       </c>
       <c r="C109" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D109">
@@ -5930,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <f>INT(D109/2)+1</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I109">
@@ -5943,24 +6763,32 @@
         <v>68</v>
       </c>
       <c r="L109" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M109">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P109" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q109" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
-        <f ca="1">"Equip"&amp;C110&amp;D110&amp;TEXT(F110,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8201</v>
       </c>
       <c r="B110" t="s">
         <v>82</v>
       </c>
       <c r="C110" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D110">
@@ -5976,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f>INT(D110/2)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="I110">
@@ -5989,24 +6817,32 @@
         <v>68</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M110">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
-        <f ca="1">"Equip"&amp;C111&amp;D111&amp;TEXT(F111,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8202</v>
       </c>
       <c r="B111" t="s">
         <v>82</v>
       </c>
       <c r="C111" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D111">
@@ -6022,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <f>INT(D111/2)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="I111">
@@ -6035,24 +6871,32 @@
         <v>68</v>
       </c>
       <c r="L111" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M111">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q111" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
-        <f ca="1">"Equip"&amp;C112&amp;D112&amp;TEXT(F112,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8301</v>
       </c>
       <c r="B112" t="s">
         <v>82</v>
       </c>
       <c r="C112" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D112">
@@ -6068,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <f>INT(D112/2)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="I112">
@@ -6081,24 +6925,32 @@
         <v>68</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M112">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
-        <f ca="1">"Equip"&amp;C113&amp;D113&amp;TEXT(F113,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8302</v>
       </c>
       <c r="B113" t="s">
         <v>82</v>
       </c>
       <c r="C113" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D113">
@@ -6114,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <f>INT(D113/2)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="I113">
@@ -6127,24 +6979,32 @@
         <v>68</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q113" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
-        <f ca="1">"Equip"&amp;C114&amp;D114&amp;TEXT(F114,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8401</v>
       </c>
       <c r="B114" t="s">
         <v>82</v>
       </c>
       <c r="C114" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D114">
@@ -6160,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f>INT(D114/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I114">
@@ -6173,24 +7033,32 @@
         <v>68</v>
       </c>
       <c r="L114" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P114" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
-        <f ca="1">"Equip"&amp;C115&amp;D115&amp;TEXT(F115,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8402</v>
       </c>
       <c r="B115" t="s">
         <v>82</v>
       </c>
       <c r="C115" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D115">
@@ -6206,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <f>INT(D115/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I115">
@@ -6219,24 +7087,32 @@
         <v>68</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P115" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
-        <f ca="1">"Equip"&amp;C116&amp;D116&amp;TEXT(F116,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8403</v>
       </c>
       <c r="B116" t="s">
         <v>82</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D116">
@@ -6252,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <f>INT(D116/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I116">
@@ -6265,24 +7141,32 @@
         <v>68</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P116" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
-        <f ca="1">"Equip"&amp;C117&amp;D117&amp;TEXT(F117,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8404</v>
       </c>
       <c r="B117" t="s">
         <v>82</v>
       </c>
       <c r="C117" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D117">
@@ -6298,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <f>INT(D117/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I117">
@@ -6311,24 +7195,32 @@
         <v>68</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P117" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
-        <f ca="1">"Equip"&amp;C118&amp;D118&amp;TEXT(F118,"00")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>Equip8405</v>
       </c>
       <c r="B118" t="s">
         <v>82</v>
       </c>
       <c r="C118" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="15"/>
         <v>8</v>
       </c>
       <c r="D118">
@@ -6344,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <f>INT(D118/2)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="I118">
@@ -6357,12 +7249,20 @@
         <v>68</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="M118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>-5</v>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F020F3-1C34-4D5D-8623-1D75219B892B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377519A-CD53-4BEE-BE3B-ABA975D5B56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="88">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,10 @@
   </si>
   <si>
     <t>FrozenNightSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarkNpcSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +739,8 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -752,7 +756,7 @@
     <col min="19" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="9" collapsed="1"/>
     <col min="22" max="22" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -884,7 +888,7 @@
         <v>Shot_RunicAxe</v>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q33" si="5">IF(ISBLANK(O2),"","EquipName_"&amp;O2)</f>
+        <f t="shared" ref="Q2" si="5">IF(ISBLANK(O2),"","EquipName_"&amp;O2)</f>
         <v>EquipName_RunicAxe</v>
       </c>
       <c r="S2" t="s">
@@ -6662,13 +6666,16 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="O107" t="s">
+        <v>87</v>
+      </c>
       <c r="P107" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>Shot_DarkNpcSword</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>EquipName_DarkNpcSword</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377519A-CD53-4BEE-BE3B-ABA975D5B56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6653FD16-9277-4C3C-9C03-B063594DCC55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="91">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>DarkNpcSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StealthDagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StealthScythe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StealthSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,8 +751,8 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q68" activeCellId="2" sqref="Q3 Q15 Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -953,13 +965,16 @@
 "없음"))))</f>
         <v>0</v>
       </c>
+      <c r="O3" t="s">
+        <v>89</v>
+      </c>
       <c r="P3" t="str">
         <f>IF(ISBLANK(O3),"","Shot_"&amp;O3)</f>
-        <v/>
+        <v>Shot_StealthScythe</v>
       </c>
       <c r="Q3" t="str">
         <f>IF(ISBLANK(O3),"","EquipName_"&amp;O3)</f>
-        <v/>
+        <v>EquipName_StealthScythe</v>
       </c>
       <c r="S3" t="s">
         <v>37</v>
@@ -1688,13 +1703,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
       <c r="P15" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Shot_StealthDagger</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>EquipName_StealthDagger</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -4557,13 +4575,16 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="O68" t="s">
+        <v>90</v>
+      </c>
       <c r="P68" t="str">
         <f t="shared" ref="P68:P118" si="18">IF(ISBLANK(O68),"","Shot_"&amp;O68)</f>
-        <v/>
+        <v>Shot_StealthSword</v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" ref="Q68:Q118" si="19">IF(ISBLANK(O68),"","EquipName_"&amp;O68)</f>
-        <v/>
+        <v>EquipName_StealthSword</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6653FD16-9277-4C3C-9C03-B063594DCC55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897CBCE-10B5-45A2-8B96-7C7DBFE2274C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>StealthSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NecroScythe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,8 +755,8 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q68" activeCellId="2" sqref="Q3 Q15 Q68"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1040,13 +1044,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
       <c r="P4" t="str">
         <f t="shared" ref="P4:P67" si="8">IF(ISBLANK(O4),"","Shot_"&amp;O4)</f>
-        <v/>
+        <v>Shot_NecroScythe</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" ref="Q4:Q67" si="9">IF(ISBLANK(O4),"","EquipName_"&amp;O4)</f>
-        <v/>
+        <v>EquipName_NecroScythe</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897CBCE-10B5-45A2-8B96-7C7DBFE2274C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96DA662-7AB7-4754-9E8E-A58BEECDEAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="93">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>NecroScythe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatAngelSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,8 +759,8 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4639,13 +4643,16 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
+      <c r="O69" t="s">
+        <v>92</v>
+      </c>
       <c r="P69" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>Shot_BatAngelSword</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>EquipName_BatAngelSword</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96DA662-7AB7-4754-9E8E-A58BEECDEAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061B2D02-7B84-4F46-8604-20D973BE544B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="94">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>BatAngelSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrongMaul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,8 +763,8 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3823,13 +3827,16 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
       <c r="P54" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Shot_StrongMaul</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>EquipName_StrongMaul</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42132C6D-7DAD-4181-B994-1C1F8B530261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B3BCC1-62D6-4D04-9095-5FBCD746AA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="97">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,6 +704,10 @@
   </si>
   <si>
     <t>SciFiWarriorGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBlueStaff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,8 +1097,8 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3852,13 +3856,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="P45" t="s">
+        <v>96</v>
+      </c>
       <c r="Q45" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Shot_FreeBlueStaff</v>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>EquipName_FreeBlueStaff</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B3BCC1-62D6-4D04-9095-5FBCD746AA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E7035-FF32-44B6-868A-B51CD755CCC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="99">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -708,6 +708,14 @@
   </si>
   <si>
     <t>FreeBlueStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElvenShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyfgBowTen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,8 +1105,8 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3218,13 +3226,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="P34" t="s">
+        <v>98</v>
+      </c>
       <c r="Q34" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Shot_MyfgBowTen</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>EquipName_MyfgBowTen</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
@@ -7126,13 +7137,16 @@
         <f t="shared" si="18"/>
         <v>-20</v>
       </c>
+      <c r="P101" t="s">
+        <v>97</v>
+      </c>
       <c r="Q101" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>Shot_ElvenShield</v>
       </c>
       <c r="R101" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>EquipName_ElvenShield</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E7035-FF32-44B6-868A-B51CD755CCC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E25886-22F2-4A84-B325-B56F47104098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="100">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,6 +716,10 @@
   </si>
   <si>
     <t>MyfgBowTen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VillagerDagger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,8 +1109,8 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2182,13 +2186,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="P16" t="s">
+        <v>99</v>
+      </c>
       <c r="Q16" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Shot_VillagerDagger</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>EquipName_VillagerDagger</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEEFB8D-BEC8-40D3-BD47-2C19D10065A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60806489-4D66-4506-858A-9A953D836A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="129">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,10 +390,6 @@
   </si>
   <si>
     <t>HP</t>
-  </si>
-  <si>
-    <t>innergrade|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>optionType|Int</t>
@@ -1216,11 +1212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView topLeftCell="A7" workbookViewId="1">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1247,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -1259,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1277,43 +1273,43 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>49</v>
       </c>
-      <c r="U1" t="s">
-        <v>50</v>
-      </c>
       <c r="W1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
         <v>41</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -1326,7 +1322,7 @@
         <v/>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D65" ca="1" si="2">VLOOKUP(C2,OFFSET(INDIRECT("$A:$B"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1356,7 +1352,7 @@
         <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ref="M2:M64" ca="1" si="4">VLOOKUP(L2,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1371,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2" si="5">IF(ISBLANK(P2),"","Shot_"&amp;P2)</f>
@@ -1382,13 +1378,13 @@
         <v>EquipName_RunicAxe</v>
       </c>
       <c r="T2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1404,7 +1400,7 @@
         <v/>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1433,7 +1429,7 @@
         <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1448,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3" t="str">
         <f>IF(ISBLANK(P3),"","Shot_"&amp;P3)</f>
@@ -1459,22 +1455,22 @@
         <v>EquipName_StealthScythe</v>
       </c>
       <c r="T3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s">
         <v>43</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -1487,7 +1483,7 @@
         <v/>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1516,7 +1512,7 @@
         <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1527,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" ref="Q4:Q67" si="9">IF(ISBLANK(P4),"","Shot_"&amp;P4)</f>
@@ -1538,22 +1534,22 @@
         <v>EquipName_NecroScythe</v>
       </c>
       <c r="T4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X4">
         <v>2</v>
       </c>
       <c r="Y4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1566,7 +1562,7 @@
         <v/>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1595,7 +1591,7 @@
         <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1614,19 +1610,19 @@
         <v/>
       </c>
       <c r="T5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X5">
         <v>3</v>
       </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -1639,7 +1635,7 @@
         <v/>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1668,7 +1664,7 @@
         <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1687,13 +1683,13 @@
         <v/>
       </c>
       <c r="T6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U6">
         <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X6">
         <v>4</v>
@@ -1709,7 +1705,7 @@
         <v/>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1738,7 +1734,7 @@
         <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1757,7 +1753,7 @@
         <v/>
       </c>
       <c r="T7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U7">
         <v>5</v>
@@ -1773,7 +1769,7 @@
         <v/>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1802,7 +1798,7 @@
         <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1821,7 +1817,7 @@
         <v/>
       </c>
       <c r="T8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U8">
         <v>6</v>
@@ -1837,7 +1833,7 @@
         <v/>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1866,7 +1862,7 @@
         <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1885,7 +1881,7 @@
         <v/>
       </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U9">
         <v>7</v>
@@ -1901,7 +1897,7 @@
         <v/>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1930,7 +1926,7 @@
         <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1949,7 +1945,7 @@
         <v/>
       </c>
       <c r="T10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U10">
         <v>8</v>
@@ -1965,7 +1961,7 @@
         <v/>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1994,7 +1990,7 @@
         <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2023,7 +2019,7 @@
         <v/>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2052,7 +2048,7 @@
         <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2081,7 +2077,7 @@
         <v/>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2110,7 +2106,7 @@
         <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2139,7 +2135,7 @@
         <v/>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2168,7 +2164,7 @@
         <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2197,7 +2193,7 @@
         <v/>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2226,7 +2222,7 @@
         <v>115</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2237,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="9"/>
@@ -2258,7 +2254,7 @@
         <v/>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2287,7 +2283,7 @@
         <v>115</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2298,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="9"/>
@@ -2319,7 +2315,7 @@
         <v/>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2348,7 +2344,7 @@
         <v>115</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2377,7 +2373,7 @@
         <v/>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2406,7 +2402,7 @@
         <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2435,7 +2431,7 @@
         <v/>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2464,7 +2460,7 @@
         <v>115</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2493,7 +2489,7 @@
         <v/>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2522,7 +2518,7 @@
         <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2551,7 +2547,7 @@
         <v/>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2580,7 +2576,7 @@
         <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2609,7 +2605,7 @@
         <v/>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2638,7 +2634,7 @@
         <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2667,7 +2663,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2696,7 +2692,7 @@
         <v>115</v>
       </c>
       <c r="L23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2725,7 +2721,7 @@
         <v/>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2754,7 +2750,7 @@
         <v>115</v>
       </c>
       <c r="L24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2783,7 +2779,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2812,7 +2808,7 @@
         <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2841,7 +2837,7 @@
         <v/>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2870,7 +2866,7 @@
         <v>115</v>
       </c>
       <c r="L26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2899,7 +2895,7 @@
         <v/>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2928,7 +2924,7 @@
         <v>115</v>
       </c>
       <c r="L27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2957,7 +2953,7 @@
         <v/>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2986,7 +2982,7 @@
         <v>115</v>
       </c>
       <c r="L28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3015,7 +3011,7 @@
         <v/>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3044,7 +3040,7 @@
         <v>115</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3073,7 +3069,7 @@
         <v/>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3102,7 +3098,7 @@
         <v>115</v>
       </c>
       <c r="L30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3131,7 +3127,7 @@
         <v/>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3160,7 +3156,7 @@
         <v>115</v>
       </c>
       <c r="L31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3189,7 +3185,7 @@
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3218,7 +3214,7 @@
         <v>115</v>
       </c>
       <c r="L32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3247,7 +3243,7 @@
         <v/>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3276,7 +3272,7 @@
         <v>115</v>
       </c>
       <c r="L33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3305,7 +3301,7 @@
         <v/>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3334,7 +3330,7 @@
         <v>115</v>
       </c>
       <c r="L34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3345,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="9"/>
@@ -3366,7 +3362,7 @@
         <v/>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3395,7 +3391,7 @@
         <v>115</v>
       </c>
       <c r="L35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3424,7 +3420,7 @@
         <v/>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3453,7 +3449,7 @@
         <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3482,7 +3478,7 @@
         <v/>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3511,7 +3507,7 @@
         <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3540,7 +3536,7 @@
         <v/>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3569,7 +3565,7 @@
         <v>115</v>
       </c>
       <c r="L38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3598,7 +3594,7 @@
         <v/>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3627,7 +3623,7 @@
         <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3656,7 +3652,7 @@
         <v/>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3685,7 +3681,7 @@
         <v>115</v>
       </c>
       <c r="L40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3714,7 +3710,7 @@
         <v/>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3743,7 +3739,7 @@
         <v>115</v>
       </c>
       <c r="L41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3772,7 +3768,7 @@
         <v/>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3801,7 +3797,7 @@
         <v>115</v>
       </c>
       <c r="L42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3830,7 +3826,7 @@
         <v/>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3859,7 +3855,7 @@
         <v>115</v>
       </c>
       <c r="L43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3888,7 +3884,7 @@
         <v/>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3917,7 +3913,7 @@
         <v>115</v>
       </c>
       <c r="L44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3946,7 +3942,7 @@
         <v/>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3975,7 +3971,7 @@
         <v>115</v>
       </c>
       <c r="L45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3986,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="9"/>
@@ -4007,7 +4003,7 @@
         <v/>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4036,7 +4032,7 @@
         <v>115</v>
       </c>
       <c r="L46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4065,7 +4061,7 @@
         <v/>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4094,7 +4090,7 @@
         <v>115</v>
       </c>
       <c r="L47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4123,7 +4119,7 @@
         <v/>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4152,7 +4148,7 @@
         <v>115</v>
       </c>
       <c r="L48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4181,7 +4177,7 @@
         <v/>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4210,7 +4206,7 @@
         <v>115</v>
       </c>
       <c r="L49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4239,7 +4235,7 @@
         <v/>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4268,7 +4264,7 @@
         <v>115</v>
       </c>
       <c r="L50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4297,7 +4293,7 @@
         <v/>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4326,7 +4322,7 @@
         <v>115</v>
       </c>
       <c r="L51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4355,7 +4351,7 @@
         <v/>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4384,7 +4380,7 @@
         <v>115</v>
       </c>
       <c r="L52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4413,7 +4409,7 @@
         <v/>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4442,7 +4438,7 @@
         <v>115</v>
       </c>
       <c r="L53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4471,7 +4467,7 @@
         <v/>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4500,7 +4496,7 @@
         <v>115</v>
       </c>
       <c r="L54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4511,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="9"/>
@@ -4532,7 +4528,7 @@
         <v/>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4561,7 +4557,7 @@
         <v>115</v>
       </c>
       <c r="L55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4590,7 +4586,7 @@
         <v/>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4619,7 +4615,7 @@
         <v>115</v>
       </c>
       <c r="L56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4648,7 +4644,7 @@
         <v/>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4677,7 +4673,7 @@
         <v>115</v>
       </c>
       <c r="L57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4706,7 +4702,7 @@
         <v/>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4735,7 +4731,7 @@
         <v>115</v>
       </c>
       <c r="L58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4764,7 +4760,7 @@
         <v/>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4793,7 +4789,7 @@
         <v>115</v>
       </c>
       <c r="L59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4822,7 +4818,7 @@
         <v/>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4851,7 +4847,7 @@
         <v>115</v>
       </c>
       <c r="L60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4880,7 +4876,7 @@
         <v/>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4909,7 +4905,7 @@
         <v>115</v>
       </c>
       <c r="L61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4938,7 +4934,7 @@
         <v/>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4967,7 +4963,7 @@
         <v>115</v>
       </c>
       <c r="L62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4996,7 +4992,7 @@
         <v/>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5025,7 +5021,7 @@
         <v>115</v>
       </c>
       <c r="L63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -5054,7 +5050,7 @@
         <v/>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5083,7 +5079,7 @@
         <v>115</v>
       </c>
       <c r="L64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -5112,7 +5108,7 @@
         <v/>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5141,7 +5137,7 @@
         <v>115</v>
       </c>
       <c r="L65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" ref="M65:M118" ca="1" si="15">VLOOKUP(L65,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -5170,7 +5166,7 @@
         <v/>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ref="D66:D118" ca="1" si="17">VLOOKUP(C66,OFFSET(INDIRECT("$A:$B"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -5199,7 +5195,7 @@
         <v>115</v>
       </c>
       <c r="L66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5228,7 +5224,7 @@
         <v/>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5257,7 +5253,7 @@
         <v>115</v>
       </c>
       <c r="L67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5272,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q67" t="str">
         <f t="shared" si="9"/>
@@ -5293,7 +5289,7 @@
         <v/>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5322,7 +5318,7 @@
         <v>115</v>
       </c>
       <c r="L68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5333,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" ref="Q68:Q118" si="20">IF(ISBLANK(P68),"","Shot_"&amp;P68)</f>
@@ -5354,7 +5350,7 @@
         <v/>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5383,7 +5379,7 @@
         <v>115</v>
       </c>
       <c r="L69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5394,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" si="20"/>
@@ -5415,7 +5411,7 @@
         <v/>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5444,7 +5440,7 @@
         <v>115</v>
       </c>
       <c r="L70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5473,7 +5469,7 @@
         <v/>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5502,7 +5498,7 @@
         <v>115</v>
       </c>
       <c r="L71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5531,7 +5527,7 @@
         <v/>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5560,7 +5556,7 @@
         <v>115</v>
       </c>
       <c r="L72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5589,7 +5585,7 @@
         <v/>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5618,7 +5614,7 @@
         <v>115</v>
       </c>
       <c r="L73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5647,7 +5643,7 @@
         <v/>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5676,7 +5672,7 @@
         <v>115</v>
       </c>
       <c r="L74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5705,7 +5701,7 @@
         <v/>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5734,7 +5730,7 @@
         <v>115</v>
       </c>
       <c r="L75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5763,7 +5759,7 @@
         <v/>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5792,7 +5788,7 @@
         <v>115</v>
       </c>
       <c r="L76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5821,7 +5817,7 @@
         <v/>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5850,7 +5846,7 @@
         <v>115</v>
       </c>
       <c r="L77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5879,7 +5875,7 @@
         <v/>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5908,7 +5904,7 @@
         <v>115</v>
       </c>
       <c r="L78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5937,7 +5933,7 @@
         <v/>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5966,7 +5962,7 @@
         <v>115</v>
       </c>
       <c r="L79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5995,7 +5991,7 @@
         <v/>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6024,7 +6020,7 @@
         <v>115</v>
       </c>
       <c r="L80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6035,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="20"/>
@@ -6056,7 +6052,7 @@
         <v/>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6085,7 +6081,7 @@
         <v>115</v>
       </c>
       <c r="L81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6114,7 +6110,7 @@
         <v/>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6143,7 +6139,7 @@
         <v>115</v>
       </c>
       <c r="L82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6172,7 +6168,7 @@
         <v/>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6201,7 +6197,7 @@
         <v>115</v>
       </c>
       <c r="L83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6230,7 +6226,7 @@
         <v/>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6259,7 +6255,7 @@
         <v>115</v>
       </c>
       <c r="L84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6288,7 +6284,7 @@
         <v/>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6317,7 +6313,7 @@
         <v>115</v>
       </c>
       <c r="L85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6346,7 +6342,7 @@
         <v/>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6375,7 +6371,7 @@
         <v>115</v>
       </c>
       <c r="L86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6404,7 +6400,7 @@
         <v/>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6433,7 +6429,7 @@
         <v>115</v>
       </c>
       <c r="L87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6462,7 +6458,7 @@
         <v/>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6491,7 +6487,7 @@
         <v>115</v>
       </c>
       <c r="L88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6520,7 +6516,7 @@
         <v/>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6549,7 +6545,7 @@
         <v>115</v>
       </c>
       <c r="L89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6578,7 +6574,7 @@
         <v/>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6607,7 +6603,7 @@
         <v>115</v>
       </c>
       <c r="L90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6636,7 +6632,7 @@
         <v/>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6665,7 +6661,7 @@
         <v>115</v>
       </c>
       <c r="L91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6694,7 +6690,7 @@
         <v/>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6723,7 +6719,7 @@
         <v>115</v>
       </c>
       <c r="L92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6752,7 +6748,7 @@
         <v/>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6781,7 +6777,7 @@
         <v>115</v>
       </c>
       <c r="L93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6810,7 +6806,7 @@
         <v/>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6839,7 +6835,7 @@
         <v>115</v>
       </c>
       <c r="L94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6868,7 +6864,7 @@
         <v/>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6897,7 +6893,7 @@
         <v>115</v>
       </c>
       <c r="L95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6926,7 +6922,7 @@
         <v/>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6955,7 +6951,7 @@
         <v>115</v>
       </c>
       <c r="L96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6984,7 +6980,7 @@
         <v/>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7013,7 +7009,7 @@
         <v>115</v>
       </c>
       <c r="L97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7042,7 +7038,7 @@
         <v/>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7071,7 +7067,7 @@
         <v>115</v>
       </c>
       <c r="L98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7100,7 +7096,7 @@
         <v/>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7129,7 +7125,7 @@
         <v>115</v>
       </c>
       <c r="L99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7158,7 +7154,7 @@
         <v/>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7187,7 +7183,7 @@
         <v>115</v>
       </c>
       <c r="L100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7216,7 +7212,7 @@
         <v/>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7245,7 +7241,7 @@
         <v>115</v>
       </c>
       <c r="L101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7256,7 +7252,7 @@
         <v>-20</v>
       </c>
       <c r="P101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="20"/>
@@ -7277,7 +7273,7 @@
         <v/>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7306,7 +7302,7 @@
         <v>115</v>
       </c>
       <c r="L102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7335,7 +7331,7 @@
         <v/>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7364,7 +7360,7 @@
         <v>115</v>
       </c>
       <c r="L103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7393,7 +7389,7 @@
         <v/>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7422,7 +7418,7 @@
         <v>115</v>
       </c>
       <c r="L104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7451,7 +7447,7 @@
         <v/>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7480,7 +7476,7 @@
         <v>115</v>
       </c>
       <c r="L105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7509,7 +7505,7 @@
         <v/>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7538,7 +7534,7 @@
         <v>115</v>
       </c>
       <c r="L106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7549,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="20"/>
@@ -7570,7 +7566,7 @@
         <v/>
       </c>
       <c r="C107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7599,7 +7595,7 @@
         <v>115</v>
       </c>
       <c r="L107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7610,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="20"/>
@@ -7631,7 +7627,7 @@
         <v/>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7660,7 +7656,7 @@
         <v>115</v>
       </c>
       <c r="L108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7689,7 +7685,7 @@
         <v/>
       </c>
       <c r="C109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7718,7 +7714,7 @@
         <v>115</v>
       </c>
       <c r="L109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7747,7 +7743,7 @@
         <v/>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7776,7 +7772,7 @@
         <v>115</v>
       </c>
       <c r="L110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7805,7 +7801,7 @@
         <v/>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7834,7 +7830,7 @@
         <v>115</v>
       </c>
       <c r="L111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7863,7 +7859,7 @@
         <v/>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7892,7 +7888,7 @@
         <v>115</v>
       </c>
       <c r="L112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M112" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7921,7 +7917,7 @@
         <v/>
       </c>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7950,7 +7946,7 @@
         <v>115</v>
       </c>
       <c r="L113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M113" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7979,7 +7975,7 @@
         <v/>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8008,7 +8004,7 @@
         <v>115</v>
       </c>
       <c r="L114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M114" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8037,7 +8033,7 @@
         <v/>
       </c>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8066,7 +8062,7 @@
         <v>115</v>
       </c>
       <c r="L115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M115" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8095,7 +8091,7 @@
         <v/>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8124,7 +8120,7 @@
         <v>115</v>
       </c>
       <c r="L116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M116" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8153,7 +8149,7 @@
         <v/>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8182,7 +8178,7 @@
         <v>115</v>
       </c>
       <c r="L117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M117" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8211,7 +8207,7 @@
         <v/>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8240,7 +8236,7 @@
         <v>115</v>
       </c>
       <c r="L118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M118" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8278,9 +8274,9 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8295,7 +8291,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -8304,49 +8300,49 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
       <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
         <v>119</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>120</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>121</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>122</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>123</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" t="s">
-        <v>125</v>
-      </c>
       <c r="R1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S1">
         <v>50</v>
@@ -8370,25 +8366,25 @@
         <v>50</v>
       </c>
       <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
       <c r="AE1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" t="s">
         <v>27</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -25201,7 +25197,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -25215,85 +25211,85 @@
   <sheetData>
     <row r="1" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>115</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" t="s">
-        <v>118</v>
-      </c>
       <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>78</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>79</v>
       </c>
-      <c r="U1" t="s">
-        <v>80</v>
-      </c>
       <c r="V1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" t="s">
         <v>83</v>
       </c>
-      <c r="W1" t="s">
-        <v>84</v>
-      </c>
       <c r="X1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>128</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -26042,7 +26038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
     <sheetView workbookViewId="1">
@@ -26066,19 +26062,19 @@
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -26087,34 +26083,34 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
         <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -26122,7 +26118,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:C65" ca="1" si="0">VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -26141,7 +26137,7 @@
         <v>0.01</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:I3" ca="1" si="1">VLOOKUP(H2,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -26156,13 +26152,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -26173,7 +26169,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26192,7 +26188,7 @@
         <v>0.02</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -26207,22 +26203,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
         <v>43</v>
-      </c>
-      <c r="S3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -26230,7 +26226,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26249,7 +26245,7 @@
         <v>0.03</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ref="I4:I57" ca="1" si="2">VLOOKUP(H4,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -26264,22 +26260,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -26287,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26306,7 +26302,7 @@
         <v>0.04</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26317,19 +26313,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5">
         <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -26337,7 +26333,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26356,7 +26352,7 @@
         <v>0.05</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26367,13 +26363,13 @@
         <v>-20</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -26384,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26403,7 +26399,7 @@
         <v>0.05</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26414,7 +26410,7 @@
         <v>-10</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -26425,7 +26421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26444,7 +26440,7 @@
         <v>0.05</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26466,7 +26462,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26485,7 +26481,7 @@
         <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26507,7 +26503,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26527,7 +26523,7 @@
         <v>400</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26538,7 +26534,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>8</v>
@@ -26549,7 +26545,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26569,7 +26565,7 @@
         <v>600</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26580,7 +26576,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>9</v>
@@ -26591,7 +26587,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26611,7 +26607,7 @@
         <v>800</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26622,7 +26618,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>10</v>
@@ -26633,7 +26629,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26653,7 +26649,7 @@
         <v>1000</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26669,7 +26665,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26689,7 +26685,7 @@
         <v>1200</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26705,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26725,7 +26721,7 @@
         <v>1400</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26741,7 +26737,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26760,7 +26756,7 @@
         <v>0.01</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26776,7 +26772,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26795,7 +26791,7 @@
         <v>0.02</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26811,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26830,7 +26826,7 @@
         <v>0.03</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26846,7 +26842,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26865,7 +26861,7 @@
         <v>0.04</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26881,7 +26877,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26900,7 +26896,7 @@
         <v>0.05</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26916,7 +26912,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26935,7 +26931,7 @@
         <v>0.05</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26951,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -26970,7 +26966,7 @@
         <v>0.05</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -26986,7 +26982,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27005,7 +27001,7 @@
         <v>0.01</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27021,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27040,7 +27036,7 @@
         <v>0.02</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27056,7 +27052,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27075,7 +27071,7 @@
         <v>0.03</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27091,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27110,7 +27106,7 @@
         <v>0.04</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27126,7 +27122,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27145,7 +27141,7 @@
         <v>0.05</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27161,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27180,7 +27176,7 @@
         <v>0.05</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27196,7 +27192,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27215,7 +27211,7 @@
         <v>0.05</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27231,7 +27227,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27250,7 +27246,7 @@
         <v>0.01</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27266,7 +27262,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27285,7 +27281,7 @@
         <v>0.02</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27301,7 +27297,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27320,7 +27316,7 @@
         <v>0.03</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27336,7 +27332,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27355,7 +27351,7 @@
         <v>0.04</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27371,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27390,7 +27386,7 @@
         <v>0.05</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27406,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27425,7 +27421,7 @@
         <v>0.05</v>
       </c>
       <c r="H35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27441,7 +27437,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27460,7 +27456,7 @@
         <v>0.05</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27476,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27495,7 +27491,7 @@
         <v>0.01</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27511,7 +27507,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27530,7 +27526,7 @@
         <v>0.02</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27546,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27565,7 +27561,7 @@
         <v>0.03</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27581,7 +27577,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27600,7 +27596,7 @@
         <v>0.04</v>
       </c>
       <c r="H40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27616,7 +27612,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27635,7 +27631,7 @@
         <v>0.05</v>
       </c>
       <c r="H41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27651,7 +27647,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27670,7 +27666,7 @@
         <v>0.05</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27686,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -27705,7 +27701,7 @@
         <v>0.05</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27740,7 +27736,7 @@
         <v>0.01</v>
       </c>
       <c r="H44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27775,7 +27771,7 @@
         <v>0.02</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27810,7 +27806,7 @@
         <v>0.03</v>
       </c>
       <c r="H46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27845,7 +27841,7 @@
         <v>0.04</v>
       </c>
       <c r="H47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27880,7 +27876,7 @@
         <v>0.05</v>
       </c>
       <c r="H48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27915,7 +27911,7 @@
         <v>0.05</v>
       </c>
       <c r="H49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27950,7 +27946,7 @@
         <v>0.05</v>
       </c>
       <c r="H50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -27985,7 +27981,7 @@
         <v>400</v>
       </c>
       <c r="H51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -28021,7 +28017,7 @@
         <v>800</v>
       </c>
       <c r="H52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -28057,7 +28053,7 @@
         <v>1200</v>
       </c>
       <c r="H53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -28093,7 +28089,7 @@
         <v>1600</v>
       </c>
       <c r="H54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -28129,7 +28125,7 @@
         <v>2000</v>
       </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -28165,7 +28161,7 @@
         <v>2400</v>
       </c>
       <c r="H56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -28201,7 +28197,7 @@
         <v>2800</v>
       </c>
       <c r="H57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -28217,7 +28213,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -28236,7 +28232,7 @@
         <v>0.01</v>
       </c>
       <c r="H58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" ref="I58:I78" ca="1" si="6">VLOOKUP(H58,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -28256,7 +28252,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -28275,7 +28271,7 @@
         <v>0.02</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28291,7 +28287,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -28310,7 +28306,7 @@
         <v>0.03</v>
       </c>
       <c r="H60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28326,7 +28322,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -28345,7 +28341,7 @@
         <v>0.04</v>
       </c>
       <c r="H61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28361,7 +28357,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -28380,7 +28376,7 @@
         <v>0.05</v>
       </c>
       <c r="H62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28396,7 +28392,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -28415,7 +28411,7 @@
         <v>0.05</v>
       </c>
       <c r="H63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28431,7 +28427,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -28450,7 +28446,7 @@
         <v>0.05</v>
       </c>
       <c r="H64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28466,7 +28462,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -28485,7 +28481,7 @@
         <v>0.01</v>
       </c>
       <c r="H65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28501,7 +28497,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" ref="C66:C78" ca="1" si="8">VLOOKUP(B66,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -28520,7 +28516,7 @@
         <v>0.02</v>
       </c>
       <c r="H66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28536,7 +28532,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28555,7 +28551,7 @@
         <v>0.03</v>
       </c>
       <c r="H67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I67" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28571,7 +28567,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28590,7 +28586,7 @@
         <v>0.04</v>
       </c>
       <c r="H68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28606,7 +28602,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28625,7 +28621,7 @@
         <v>0.05</v>
       </c>
       <c r="H69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28641,7 +28637,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28660,7 +28656,7 @@
         <v>0.05</v>
       </c>
       <c r="H70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28676,7 +28672,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28695,7 +28691,7 @@
         <v>0.05</v>
       </c>
       <c r="H71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28711,7 +28707,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28730,7 +28726,7 @@
         <v>0.01</v>
       </c>
       <c r="H72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28746,7 +28742,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28765,7 +28761,7 @@
         <v>0.02</v>
       </c>
       <c r="H73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28781,7 +28777,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28800,7 +28796,7 @@
         <v>0.03</v>
       </c>
       <c r="H74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28816,7 +28812,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28835,7 +28831,7 @@
         <v>0.04</v>
       </c>
       <c r="H75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28851,7 +28847,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28870,7 +28866,7 @@
         <v>0.05</v>
       </c>
       <c r="H76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28886,7 +28882,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28905,7 +28901,7 @@
         <v>0.05</v>
       </c>
       <c r="H77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28921,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -28940,7 +28936,7 @@
         <v>0.05</v>
       </c>
       <c r="H78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -28959,5 +28955,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60806489-4D66-4506-858A-9A953D836A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE3DE4-8713-4132-8551-666C0290A265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -339,12 +339,483 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9E9F5E03-9A61-4853-950B-74CEC8DDFE00}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예전에는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>독립으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몇</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>돌릴까</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>했는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그러면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분포의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모양을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다르게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없어서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각각의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가중치로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경되었고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이거는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검증용으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>쓴다
+이거</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이하만큼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가질</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="123">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,12 +855,6 @@
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP퍼</t>
-  </si>
-  <si>
-    <t>HP</t>
   </si>
   <si>
     <t>optionType|Int</t>
@@ -660,70 +1125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공퍼</t>
-  </si>
-  <si>
-    <t>공격</t>
-  </si>
-  <si>
-    <t>보스몹대미지증가</t>
-  </si>
-  <si>
-    <t>보스몹대미지증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반몹대미지증가</t>
-  </si>
-  <si>
-    <t>일반몹대미지증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스몹대미지감소</t>
-  </si>
-  <si>
-    <t>보스몹대미지감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반몹대미지감소</t>
-  </si>
-  <si>
-    <t>일반몹대미지감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>option|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>option_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워소스회복증가</t>
-  </si>
-  <si>
-    <t>파워소스회복증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스왑회복증가</t>
-  </si>
-  <si>
-    <t>스왑회복증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임렙업회복증가</t>
-  </si>
-  <si>
-    <t>인게임렙업회복증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -825,6 +1231,47 @@
   <si>
     <t>threeOptionWeight|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackAddRate</t>
+  </si>
+  <si>
+    <t>AttackAddRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossMonsterDamageIncreaseAddRate</t>
+  </si>
+  <si>
+    <t>NormalMonsterDamageIncreaseAddRate</t>
+  </si>
+  <si>
+    <t>BossMonsterDamageDecreaseAddRate</t>
+  </si>
+  <si>
+    <t>NormalMonsterDamageDecreaseAddRate</t>
+  </si>
+  <si>
+    <t>MaxHpAddRate</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>PowerSourceHealAddRate</t>
+  </si>
+  <si>
+    <t>SwapHealAddRate</t>
+  </si>
+  <si>
+    <t>LevelUpHealRate</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1663,8 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
-    <sheetView topLeftCell="A7" workbookViewId="1">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1243,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -1255,13 +1702,13 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1273,43 +1720,43 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" t="s">
-        <v>49</v>
-      </c>
       <c r="W1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -1322,7 +1769,7 @@
         <v/>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D65" ca="1" si="2">VLOOKUP(C2,OFFSET(INDIRECT("$A:$B"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1352,7 +1799,7 @@
         <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ref="M2:M64" ca="1" si="4">VLOOKUP(L2,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1367,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2" si="5">IF(ISBLANK(P2),"","Shot_"&amp;P2)</f>
@@ -1378,13 +1825,13 @@
         <v>EquipName_RunicAxe</v>
       </c>
       <c r="T2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1400,7 +1847,7 @@
         <v/>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1429,7 +1876,7 @@
         <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1444,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="str">
         <f>IF(ISBLANK(P3),"","Shot_"&amp;P3)</f>
@@ -1455,22 +1902,22 @@
         <v>EquipName_StealthScythe</v>
       </c>
       <c r="T3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -1483,7 +1930,7 @@
         <v/>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1512,7 +1959,7 @@
         <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1523,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" ref="Q4:Q67" si="9">IF(ISBLANK(P4),"","Shot_"&amp;P4)</f>
@@ -1534,22 +1981,22 @@
         <v>EquipName_NecroScythe</v>
       </c>
       <c r="T4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="W4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X4">
         <v>2</v>
       </c>
       <c r="Y4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1562,7 +2009,7 @@
         <v/>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1591,7 +2038,7 @@
         <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1610,19 +2057,19 @@
         <v/>
       </c>
       <c r="T5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X5">
         <v>3</v>
       </c>
       <c r="Y5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -1635,7 +2082,7 @@
         <v/>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1664,7 +2111,7 @@
         <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1683,13 +2130,13 @@
         <v/>
       </c>
       <c r="T6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U6">
         <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X6">
         <v>4</v>
@@ -1705,7 +2152,7 @@
         <v/>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1734,7 +2181,7 @@
         <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1753,7 +2200,7 @@
         <v/>
       </c>
       <c r="T7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U7">
         <v>5</v>
@@ -1769,7 +2216,7 @@
         <v/>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1798,7 +2245,7 @@
         <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1817,7 +2264,7 @@
         <v/>
       </c>
       <c r="T8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U8">
         <v>6</v>
@@ -1833,7 +2280,7 @@
         <v/>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1862,7 +2309,7 @@
         <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1881,7 +2328,7 @@
         <v/>
       </c>
       <c r="T9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U9">
         <v>7</v>
@@ -1897,7 +2344,7 @@
         <v/>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1926,7 +2373,7 @@
         <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1945,7 +2392,7 @@
         <v/>
       </c>
       <c r="T10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U10">
         <v>8</v>
@@ -1961,7 +2408,7 @@
         <v/>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1990,7 +2437,7 @@
         <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2019,7 +2466,7 @@
         <v/>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2048,7 +2495,7 @@
         <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2077,7 +2524,7 @@
         <v/>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2106,7 +2553,7 @@
         <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2135,7 +2582,7 @@
         <v/>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2164,7 +2611,7 @@
         <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2193,7 +2640,7 @@
         <v/>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2222,7 +2669,7 @@
         <v>115</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2233,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="9"/>
@@ -2254,7 +2701,7 @@
         <v/>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2283,7 +2730,7 @@
         <v>115</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2294,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="9"/>
@@ -2315,7 +2762,7 @@
         <v/>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2344,7 +2791,7 @@
         <v>115</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2373,7 +2820,7 @@
         <v/>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2402,7 +2849,7 @@
         <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2431,7 +2878,7 @@
         <v/>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2460,7 +2907,7 @@
         <v>115</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2489,7 +2936,7 @@
         <v/>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2518,7 +2965,7 @@
         <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2547,7 +2994,7 @@
         <v/>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2576,7 +3023,7 @@
         <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2605,7 +3052,7 @@
         <v/>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2634,7 +3081,7 @@
         <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2663,7 +3110,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2692,7 +3139,7 @@
         <v>115</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2721,7 +3168,7 @@
         <v/>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2750,7 +3197,7 @@
         <v>115</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2779,7 +3226,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2808,7 +3255,7 @@
         <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2837,7 +3284,7 @@
         <v/>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2866,7 +3313,7 @@
         <v>115</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2895,7 +3342,7 @@
         <v/>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2924,7 +3371,7 @@
         <v>115</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2953,7 +3400,7 @@
         <v/>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2982,7 +3429,7 @@
         <v>115</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3011,7 +3458,7 @@
         <v/>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3040,7 +3487,7 @@
         <v>115</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3069,7 +3516,7 @@
         <v/>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3098,7 +3545,7 @@
         <v>115</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3127,7 +3574,7 @@
         <v/>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3156,7 +3603,7 @@
         <v>115</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3185,7 +3632,7 @@
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3214,7 +3661,7 @@
         <v>115</v>
       </c>
       <c r="L32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3243,7 +3690,7 @@
         <v/>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3272,7 +3719,7 @@
         <v>115</v>
       </c>
       <c r="L33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3301,7 +3748,7 @@
         <v/>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3330,7 +3777,7 @@
         <v>115</v>
       </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3341,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="9"/>
@@ -3362,7 +3809,7 @@
         <v/>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3391,7 +3838,7 @@
         <v>115</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3420,7 +3867,7 @@
         <v/>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3449,7 +3896,7 @@
         <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3478,7 +3925,7 @@
         <v/>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3507,7 +3954,7 @@
         <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3536,7 +3983,7 @@
         <v/>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3565,7 +4012,7 @@
         <v>115</v>
       </c>
       <c r="L38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3594,7 +4041,7 @@
         <v/>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3623,7 +4070,7 @@
         <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3652,7 +4099,7 @@
         <v/>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3681,7 +4128,7 @@
         <v>115</v>
       </c>
       <c r="L40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3710,7 +4157,7 @@
         <v/>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3739,7 +4186,7 @@
         <v>115</v>
       </c>
       <c r="L41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3768,7 +4215,7 @@
         <v/>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3797,7 +4244,7 @@
         <v>115</v>
       </c>
       <c r="L42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3826,7 +4273,7 @@
         <v/>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3855,7 +4302,7 @@
         <v>115</v>
       </c>
       <c r="L43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3884,7 +4331,7 @@
         <v/>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3913,7 +4360,7 @@
         <v>115</v>
       </c>
       <c r="L44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3942,7 +4389,7 @@
         <v/>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3971,7 +4418,7 @@
         <v>115</v>
       </c>
       <c r="L45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -3982,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="9"/>
@@ -4003,7 +4450,7 @@
         <v/>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4032,7 +4479,7 @@
         <v>115</v>
       </c>
       <c r="L46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4061,7 +4508,7 @@
         <v/>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4090,7 +4537,7 @@
         <v>115</v>
       </c>
       <c r="L47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4119,7 +4566,7 @@
         <v/>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4148,7 +4595,7 @@
         <v>115</v>
       </c>
       <c r="L48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4177,7 +4624,7 @@
         <v/>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4206,7 +4653,7 @@
         <v>115</v>
       </c>
       <c r="L49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4235,7 +4682,7 @@
         <v/>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4264,7 +4711,7 @@
         <v>115</v>
       </c>
       <c r="L50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4293,7 +4740,7 @@
         <v/>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4322,7 +4769,7 @@
         <v>115</v>
       </c>
       <c r="L51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4351,7 +4798,7 @@
         <v/>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4380,7 +4827,7 @@
         <v>115</v>
       </c>
       <c r="L52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4409,7 +4856,7 @@
         <v/>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4438,7 +4885,7 @@
         <v>115</v>
       </c>
       <c r="L53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4467,7 +4914,7 @@
         <v/>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4496,7 +4943,7 @@
         <v>115</v>
       </c>
       <c r="L54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4507,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="9"/>
@@ -4528,7 +4975,7 @@
         <v/>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4557,7 +5004,7 @@
         <v>115</v>
       </c>
       <c r="L55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4586,7 +5033,7 @@
         <v/>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4615,7 +5062,7 @@
         <v>115</v>
       </c>
       <c r="L56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4644,7 +5091,7 @@
         <v/>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4673,7 +5120,7 @@
         <v>115</v>
       </c>
       <c r="L57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4702,7 +5149,7 @@
         <v/>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4731,7 +5178,7 @@
         <v>115</v>
       </c>
       <c r="L58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4760,7 +5207,7 @@
         <v/>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4789,7 +5236,7 @@
         <v>115</v>
       </c>
       <c r="L59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4818,7 +5265,7 @@
         <v/>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4847,7 +5294,7 @@
         <v>115</v>
       </c>
       <c r="L60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4876,7 +5323,7 @@
         <v/>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4905,7 +5352,7 @@
         <v>115</v>
       </c>
       <c r="L61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4934,7 +5381,7 @@
         <v/>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4963,7 +5410,7 @@
         <v>115</v>
       </c>
       <c r="L62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -4992,7 +5439,7 @@
         <v/>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5021,7 +5468,7 @@
         <v>115</v>
       </c>
       <c r="L63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -5050,7 +5497,7 @@
         <v/>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5079,7 +5526,7 @@
         <v>115</v>
       </c>
       <c r="L64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -5108,7 +5555,7 @@
         <v/>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5137,7 +5584,7 @@
         <v>115</v>
       </c>
       <c r="L65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" ref="M65:M118" ca="1" si="15">VLOOKUP(L65,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -5166,7 +5613,7 @@
         <v/>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ref="D66:D118" ca="1" si="17">VLOOKUP(C66,OFFSET(INDIRECT("$A:$B"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -5195,7 +5642,7 @@
         <v>115</v>
       </c>
       <c r="L66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5224,7 +5671,7 @@
         <v/>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5253,7 +5700,7 @@
         <v>115</v>
       </c>
       <c r="L67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5268,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q67" t="str">
         <f t="shared" si="9"/>
@@ -5289,7 +5736,7 @@
         <v/>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5318,7 +5765,7 @@
         <v>115</v>
       </c>
       <c r="L68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5329,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" ref="Q68:Q118" si="20">IF(ISBLANK(P68),"","Shot_"&amp;P68)</f>
@@ -5350,7 +5797,7 @@
         <v/>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5379,7 +5826,7 @@
         <v>115</v>
       </c>
       <c r="L69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5390,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" si="20"/>
@@ -5411,7 +5858,7 @@
         <v/>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5440,7 +5887,7 @@
         <v>115</v>
       </c>
       <c r="L70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5469,7 +5916,7 @@
         <v/>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5498,7 +5945,7 @@
         <v>115</v>
       </c>
       <c r="L71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5527,7 +5974,7 @@
         <v/>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5556,7 +6003,7 @@
         <v>115</v>
       </c>
       <c r="L72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5585,7 +6032,7 @@
         <v/>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5614,7 +6061,7 @@
         <v>115</v>
       </c>
       <c r="L73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5643,7 +6090,7 @@
         <v/>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5672,7 +6119,7 @@
         <v>115</v>
       </c>
       <c r="L74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5701,7 +6148,7 @@
         <v/>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5730,7 +6177,7 @@
         <v>115</v>
       </c>
       <c r="L75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5759,7 +6206,7 @@
         <v/>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5788,7 +6235,7 @@
         <v>115</v>
       </c>
       <c r="L76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5817,7 +6264,7 @@
         <v/>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5846,7 +6293,7 @@
         <v>115</v>
       </c>
       <c r="L77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5875,7 +6322,7 @@
         <v/>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5904,7 +6351,7 @@
         <v>115</v>
       </c>
       <c r="L78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5933,7 +6380,7 @@
         <v/>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -5962,7 +6409,7 @@
         <v>115</v>
       </c>
       <c r="L79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5991,7 +6438,7 @@
         <v/>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6020,7 +6467,7 @@
         <v>115</v>
       </c>
       <c r="L80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6031,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="20"/>
@@ -6052,7 +6499,7 @@
         <v/>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6081,7 +6528,7 @@
         <v>115</v>
       </c>
       <c r="L81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6110,7 +6557,7 @@
         <v/>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6139,7 +6586,7 @@
         <v>115</v>
       </c>
       <c r="L82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6168,7 +6615,7 @@
         <v/>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6197,7 +6644,7 @@
         <v>115</v>
       </c>
       <c r="L83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6226,7 +6673,7 @@
         <v/>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6255,7 +6702,7 @@
         <v>115</v>
       </c>
       <c r="L84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6284,7 +6731,7 @@
         <v/>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6313,7 +6760,7 @@
         <v>115</v>
       </c>
       <c r="L85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6342,7 +6789,7 @@
         <v/>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6371,7 +6818,7 @@
         <v>115</v>
       </c>
       <c r="L86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6400,7 +6847,7 @@
         <v/>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6429,7 +6876,7 @@
         <v>115</v>
       </c>
       <c r="L87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6458,7 +6905,7 @@
         <v/>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6487,7 +6934,7 @@
         <v>115</v>
       </c>
       <c r="L88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6516,7 +6963,7 @@
         <v/>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6545,7 +6992,7 @@
         <v>115</v>
       </c>
       <c r="L89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6574,7 +7021,7 @@
         <v/>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6603,7 +7050,7 @@
         <v>115</v>
       </c>
       <c r="L90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6632,7 +7079,7 @@
         <v/>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6661,7 +7108,7 @@
         <v>115</v>
       </c>
       <c r="L91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6690,7 +7137,7 @@
         <v/>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6719,7 +7166,7 @@
         <v>115</v>
       </c>
       <c r="L92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6748,7 +7195,7 @@
         <v/>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6777,7 +7224,7 @@
         <v>115</v>
       </c>
       <c r="L93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6806,7 +7253,7 @@
         <v/>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6835,7 +7282,7 @@
         <v>115</v>
       </c>
       <c r="L94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6864,7 +7311,7 @@
         <v/>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6893,7 +7340,7 @@
         <v>115</v>
       </c>
       <c r="L95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6922,7 +7369,7 @@
         <v/>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -6951,7 +7398,7 @@
         <v>115</v>
       </c>
       <c r="L96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -6980,7 +7427,7 @@
         <v/>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7009,7 +7456,7 @@
         <v>115</v>
       </c>
       <c r="L97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7038,7 +7485,7 @@
         <v/>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7067,7 +7514,7 @@
         <v>115</v>
       </c>
       <c r="L98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7096,7 +7543,7 @@
         <v/>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7125,7 +7572,7 @@
         <v>115</v>
       </c>
       <c r="L99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7154,7 +7601,7 @@
         <v/>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7183,7 +7630,7 @@
         <v>115</v>
       </c>
       <c r="L100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7212,7 +7659,7 @@
         <v/>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7241,7 +7688,7 @@
         <v>115</v>
       </c>
       <c r="L101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7252,7 +7699,7 @@
         <v>-20</v>
       </c>
       <c r="P101" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="20"/>
@@ -7273,7 +7720,7 @@
         <v/>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7302,7 +7749,7 @@
         <v>115</v>
       </c>
       <c r="L102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7331,7 +7778,7 @@
         <v/>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7360,7 +7807,7 @@
         <v>115</v>
       </c>
       <c r="L103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7389,7 +7836,7 @@
         <v/>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7418,7 +7865,7 @@
         <v>115</v>
       </c>
       <c r="L104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7447,7 +7894,7 @@
         <v/>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7476,7 +7923,7 @@
         <v>115</v>
       </c>
       <c r="L105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7505,7 +7952,7 @@
         <v/>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7534,7 +7981,7 @@
         <v>115</v>
       </c>
       <c r="L106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7545,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="20"/>
@@ -7566,7 +8013,7 @@
         <v/>
       </c>
       <c r="C107" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7595,7 +8042,7 @@
         <v>115</v>
       </c>
       <c r="L107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7606,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="20"/>
@@ -7627,7 +8074,7 @@
         <v/>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7656,7 +8103,7 @@
         <v>115</v>
       </c>
       <c r="L108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7685,7 +8132,7 @@
         <v/>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7714,7 +8161,7 @@
         <v>115</v>
       </c>
       <c r="L109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7743,7 +8190,7 @@
         <v/>
       </c>
       <c r="C110" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7772,7 +8219,7 @@
         <v>115</v>
       </c>
       <c r="L110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7801,7 +8248,7 @@
         <v/>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7830,7 +8277,7 @@
         <v>115</v>
       </c>
       <c r="L111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7859,7 +8306,7 @@
         <v/>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7888,7 +8335,7 @@
         <v>115</v>
       </c>
       <c r="L112" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M112" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7917,7 +8364,7 @@
         <v/>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -7946,7 +8393,7 @@
         <v>115</v>
       </c>
       <c r="L113" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M113" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -7975,7 +8422,7 @@
         <v/>
       </c>
       <c r="C114" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8004,7 +8451,7 @@
         <v>115</v>
       </c>
       <c r="L114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M114" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8033,7 +8480,7 @@
         <v/>
       </c>
       <c r="C115" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8062,7 +8509,7 @@
         <v>115</v>
       </c>
       <c r="L115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M115" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8091,7 +8538,7 @@
         <v/>
       </c>
       <c r="C116" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8120,7 +8567,7 @@
         <v>115</v>
       </c>
       <c r="L116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M116" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8149,7 +8596,7 @@
         <v/>
       </c>
       <c r="C117" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8178,7 +8625,7 @@
         <v>115</v>
       </c>
       <c r="L117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M117" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8207,7 +8654,7 @@
         <v/>
       </c>
       <c r="C118" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -8236,7 +8683,7 @@
         <v>115</v>
       </c>
       <c r="L118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M118" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -8276,7 +8723,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8291,7 +8738,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -8300,49 +8747,49 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="N1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="O1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="Q1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="R1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S1">
         <v>50</v>
@@ -8366,25 +8813,25 @@
         <v>50</v>
       </c>
       <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
       <c r="AE1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -25211,85 +25658,85 @@
   <sheetData>
     <row r="1" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Y1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Z1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AA1" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -26036,2922 +26483,2576 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" collapsed="1"/>
-    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" collapsed="1"/>
-    <col min="13" max="13" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" collapsed="1"/>
-    <col min="16" max="16" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" collapsed="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
+    <col min="12" max="12" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="14" max="14" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H3" ca="1" si="0">VLOOKUP(G2,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <f>IF(C2&lt;=3,0,
+IF(C2=4,-20,
+IF(C2=5,-10,
+IF(C2=6,-5,
+"없음"))))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <f>IF(C3&lt;=3,0,
+IF(C3=4,-20,
+IF(C3=5,-10,
+IF(C3=6,-5,
+"없음"))))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.03</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H57" ca="1" si="1">VLOOKUP(G4,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I57" si="2">IF(C4&lt;=3,0,
+IF(C4=4,-20,
+IF(C4=5,-10,
+IF(C4=6,-5,
+"없음"))))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:C65" ca="1" si="0">VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1E-4</v>
       </c>
-      <c r="G2">
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F15" si="3">F9+200</f>
+        <v>400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1E-4</v>
+      </c>
+      <c r="F16">
         <v>0.01</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I3" ca="1" si="1">VLOOKUP(H2,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <f>IF(D2&lt;=3,0,
-IF(D2=4,-20,
-IF(D2=5,-10,
-IF(D2=6,-5,
-"없음"))))</f>
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
         <v>1E-4</v>
       </c>
-      <c r="G3">
+      <c r="F17">
         <v>0.02</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J3">
-        <f>IF(D3&lt;=3,0,
-IF(D3=4,-20,
-IF(D3=5,-10,
-IF(D3=6,-5,
-"없음"))))</f>
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.03</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="H18" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>1E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.04</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.05</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>1E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.05</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>1E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.05</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>1E-4</v>
+      </c>
+      <c r="F24">
+        <v>0.02</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
         <v>1E-4</v>
       </c>
-      <c r="G4">
+      <c r="F25">
         <v>0.03</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I57" ca="1" si="2">VLOOKUP(H4,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J57" si="3">IF(D4&lt;=3,0,
-IF(D4=4,-20,
-IF(D4=5,-10,
-IF(D4=6,-5,
-"없음"))))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4">
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.04</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1E-4</v>
+      </c>
+      <c r="F27">
+        <v>0.05</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1E-4</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>1E-4</v>
+      </c>
+      <c r="F29">
+        <v>0.05</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>1E-4</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>1E-4</v>
+      </c>
+      <c r="F31">
+        <v>0.02</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4">
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>1E-4</v>
+      </c>
+      <c r="F32">
+        <v>0.03</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>1E-4</v>
+      </c>
+      <c r="F33">
+        <v>0.04</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>1E-4</v>
+      </c>
+      <c r="F34">
+        <v>0.05</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>1E-4</v>
+      </c>
+      <c r="F35">
+        <v>0.05</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>1E-4</v>
+      </c>
+      <c r="F36">
+        <v>0.05</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>1E-4</v>
+      </c>
+      <c r="F37">
+        <v>0.01</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>1E-4</v>
+      </c>
+      <c r="F38">
+        <v>0.02</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
         <v>1E-4</v>
       </c>
-      <c r="G5">
+      <c r="F39">
+        <v>0.03</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>1E-4</v>
+      </c>
+      <c r="F40">
         <v>0.04</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
         <v>1E-4</v>
       </c>
-      <c r="G6">
+      <c r="F41">
         <v>0.05</v>
       </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="M6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>1E-4</v>
+      </c>
+      <c r="F42">
+        <v>0.05</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>1E-4</v>
+      </c>
+      <c r="F43">
+        <v>0.05</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1E-4</v>
+      </c>
+      <c r="F44">
+        <v>0.01</v>
+      </c>
+      <c r="G44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1E-4</v>
+      </c>
+      <c r="F45">
+        <v>0.02</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1E-4</v>
+      </c>
+      <c r="F46">
+        <v>0.03</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1E-4</v>
+      </c>
+      <c r="F47">
+        <v>0.04</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48">
         <v>4</v>
       </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1E-4</v>
+      </c>
+      <c r="F48">
+        <v>0.05</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>1E-4</v>
       </c>
-      <c r="G7">
+      <c r="F49">
         <v>0.05</v>
       </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="M7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>1E-4</v>
       </c>
-      <c r="G8">
+      <c r="F50">
         <v>0.05</v>
       </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
         <v>200</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G15" si="4">G9+200</f>
+      <c r="F51">
         <v>400</v>
       </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:F57" si="4">F51+400</f>
+        <v>800</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>800</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>200</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>200</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="4"/>
-        <v>1400</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ca="1" si="0"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>1E-4</v>
+      </c>
+      <c r="F58">
+        <v>0.01</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" ref="H58:H78" ca="1" si="5">VLOOKUP(G58,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:I78" si="6">IF(C58&lt;=3,0,
+IF(C58=4,-20,
+IF(C58=5,-10,
+IF(C58=6,-5,
+"없음"))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>1E-4</v>
+      </c>
+      <c r="F59">
+        <v>0.02</v>
+      </c>
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D60">
         <v>10</v>
       </c>
-      <c r="F16">
+      <c r="E60">
         <v>1E-4</v>
       </c>
-      <c r="G16">
+      <c r="F60">
+        <v>0.03</v>
+      </c>
+      <c r="G60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>1E-4</v>
+      </c>
+      <c r="F61">
+        <v>0.04</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>1E-4</v>
+      </c>
+      <c r="F62">
+        <v>0.05</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>1E-4</v>
+      </c>
+      <c r="F63">
+        <v>0.05</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>1E-4</v>
+      </c>
+      <c r="F64">
+        <v>0.05</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>1E-4</v>
+      </c>
+      <c r="F65">
         <v>0.01</v>
       </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>1E-4</v>
+      </c>
+      <c r="F66">
+        <v>0.02</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D67">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="E67">
         <v>1E-4</v>
       </c>
-      <c r="G17">
+      <c r="F67">
+        <v>0.03</v>
+      </c>
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>1E-4</v>
+      </c>
+      <c r="F68">
+        <v>0.04</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>1E-4</v>
+      </c>
+      <c r="F69">
+        <v>0.05</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="6"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>1E-4</v>
+      </c>
+      <c r="F70">
+        <v>0.05</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>1E-4</v>
+      </c>
+      <c r="F71">
+        <v>0.05</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>1E-4</v>
+      </c>
+      <c r="F72">
+        <v>0.01</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>1E-4</v>
+      </c>
+      <c r="F73">
         <v>0.02</v>
       </c>
-      <c r="H17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
+      <c r="D74">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="E74">
         <v>1E-4</v>
       </c>
-      <c r="G18">
+      <c r="F74">
         <v>0.03</v>
       </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="E75">
         <v>1E-4</v>
       </c>
-      <c r="G19">
+      <c r="F75">
         <v>0.04</v>
       </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="D76">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="E76">
         <v>1E-4</v>
       </c>
-      <c r="G20">
+      <c r="F76">
         <v>0.05</v>
       </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
+      <c r="G76" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="6"/>
         <v>-20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D21">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="D77">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="E77">
         <v>1E-4</v>
       </c>
-      <c r="G21">
+      <c r="F77">
         <v>0.05</v>
       </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="6"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D22">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78">
         <v>6</v>
       </c>
-      <c r="E22">
+      <c r="D78">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="E78">
         <v>1E-4</v>
       </c>
-      <c r="G22">
+      <c r="F78">
         <v>0.05</v>
       </c>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>1E-4</v>
-      </c>
-      <c r="G23">
-        <v>0.01</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>1E-4</v>
-      </c>
-      <c r="G24">
-        <v>0.02</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>1E-4</v>
-      </c>
-      <c r="G25">
-        <v>0.03</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>1E-4</v>
-      </c>
-      <c r="G26">
-        <v>0.04</v>
-      </c>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>1E-4</v>
-      </c>
-      <c r="G27">
-        <v>0.05</v>
-      </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>1E-4</v>
-      </c>
-      <c r="G28">
-        <v>0.05</v>
-      </c>
-      <c r="H28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>1E-4</v>
-      </c>
-      <c r="G29">
-        <v>0.05</v>
-      </c>
-      <c r="H29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30">
-        <v>1E-4</v>
-      </c>
-      <c r="G30">
-        <v>0.01</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <v>1E-4</v>
-      </c>
-      <c r="G31">
-        <v>0.02</v>
-      </c>
-      <c r="H31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="F32">
-        <v>1E-4</v>
-      </c>
-      <c r="G32">
-        <v>0.03</v>
-      </c>
-      <c r="H32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>30</v>
-      </c>
-      <c r="F33">
-        <v>1E-4</v>
-      </c>
-      <c r="G33">
-        <v>0.04</v>
-      </c>
-      <c r="H33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34">
-        <v>1E-4</v>
-      </c>
-      <c r="G34">
-        <v>0.05</v>
-      </c>
-      <c r="H34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="F35">
-        <v>1E-4</v>
-      </c>
-      <c r="G35">
-        <v>0.05</v>
-      </c>
-      <c r="H35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>30</v>
-      </c>
-      <c r="F36">
-        <v>1E-4</v>
-      </c>
-      <c r="G36">
-        <v>0.05</v>
-      </c>
-      <c r="H36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>30</v>
-      </c>
-      <c r="F37">
-        <v>1E-4</v>
-      </c>
-      <c r="G37">
-        <v>0.01</v>
-      </c>
-      <c r="H37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
-      <c r="F38">
-        <v>1E-4</v>
-      </c>
-      <c r="G38">
-        <v>0.02</v>
-      </c>
-      <c r="H38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
-      <c r="F39">
-        <v>1E-4</v>
-      </c>
-      <c r="G39">
-        <v>0.03</v>
-      </c>
-      <c r="H39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="F40">
-        <v>1E-4</v>
-      </c>
-      <c r="G40">
-        <v>0.04</v>
-      </c>
-      <c r="H40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>30</v>
-      </c>
-      <c r="F41">
-        <v>1E-4</v>
-      </c>
-      <c r="G41">
-        <v>0.05</v>
-      </c>
-      <c r="H41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>30</v>
-      </c>
-      <c r="F42">
-        <v>1E-4</v>
-      </c>
-      <c r="G42">
-        <v>0.05</v>
-      </c>
-      <c r="H42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>30</v>
-      </c>
-      <c r="F43">
-        <v>1E-4</v>
-      </c>
-      <c r="G43">
-        <v>0.05</v>
-      </c>
-      <c r="H43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1E-4</v>
-      </c>
-      <c r="G44">
-        <v>0.01</v>
-      </c>
-      <c r="H44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1E-4</v>
-      </c>
-      <c r="G45">
-        <v>0.02</v>
-      </c>
-      <c r="H45" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1E-4</v>
-      </c>
-      <c r="G46">
-        <v>0.03</v>
-      </c>
-      <c r="H46" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1E-4</v>
-      </c>
-      <c r="G47">
-        <v>0.04</v>
-      </c>
-      <c r="H47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1E-4</v>
-      </c>
-      <c r="G48">
-        <v>0.05</v>
-      </c>
-      <c r="H48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1E-4</v>
-      </c>
-      <c r="G49">
-        <v>0.05</v>
-      </c>
-      <c r="H49" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1E-4</v>
-      </c>
-      <c r="G50">
-        <v>0.05</v>
-      </c>
-      <c r="H50" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51">
-        <v>200</v>
-      </c>
-      <c r="G51">
-        <v>400</v>
-      </c>
-      <c r="H51" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>200</v>
-      </c>
-      <c r="G52">
-        <f t="shared" ref="G52:G57" si="5">G51+400</f>
-        <v>800</v>
-      </c>
-      <c r="H52" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53">
-        <v>200</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="H53" t="s">
-        <v>37</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54">
-        <v>200</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="H54" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55">
-        <v>200</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H55" t="s">
-        <v>37</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56">
-        <v>200</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="5"/>
-        <v>2400</v>
-      </c>
-      <c r="H56" t="s">
-        <v>37</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57">
-        <v>200</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="5"/>
-        <v>2800</v>
-      </c>
-      <c r="H57" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>10</v>
-      </c>
-      <c r="F58">
-        <v>1E-4</v>
-      </c>
-      <c r="G58">
-        <v>0.01</v>
-      </c>
-      <c r="H58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" ref="I58:I78" ca="1" si="6">VLOOKUP(H58,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="J58">
-        <f t="shared" ref="J58:J78" si="7">IF(D58&lt;=3,0,
-IF(D58=4,-20,
-IF(D58=5,-10,
-IF(D58=6,-5,
-"없음"))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-      <c r="F59">
-        <v>1E-4</v>
-      </c>
-      <c r="G59">
-        <v>0.02</v>
-      </c>
-      <c r="H59" t="s">
-        <v>37</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
-      <c r="F60">
-        <v>1E-4</v>
-      </c>
-      <c r="G60">
-        <v>0.03</v>
-      </c>
-      <c r="H60" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>1E-4</v>
-      </c>
-      <c r="G61">
-        <v>0.04</v>
-      </c>
-      <c r="H61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62">
-        <v>10</v>
-      </c>
-      <c r="F62">
-        <v>1E-4</v>
-      </c>
-      <c r="G62">
-        <v>0.05</v>
-      </c>
-      <c r="H62" t="s">
-        <v>37</v>
-      </c>
-      <c r="I62" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="7"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <v>1E-4</v>
-      </c>
-      <c r="G63">
-        <v>0.05</v>
-      </c>
-      <c r="H63" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="7"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>1E-4</v>
-      </c>
-      <c r="G64">
-        <v>0.05</v>
-      </c>
-      <c r="H64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I64" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="7"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>10</v>
-      </c>
-      <c r="F65">
-        <v>1E-4</v>
-      </c>
-      <c r="G65">
-        <v>0.01</v>
-      </c>
-      <c r="H65" t="s">
-        <v>37</v>
-      </c>
-      <c r="I65" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="2">
-        <f t="shared" ref="C66:C78" ca="1" si="8">VLOOKUP(B66,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>9</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>10</v>
-      </c>
-      <c r="F66">
-        <v>1E-4</v>
-      </c>
-      <c r="G66">
-        <v>0.02</v>
-      </c>
-      <c r="H66" t="s">
-        <v>37</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>10</v>
-      </c>
-      <c r="F67">
-        <v>1E-4</v>
-      </c>
-      <c r="G67">
-        <v>0.03</v>
-      </c>
-      <c r="H67" t="s">
-        <v>37</v>
-      </c>
-      <c r="I67" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-      <c r="F68">
-        <v>1E-4</v>
-      </c>
-      <c r="G68">
-        <v>0.04</v>
-      </c>
-      <c r="H68" t="s">
-        <v>37</v>
-      </c>
-      <c r="I68" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69">
-        <v>10</v>
-      </c>
-      <c r="F69">
-        <v>1E-4</v>
-      </c>
-      <c r="G69">
-        <v>0.05</v>
-      </c>
-      <c r="H69" t="s">
-        <v>37</v>
-      </c>
-      <c r="I69" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="7"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-      <c r="E70">
-        <v>10</v>
-      </c>
-      <c r="F70">
-        <v>1E-4</v>
-      </c>
-      <c r="G70">
-        <v>0.05</v>
-      </c>
-      <c r="H70" t="s">
-        <v>37</v>
-      </c>
-      <c r="I70" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="7"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="D71">
-        <v>6</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-      <c r="F71">
-        <v>1E-4</v>
-      </c>
-      <c r="G71">
-        <v>0.05</v>
-      </c>
-      <c r="H71" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="7"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>10</v>
-      </c>
-      <c r="F72">
-        <v>1E-4</v>
-      </c>
-      <c r="G72">
-        <v>0.01</v>
-      </c>
-      <c r="H72" t="s">
-        <v>37</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <v>1E-4</v>
-      </c>
-      <c r="G73">
-        <v>0.02</v>
-      </c>
-      <c r="H73" t="s">
-        <v>37</v>
-      </c>
-      <c r="I73" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <v>1E-4</v>
-      </c>
-      <c r="G74">
-        <v>0.03</v>
-      </c>
-      <c r="H74" t="s">
-        <v>37</v>
-      </c>
-      <c r="I74" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <v>1E-4</v>
-      </c>
-      <c r="G75">
-        <v>0.04</v>
-      </c>
-      <c r="H75" t="s">
-        <v>37</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
-      <c r="F76">
-        <v>1E-4</v>
-      </c>
-      <c r="G76">
-        <v>0.05</v>
-      </c>
-      <c r="H76" t="s">
-        <v>37</v>
-      </c>
-      <c r="I76" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="7"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="F77">
-        <v>1E-4</v>
-      </c>
-      <c r="G77">
-        <v>0.05</v>
-      </c>
-      <c r="H77" t="s">
-        <v>37</v>
-      </c>
-      <c r="I77" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="7"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="D78">
-        <v>6</v>
-      </c>
-      <c r="E78">
-        <v>10</v>
-      </c>
-      <c r="F78">
-        <v>1E-4</v>
-      </c>
-      <c r="G78">
-        <v>0.05</v>
-      </c>
-      <c r="H78" t="s">
-        <v>37</v>
-      </c>
-      <c r="I78" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="7"/>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H78" xr:uid="{A65E98AA-2783-4D67-8DC2-8AC3346CD798}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G78" xr:uid="{A65E98AA-2783-4D67-8DC2-8AC3346CD798}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B78" xr:uid="{FDCB49CB-29AB-4F67-917C-4547EAB326E9}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(SUBSTITUTE(B$1,"|String","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(SUBSTITUTE(B$1,"|String","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128A2ACE-E1B9-48BD-AC4D-5F431BC7188B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254B5AEB-972C-477D-B9E6-F346B83C6AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
     <sheet name="EnhanceTable" sheetId="2" r:id="rId2"/>
     <sheet name="InnerGradeTable" sheetId="6" r:id="rId3"/>
-    <sheet name="TransferTable" sheetId="7" r:id="rId4"/>
-    <sheet name="OptionTable" sheetId="4" r:id="rId5"/>
+    <sheet name="OptionTable" sheetId="4" r:id="rId4"/>
+    <sheet name="TransferTable" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -816,7 +816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="148">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,11 +1356,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>amplifyRandomGold|Int</t>
+    <t>transmuteRandomGold|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transmuteRandomGold|Int</t>
+    <t>amplifyGold|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1807,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
@@ -25799,7 +25799,10 @@
   <dimension ref="A1:AX8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
@@ -25819,6 +25822,8 @@
     <col min="36" max="36" width="9" style="7"/>
     <col min="38" max="38" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="9" collapsed="1"/>
+    <col min="43" max="43" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="9" collapsed="1"/>
     <col min="46" max="46" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="47" max="49" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="50" max="50" width="9" collapsed="1"/>
@@ -25952,10 +25957,10 @@
         <v>145</v>
       </c>
       <c r="AQ1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR1" t="s">
         <v>146</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>147</v>
       </c>
       <c r="AT1" t="s">
         <v>140</v>
@@ -27123,10 +27128,4986 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
+  <dimension ref="A1:Y78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="13" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" collapsed="1"/>
+    <col min="19" max="19" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" collapsed="1"/>
+    <col min="21" max="21" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H3" ca="1" si="0">VLOOKUP(G2,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f ca="1">IF(H2=0,"",
+IF(C2&lt;=3,0,
+IF(C2=4,-20,
+IF(C2=5,-10,
+IF(C2=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K2" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L2">
+        <v>0.01</v>
+      </c>
+      <c r="M2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="2">
+        <f ca="1">VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <f ca="1">IF(N2=0,"",
+IF(C2&lt;=3,0,
+IF(C2=4,-20,
+IF(C2=5,-10,
+IF(C2=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q2">
+        <f>VLOOKUP(C2,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+      <c r="S2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f ca="1">IF(H3=0,"",
+IF(C3&lt;=3,0,
+IF(C3=4,-20,
+IF(C3=5,-10,
+IF(C3=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L3">
+        <v>0.01</v>
+      </c>
+      <c r="M3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N66" ca="1" si="1">VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="str">
+        <f ca="1">IF(N3=0,"",
+IF(C3&lt;=3,0,
+IF(C3=4,-20,
+IF(C3=5,-10,
+IF(C3=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q3">
+        <f>VLOOKUP(C3,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+      <c r="S3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.03</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H57" ca="1" si="2">VLOOKUP(G4,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f ca="1">IF(H4=0,"",
+IF(C4&lt;=3,0,
+IF(C4=4,-20,
+IF(C4=5,-10,
+IF(C4=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L4">
+        <v>0.01</v>
+      </c>
+      <c r="M4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
+        <f ca="1">IF(N4=0,"",
+IF(C4&lt;=3,0,
+IF(C4=4,-20,
+IF(C4=5,-10,
+IF(C4=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q4">
+        <f>VLOOKUP(C4,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+      <c r="S4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f ca="1">IF(H5=0,"",
+IF(C5&lt;=3,0,
+IF(C5=4,-20,
+IF(C5=5,-10,
+IF(C5=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L5">
+        <v>0.01</v>
+      </c>
+      <c r="M5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
+        <f ca="1">IF(N5=0,"",
+IF(C5&lt;=3,0,
+IF(C5=4,-20,
+IF(C5=5,-10,
+IF(C5=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q5">
+        <f>VLOOKUP(C5,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+      <c r="S5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f ca="1">IF(H6=0,"",
+IF(C6&lt;=3,0,
+IF(C6=4,-20,
+IF(C6=5,-10,
+IF(C6=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L6">
+        <v>0.01</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <f ca="1">IF(N6=0,"",
+IF(C6&lt;=3,0,
+IF(C6=4,-20,
+IF(C6=5,-10,
+IF(C6=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q6">
+        <f>VLOOKUP(C6,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+      <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f ca="1">IF(H7=0,"",
+IF(C7&lt;=3,0,
+IF(C7=4,-20,
+IF(C7=5,-10,
+IF(C7=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L7">
+        <v>0.01</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <f ca="1">IF(N7=0,"",
+IF(C7&lt;=3,0,
+IF(C7=4,-20,
+IF(C7=5,-10,
+IF(C7=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q7">
+        <f>VLOOKUP(C7,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+      <c r="S7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f ca="1">IF(H8=0,"",
+IF(C8&lt;=3,0,
+IF(C8=4,-20,
+IF(C8=5,-10,
+IF(C8=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L8">
+        <v>0.01</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f ca="1">IF(N8=0,"",
+IF(C8&lt;=3,0,
+IF(C8=4,-20,
+IF(C8=5,-10,
+IF(C8=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q8">
+        <f>VLOOKUP(C8,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+      <c r="S8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <f ca="1">IF(H9=0,"",
+IF(C9&lt;=3,0,
+IF(C9=4,-20,
+IF(C9=5,-10,
+IF(C9=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K9" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L9">
+        <v>1.06</v>
+      </c>
+      <c r="M9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
+        <f ca="1">IF(N9=0,"",
+IF(C9&lt;=3,0,
+IF(C9=4,-20,
+IF(C9=5,-10,
+IF(C9=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q9">
+        <f>VLOOKUP(C9,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+      <c r="S9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F15" si="3">F9+200</f>
+        <v>400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f ca="1">IF(H10=0,"",
+IF(C10&lt;=3,0,
+IF(C10=4,-20,
+IF(C10=5,-10,
+IF(C10=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K10" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L10">
+        <v>1.06</v>
+      </c>
+      <c r="M10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" t="str">
+        <f ca="1">IF(N10=0,"",
+IF(C10&lt;=3,0,
+IF(C10=4,-20,
+IF(C10=5,-10,
+IF(C10=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q10">
+        <f>VLOOKUP(C10,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+      <c r="S10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <f ca="1">IF(H11=0,"",
+IF(C11&lt;=3,0,
+IF(C11=4,-20,
+IF(C11=5,-10,
+IF(C11=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K11" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L11">
+        <v>1.06</v>
+      </c>
+      <c r="M11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" t="str">
+        <f ca="1">IF(N11=0,"",
+IF(C11&lt;=3,0,
+IF(C11=4,-20,
+IF(C11=5,-10,
+IF(C11=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q11">
+        <f>VLOOKUP(C11,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <f ca="1">IF(H12=0,"",
+IF(C12&lt;=3,0,
+IF(C12=4,-20,
+IF(C12=5,-10,
+IF(C12=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K12" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L12">
+        <v>1.06</v>
+      </c>
+      <c r="M12" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <f ca="1">IF(N12=0,"",
+IF(C12&lt;=3,0,
+IF(C12=4,-20,
+IF(C12=5,-10,
+IF(C12=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q12">
+        <f>VLOOKUP(C12,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+      <c r="S12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <f ca="1">IF(H13=0,"",
+IF(C13&lt;=3,0,
+IF(C13=4,-20,
+IF(C13=5,-10,
+IF(C13=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L13">
+        <v>1.06</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <f ca="1">IF(N13=0,"",
+IF(C13&lt;=3,0,
+IF(C13=4,-20,
+IF(C13=5,-10,
+IF(C13=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q13">
+        <f>VLOOKUP(C13,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f ca="1">IF(H14=0,"",
+IF(C14&lt;=3,0,
+IF(C14=4,-20,
+IF(C14=5,-10,
+IF(C14=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L14">
+        <v>1.06</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f ca="1">IF(N14=0,"",
+IF(C14&lt;=3,0,
+IF(C14=4,-20,
+IF(C14=5,-10,
+IF(C14=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q14">
+        <f>VLOOKUP(C14,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f ca="1">IF(H15=0,"",
+IF(C15&lt;=3,0,
+IF(C15=4,-20,
+IF(C15=5,-10,
+IF(C15=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L15">
+        <v>1.06</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <f ca="1">IF(N15=0,"",
+IF(C15&lt;=3,0,
+IF(C15=4,-20,
+IF(C15=5,-10,
+IF(C15=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q15">
+        <f>VLOOKUP(C15,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f ca="1">IF(H16=0,"",
+IF(C16&lt;=3,0,
+IF(C16=4,-20,
+IF(C16=5,-10,
+IF(C16=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K16" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L16">
+        <v>0.01</v>
+      </c>
+      <c r="M16" t="s">
+        <v>125</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" t="str">
+        <f ca="1">IF(N16=0,"",
+IF(C16&lt;=3,0,
+IF(C16=4,-20,
+IF(C16=5,-10,
+IF(C16=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q16">
+        <f>VLOOKUP(C16,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.02</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <f ca="1">IF(H17=0,"",
+IF(C17&lt;=3,0,
+IF(C17=4,-20,
+IF(C17=5,-10,
+IF(C17=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K17" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L17">
+        <v>0.01</v>
+      </c>
+      <c r="M17" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" t="str">
+        <f ca="1">IF(N17=0,"",
+IF(C17&lt;=3,0,
+IF(C17=4,-20,
+IF(C17=5,-10,
+IF(C17=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q17">
+        <f>VLOOKUP(C17,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.03</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="str">
+        <f ca="1">IF(H18=0,"",
+IF(C18&lt;=3,0,
+IF(C18=4,-20,
+IF(C18=5,-10,
+IF(C18=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K18" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L18">
+        <v>0.01</v>
+      </c>
+      <c r="M18" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" t="str">
+        <f ca="1">IF(N18=0,"",
+IF(C18&lt;=3,0,
+IF(C18=4,-20,
+IF(C18=5,-10,
+IF(C18=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q18">
+        <f>VLOOKUP(C18,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.04</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
+        <f ca="1">IF(H19=0,"",
+IF(C19&lt;=3,0,
+IF(C19=4,-20,
+IF(C19=5,-10,
+IF(C19=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K19" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L19">
+        <v>0.01</v>
+      </c>
+      <c r="M19" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" t="str">
+        <f ca="1">IF(N19=0,"",
+IF(C19&lt;=3,0,
+IF(C19=4,-20,
+IF(C19=5,-10,
+IF(C19=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q19">
+        <f>VLOOKUP(C19,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.05</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <f ca="1">IF(H20=0,"",
+IF(C20&lt;=3,0,
+IF(C20=4,-20,
+IF(C20=5,-10,
+IF(C20=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L20">
+        <v>0.01</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f ca="1">IF(N20=0,"",
+IF(C20&lt;=3,0,
+IF(C20=4,-20,
+IF(C20=5,-10,
+IF(C20=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q20">
+        <f>VLOOKUP(C20,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.05</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <f ca="1">IF(H21=0,"",
+IF(C21&lt;=3,0,
+IF(C21=4,-20,
+IF(C21=5,-10,
+IF(C21=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L21">
+        <v>0.01</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <f ca="1">IF(N21=0,"",
+IF(C21&lt;=3,0,
+IF(C21=4,-20,
+IF(C21=5,-10,
+IF(C21=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q21">
+        <f>VLOOKUP(C21,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.05</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f ca="1">IF(H22=0,"",
+IF(C22&lt;=3,0,
+IF(C22=4,-20,
+IF(C22=5,-10,
+IF(C22=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L22">
+        <v>0.01</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <f ca="1">IF(N22=0,"",
+IF(C22&lt;=3,0,
+IF(C22=4,-20,
+IF(C22=5,-10,
+IF(C22=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q22">
+        <f>VLOOKUP(C22,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <f ca="1">IF(H23=0,"",
+IF(C23&lt;=3,0,
+IF(C23=4,-20,
+IF(C23=5,-10,
+IF(C23=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K23" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L23">
+        <v>0.01</v>
+      </c>
+      <c r="M23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" t="str">
+        <f ca="1">IF(N23=0,"",
+IF(C23&lt;=3,0,
+IF(C23=4,-20,
+IF(C23=5,-10,
+IF(C23=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q23">
+        <f>VLOOKUP(C23,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F24">
+        <v>0.02</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
+        <f ca="1">IF(H24=0,"",
+IF(C24&lt;=3,0,
+IF(C24=4,-20,
+IF(C24=5,-10,
+IF(C24=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K24" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L24">
+        <v>0.01</v>
+      </c>
+      <c r="M24" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" t="str">
+        <f ca="1">IF(N24=0,"",
+IF(C24&lt;=3,0,
+IF(C24=4,-20,
+IF(C24=5,-10,
+IF(C24=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q24">
+        <f>VLOOKUP(C24,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F25">
+        <v>0.03</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <f ca="1">IF(H25=0,"",
+IF(C25&lt;=3,0,
+IF(C25=4,-20,
+IF(C25=5,-10,
+IF(C25=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K25" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L25">
+        <v>0.01</v>
+      </c>
+      <c r="M25" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" t="str">
+        <f ca="1">IF(N25=0,"",
+IF(C25&lt;=3,0,
+IF(C25=4,-20,
+IF(C25=5,-10,
+IF(C25=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q25">
+        <f>VLOOKUP(C25,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.04</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="str">
+        <f ca="1">IF(H26=0,"",
+IF(C26&lt;=3,0,
+IF(C26=4,-20,
+IF(C26=5,-10,
+IF(C26=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K26" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L26">
+        <v>0.01</v>
+      </c>
+      <c r="M26" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" t="str">
+        <f ca="1">IF(N26=0,"",
+IF(C26&lt;=3,0,
+IF(C26=4,-20,
+IF(C26=5,-10,
+IF(C26=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q26">
+        <f>VLOOKUP(C26,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F27">
+        <v>0.05</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f ca="1">IF(H27=0,"",
+IF(C27&lt;=3,0,
+IF(C27=4,-20,
+IF(C27=5,-10,
+IF(C27=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L27">
+        <v>0.01</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <f ca="1">IF(N27=0,"",
+IF(C27&lt;=3,0,
+IF(C27=4,-20,
+IF(C27=5,-10,
+IF(C27=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q27">
+        <f>VLOOKUP(C27,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <f ca="1">IF(H28=0,"",
+IF(C28&lt;=3,0,
+IF(C28=4,-20,
+IF(C28=5,-10,
+IF(C28=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L28">
+        <v>0.01</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <f ca="1">IF(N28=0,"",
+IF(C28&lt;=3,0,
+IF(C28=4,-20,
+IF(C28=5,-10,
+IF(C28=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q28">
+        <f>VLOOKUP(C28,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F29">
+        <v>0.05</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <f ca="1">IF(H29=0,"",
+IF(C29&lt;=3,0,
+IF(C29=4,-20,
+IF(C29=5,-10,
+IF(C29=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L29">
+        <v>0.01</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <f ca="1">IF(N29=0,"",
+IF(C29&lt;=3,0,
+IF(C29=4,-20,
+IF(C29=5,-10,
+IF(C29=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q29">
+        <f>VLOOKUP(C29,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f ca="1">IF(H30=0,"",
+IF(C30&lt;=3,0,
+IF(C30=4,-20,
+IF(C30=5,-10,
+IF(C30=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K30" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L30">
+        <v>0.01</v>
+      </c>
+      <c r="M30" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" t="str">
+        <f ca="1">IF(N30=0,"",
+IF(C30&lt;=3,0,
+IF(C30=4,-20,
+IF(C30=5,-10,
+IF(C30=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q30">
+        <f>VLOOKUP(C30,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F31">
+        <v>0.02</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f ca="1">IF(H31=0,"",
+IF(C31&lt;=3,0,
+IF(C31=4,-20,
+IF(C31=5,-10,
+IF(C31=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K31" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L31">
+        <v>0.01</v>
+      </c>
+      <c r="M31" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" t="str">
+        <f ca="1">IF(N31=0,"",
+IF(C31&lt;=3,0,
+IF(C31=4,-20,
+IF(C31=5,-10,
+IF(C31=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q31">
+        <f>VLOOKUP(C31,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F32">
+        <v>0.03</v>
+      </c>
+      <c r="G32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <f ca="1">IF(H32=0,"",
+IF(C32&lt;=3,0,
+IF(C32=4,-20,
+IF(C32=5,-10,
+IF(C32=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K32" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L32">
+        <v>0.01</v>
+      </c>
+      <c r="M32" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" t="str">
+        <f ca="1">IF(N32=0,"",
+IF(C32&lt;=3,0,
+IF(C32=4,-20,
+IF(C32=5,-10,
+IF(C32=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q32">
+        <f>VLOOKUP(C32,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F33">
+        <v>0.04</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="str">
+        <f ca="1">IF(H33=0,"",
+IF(C33&lt;=3,0,
+IF(C33=4,-20,
+IF(C33=5,-10,
+IF(C33=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K33" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L33">
+        <v>0.01</v>
+      </c>
+      <c r="M33" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33" t="str">
+        <f ca="1">IF(N33=0,"",
+IF(C33&lt;=3,0,
+IF(C33=4,-20,
+IF(C33=5,-10,
+IF(C33=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q33">
+        <f>VLOOKUP(C33,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F34">
+        <v>0.05</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f ca="1">IF(H34=0,"",
+IF(C34&lt;=3,0,
+IF(C34=4,-20,
+IF(C34=5,-10,
+IF(C34=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L34">
+        <v>0.01</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <f ca="1">IF(N34=0,"",
+IF(C34&lt;=3,0,
+IF(C34=4,-20,
+IF(C34=5,-10,
+IF(C34=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q34">
+        <f>VLOOKUP(C34,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F35">
+        <v>0.05</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f ca="1">IF(H35=0,"",
+IF(C35&lt;=3,0,
+IF(C35=4,-20,
+IF(C35=5,-10,
+IF(C35=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L35">
+        <v>0.01</v>
+      </c>
+      <c r="M35" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <f ca="1">IF(N35=0,"",
+IF(C35&lt;=3,0,
+IF(C35=4,-20,
+IF(C35=5,-10,
+IF(C35=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q35">
+        <f>VLOOKUP(C35,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F36">
+        <v>0.05</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <f ca="1">IF(H36=0,"",
+IF(C36&lt;=3,0,
+IF(C36=4,-20,
+IF(C36=5,-10,
+IF(C36=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L36">
+        <v>0.01</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <f ca="1">IF(N36=0,"",
+IF(C36&lt;=3,0,
+IF(C36=4,-20,
+IF(C36=5,-10,
+IF(C36=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q36">
+        <f>VLOOKUP(C36,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F37">
+        <v>0.01</v>
+      </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="str">
+        <f ca="1">IF(H37=0,"",
+IF(C37&lt;=3,0,
+IF(C37=4,-20,
+IF(C37=5,-10,
+IF(C37=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K37" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L37">
+        <v>0.01</v>
+      </c>
+      <c r="M37" t="s">
+        <v>125</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37" t="str">
+        <f ca="1">IF(N37=0,"",
+IF(C37&lt;=3,0,
+IF(C37=4,-20,
+IF(C37=5,-10,
+IF(C37=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q37">
+        <f>VLOOKUP(C37,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F38">
+        <v>0.02</v>
+      </c>
+      <c r="G38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="str">
+        <f ca="1">IF(H38=0,"",
+IF(C38&lt;=3,0,
+IF(C38=4,-20,
+IF(C38=5,-10,
+IF(C38=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K38" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L38">
+        <v>0.01</v>
+      </c>
+      <c r="M38" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" t="str">
+        <f ca="1">IF(N38=0,"",
+IF(C38&lt;=3,0,
+IF(C38=4,-20,
+IF(C38=5,-10,
+IF(C38=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q38">
+        <f>VLOOKUP(C38,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F39">
+        <v>0.03</v>
+      </c>
+      <c r="G39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="str">
+        <f ca="1">IF(H39=0,"",
+IF(C39&lt;=3,0,
+IF(C39=4,-20,
+IF(C39=5,-10,
+IF(C39=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K39" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L39">
+        <v>0.01</v>
+      </c>
+      <c r="M39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39" t="str">
+        <f ca="1">IF(N39=0,"",
+IF(C39&lt;=3,0,
+IF(C39=4,-20,
+IF(C39=5,-10,
+IF(C39=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q39">
+        <f>VLOOKUP(C39,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F40">
+        <v>0.04</v>
+      </c>
+      <c r="G40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="str">
+        <f ca="1">IF(H40=0,"",
+IF(C40&lt;=3,0,
+IF(C40=4,-20,
+IF(C40=5,-10,
+IF(C40=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K40" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L40">
+        <v>0.01</v>
+      </c>
+      <c r="M40" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <f ca="1">IF(N40=0,"",
+IF(C40&lt;=3,0,
+IF(C40=4,-20,
+IF(C40=5,-10,
+IF(C40=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q40">
+        <f>VLOOKUP(C40,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F41">
+        <v>0.05</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <f ca="1">IF(H41=0,"",
+IF(C41&lt;=3,0,
+IF(C41=4,-20,
+IF(C41=5,-10,
+IF(C41=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L41">
+        <v>0.01</v>
+      </c>
+      <c r="M41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <f ca="1">IF(N41=0,"",
+IF(C41&lt;=3,0,
+IF(C41=4,-20,
+IF(C41=5,-10,
+IF(C41=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q41">
+        <f>VLOOKUP(C41,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F42">
+        <v>0.05</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <f ca="1">IF(H42=0,"",
+IF(C42&lt;=3,0,
+IF(C42=4,-20,
+IF(C42=5,-10,
+IF(C42=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L42">
+        <v>0.01</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <f ca="1">IF(N42=0,"",
+IF(C42&lt;=3,0,
+IF(C42=4,-20,
+IF(C42=5,-10,
+IF(C42=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q42">
+        <f>VLOOKUP(C42,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F43">
+        <v>0.05</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <f ca="1">IF(H43=0,"",
+IF(C43&lt;=3,0,
+IF(C43=4,-20,
+IF(C43=5,-10,
+IF(C43=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L43">
+        <v>0.01</v>
+      </c>
+      <c r="M43" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <f ca="1">IF(N43=0,"",
+IF(C43&lt;=3,0,
+IF(C43=4,-20,
+IF(C43=5,-10,
+IF(C43=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q43">
+        <f>VLOOKUP(C43,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F44">
+        <v>0.01</v>
+      </c>
+      <c r="G44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="str">
+        <f ca="1">IF(H44=0,"",
+IF(C44&lt;=3,0,
+IF(C44=4,-20,
+IF(C44=5,-10,
+IF(C44=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K44" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L44">
+        <v>0.01</v>
+      </c>
+      <c r="M44" t="s">
+        <v>125</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O44" t="str">
+        <f ca="1">IF(N44=0,"",
+IF(C44&lt;=3,0,
+IF(C44=4,-20,
+IF(C44=5,-10,
+IF(C44=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q44">
+        <f>VLOOKUP(C44,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F45">
+        <v>0.02</v>
+      </c>
+      <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="str">
+        <f ca="1">IF(H45=0,"",
+IF(C45&lt;=3,0,
+IF(C45=4,-20,
+IF(C45=5,-10,
+IF(C45=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K45" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L45">
+        <v>0.01</v>
+      </c>
+      <c r="M45" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O45" t="str">
+        <f ca="1">IF(N45=0,"",
+IF(C45&lt;=3,0,
+IF(C45=4,-20,
+IF(C45=5,-10,
+IF(C45=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q45">
+        <f>VLOOKUP(C45,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F46">
+        <v>0.03</v>
+      </c>
+      <c r="G46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="str">
+        <f ca="1">IF(H46=0,"",
+IF(C46&lt;=3,0,
+IF(C46=4,-20,
+IF(C46=5,-10,
+IF(C46=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K46" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L46">
+        <v>0.01</v>
+      </c>
+      <c r="M46" t="s">
+        <v>125</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O46" t="str">
+        <f ca="1">IF(N46=0,"",
+IF(C46&lt;=3,0,
+IF(C46=4,-20,
+IF(C46=5,-10,
+IF(C46=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q46">
+        <f>VLOOKUP(C46,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F47">
+        <v>0.04</v>
+      </c>
+      <c r="G47" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="str">
+        <f ca="1">IF(H47=0,"",
+IF(C47&lt;=3,0,
+IF(C47=4,-20,
+IF(C47=5,-10,
+IF(C47=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K47" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L47">
+        <v>0.01</v>
+      </c>
+      <c r="M47" t="s">
+        <v>125</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O47" t="str">
+        <f ca="1">IF(N47=0,"",
+IF(C47&lt;=3,0,
+IF(C47=4,-20,
+IF(C47=5,-10,
+IF(C47=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q47">
+        <f>VLOOKUP(C47,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F48">
+        <v>0.05</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <f ca="1">IF(H48=0,"",
+IF(C48&lt;=3,0,
+IF(C48=4,-20,
+IF(C48=5,-10,
+IF(C48=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L48">
+        <v>0.01</v>
+      </c>
+      <c r="M48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <f ca="1">IF(N48=0,"",
+IF(C48&lt;=3,0,
+IF(C48=4,-20,
+IF(C48=5,-10,
+IF(C48=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q48">
+        <f>VLOOKUP(C48,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F49">
+        <v>0.05</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <f ca="1">IF(H49=0,"",
+IF(C49&lt;=3,0,
+IF(C49=4,-20,
+IF(C49=5,-10,
+IF(C49=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L49">
+        <v>0.01</v>
+      </c>
+      <c r="M49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <f ca="1">IF(N49=0,"",
+IF(C49&lt;=3,0,
+IF(C49=4,-20,
+IF(C49=5,-10,
+IF(C49=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q49">
+        <f>VLOOKUP(C49,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F50">
+        <v>0.05</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <f ca="1">IF(H50=0,"",
+IF(C50&lt;=3,0,
+IF(C50=4,-20,
+IF(C50=5,-10,
+IF(C50=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L50">
+        <v>0.01</v>
+      </c>
+      <c r="M50" t="s">
+        <v>35</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <f ca="1">IF(N50=0,"",
+IF(C50&lt;=3,0,
+IF(C50=4,-20,
+IF(C50=5,-10,
+IF(C50=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q50">
+        <f>VLOOKUP(C50,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" s="9">
+        <v>200</v>
+      </c>
+      <c r="F51">
+        <v>400</v>
+      </c>
+      <c r="G51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="str">
+        <f ca="1">IF(H51=0,"",
+IF(C51&lt;=3,0,
+IF(C51=4,-20,
+IF(C51=5,-10,
+IF(C51=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K51" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L51">
+        <v>1.06</v>
+      </c>
+      <c r="M51" t="s">
+        <v>125</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O51" t="str">
+        <f ca="1">IF(N51=0,"",
+IF(C51&lt;=3,0,
+IF(C51=4,-20,
+IF(C51=5,-10,
+IF(C51=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q51">
+        <f>VLOOKUP(C51,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" s="9">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:F57" si="4">F51+400</f>
+        <v>800</v>
+      </c>
+      <c r="G52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="str">
+        <f ca="1">IF(H52=0,"",
+IF(C52&lt;=3,0,
+IF(C52=4,-20,
+IF(C52=5,-10,
+IF(C52=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K52" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L52">
+        <v>1.06</v>
+      </c>
+      <c r="M52" t="s">
+        <v>125</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O52" t="str">
+        <f ca="1">IF(N52=0,"",
+IF(C52&lt;=3,0,
+IF(C52=4,-20,
+IF(C52=5,-10,
+IF(C52=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q52">
+        <f>VLOOKUP(C52,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="9">
+        <v>200</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="G53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="str">
+        <f ca="1">IF(H53=0,"",
+IF(C53&lt;=3,0,
+IF(C53=4,-20,
+IF(C53=5,-10,
+IF(C53=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K53" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L53">
+        <v>1.06</v>
+      </c>
+      <c r="M53" t="s">
+        <v>125</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O53" t="str">
+        <f ca="1">IF(N53=0,"",
+IF(C53&lt;=3,0,
+IF(C53=4,-20,
+IF(C53=5,-10,
+IF(C53=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q53">
+        <f>VLOOKUP(C53,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" s="9">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="G54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="str">
+        <f ca="1">IF(H54=0,"",
+IF(C54&lt;=3,0,
+IF(C54=4,-20,
+IF(C54=5,-10,
+IF(C54=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K54" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L54">
+        <v>1.06</v>
+      </c>
+      <c r="M54" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O54" t="str">
+        <f ca="1">IF(N54=0,"",
+IF(C54&lt;=3,0,
+IF(C54=4,-20,
+IF(C54=5,-10,
+IF(C54=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q54">
+        <f>VLOOKUP(C54,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" s="9">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <f ca="1">IF(H55=0,"",
+IF(C55&lt;=3,0,
+IF(C55=4,-20,
+IF(C55=5,-10,
+IF(C55=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L55">
+        <v>1.06</v>
+      </c>
+      <c r="M55" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f ca="1">IF(N55=0,"",
+IF(C55&lt;=3,0,
+IF(C55=4,-20,
+IF(C55=5,-10,
+IF(C55=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q55">
+        <f>VLOOKUP(C55,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" s="9">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <f ca="1">IF(H56=0,"",
+IF(C56&lt;=3,0,
+IF(C56=4,-20,
+IF(C56=5,-10,
+IF(C56=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L56">
+        <v>1.06</v>
+      </c>
+      <c r="M56" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <f ca="1">IF(N56=0,"",
+IF(C56&lt;=3,0,
+IF(C56=4,-20,
+IF(C56=5,-10,
+IF(C56=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q56">
+        <f>VLOOKUP(C56,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="9">
+        <v>200</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>2800</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <f ca="1">IF(H57=0,"",
+IF(C57&lt;=3,0,
+IF(C57=4,-20,
+IF(C57=5,-10,
+IF(C57=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1.0204801539999999</v>
+      </c>
+      <c r="L57">
+        <v>1.06</v>
+      </c>
+      <c r="M57" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <f ca="1">IF(N57=0,"",
+IF(C57&lt;=3,0,
+IF(C57=4,-20,
+IF(C57=5,-10,
+IF(C57=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q57">
+        <f>VLOOKUP(C57,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F58">
+        <v>0.01</v>
+      </c>
+      <c r="G58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" ref="H58:H78" ca="1" si="5">VLOOKUP(G58,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" t="str">
+        <f ca="1">IF(H58=0,"",
+IF(C58&lt;=3,0,
+IF(C58=4,-20,
+IF(C58=5,-10,
+IF(C58=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K58" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L58">
+        <v>0.01</v>
+      </c>
+      <c r="M58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O58" t="str">
+        <f ca="1">IF(N58=0,"",
+IF(C58&lt;=3,0,
+IF(C58=4,-20,
+IF(C58=5,-10,
+IF(C58=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q58">
+        <f>VLOOKUP(C58,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F59">
+        <v>0.02</v>
+      </c>
+      <c r="G59" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="str">
+        <f ca="1">IF(H59=0,"",
+IF(C59&lt;=3,0,
+IF(C59=4,-20,
+IF(C59=5,-10,
+IF(C59=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K59" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L59">
+        <v>0.01</v>
+      </c>
+      <c r="M59" t="s">
+        <v>125</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O59" t="str">
+        <f ca="1">IF(N59=0,"",
+IF(C59&lt;=3,0,
+IF(C59=4,-20,
+IF(C59=5,-10,
+IF(C59=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q59">
+        <f>VLOOKUP(C59,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F60">
+        <v>0.03</v>
+      </c>
+      <c r="G60" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="str">
+        <f ca="1">IF(H60=0,"",
+IF(C60&lt;=3,0,
+IF(C60=4,-20,
+IF(C60=5,-10,
+IF(C60=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K60" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L60">
+        <v>0.01</v>
+      </c>
+      <c r="M60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O60" t="str">
+        <f ca="1">IF(N60=0,"",
+IF(C60&lt;=3,0,
+IF(C60=4,-20,
+IF(C60=5,-10,
+IF(C60=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q60">
+        <f>VLOOKUP(C60,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F61">
+        <v>0.04</v>
+      </c>
+      <c r="G61" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="str">
+        <f ca="1">IF(H61=0,"",
+IF(C61&lt;=3,0,
+IF(C61=4,-20,
+IF(C61=5,-10,
+IF(C61=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K61" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L61">
+        <v>0.01</v>
+      </c>
+      <c r="M61" t="s">
+        <v>125</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O61" t="str">
+        <f ca="1">IF(N61=0,"",
+IF(C61&lt;=3,0,
+IF(C61=4,-20,
+IF(C61=5,-10,
+IF(C61=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q61">
+        <f>VLOOKUP(C61,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F62">
+        <v>0.05</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <f ca="1">IF(H62=0,"",
+IF(C62&lt;=3,0,
+IF(C62=4,-20,
+IF(C62=5,-10,
+IF(C62=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L62">
+        <v>0.01</v>
+      </c>
+      <c r="M62" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <f ca="1">IF(N62=0,"",
+IF(C62&lt;=3,0,
+IF(C62=4,-20,
+IF(C62=5,-10,
+IF(C62=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q62">
+        <f>VLOOKUP(C62,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F63">
+        <v>0.05</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <f ca="1">IF(H63=0,"",
+IF(C63&lt;=3,0,
+IF(C63=4,-20,
+IF(C63=5,-10,
+IF(C63=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L63">
+        <v>0.01</v>
+      </c>
+      <c r="M63" t="s">
+        <v>35</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <f ca="1">IF(N63=0,"",
+IF(C63&lt;=3,0,
+IF(C63=4,-20,
+IF(C63=5,-10,
+IF(C63=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q63">
+        <f>VLOOKUP(C63,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F64">
+        <v>0.05</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <f ca="1">IF(H64=0,"",
+IF(C64&lt;=3,0,
+IF(C64=4,-20,
+IF(C64=5,-10,
+IF(C64=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L64">
+        <v>0.01</v>
+      </c>
+      <c r="M64" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <f ca="1">IF(N64=0,"",
+IF(C64&lt;=3,0,
+IF(C64=4,-20,
+IF(C64=5,-10,
+IF(C64=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q64">
+        <f>VLOOKUP(C64,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F65">
+        <v>0.01</v>
+      </c>
+      <c r="G65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="str">
+        <f ca="1">IF(H65=0,"",
+IF(C65&lt;=3,0,
+IF(C65=4,-20,
+IF(C65=5,-10,
+IF(C65=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K65" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L65">
+        <v>0.01</v>
+      </c>
+      <c r="M65" t="s">
+        <v>125</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O65" t="str">
+        <f ca="1">IF(N65=0,"",
+IF(C65&lt;=3,0,
+IF(C65=4,-20,
+IF(C65=5,-10,
+IF(C65=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q65">
+        <f>VLOOKUP(C65,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F66">
+        <v>0.02</v>
+      </c>
+      <c r="G66" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="str">
+        <f ca="1">IF(H66=0,"",
+IF(C66&lt;=3,0,
+IF(C66=4,-20,
+IF(C66=5,-10,
+IF(C66=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K66" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L66">
+        <v>0.01</v>
+      </c>
+      <c r="M66" t="s">
+        <v>125</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O66" t="str">
+        <f ca="1">IF(N66=0,"",
+IF(C66&lt;=3,0,
+IF(C66=4,-20,
+IF(C66=5,-10,
+IF(C66=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q66">
+        <f>VLOOKUP(C66,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F67">
+        <v>0.03</v>
+      </c>
+      <c r="G67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="str">
+        <f ca="1">IF(H67=0,"",
+IF(C67&lt;=3,0,
+IF(C67=4,-20,
+IF(C67=5,-10,
+IF(C67=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K67" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L67">
+        <v>0.01</v>
+      </c>
+      <c r="M67" t="s">
+        <v>125</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" ref="N67:N78" ca="1" si="6">VLOOKUP(M67,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" t="str">
+        <f ca="1">IF(N67=0,"",
+IF(C67&lt;=3,0,
+IF(C67=4,-20,
+IF(C67=5,-10,
+IF(C67=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q67">
+        <f>VLOOKUP(C67,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F68">
+        <v>0.04</v>
+      </c>
+      <c r="G68" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="str">
+        <f ca="1">IF(H68=0,"",
+IF(C68&lt;=3,0,
+IF(C68=4,-20,
+IF(C68=5,-10,
+IF(C68=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K68" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L68">
+        <v>0.01</v>
+      </c>
+      <c r="M68" t="s">
+        <v>125</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O68" t="str">
+        <f ca="1">IF(N68=0,"",
+IF(C68&lt;=3,0,
+IF(C68=4,-20,
+IF(C68=5,-10,
+IF(C68=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q68">
+        <f>VLOOKUP(C68,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F69">
+        <v>0.05</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <f ca="1">IF(H69=0,"",
+IF(C69&lt;=3,0,
+IF(C69=4,-20,
+IF(C69=5,-10,
+IF(C69=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L69">
+        <v>0.01</v>
+      </c>
+      <c r="M69" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O69">
+        <f ca="1">IF(N69=0,"",
+IF(C69&lt;=3,0,
+IF(C69=4,-20,
+IF(C69=5,-10,
+IF(C69=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q69">
+        <f>VLOOKUP(C69,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F70">
+        <v>0.05</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <f ca="1">IF(H70=0,"",
+IF(C70&lt;=3,0,
+IF(C70=4,-20,
+IF(C70=5,-10,
+IF(C70=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L70">
+        <v>0.01</v>
+      </c>
+      <c r="M70" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O70">
+        <f ca="1">IF(N70=0,"",
+IF(C70&lt;=3,0,
+IF(C70=4,-20,
+IF(C70=5,-10,
+IF(C70=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q70">
+        <f>VLOOKUP(C70,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F71">
+        <v>0.05</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <f ca="1">IF(H71=0,"",
+IF(C71&lt;=3,0,
+IF(C71=4,-20,
+IF(C71=5,-10,
+IF(C71=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L71">
+        <v>0.01</v>
+      </c>
+      <c r="M71" t="s">
+        <v>35</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <f ca="1">IF(N71=0,"",
+IF(C71&lt;=3,0,
+IF(C71=4,-20,
+IF(C71=5,-10,
+IF(C71=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q71">
+        <f>VLOOKUP(C71,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F72">
+        <v>0.01</v>
+      </c>
+      <c r="G72" t="s">
+        <v>125</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="str">
+        <f ca="1">IF(H72=0,"",
+IF(C72&lt;=3,0,
+IF(C72=4,-20,
+IF(C72=5,-10,
+IF(C72=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K72" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L72">
+        <v>0.01</v>
+      </c>
+      <c r="M72" t="s">
+        <v>125</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O72" t="str">
+        <f ca="1">IF(N72=0,"",
+IF(C72&lt;=3,0,
+IF(C72=4,-20,
+IF(C72=5,-10,
+IF(C72=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q72">
+        <f>VLOOKUP(C72,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F73">
+        <v>0.02</v>
+      </c>
+      <c r="G73" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="str">
+        <f ca="1">IF(H73=0,"",
+IF(C73&lt;=3,0,
+IF(C73=4,-20,
+IF(C73=5,-10,
+IF(C73=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K73" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L73">
+        <v>0.01</v>
+      </c>
+      <c r="M73" t="s">
+        <v>125</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O73" t="str">
+        <f ca="1">IF(N73=0,"",
+IF(C73&lt;=3,0,
+IF(C73=4,-20,
+IF(C73=5,-10,
+IF(C73=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q73">
+        <f>VLOOKUP(C73,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F74">
+        <v>0.03</v>
+      </c>
+      <c r="G74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="str">
+        <f ca="1">IF(H74=0,"",
+IF(C74&lt;=3,0,
+IF(C74=4,-20,
+IF(C74=5,-10,
+IF(C74=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K74" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L74">
+        <v>0.01</v>
+      </c>
+      <c r="M74" t="s">
+        <v>125</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O74" t="str">
+        <f ca="1">IF(N74=0,"",
+IF(C74&lt;=3,0,
+IF(C74=4,-20,
+IF(C74=5,-10,
+IF(C74=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q74">
+        <f>VLOOKUP(C74,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F75">
+        <v>0.04</v>
+      </c>
+      <c r="G75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="str">
+        <f ca="1">IF(H75=0,"",
+IF(C75&lt;=3,0,
+IF(C75=4,-20,
+IF(C75=5,-10,
+IF(C75=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="K75" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L75">
+        <v>0.01</v>
+      </c>
+      <c r="M75" t="s">
+        <v>125</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O75" t="str">
+        <f ca="1">IF(N75=0,"",
+IF(C75&lt;=3,0,
+IF(C75=4,-20,
+IF(C75=5,-10,
+IF(C75=6,-5,
+"없음")))))</f>
+        <v/>
+      </c>
+      <c r="Q75">
+        <f>VLOOKUP(C75,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F76">
+        <v>0.05</v>
+      </c>
+      <c r="G76" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <f ca="1">IF(H76=0,"",
+IF(C76&lt;=3,0,
+IF(C76=4,-20,
+IF(C76=5,-10,
+IF(C76=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L76">
+        <v>0.01</v>
+      </c>
+      <c r="M76" t="s">
+        <v>35</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <f ca="1">IF(N76=0,"",
+IF(C76&lt;=3,0,
+IF(C76=4,-20,
+IF(C76=5,-10,
+IF(C76=6,-5,
+"없음")))))</f>
+        <v>-20</v>
+      </c>
+      <c r="Q76">
+        <f>VLOOKUP(C76,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F77">
+        <v>0.05</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <f ca="1">IF(H77=0,"",
+IF(C77&lt;=3,0,
+IF(C77=4,-20,
+IF(C77=5,-10,
+IF(C77=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L77">
+        <v>0.01</v>
+      </c>
+      <c r="M77" t="s">
+        <v>35</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <f ca="1">IF(N77=0,"",
+IF(C77&lt;=3,0,
+IF(C77=4,-20,
+IF(C77=5,-10,
+IF(C77=6,-5,
+"없음")))))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q77">
+        <f>VLOOKUP(C77,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="F78">
+        <v>0.05</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <f ca="1">IF(H78=0,"",
+IF(C78&lt;=3,0,
+IF(C78=4,-20,
+IF(C78=5,-10,
+IF(C78=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L78">
+        <v>0.01</v>
+      </c>
+      <c r="M78" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <f ca="1">IF(N78=0,"",
+IF(C78&lt;=3,0,
+IF(C78=4,-20,
+IF(C78=5,-10,
+IF(C78=6,-5,
+"없음")))))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q78">
+        <f>VLOOKUP(C78,InnerGradeTable!$A:$AQ,MATCH(InnerGradeTable!$AQ$1,InnerGradeTable!$A$1:$AQ$1,0),0)</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G78" xr:uid="{A65E98AA-2783-4D67-8DC2-8AC3346CD798}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B78" xr:uid="{FDCB49CB-29AB-4F67-917C-4547EAB326E9}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(SUBSTITUTE(B$1,"|String","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(SUBSTITUTE(B$1,"|String","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M78" xr:uid="{CF832E8A-1AA8-49BB-8358-6B05BF9A42FD}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280231D9-066F-4E62-A658-042EAF27F0CE}">
   <dimension ref="A1:AG148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -44027,3943 +49008,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
-  <dimension ref="A1:X78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" collapsed="1"/>
-    <col min="11" max="11" width="9" style="4"/>
-    <col min="13" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" collapsed="1"/>
-    <col min="18" max="18" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" collapsed="1"/>
-    <col min="20" max="20" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="2">
-        <f t="shared" ref="H2:H3" ca="1" si="0">VLOOKUP(G2,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="str">
-        <f ca="1">IF(H2=0,"",
-IF(C2&lt;=3,0,
-IF(C2=4,-20,
-IF(C2=5,-10,
-IF(C2=6,-5,
-"없음")))))</f>
-        <v/>
-      </c>
-      <c r="K2" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="2">
-        <f ca="1">VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" t="str">
-        <f ca="1">IF(N2=0,"",
-IF(C2&lt;=3,0,
-IF(C2=4,-20,
-IF(C2=5,-10,
-IF(C2=6,-5,
-"없음")))))</f>
-        <v/>
-      </c>
-      <c r="R2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" ca="1" si="1">IF(H3=0,"",
-IF(C3&lt;=3,0,
-IF(C3=4,-20,
-IF(C3=5,-10,
-IF(C3=6,-5,
-"없음")))))</f>
-        <v/>
-      </c>
-      <c r="K3" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N66" ca="1" si="2">VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" ca="1" si="3">IF(N3=0,"",
-IF(C3&lt;=3,0,
-IF(C3=4,-20,
-IF(C3=5,-10,
-IF(C3=6,-5,
-"없음")))))</f>
-        <v/>
-      </c>
-      <c r="R3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F4">
-        <v>0.03</v>
-      </c>
-      <c r="G4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H57" ca="1" si="4">VLOOKUP(G4,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K4" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="R4" t="s">
-        <v>107</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F5">
-        <v>0.04</v>
-      </c>
-      <c r="G5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K5" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="R5" t="s">
-        <v>108</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F6">
-        <v>0.05</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-      <c r="R6" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F7">
-        <v>0.05</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L7">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="R7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F8">
-        <v>0.05</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-      <c r="R8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-      <c r="G9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K9" s="4">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>200</v>
-      </c>
-      <c r="M9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="R9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F15" si="5">F9+200</f>
-        <v>400</v>
-      </c>
-      <c r="G10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K10" s="4">
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ref="L10:L15" si="6">L9+200</f>
-        <v>400</v>
-      </c>
-      <c r="M10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="R10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="5"/>
-        <v>600</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K11" s="4">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="M11" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="R11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="4">
-        <v>100</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>800</v>
-      </c>
-      <c r="M12" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-      <c r="R12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K13" s="4">
-        <v>100</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>1200</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K14" s="4">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="6"/>
-        <v>1200</v>
-      </c>
-      <c r="M14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="9">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>1400</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="6"/>
-        <v>1400</v>
-      </c>
-      <c r="M15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F16">
-        <v>0.01</v>
-      </c>
-      <c r="G16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K16" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L16">
-        <v>0.01</v>
-      </c>
-      <c r="M16" t="s">
-        <v>125</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F17">
-        <v>0.02</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K17" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L17">
-        <v>0.02</v>
-      </c>
-      <c r="M17" t="s">
-        <v>125</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F18">
-        <v>0.03</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K18" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L18">
-        <v>0.03</v>
-      </c>
-      <c r="M18" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F19">
-        <v>0.04</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K19" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L19">
-        <v>0.04</v>
-      </c>
-      <c r="M19" t="s">
-        <v>125</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F20">
-        <v>0.05</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L20">
-        <v>0.05</v>
-      </c>
-      <c r="M20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F21">
-        <v>0.05</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L21">
-        <v>0.05</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F22">
-        <v>0.05</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K22" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L22">
-        <v>0.05</v>
-      </c>
-      <c r="M22" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F23">
-        <v>0.01</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K23" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L23">
-        <v>0.01</v>
-      </c>
-      <c r="M23" t="s">
-        <v>125</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F24">
-        <v>0.02</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K24" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L24">
-        <v>0.02</v>
-      </c>
-      <c r="M24" t="s">
-        <v>125</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F25">
-        <v>0.03</v>
-      </c>
-      <c r="G25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K25" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L25">
-        <v>0.03</v>
-      </c>
-      <c r="M25" t="s">
-        <v>125</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F26">
-        <v>0.04</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K26" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L26">
-        <v>0.04</v>
-      </c>
-      <c r="M26" t="s">
-        <v>125</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F27">
-        <v>0.05</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L27">
-        <v>0.05</v>
-      </c>
-      <c r="M27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F28">
-        <v>0.05</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L28">
-        <v>0.05</v>
-      </c>
-      <c r="M28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F29">
-        <v>0.05</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L29">
-        <v>0.05</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F30">
-        <v>0.01</v>
-      </c>
-      <c r="G30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K30" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L30">
-        <v>0.01</v>
-      </c>
-      <c r="M30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F31">
-        <v>0.02</v>
-      </c>
-      <c r="G31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K31" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L31">
-        <v>0.02</v>
-      </c>
-      <c r="M31" t="s">
-        <v>125</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F32">
-        <v>0.03</v>
-      </c>
-      <c r="G32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K32" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L32">
-        <v>0.03</v>
-      </c>
-      <c r="M32" t="s">
-        <v>125</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F33">
-        <v>0.04</v>
-      </c>
-      <c r="G33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K33" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L33">
-        <v>0.04</v>
-      </c>
-      <c r="M33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>30</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F34">
-        <v>0.05</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L34">
-        <v>0.05</v>
-      </c>
-      <c r="M34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F35">
-        <v>0.05</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L35">
-        <v>0.05</v>
-      </c>
-      <c r="M35" t="s">
-        <v>35</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>30</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F36">
-        <v>0.05</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K36" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L36">
-        <v>0.05</v>
-      </c>
-      <c r="M36" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O36">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>30</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F37">
-        <v>0.01</v>
-      </c>
-      <c r="G37" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K37" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L37">
-        <v>0.01</v>
-      </c>
-      <c r="M37" t="s">
-        <v>125</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>30</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F38">
-        <v>0.02</v>
-      </c>
-      <c r="G38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K38" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L38">
-        <v>0.02</v>
-      </c>
-      <c r="M38" t="s">
-        <v>125</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>30</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F39">
-        <v>0.03</v>
-      </c>
-      <c r="G39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K39" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L39">
-        <v>0.03</v>
-      </c>
-      <c r="M39" t="s">
-        <v>125</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>30</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F40">
-        <v>0.04</v>
-      </c>
-      <c r="G40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K40" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L40">
-        <v>0.04</v>
-      </c>
-      <c r="M40" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>30</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F41">
-        <v>0.05</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K41" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L41">
-        <v>0.05</v>
-      </c>
-      <c r="M41" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>30</v>
-      </c>
-      <c r="E42" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F42">
-        <v>0.05</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L42">
-        <v>0.05</v>
-      </c>
-      <c r="M42" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O42">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>30</v>
-      </c>
-      <c r="E43" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F43">
-        <v>0.05</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K43" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L43">
-        <v>0.05</v>
-      </c>
-      <c r="M43" t="s">
-        <v>35</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O43">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F44">
-        <v>0.01</v>
-      </c>
-      <c r="G44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K44" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L44">
-        <v>0.01</v>
-      </c>
-      <c r="M44" t="s">
-        <v>125</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F45">
-        <v>0.02</v>
-      </c>
-      <c r="G45" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K45" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L45">
-        <v>0.02</v>
-      </c>
-      <c r="M45" t="s">
-        <v>125</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F46">
-        <v>0.03</v>
-      </c>
-      <c r="G46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K46" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L46">
-        <v>0.03</v>
-      </c>
-      <c r="M46" t="s">
-        <v>125</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F47">
-        <v>0.04</v>
-      </c>
-      <c r="G47" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K47" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L47">
-        <v>0.04</v>
-      </c>
-      <c r="M47" t="s">
-        <v>125</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F48">
-        <v>0.05</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L48">
-        <v>0.05</v>
-      </c>
-      <c r="M48" t="s">
-        <v>35</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F49">
-        <v>0.05</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K49" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L49">
-        <v>0.05</v>
-      </c>
-      <c r="M49" t="s">
-        <v>35</v>
-      </c>
-      <c r="N49" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F50">
-        <v>0.05</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K50" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L50">
-        <v>0.05</v>
-      </c>
-      <c r="M50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O50">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" s="9">
-        <v>200</v>
-      </c>
-      <c r="F51">
-        <v>400</v>
-      </c>
-      <c r="G51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K51" s="4">
-        <v>200</v>
-      </c>
-      <c r="L51">
-        <v>400</v>
-      </c>
-      <c r="M51" t="s">
-        <v>125</v>
-      </c>
-      <c r="N51" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" s="9">
-        <v>200</v>
-      </c>
-      <c r="F52">
-        <f t="shared" ref="F52:F57" si="7">F51+400</f>
-        <v>800</v>
-      </c>
-      <c r="G52" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K52" s="4">
-        <v>200</v>
-      </c>
-      <c r="L52">
-        <f t="shared" ref="L52:L57" si="8">L51+400</f>
-        <v>800</v>
-      </c>
-      <c r="M52" t="s">
-        <v>125</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" s="9">
-        <v>200</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="7"/>
-        <v>1200</v>
-      </c>
-      <c r="G53" t="s">
-        <v>125</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K53" s="4">
-        <v>200</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="8"/>
-        <v>1200</v>
-      </c>
-      <c r="M53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" s="9">
-        <v>200</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="7"/>
-        <v>1600</v>
-      </c>
-      <c r="G54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K54" s="4">
-        <v>200</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="8"/>
-        <v>1600</v>
-      </c>
-      <c r="M54" t="s">
-        <v>125</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" s="9">
-        <v>200</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="7"/>
-        <v>2000</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K55" s="4">
-        <v>200</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="8"/>
-        <v>2000</v>
-      </c>
-      <c r="M55" t="s">
-        <v>35</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O55">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" s="9">
-        <v>200</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="7"/>
-        <v>2400</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K56" s="4">
-        <v>200</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="8"/>
-        <v>2400</v>
-      </c>
-      <c r="M56" t="s">
-        <v>35</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O56">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57" s="9">
-        <v>200</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="7"/>
-        <v>2800</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K57" s="4">
-        <v>200</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="8"/>
-        <v>2800</v>
-      </c>
-      <c r="M57" t="s">
-        <v>35</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O57">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>10</v>
-      </c>
-      <c r="E58" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F58">
-        <v>0.01</v>
-      </c>
-      <c r="G58" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" ref="H58:H78" ca="1" si="9">VLOOKUP(G58,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K58" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L58">
-        <v>0.01</v>
-      </c>
-      <c r="M58" t="s">
-        <v>125</v>
-      </c>
-      <c r="N58" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F59">
-        <v>0.02</v>
-      </c>
-      <c r="G59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K59" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L59">
-        <v>0.02</v>
-      </c>
-      <c r="M59" t="s">
-        <v>125</v>
-      </c>
-      <c r="N59" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F60">
-        <v>0.03</v>
-      </c>
-      <c r="G60" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K60" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L60">
-        <v>0.03</v>
-      </c>
-      <c r="M60" t="s">
-        <v>125</v>
-      </c>
-      <c r="N60" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="E61" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F61">
-        <v>0.04</v>
-      </c>
-      <c r="G61" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K61" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L61">
-        <v>0.04</v>
-      </c>
-      <c r="M61" t="s">
-        <v>125</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>10</v>
-      </c>
-      <c r="E62" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F62">
-        <v>0.05</v>
-      </c>
-      <c r="G62" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I62">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K62" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L62">
-        <v>0.05</v>
-      </c>
-      <c r="M62" t="s">
-        <v>35</v>
-      </c>
-      <c r="N62" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O62">
-        <f t="shared" ca="1" si="3"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>10</v>
-      </c>
-      <c r="E63" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F63">
-        <v>0.05</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K63" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L63">
-        <v>0.05</v>
-      </c>
-      <c r="M63" t="s">
-        <v>35</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O63">
-        <f t="shared" ca="1" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F64">
-        <v>0.05</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I64">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K64" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L64">
-        <v>0.05</v>
-      </c>
-      <c r="M64" t="s">
-        <v>35</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O64">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F65">
-        <v>0.01</v>
-      </c>
-      <c r="G65" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K65" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L65">
-        <v>0.01</v>
-      </c>
-      <c r="M65" t="s">
-        <v>125</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F66">
-        <v>0.02</v>
-      </c>
-      <c r="G66" t="s">
-        <v>125</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K66" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L66">
-        <v>0.02</v>
-      </c>
-      <c r="M66" t="s">
-        <v>125</v>
-      </c>
-      <c r="N66" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O66" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>10</v>
-      </c>
-      <c r="E67" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F67">
-        <v>0.03</v>
-      </c>
-      <c r="G67" t="s">
-        <v>125</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I78" ca="1" si="10">IF(H67=0,"",
-IF(C67&lt;=3,0,
-IF(C67=4,-20,
-IF(C67=5,-10,
-IF(C67=6,-5,
-"없음")))))</f>
-        <v/>
-      </c>
-      <c r="K67" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L67">
-        <v>0.03</v>
-      </c>
-      <c r="M67" t="s">
-        <v>125</v>
-      </c>
-      <c r="N67" s="2">
-        <f t="shared" ref="N67:N78" ca="1" si="11">VLOOKUP(M67,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O67" t="str">
-        <f t="shared" ref="O67:O78" ca="1" si="12">IF(N67=0,"",
-IF(C67&lt;=3,0,
-IF(C67=4,-20,
-IF(C67=5,-10,
-IF(C67=6,-5,
-"없음")))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>10</v>
-      </c>
-      <c r="E68" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F68">
-        <v>0.04</v>
-      </c>
-      <c r="G68" t="s">
-        <v>125</v>
-      </c>
-      <c r="H68" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K68" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L68">
-        <v>0.04</v>
-      </c>
-      <c r="M68" t="s">
-        <v>125</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>10</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F69">
-        <v>0.05</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ca="1" si="10"/>
-        <v>-20</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L69">
-        <v>0.05</v>
-      </c>
-      <c r="M69" t="s">
-        <v>35</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="O69">
-        <f t="shared" ca="1" si="12"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-      <c r="D70">
-        <v>10</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F70">
-        <v>0.05</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ca="1" si="10"/>
-        <v>-10</v>
-      </c>
-      <c r="K70" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L70">
-        <v>0.05</v>
-      </c>
-      <c r="M70" t="s">
-        <v>35</v>
-      </c>
-      <c r="N70" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <f t="shared" ca="1" si="12"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-      <c r="D71">
-        <v>10</v>
-      </c>
-      <c r="E71" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F71">
-        <v>0.05</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I71">
-        <f t="shared" ca="1" si="10"/>
-        <v>-5</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L71">
-        <v>0.05</v>
-      </c>
-      <c r="M71" t="s">
-        <v>35</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="O71">
-        <f t="shared" ca="1" si="12"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>10</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F72">
-        <v>0.01</v>
-      </c>
-      <c r="G72" t="s">
-        <v>125</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K72" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L72">
-        <v>0.01</v>
-      </c>
-      <c r="M72" t="s">
-        <v>125</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F73">
-        <v>0.02</v>
-      </c>
-      <c r="G73" t="s">
-        <v>125</v>
-      </c>
-      <c r="H73" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K73" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L73">
-        <v>0.02</v>
-      </c>
-      <c r="M73" t="s">
-        <v>125</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F74">
-        <v>0.03</v>
-      </c>
-      <c r="G74" t="s">
-        <v>125</v>
-      </c>
-      <c r="H74" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K74" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L74">
-        <v>0.03</v>
-      </c>
-      <c r="M74" t="s">
-        <v>125</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F75">
-        <v>0.04</v>
-      </c>
-      <c r="G75" t="s">
-        <v>125</v>
-      </c>
-      <c r="H75" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K75" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L75">
-        <v>0.04</v>
-      </c>
-      <c r="M75" t="s">
-        <v>125</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O75" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76">
-        <v>10</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F76">
-        <v>0.05</v>
-      </c>
-      <c r="G76" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I76">
-        <f t="shared" ca="1" si="10"/>
-        <v>-20</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L76">
-        <v>0.05</v>
-      </c>
-      <c r="M76" t="s">
-        <v>35</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <f t="shared" ca="1" si="12"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77">
-        <v>10</v>
-      </c>
-      <c r="E77" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F77">
-        <v>0.05</v>
-      </c>
-      <c r="G77" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I77">
-        <f t="shared" ca="1" si="10"/>
-        <v>-10</v>
-      </c>
-      <c r="K77" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L77">
-        <v>0.05</v>
-      </c>
-      <c r="M77" t="s">
-        <v>35</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <f t="shared" ca="1" si="12"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78">
-        <v>6</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="F78">
-        <v>0.05</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I78">
-        <f t="shared" ca="1" si="10"/>
-        <v>-5</v>
-      </c>
-      <c r="K78" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="L78">
-        <v>0.05</v>
-      </c>
-      <c r="M78" t="s">
-        <v>35</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <f t="shared" ca="1" si="12"/>
-        <v>-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G78" xr:uid="{A65E98AA-2783-4D67-8DC2-8AC3346CD798}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B78" xr:uid="{FDCB49CB-29AB-4F67-917C-4547EAB326E9}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(SUBSTITUTE(B$1,"|String","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(SUBSTITUTE(B$1,"|String","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M78" xr:uid="{CF832E8A-1AA8-49BB-8358-6B05BF9A42FD}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC5BA9-48E1-4AFF-908A-542F87B4E831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A543C85-F404-4F14-B9BE-1EF32B2B125B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -2015,11 +2015,11 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2033,11 +2033,11 @@
     <col min="12" max="12" width="12.375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="9" collapsed="1"/>
     <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="19" max="23" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="25" width="0" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="0" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="30" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="9" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="9" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="30" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="31" max="31" width="9" collapsed="1"/>
     <col min="32" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="9" collapsed="1"/>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K2">
         <v>14.1</v>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K3">
         <v>13.5</v>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K15">
         <v>14.1</v>
@@ -3769,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K16">
         <v>13.5</v>
@@ -4516,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K28">
         <v>14.1</v>
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K29">
         <v>13.5</v>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K41">
         <v>14.1</v>
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K42">
         <v>13.5</v>
@@ -6134,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="J54">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K54">
         <v>14.1</v>
@@ -6199,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="J55">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K55">
         <v>13.5</v>
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="J67">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K67">
         <v>14.1</v>
@@ -7008,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="J68">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K68">
         <v>13.5</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J80">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K80">
         <v>14.1</v>
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="J81">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K81">
         <v>13.5</v>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="J93">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K93">
         <v>14.1</v>
@@ -8634,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="J94">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K94">
         <v>13.5</v>
@@ -9381,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="J106">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="K106">
         <v>14.1</v>
@@ -9446,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="J107">
-        <v>10.3</v>
+        <v>10.85</v>
       </c>
       <c r="K107">
         <v>13.5</v>
@@ -27106,7 +27106,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7FAF42-258A-469B-A5F0-76FC1ABD2926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C8E5D9-445D-4A18-A966-C9EAA3D05C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
   </bookViews>
   <sheets>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="192">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1482,6 +1482,42 @@
     <t>amplifyRandomGold|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>zeroOption참고</t>
+  </si>
+  <si>
+    <t>oneOption참고</t>
+  </si>
+  <si>
+    <t>twoOption참고</t>
+  </si>
+  <si>
+    <t>threeOption참고</t>
+  </si>
+  <si>
+    <t>zeroTransmute참고</t>
+  </si>
+  <si>
+    <t>oneTransmute참고</t>
+  </si>
+  <si>
+    <t>twoTransmute참고</t>
+  </si>
+  <si>
+    <t>threeTransmute참고</t>
+  </si>
+  <si>
+    <t>fourTransmute참고</t>
+  </si>
+  <si>
+    <t>fiveTransmute참고</t>
+  </si>
+  <si>
+    <t>sixTransmute참고</t>
+  </si>
+  <si>
+    <t>sevenTransmute참고</t>
+  </si>
 </sst>
 </file>
 
@@ -27094,7 +27130,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059BAE38-C5F0-49B8-A438-E94545765F83}">
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:BJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
@@ -27103,10 +27139,10 @@
       <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO4" sqref="AO4"/>
+      <selection pane="bottomRight" activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -27116,17 +27152,17 @@
     <col min="17" max="17" width="9" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="9" style="5" collapsed="1"/>
-    <col min="28" max="28" width="9" style="3"/>
-    <col min="36" max="36" width="9" style="6"/>
-    <col min="38" max="38" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="9" collapsed="1"/>
-    <col min="43" max="43" width="9" customWidth="1"/>
-    <col min="47" max="47" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="9" collapsed="1"/>
+    <col min="28" max="31" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" style="3"/>
+    <col min="40" max="47" width="9" outlineLevel="1"/>
+    <col min="48" max="48" width="9" style="6"/>
+    <col min="50" max="50" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="9" customWidth="1"/>
+    <col min="59" max="59" width="17.75" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -27208,74 +27244,110 @@
       <c r="AA1" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>117</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>118</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>119</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>121</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>122</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AN1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AW1" t="s">
         <v>135</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AX1" t="s">
         <v>136</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AY1" t="s">
         <v>137</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AZ1" t="s">
         <v>138</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BA1" t="s">
         <v>139</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BB1" t="s">
         <v>145</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BC1" t="s">
         <v>179</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BD1" t="s">
         <v>146</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BE1" t="s">
         <v>163</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BG1" t="s">
         <v>140</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BH1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BI1" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BJ1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -27375,7 +27447,7 @@
         <v>3</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -27383,45 +27455,93 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2">
+        <f>X2/SUM($X2:$AA2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AE2" si="9">Y2/SUM($X2:$AA2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
         <v>7</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>2</v>
       </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <f>AF2/SUM($AF2:$AM2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" ref="AO2:AO8" si="10">AG2/SUM($AF2:$AM2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" ref="AP2:AP8" si="11">AH2/SUM($AF2:$AM2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" ref="AQ2:AQ8" si="12">AI2/SUM($AF2:$AM2)</f>
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" ref="AR2:AR8" si="13">AJ2/SUM($AF2:$AM2)</f>
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" ref="AS2:AS8" si="14">AK2/SUM($AF2:$AM2)</f>
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" ref="AT2:AT8" si="15">AL2/SUM($AF2:$AM2)</f>
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" ref="AU2:AU8" si="16">AM2/SUM($AF2:$AM2)</f>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="6">
         <v>1.0081490799999999</v>
       </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AX2" t="s">
         <v>125</v>
       </c>
-      <c r="AM2" s="1">
-        <f t="shared" ref="AM2" ca="1" si="9">VLOOKUP(AL2,OFFSET(INDIRECT("$A:$B"),0,MATCH(AL$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN2" t="str">
-        <f ca="1">IF(AM2=0,"",
+      <c r="AY2" s="1">
+        <f t="shared" ref="AY2" ca="1" si="17">VLOOKUP(AX2,OFFSET(INDIRECT("$A:$B"),0,MATCH(AX$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f ca="1">IF(AY2=0,"",
 IF(A2&lt;=3,0,
 IF(A2=4,-20,
 IF(A2=5,-10,
@@ -27429,26 +27549,26 @@
 "없음")))))</f>
         <v/>
       </c>
-      <c r="AP2">
+      <c r="BB2">
         <v>1000</v>
       </c>
-      <c r="AQ2">
+      <c r="BC2">
         <v>200</v>
       </c>
-      <c r="AR2">
+      <c r="BD2">
         <v>750</v>
       </c>
-      <c r="AS2">
+      <c r="BE2">
         <v>500</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BG2" t="s">
         <v>32</v>
       </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="BH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -27492,15 +27612,15 @@
         <v>500</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:N5" si="10">K3*1.5</f>
+        <f t="shared" ref="L3:N5" si="18">K3*1.5</f>
         <v>750</v>
       </c>
       <c r="M3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1125</v>
       </c>
       <c r="N3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1687.5</v>
       </c>
       <c r="O3">
@@ -27543,7 +27663,7 @@
         <v>3</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -27551,45 +27671,93 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB8" si="19">X3/SUM($X3:$AA3)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC8" si="20">Y3/SUM($X3:$AA3)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD8" si="21">Z3/SUM($X3:$AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE8" si="22">AA3/SUM($X3:$AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
         <v>7</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <v>2</v>
       </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN8" si="23">AF3/SUM($AF3:$AM3)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="6">
         <v>1.0081490799999999</v>
       </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AX3" t="s">
         <v>125</v>
       </c>
-      <c r="AM3">
-        <f t="shared" ref="AM3:AM8" ca="1" si="11">VLOOKUP(AL3,OFFSET(INDIRECT("$A:$B"),0,MATCH(AL$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" t="str">
-        <f t="shared" ref="AN3:AN8" ca="1" si="12">IF(AM3=0,"",
+      <c r="AY3">
+        <f t="shared" ref="AY3:AY8" ca="1" si="24">VLOOKUP(AX3,OFFSET(INDIRECT("$A:$B"),0,MATCH(AX$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f t="shared" ref="AZ3:AZ8" ca="1" si="25">IF(AY3=0,"",
 IF(A3&lt;=3,0,
 IF(A3=4,-20,
 IF(A3=5,-10,
@@ -27597,33 +27765,33 @@
 "없음")))))</f>
         <v/>
       </c>
-      <c r="AP3">
+      <c r="BB3">
         <v>2000</v>
       </c>
-      <c r="AQ3">
+      <c r="BC3">
         <v>400</v>
       </c>
-      <c r="AR3">
+      <c r="BD3">
         <v>1500</v>
       </c>
-      <c r="AS3">
-        <f t="shared" ref="AS3:AS6" si="13">AS2+500</f>
+      <c r="BE3">
+        <f t="shared" ref="BE3:BE6" si="26">BE2+500</f>
         <v>1000</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="BG3" t="s">
         <v>33</v>
       </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="s">
         <v>40</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BJ3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -27659,11 +27827,11 @@
         <v>2000</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:K4" si="14">K4/1.5</f>
+        <f t="shared" ref="J4:K4" si="27">K4/1.5</f>
         <v>370.37037037037038</v>
       </c>
       <c r="K4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>555.55555555555554</v>
       </c>
       <c r="L4">
@@ -27671,11 +27839,11 @@
         <v>833.33333333333337</v>
       </c>
       <c r="M4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1250</v>
       </c>
       <c r="N4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1875</v>
       </c>
       <c r="O4">
@@ -27687,11 +27855,11 @@
         <v>1875</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" ref="Q4:R4" si="15">R4/2.5</f>
+        <f t="shared" ref="Q4:R4" si="28">R4/2.5</f>
         <v>8.1632653061224497E-2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.20408163265306123</v>
       </c>
       <c r="S4">
@@ -27699,101 +27867,149 @@
         <v>0.51020408163265307</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:U4" si="16">S4*2.5</f>
+        <f t="shared" ref="T4:U4" si="29">S4*2.5</f>
         <v>1.2755102040816326</v>
       </c>
       <c r="U4">
+        <f t="shared" si="29"/>
+        <v>3.1887755102040813</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:W4" si="30">U4*1</f>
+        <v>3.1887755102040813</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="30"/>
+        <v>3.1887755102040813</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="21"/>
+        <v>0.25</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>2.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.5</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AU4">
         <f t="shared" si="16"/>
-        <v>3.1887755102040813</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:W4" si="17">U4*1</f>
-        <v>3.1887755102040813</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="17"/>
-        <v>3.1887755102040813</v>
-      </c>
-      <c r="X4" s="5">
-        <v>9</v>
-      </c>
-      <c r="Y4">
-        <v>3</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>2.5</v>
-      </c>
-      <c r="AD4">
-        <v>1.5</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="6">
         <v>1.0081490799999999</v>
       </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AX4" t="s">
         <v>125</v>
       </c>
-      <c r="AM4">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AP4">
+      <c r="AY4">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BB4">
         <v>3000</v>
       </c>
-      <c r="AQ4">
+      <c r="BC4">
         <v>600</v>
       </c>
-      <c r="AR4">
+      <c r="BD4">
         <v>2250</v>
       </c>
-      <c r="AS4">
-        <f t="shared" si="13"/>
+      <c r="BE4">
+        <f t="shared" si="26"/>
         <v>1500</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="BG4" t="s">
         <v>34</v>
       </c>
-      <c r="AV4">
+      <c r="BH4">
         <v>2</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BI4" t="s">
         <v>43</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BJ4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -27830,15 +28046,15 @@
         <v>2000</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:L5" si="18">K5/1.5</f>
+        <f t="shared" ref="J5:L5" si="31">K5/1.5</f>
         <v>411.52263374485597</v>
       </c>
       <c r="K5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>617.28395061728395</v>
       </c>
       <c r="L5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>925.92592592592598</v>
       </c>
       <c r="M5">
@@ -27846,7 +28062,7 @@
         <v>1388.8888888888889</v>
       </c>
       <c r="N5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2083.3333333333335</v>
       </c>
       <c r="O5">
@@ -27858,15 +28074,15 @@
         <v>2083.3333333333335</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" ref="Q5:S5" si="19">R5/2.5</f>
+        <f t="shared" ref="Q5:S5" si="32">R5/2.5</f>
         <v>2.3323615160349857E-2</v>
       </c>
       <c r="R5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>5.830903790087464E-2</v>
       </c>
       <c r="S5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>0.1457725947521866</v>
       </c>
       <c r="T5">
@@ -27886,82 +28102,130 @@
         <v>0.91107871720116629</v>
       </c>
       <c r="X5" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="21"/>
+        <v>0.25</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>2.5</v>
+      </c>
+      <c r="AH5">
+        <v>1.5</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="AW5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BB5">
+        <v>4000</v>
+      </c>
+      <c r="BC5">
+        <v>800</v>
+      </c>
+      <c r="BD5">
+        <v>3000</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="26"/>
+        <v>2000</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH5">
         <v>3</v>
       </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC5">
-        <v>2.5</v>
-      </c>
-      <c r="AD5">
-        <v>1.5</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="6">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="AK5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN5" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AP5">
-        <v>4000</v>
-      </c>
-      <c r="AQ5">
-        <v>800</v>
-      </c>
-      <c r="AR5">
-        <v>3000</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="13"/>
-        <v>2000</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV5">
-        <v>3</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="BI5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -27981,7 +28245,7 @@
         <v>1000</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F8" si="20">IF(M6&lt;1000,ROUND(M6,-2),
+        <f t="shared" ref="F6:F8" si="33">IF(M6&lt;1000,ROUND(M6,-2),
 ROUND(M6/5,-2)*5)</f>
         <v>1500</v>
       </c>
@@ -27998,19 +28262,19 @@
         <v>2500</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" ref="J6:M6" si="21">K6/1.5</f>
+        <f t="shared" ref="J6:M6" si="34">K6/1.5</f>
         <v>457.24737082761777</v>
       </c>
       <c r="K6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>685.87105624142669</v>
       </c>
       <c r="L6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>1028.80658436214</v>
       </c>
       <c r="M6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>1543.2098765432099</v>
       </c>
       <c r="N6">
@@ -28026,15 +28290,15 @@
         <v>2314.8148148148148</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" ref="Q6:S6" si="22">R6/2.5</f>
+        <f t="shared" ref="Q6:S6" si="35">R6/2.5</f>
         <v>6.6638900458142443E-3</v>
       </c>
       <c r="R6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>1.665972511453561E-2</v>
       </c>
       <c r="S6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>4.1649312786339029E-2</v>
       </c>
       <c r="T6">
@@ -28054,79 +28318,127 @@
         <v>0.26030820491461892</v>
       </c>
       <c r="X6" s="5">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="19"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF6" s="3">
         <v>3</v>
       </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="3">
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0.2</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="23"/>
+        <v>0.3</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="12"/>
+        <v>0.08</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="AW6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ca="1" si="24"/>
         <v>3</v>
       </c>
-      <c r="AC6">
+      <c r="AZ6">
+        <f t="shared" ca="1" si="25"/>
+        <v>-20</v>
+      </c>
+      <c r="BB6">
+        <v>5000</v>
+      </c>
+      <c r="BC6">
+        <v>1000</v>
+      </c>
+      <c r="BD6">
+        <v>3750</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="26"/>
+        <v>2500</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH6">
         <v>4</v>
       </c>
-      <c r="AD6">
-        <v>2</v>
-      </c>
-      <c r="AE6">
-        <v>0.8</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0.2</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="6">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="AK6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" ca="1" si="12"/>
-        <v>-20</v>
-      </c>
-      <c r="AP6">
-        <v>5000</v>
-      </c>
-      <c r="AQ6">
-        <v>1000</v>
-      </c>
-      <c r="AR6">
-        <v>3750</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -28146,7 +28458,7 @@
         <v>1000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>1500</v>
       </c>
       <c r="G7">
@@ -28162,19 +28474,19 @@
         <v>2500</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ref="J7:M7" si="23">K7/1.5</f>
+        <f t="shared" ref="J7:M7" si="36">K7/1.5</f>
         <v>457.24737082761777</v>
       </c>
       <c r="K7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>685.87105624142669</v>
       </c>
       <c r="L7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>1028.80658436214</v>
       </c>
       <c r="M7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>1543.2098765432099</v>
       </c>
       <c r="N7">
@@ -28190,19 +28502,19 @@
         <v>2314.8148148148148</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" ref="Q7:Q8" si="24">R7/2.5</f>
+        <f t="shared" ref="Q7:Q8" si="37">R7/2.5</f>
         <v>6.6638900458142443E-3</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R8" si="25">S7/2.5</f>
+        <f t="shared" ref="R7:R8" si="38">S7/2.5</f>
         <v>1.665972511453561E-2</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:S8" si="26">T7/2.5</f>
+        <f t="shared" ref="S7:S8" si="39">T7/2.5</f>
         <v>4.1649312786339029E-2</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:T8" si="27">U7/2.5</f>
+        <f t="shared" ref="T7:T8" si="40">U7/2.5</f>
         <v>0.10412328196584757</v>
       </c>
       <c r="U7">
@@ -28218,72 +28530,120 @@
         <v>0.26030820491461892</v>
       </c>
       <c r="X7" s="5">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Z7">
+        <v>4.5</v>
+      </c>
+      <c r="AA7">
+        <v>1.5</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="19"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="21"/>
+        <v>0.45</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="22"/>
+        <v>0.15</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG7">
         <v>4</v>
       </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="3">
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>0.8</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0.2</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="23"/>
+        <v>0.3</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="12"/>
+        <v>0.08</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="AW7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" ca="1" si="24"/>
         <v>3</v>
       </c>
-      <c r="AC7">
-        <v>4</v>
-      </c>
-      <c r="AD7">
-        <v>2</v>
-      </c>
-      <c r="AE7">
-        <v>0.8</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0.2</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="AK7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM7">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" ca="1" si="12"/>
+      <c r="AZ7">
+        <f t="shared" ca="1" si="25"/>
         <v>-10</v>
       </c>
-      <c r="AP7">
+      <c r="BB7">
         <v>5000</v>
       </c>
-      <c r="AQ7">
+      <c r="BC7">
         <v>1000</v>
       </c>
-      <c r="AR7">
+      <c r="BD7">
         <v>3750</v>
       </c>
-      <c r="AS7">
+      <c r="BE7">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -28303,7 +28663,7 @@
         <v>1000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>1500</v>
       </c>
       <c r="G8">
@@ -28319,19 +28679,19 @@
         <v>2500</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" ref="J8:M8" si="28">K8/1.5</f>
+        <f t="shared" ref="J8:M8" si="41">K8/1.5</f>
         <v>457.24737082761777</v>
       </c>
       <c r="K8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>685.87105624142669</v>
       </c>
       <c r="L8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>1028.80658436214</v>
       </c>
       <c r="M8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>1543.2098765432099</v>
       </c>
       <c r="N8">
@@ -28347,19 +28707,19 @@
         <v>2314.8148148148148</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>6.6638900458142443E-3</v>
       </c>
       <c r="R8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>1.665972511453561E-2</v>
       </c>
       <c r="S8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>4.1649312786339029E-2</v>
       </c>
       <c r="T8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>0.10412328196584757</v>
       </c>
       <c r="U8">
@@ -28375,10 +28735,10 @@
         <v>0.26030820491461892</v>
       </c>
       <c r="X8" s="5">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Z8">
         <v>5</v>
@@ -28386,65 +28746,113 @@
       <c r="AA8">
         <v>1</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8">
+        <f t="shared" si="19"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF8" s="3">
         <v>3</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>4</v>
       </c>
-      <c r="AD8">
+      <c r="AH8">
         <v>2</v>
       </c>
-      <c r="AE8">
+      <c r="AI8">
         <v>0.8</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
         <v>0.2</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="6">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="23"/>
+        <v>0.3</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="12"/>
+        <v>0.08</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="6">
         <v>1.0081490799999999</v>
       </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AX8" t="s">
         <v>35</v>
       </c>
-      <c r="AM8">
-        <f t="shared" ca="1" si="11"/>
+      <c r="AY8">
+        <f t="shared" ca="1" si="24"/>
         <v>3</v>
       </c>
-      <c r="AN8">
-        <f t="shared" ca="1" si="12"/>
+      <c r="AZ8">
+        <f t="shared" ca="1" si="25"/>
         <v>-5</v>
       </c>
-      <c r="AP8">
+      <c r="BB8">
         <v>5000</v>
       </c>
-      <c r="AQ8">
+      <c r="BC8">
         <v>1000</v>
       </c>
-      <c r="AR8">
+      <c r="BD8">
         <v>3750</v>
       </c>
-      <c r="AS8">
+      <c r="BE8">
         <v>2500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL8" xr:uid="{D3F175FE-8C28-41E8-BA1A-76083F40A555}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(AL$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(AL$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX8" xr:uid="{D3F175FE-8C28-41E8-BA1A-76083F40A555}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(AX$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(AX$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42752,7 +43160,7 @@
         <v>0.9</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D161" ca="1" si="30">OFFSET(E130,0,A130)</f>
+        <f t="shared" ref="D130:D148" ca="1" si="30">OFFSET(E130,0,A130)</f>
         <v>84.722067700787989</v>
       </c>
       <c r="E130" s="5">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C8E5D9-445D-4A18-A966-C9EAA3D05C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF958F-DA37-460F-97C3-92DB2D33B2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2406BC8E-BE94-4CBE-9128-6DD347A939C0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="193">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1518,6 +1518,10 @@
   <si>
     <t>sevenTransmute참고</t>
   </si>
+  <si>
+    <t>확률참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2047,11 +2051,9 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -10214,7 +10216,8 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -27130,19 +27133,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059BAE38-C5F0-49B8-A438-E94545765F83}">
-  <dimension ref="A1:BJ8"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO2" sqref="AO2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -27152,14 +27155,16 @@
     <col min="17" max="17" width="9" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="9" style="5" collapsed="1"/>
-    <col min="28" max="31" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9" style="3"/>
-    <col min="40" max="47" width="9" outlineLevel="1"/>
-    <col min="48" max="48" width="9" style="6"/>
-    <col min="50" max="50" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" style="3" collapsed="1"/>
+    <col min="40" max="47" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="9" style="6" collapsed="1"/>
+    <col min="50" max="50" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="9" collapsed="1"/>
     <col min="55" max="55" width="9" customWidth="1"/>
-    <col min="59" max="59" width="17.75" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="62" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="62" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -27472,13 +27477,13 @@
         <v>0</v>
       </c>
       <c r="AF2" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -27497,15 +27502,15 @@
       </c>
       <c r="AN2">
         <f>AF2/SUM($AF2:$AM2)</f>
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AO2">
         <f t="shared" ref="AO2:AO8" si="10">AG2/SUM($AF2:$AM2)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2:AP8" si="11">AH2/SUM($AF2:$AM2)</f>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AQ2">
         <f t="shared" ref="AQ2:AQ8" si="12">AI2/SUM($AF2:$AM2)</f>
@@ -27688,13 +27693,13 @@
         <v>0</v>
       </c>
       <c r="AF3" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -27713,15 +27718,15 @@
       </c>
       <c r="AN3">
         <f t="shared" ref="AN3:AN8" si="23">AF3/SUM($AF3:$AM3)</f>
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AO3">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP3">
         <f t="shared" si="11"/>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AQ3">
         <f t="shared" si="12"/>
@@ -27911,16 +27916,16 @@
         <v>0</v>
       </c>
       <c r="AF4" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AH4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -27936,19 +27941,19 @@
       </c>
       <c r="AN4">
         <f t="shared" si="23"/>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AO4">
         <f t="shared" si="10"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AP4">
         <f t="shared" si="11"/>
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="AQ4">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AR4">
         <f t="shared" si="13"/>
@@ -28130,16 +28135,16 @@
         <v>0</v>
       </c>
       <c r="AF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
         <v>5</v>
       </c>
-      <c r="AG5">
-        <v>2.5</v>
-      </c>
-      <c r="AH5">
-        <v>1.5</v>
-      </c>
       <c r="AI5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -28155,19 +28160,19 @@
       </c>
       <c r="AN5">
         <f t="shared" si="23"/>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AO5">
         <f t="shared" si="10"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AP5">
         <f t="shared" si="11"/>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AR5">
         <f t="shared" si="13"/>
@@ -28346,22 +28351,22 @@
         <v>0.2</v>
       </c>
       <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
         <v>3</v>
       </c>
-      <c r="AG6">
-        <v>4</v>
-      </c>
-      <c r="AH6">
-        <v>2</v>
-      </c>
       <c r="AI6">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -28371,19 +28376,19 @@
       </c>
       <c r="AN6">
         <f t="shared" si="23"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AO6">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AP6">
         <f t="shared" si="11"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.45</v>
       </c>
       <c r="AR6">
         <f t="shared" si="13"/>
@@ -28391,7 +28396,7 @@
       </c>
       <c r="AS6">
         <f t="shared" si="14"/>
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AT6">
         <f t="shared" si="15"/>
@@ -28558,22 +28563,22 @@
         <v>0.15</v>
       </c>
       <c r="AF7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
         <v>3</v>
       </c>
-      <c r="AG7">
-        <v>4</v>
-      </c>
-      <c r="AH7">
-        <v>2</v>
-      </c>
       <c r="AI7">
-        <v>0.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -28583,19 +28588,19 @@
       </c>
       <c r="AN7">
         <f t="shared" si="23"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AO7">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AP7">
         <f t="shared" si="11"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="AR7">
         <f t="shared" si="13"/>
@@ -28603,7 +28608,7 @@
       </c>
       <c r="AS7">
         <f t="shared" si="14"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AT7">
         <f t="shared" si="15"/>
@@ -28763,22 +28768,22 @@
         <v>0.1</v>
       </c>
       <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
         <v>3</v>
       </c>
-      <c r="AG8">
-        <v>4</v>
-      </c>
-      <c r="AH8">
-        <v>2</v>
-      </c>
       <c r="AI8">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -28788,19 +28793,19 @@
       </c>
       <c r="AN8">
         <f t="shared" si="23"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AO8">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AP8">
         <f t="shared" si="11"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="AR8">
         <f t="shared" si="13"/>
@@ -28808,7 +28813,7 @@
       </c>
       <c r="AS8">
         <f t="shared" si="14"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AT8">
         <f t="shared" si="15"/>
@@ -28862,31 +28867,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="9" style="8"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" collapsed="1"/>
-    <col min="11" max="11" width="9" style="3"/>
-    <col min="13" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" collapsed="1"/>
-    <col min="18" max="18" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" collapsed="1"/>
-    <col min="20" max="20" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" collapsed="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" style="8" collapsed="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" collapsed="1"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="19" max="19" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" collapsed="1"/>
+    <col min="21" max="21" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -28899,59 +28909,62 @@
       <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>142</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>144</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>84</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -28962,23 +28975,27 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>D2/SUMIFS(D:D,A:A,A2,C:C,C2)</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F2" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.01</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H3" ca="1" si="0">VLOOKUP(G2,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I33" ca="1" si="1">IF(H2=0,"",
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I3" ca="1" si="0">VLOOKUP(H2,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J33" ca="1" si="1">IF(I2=0,"",
 IF(C2&lt;=3,0,
 IF(C2=4,-20,
 IF(C2=5,-10,
@@ -28986,21 +29003,21 @@
 "없음")))))</f>
         <v/>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.01</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="1">
-        <f ca="1">VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" t="str">
-        <f t="shared" ref="O2:O33" ca="1" si="2">IF(N2=0,"",
+      <c r="O2" s="1">
+        <f ca="1">VLOOKUP(N2,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(N$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P33" ca="1" si="2">IF(O2=0,"",
 IF(C2&lt;=3,0,
 IF(C2=4,-20,
 IF(C2=5,-10,
@@ -29008,17 +29025,17 @@
 "없음")))))</f>
         <v/>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>103</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -29029,59 +29046,63 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="3">D3/SUMIFS(D:D,A:A,A3,C:C,C3)</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F3" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.02</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.01</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N66" ca="1" si="3">VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" t="str">
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O66" ca="1" si="4">VLOOKUP(N3,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(N$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>105</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>33</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
         <v>40</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -29092,59 +29113,63 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F4" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.03</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H57" ca="1" si="4">VLOOKUP(G4,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="str">
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I57" ca="1" si="5">VLOOKUP(H4,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.01</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>125</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O4" t="str">
+      <c r="O4" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P4" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>107</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>34</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -29155,56 +29180,60 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F5" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.04</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L5" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M5">
+        <v>0.01</v>
+      </c>
+      <c r="N5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K5" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L5">
-        <v>0.01</v>
-      </c>
-      <c r="M5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>108</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>36</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -29215,1175 +29244,1271 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F6" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.05</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M6">
+        <v>0.01</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="P6">
+        <f t="shared" ca="1" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M7">
+        <v>0.01</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="S7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M8">
+        <v>0.01</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F9" s="8">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L9" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M9">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M10">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M11">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M12">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J13">
         <f t="shared" ca="1" si="1"/>
         <v>-20</v>
       </c>
-      <c r="K6" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L6">
-        <v>0.01</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L13" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M13">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O13" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="O6">
+      <c r="P13">
         <f t="shared" ca="1" si="2"/>
         <v>-20</v>
       </c>
-      <c r="R6" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F7">
-        <v>0.05</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I14" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M14">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="P14">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M15">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G16">
+        <v>0.01</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L16" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M16">
+        <v>0.01</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M17">
+        <v>0.01</v>
+      </c>
+      <c r="N17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G18">
+        <v>0.03</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L18" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M18">
+        <v>0.01</v>
+      </c>
+      <c r="N18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G19">
+        <v>0.04</v>
+      </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L19" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M19">
+        <v>0.01</v>
+      </c>
+      <c r="N19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G20">
+        <v>0.05</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M20">
+        <v>0.01</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G21">
+        <v>0.05</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J21">
         <f t="shared" ca="1" si="1"/>
         <v>-10</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L21" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L7">
+      <c r="M21">
         <v>0.01</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N21" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O21" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="O7">
+      <c r="P21">
         <f t="shared" ca="1" si="2"/>
         <v>-10</v>
       </c>
-      <c r="R7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F22" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F8">
+      <c r="G22">
         <v>0.05</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H22" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I22" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M22">
+        <v>0.01</v>
+      </c>
+      <c r="N22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="P22">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L23" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M23">
+        <v>0.01</v>
+      </c>
+      <c r="N23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G24">
+        <v>0.02</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L24" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M24">
+        <v>0.01</v>
+      </c>
+      <c r="N24" t="s">
+        <v>125</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G25">
+        <v>0.03</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L25" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M25">
+        <v>0.01</v>
+      </c>
+      <c r="N25" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G26">
+        <v>0.04</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L26" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M26">
+        <v>0.01</v>
+      </c>
+      <c r="N26" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G27">
+        <v>0.05</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M27">
+        <v>0.01</v>
+      </c>
+      <c r="N27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ca="1" si="2"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G28">
+        <v>0.05</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M28">
+        <v>0.01</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G29">
+        <v>0.05</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J29">
         <f t="shared" ca="1" si="1"/>
         <v>-5</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L29" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L8">
+      <c r="M29">
         <v>0.01</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N29" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O29" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="O8">
+      <c r="P29">
         <f t="shared" ca="1" si="2"/>
         <v>-5</v>
       </c>
-      <c r="R8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K9" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L9">
-        <v>1.05</v>
-      </c>
-      <c r="M9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K10" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L10">
-        <v>1.05</v>
-      </c>
-      <c r="M10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K11" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L11">
-        <v>1.05</v>
-      </c>
-      <c r="M11" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L12">
-        <v>1.05</v>
-      </c>
-      <c r="M12" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="R12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L13">
-        <v>1.05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="2"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L14">
-        <v>1.05</v>
-      </c>
-      <c r="M14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L15">
-        <v>1.05</v>
-      </c>
-      <c r="M15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F16">
-        <v>0.01</v>
-      </c>
-      <c r="G16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K16" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L16">
-        <v>0.01</v>
-      </c>
-      <c r="M16" t="s">
-        <v>125</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F17">
-        <v>0.02</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K17" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L17">
-        <v>0.01</v>
-      </c>
-      <c r="M17" t="s">
-        <v>125</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F18">
-        <v>0.03</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K18" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L18">
-        <v>0.01</v>
-      </c>
-      <c r="M18" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F19">
-        <v>0.04</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K19" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L19">
-        <v>0.01</v>
-      </c>
-      <c r="M19" t="s">
-        <v>125</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F20">
-        <v>0.05</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L20">
-        <v>0.01</v>
-      </c>
-      <c r="M20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="2"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F21">
-        <v>0.05</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L21">
-        <v>0.01</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F22">
-        <v>0.05</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L22">
-        <v>0.01</v>
-      </c>
-      <c r="M22" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F23">
-        <v>0.01</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K23" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L23">
-        <v>0.01</v>
-      </c>
-      <c r="M23" t="s">
-        <v>125</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F24">
-        <v>0.02</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K24" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L24">
-        <v>0.01</v>
-      </c>
-      <c r="M24" t="s">
-        <v>125</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F25">
-        <v>0.03</v>
-      </c>
-      <c r="G25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K25" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L25">
-        <v>0.01</v>
-      </c>
-      <c r="M25" t="s">
-        <v>125</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F26">
-        <v>0.04</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K26" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L26">
-        <v>0.01</v>
-      </c>
-      <c r="M26" t="s">
-        <v>125</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F27">
-        <v>0.05</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L27">
-        <v>0.01</v>
-      </c>
-      <c r="M27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="2"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F28">
-        <v>0.05</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L28">
-        <v>0.01</v>
-      </c>
-      <c r="M28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F29">
-        <v>0.05</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L29">
-        <v>0.01</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -30394,44 +30519,48 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30" s="8">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F30" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.01</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L30" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M30">
+        <v>0.01</v>
+      </c>
+      <c r="N30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K30" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L30">
-        <v>0.01</v>
-      </c>
-      <c r="M30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -30442,44 +30571,48 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31" s="8">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F31" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.02</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L31" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M31">
+        <v>0.01</v>
+      </c>
+      <c r="N31" t="s">
+        <v>125</v>
+      </c>
+      <c r="O31" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K31" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L31">
-        <v>0.01</v>
-      </c>
-      <c r="M31" t="s">
-        <v>125</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -30490,44 +30623,48 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>30</v>
-      </c>
-      <c r="E32" s="8">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F32" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.03</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L32" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M32">
+        <v>0.01</v>
+      </c>
+      <c r="N32" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="I32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K32" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L32">
-        <v>0.01</v>
-      </c>
-      <c r="M32" t="s">
-        <v>125</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -30538,44 +30675,48 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>30</v>
-      </c>
-      <c r="E33" s="8">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F33" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.04</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L33" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M33">
+        <v>0.01</v>
+      </c>
+      <c r="N33" t="s">
+        <v>125</v>
+      </c>
+      <c r="O33" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K33" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L33">
-        <v>0.01</v>
-      </c>
-      <c r="M33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -30586,23 +30727,27 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>30</v>
-      </c>
-      <c r="E34" s="8">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F34" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.05</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I34" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="I34">
-        <f t="shared" ref="I34:I65" ca="1" si="5">IF(H34=0,"",
+      <c r="J34">
+        <f t="shared" ref="J34:J65" ca="1" si="6">IF(I34=0,"",
 IF(C34&lt;=3,0,
 IF(C34=4,-20,
 IF(C34=5,-10,
@@ -30610,21 +30755,21 @@
 "없음")))))</f>
         <v>-20</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.01</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O34" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="O34">
-        <f t="shared" ref="O34:O65" ca="1" si="6">IF(N34=0,"",
+      <c r="P34">
+        <f t="shared" ref="P34:P65" ca="1" si="7">IF(O34=0,"",
 IF(C34&lt;=3,0,
 IF(C34=4,-20,
 IF(C34=5,-10,
@@ -30633,7 +30778,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -30644,1436 +30789,1556 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35" s="8">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F35" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.05</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M35">
+        <v>0.01</v>
+      </c>
+      <c r="N35" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I35">
+      <c r="P35">
+        <f t="shared" ca="1" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G36">
+        <v>0.05</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
-      </c>
-      <c r="K35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="L36" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L35">
+      <c r="M36">
         <v>0.01</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N36" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O36" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="O35">
+      <c r="P36">
+        <f t="shared" ca="1" si="7"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G37">
+        <v>0.01</v>
+      </c>
+      <c r="H37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L37" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M37">
+        <v>0.01</v>
+      </c>
+      <c r="N37" t="s">
+        <v>125</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G38">
+        <v>0.02</v>
+      </c>
+      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L38" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M38">
+        <v>0.01</v>
+      </c>
+      <c r="N38" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G39">
+        <v>0.03</v>
+      </c>
+      <c r="H39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L39" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M39">
+        <v>0.01</v>
+      </c>
+      <c r="N39" t="s">
+        <v>125</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G40">
+        <v>0.04</v>
+      </c>
+      <c r="H40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L40" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M40">
+        <v>0.01</v>
+      </c>
+      <c r="N40" t="s">
+        <v>125</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G41">
+        <v>0.05</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="6"/>
+        <v>-20</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M41">
+        <v>0.01</v>
+      </c>
+      <c r="N41" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ca="1" si="7"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G42">
+        <v>0.05</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J42">
         <f t="shared" ca="1" si="6"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>30</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="L42" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F36">
-        <v>0.05</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="M42">
+        <v>0.01</v>
+      </c>
+      <c r="N42" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="1">
+      <c r="O42" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I36">
+      <c r="P42">
+        <f t="shared" ca="1" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G43">
+        <v>0.05</v>
+      </c>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L36">
-        <v>0.01</v>
-      </c>
-      <c r="M36" t="s">
-        <v>35</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="O36">
+      <c r="J43">
         <f t="shared" ca="1" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>30</v>
-      </c>
-      <c r="E37" s="8">
+      <c r="L43" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F37">
+      <c r="M43">
         <v>0.01</v>
       </c>
-      <c r="G37" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K37" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L37">
-        <v>0.01</v>
-      </c>
-      <c r="M37" t="s">
-        <v>125</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>30</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F38">
-        <v>0.02</v>
-      </c>
-      <c r="G38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K38" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L38">
-        <v>0.01</v>
-      </c>
-      <c r="M38" t="s">
-        <v>125</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>30</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F39">
-        <v>0.03</v>
-      </c>
-      <c r="G39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K39" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L39">
-        <v>0.01</v>
-      </c>
-      <c r="M39" t="s">
-        <v>125</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>30</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F40">
-        <v>0.04</v>
-      </c>
-      <c r="G40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K40" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L40">
-        <v>0.01</v>
-      </c>
-      <c r="M40" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>30</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F41">
-        <v>0.05</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="N43" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="1">
+      <c r="O43" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I41">
+      <c r="P43">
+        <f t="shared" ca="1" si="7"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G44">
+        <v>0.01</v>
+      </c>
+      <c r="H44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-20</v>
-      </c>
-      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L44" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L41">
+      <c r="M44">
         <v>0.01</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N44" t="s">
+        <v>125</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G45">
+        <v>0.02</v>
+      </c>
+      <c r="H45" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L45" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M45">
+        <v>0.01</v>
+      </c>
+      <c r="N45" t="s">
+        <v>125</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G46">
+        <v>0.03</v>
+      </c>
+      <c r="H46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L46" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M46">
+        <v>0.01</v>
+      </c>
+      <c r="N46" t="s">
+        <v>125</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G47">
+        <v>0.04</v>
+      </c>
+      <c r="H47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L47" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M47">
+        <v>0.01</v>
+      </c>
+      <c r="N47" t="s">
+        <v>125</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G48">
+        <v>0.05</v>
+      </c>
+      <c r="H48" t="s">
         <v>35</v>
       </c>
-      <c r="N41" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I48" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="O41">
+      <c r="J48">
         <f t="shared" ca="1" si="6"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>30</v>
-      </c>
-      <c r="E42" s="8">
+      <c r="L48" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F42">
-        <v>0.05</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="M48">
+        <v>0.01</v>
+      </c>
+      <c r="N48" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="1">
+      <c r="O48" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I42">
+      <c r="P48">
+        <f t="shared" ca="1" si="7"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G49">
+        <v>0.05</v>
+      </c>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L42">
-        <v>0.01</v>
-      </c>
-      <c r="M42" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="O42">
+      <c r="J49">
         <f t="shared" ca="1" si="6"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>30</v>
-      </c>
-      <c r="E43" s="8">
+      <c r="L49" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F43">
-        <v>0.05</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="M49">
+        <v>0.01</v>
+      </c>
+      <c r="N49" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="1">
+      <c r="O49" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I43">
+      <c r="P49">
+        <f t="shared" ca="1" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G50">
+        <v>0.05</v>
+      </c>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L43">
-        <v>0.01</v>
-      </c>
-      <c r="M43" t="s">
-        <v>35</v>
-      </c>
-      <c r="N43" s="1">
-        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="O43">
+      <c r="J50">
         <f t="shared" ca="1" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8">
+      <c r="L50" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F44">
+      <c r="M50">
         <v>0.01</v>
       </c>
-      <c r="G44" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K44" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L44">
-        <v>0.01</v>
-      </c>
-      <c r="M44" t="s">
-        <v>125</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F45">
-        <v>0.02</v>
-      </c>
-      <c r="G45" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K45" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L45">
-        <v>0.01</v>
-      </c>
-      <c r="M45" t="s">
-        <v>125</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F46">
-        <v>0.03</v>
-      </c>
-      <c r="G46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K46" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L46">
-        <v>0.01</v>
-      </c>
-      <c r="M46" t="s">
-        <v>125</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F47">
-        <v>0.04</v>
-      </c>
-      <c r="G47" t="s">
-        <v>125</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K47" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L47">
-        <v>0.01</v>
-      </c>
-      <c r="M47" t="s">
-        <v>125</v>
-      </c>
-      <c r="N47" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F48">
-        <v>0.05</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="N50" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="1">
+      <c r="O50" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I48">
+      <c r="P50">
+        <f t="shared" ca="1" si="7"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F51" s="8">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-20</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L48">
-        <v>0.01</v>
-      </c>
-      <c r="M48" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L51" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M51">
+        <v>1.05</v>
+      </c>
+      <c r="N51" t="s">
+        <v>125</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F52" s="8">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>120</v>
+      </c>
+      <c r="H52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L52" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M52">
+        <v>1.05</v>
+      </c>
+      <c r="N52" t="s">
+        <v>125</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F53" s="8">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>192</v>
+      </c>
+      <c r="H53" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L53" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M53">
+        <v>1.05</v>
+      </c>
+      <c r="N53" t="s">
+        <v>125</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F54" s="8">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>307</v>
+      </c>
+      <c r="H54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L54" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M54">
+        <v>1.05</v>
+      </c>
+      <c r="N54" t="s">
+        <v>125</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F55" s="8">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>500</v>
+      </c>
+      <c r="H55" t="s">
         <v>35</v>
       </c>
-      <c r="N48" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I55" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="O48">
+      <c r="J55">
         <f t="shared" ca="1" si="6"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F49">
-        <v>0.05</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="L55" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M55">
+        <v>1.05</v>
+      </c>
+      <c r="N55" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="1">
+      <c r="O55" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I49">
+      <c r="P55">
+        <f t="shared" ca="1" si="7"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="F56" s="8">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>500</v>
+      </c>
+      <c r="H56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L49">
-        <v>0.01</v>
-      </c>
-      <c r="M49" t="s">
-        <v>35</v>
-      </c>
-      <c r="N49" s="1">
-        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="O49">
+      <c r="J56">
         <f t="shared" ca="1" si="6"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F50">
-        <v>0.05</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="L56" s="3">
+        <v>1.0081490799999999</v>
+      </c>
+      <c r="M56">
+        <v>1.05</v>
+      </c>
+      <c r="N56" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="1">
+      <c r="O56" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I50">
+      <c r="P56">
+        <f t="shared" ca="1" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="F57" s="8">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>500</v>
+      </c>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K50" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L50">
-        <v>0.01</v>
-      </c>
-      <c r="M50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N50" s="1">
-        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="O50">
+      <c r="J57">
         <f t="shared" ca="1" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51" s="8">
-        <v>50</v>
-      </c>
-      <c r="F51">
-        <v>75</v>
-      </c>
-      <c r="G51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K51" s="3">
+      <c r="L57" s="3">
         <v>1.0081490799999999</v>
       </c>
-      <c r="L51">
+      <c r="M57">
         <v>1.05</v>
       </c>
-      <c r="M51" t="s">
-        <v>125</v>
-      </c>
-      <c r="N51" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52" s="8">
-        <v>50</v>
-      </c>
-      <c r="F52">
-        <v>120</v>
-      </c>
-      <c r="G52" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K52" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L52">
-        <v>1.05</v>
-      </c>
-      <c r="M52" t="s">
-        <v>125</v>
-      </c>
-      <c r="N52" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" s="8">
-        <v>50</v>
-      </c>
-      <c r="F53">
-        <v>192</v>
-      </c>
-      <c r="G53" t="s">
-        <v>125</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K53" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L53">
-        <v>1.05</v>
-      </c>
-      <c r="M53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N53" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" s="8">
-        <v>50</v>
-      </c>
-      <c r="F54">
-        <v>307</v>
-      </c>
-      <c r="G54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K54" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L54">
-        <v>1.05</v>
-      </c>
-      <c r="M54" t="s">
-        <v>125</v>
-      </c>
-      <c r="N54" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" s="8">
-        <v>50</v>
-      </c>
-      <c r="F55">
-        <v>500</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="N57" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="1">
+      <c r="O57" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I55">
-        <f t="shared" ca="1" si="5"/>
-        <v>-20</v>
-      </c>
-      <c r="K55" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L55">
-        <v>1.05</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="P57">
+        <f t="shared" ca="1" si="7"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G58">
+        <v>0.01</v>
+      </c>
+      <c r="H58" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" ref="I58:I78" ca="1" si="8">VLOOKUP(H58,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L58" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M58">
+        <v>0.01</v>
+      </c>
+      <c r="N58" t="s">
+        <v>125</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G59">
+        <v>0.02</v>
+      </c>
+      <c r="H59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L59" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M59">
+        <v>0.01</v>
+      </c>
+      <c r="N59" t="s">
+        <v>125</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G60">
+        <v>0.03</v>
+      </c>
+      <c r="H60" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L60" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M60">
+        <v>0.01</v>
+      </c>
+      <c r="N60" t="s">
+        <v>125</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G61">
+        <v>0.04</v>
+      </c>
+      <c r="H61" t="s">
+        <v>125</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L61" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M61">
+        <v>0.01</v>
+      </c>
+      <c r="N61" t="s">
+        <v>125</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F62" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G62">
+        <v>0.05</v>
+      </c>
+      <c r="H62" t="s">
         <v>35</v>
       </c>
-      <c r="N55" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I62" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="O55">
+      <c r="J62">
         <f t="shared" ca="1" si="6"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" s="8">
-        <v>50</v>
-      </c>
-      <c r="F56">
-        <v>500</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="L62" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M62">
+        <v>0.01</v>
+      </c>
+      <c r="N62" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="1">
+      <c r="O62" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I56">
-        <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
-      </c>
-      <c r="K56" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L56">
-        <v>1.05</v>
-      </c>
-      <c r="M56" t="s">
+      <c r="P62">
+        <f t="shared" ca="1" si="7"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G63">
+        <v>0.05</v>
+      </c>
+      <c r="H63" t="s">
         <v>35</v>
       </c>
-      <c r="N56" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I63" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="O56">
+      <c r="J63">
         <f t="shared" ca="1" si="6"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57" s="8">
-        <v>50</v>
-      </c>
-      <c r="F57">
-        <v>500</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="L63" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M63">
+        <v>0.01</v>
+      </c>
+      <c r="N63" t="s">
         <v>35</v>
       </c>
-      <c r="H57" s="1">
+      <c r="O63" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="I57">
-        <f t="shared" ca="1" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1.0081490799999999</v>
-      </c>
-      <c r="L57">
-        <v>1.05</v>
-      </c>
-      <c r="M57" t="s">
+      <c r="P63">
+        <f t="shared" ca="1" si="7"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="G64">
+        <v>0.05</v>
+      </c>
+      <c r="H64" t="s">
         <v>35</v>
       </c>
-      <c r="N57" s="1">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I64" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="O57">
+      <c r="J64">
         <f t="shared" ca="1" si="6"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>10</v>
-      </c>
-      <c r="E58" s="8">
+      <c r="L64" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F58">
+      <c r="M64">
         <v>0.01</v>
       </c>
-      <c r="G58" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" ref="H58:H78" ca="1" si="7">VLOOKUP(G58,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K58" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L58">
-        <v>0.01</v>
-      </c>
-      <c r="M58" t="s">
-        <v>125</v>
-      </c>
-      <c r="N58" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F59">
-        <v>0.02</v>
-      </c>
-      <c r="G59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="1">
+      <c r="N64" t="s">
+        <v>35</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P64">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K59" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L59">
-        <v>0.01</v>
-      </c>
-      <c r="M59" t="s">
-        <v>125</v>
-      </c>
-      <c r="N59" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F60">
-        <v>0.03</v>
-      </c>
-      <c r="G60" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K60" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L60">
-        <v>0.01</v>
-      </c>
-      <c r="M60" t="s">
-        <v>125</v>
-      </c>
-      <c r="N60" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="E61" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F61">
-        <v>0.04</v>
-      </c>
-      <c r="G61" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K61" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L61">
-        <v>0.01</v>
-      </c>
-      <c r="M61" t="s">
-        <v>125</v>
-      </c>
-      <c r="N61" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>10</v>
-      </c>
-      <c r="E62" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F62">
-        <v>0.05</v>
-      </c>
-      <c r="G62" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I62">
-        <f t="shared" ca="1" si="5"/>
-        <v>-20</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L62">
-        <v>0.01</v>
-      </c>
-      <c r="M62" t="s">
-        <v>35</v>
-      </c>
-      <c r="N62" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O62">
-        <f t="shared" ca="1" si="6"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>10</v>
-      </c>
-      <c r="E63" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F63">
-        <v>0.05</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <f t="shared" ca="1" si="5"/>
-        <v>-10</v>
-      </c>
-      <c r="K63" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L63">
-        <v>0.01</v>
-      </c>
-      <c r="M63" t="s">
-        <v>35</v>
-      </c>
-      <c r="N63" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O63">
-        <f t="shared" ca="1" si="6"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64" s="8">
-        <v>1E-4</v>
-      </c>
-      <c r="F64">
-        <v>0.05</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H64" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I64">
-        <f t="shared" ca="1" si="5"/>
         <v>-5</v>
       </c>
-      <c r="K64" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L64">
-        <v>0.01</v>
-      </c>
-      <c r="M64" t="s">
-        <v>35</v>
-      </c>
-      <c r="N64" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O64">
-        <f t="shared" ca="1" si="6"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -32084,44 +32349,48 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65" s="8">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F65" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.01</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>125</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L65" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M65">
+        <v>0.01</v>
+      </c>
+      <c r="N65" t="s">
+        <v>125</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P65" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K65" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L65">
-        <v>0.01</v>
-      </c>
-      <c r="M65" t="s">
-        <v>125</v>
-      </c>
-      <c r="N65" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -32132,23 +32401,27 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="E66" s="8">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F66" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>0.02</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>125</v>
       </c>
-      <c r="H66" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" ref="I66:I78" ca="1" si="8">IF(H66=0,"",
+      <c r="I66" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66:J78" ca="1" si="9">IF(I66=0,"",
 IF(C66&lt;=3,0,
 IF(C66=4,-20,
 IF(C66=5,-10,
@@ -32156,21 +32429,21 @@
 "없음")))))</f>
         <v/>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>0.01</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>125</v>
       </c>
-      <c r="N66" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O66" t="str">
-        <f t="shared" ref="O66:O78" ca="1" si="9">IF(N66=0,"",
+      <c r="O66" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" ref="P66:P78" ca="1" si="10">IF(O66=0,"",
 IF(C66&lt;=3,0,
 IF(C66=4,-20,
 IF(C66=5,-10,
@@ -32179,7 +32452,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -32190,44 +32463,48 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>10</v>
-      </c>
-      <c r="E67" s="8">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E78" si="11">D67/SUMIFS(D:D,A:A,A67,C:C,C67)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F67" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.03</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>125</v>
       </c>
-      <c r="H67" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I67" t="str">
+      <c r="I67" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L67" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>0.01</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>125</v>
       </c>
-      <c r="N67" s="1">
-        <f t="shared" ref="N67:N78" ca="1" si="10">VLOOKUP(M67,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O67" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O67" s="1">
+        <f t="shared" ref="O67:O78" ca="1" si="12">VLOOKUP(N67,OFFSET(INDIRECT("$A:$B"),0,MATCH(SUBSTITUTE(N$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -32238,44 +32515,48 @@
         <v>3</v>
       </c>
       <c r="D68">
-        <v>10</v>
-      </c>
-      <c r="E68" s="8">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="11"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F68" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>0.04</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>125</v>
       </c>
-      <c r="H68" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I68" t="str">
+      <c r="I68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L68" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>0.01</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>125</v>
       </c>
-      <c r="N68" s="1">
+      <c r="O68" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P68" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -32286,44 +32567,48 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>10</v>
-      </c>
-      <c r="E69" s="8">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="11"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F69" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>0.05</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="I69" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="I69">
-        <f t="shared" ca="1" si="8"/>
-        <v>-20</v>
-      </c>
-      <c r="K69" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L69">
-        <v>0.01</v>
-      </c>
-      <c r="M69" t="s">
-        <v>35</v>
-      </c>
-      <c r="N69" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O69">
+      <c r="J69">
         <f t="shared" ca="1" si="9"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M69">
+        <v>0.01</v>
+      </c>
+      <c r="N69" t="s">
+        <v>35</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <f t="shared" ca="1" si="10"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -32334,44 +32619,48 @@
         <v>5</v>
       </c>
       <c r="D70">
-        <v>10</v>
-      </c>
-      <c r="E70" s="8">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="11"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F70" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>0.05</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="I70" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="I70">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L70">
-        <v>0.01</v>
-      </c>
-      <c r="M70" t="s">
-        <v>35</v>
-      </c>
-      <c r="N70" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O70">
+      <c r="J70">
         <f t="shared" ca="1" si="9"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M70">
+        <v>0.01</v>
+      </c>
+      <c r="N70" t="s">
+        <v>35</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P70">
+        <f t="shared" ca="1" si="10"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -32382,44 +32671,48 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>10</v>
-      </c>
-      <c r="E71" s="8">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="F71" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>0.05</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="I71" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="I71">
-        <f t="shared" ca="1" si="8"/>
-        <v>-5</v>
-      </c>
-      <c r="K71" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L71">
-        <v>0.01</v>
-      </c>
-      <c r="M71" t="s">
-        <v>35</v>
-      </c>
-      <c r="N71" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O71">
+      <c r="J71">
         <f t="shared" ca="1" si="9"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M71">
+        <v>0.01</v>
+      </c>
+      <c r="N71" t="s">
+        <v>35</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P71">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -32430,44 +32723,48 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>10</v>
-      </c>
-      <c r="E72" s="8">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F72" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>0.01</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>125</v>
       </c>
-      <c r="H72" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I72" t="str">
+      <c r="I72" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L72" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>0.01</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>125</v>
       </c>
-      <c r="N72" s="1">
+      <c r="O72" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P72" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -32478,44 +32775,48 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73" s="8">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F73" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>0.02</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>125</v>
       </c>
-      <c r="H73" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I73" t="str">
+      <c r="I73" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L73" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>0.01</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>125</v>
       </c>
-      <c r="N73" s="1">
+      <c r="O73" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P73" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -32526,44 +32827,48 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74" s="8">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="11"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F74" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>0.03</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>125</v>
       </c>
-      <c r="H74" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I74" t="str">
+      <c r="I74" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L74" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>0.01</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>125</v>
       </c>
-      <c r="N74" s="1">
+      <c r="O74" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P74" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -32574,44 +32879,48 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="E75" s="8">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="11"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F75" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.04</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>125</v>
       </c>
-      <c r="H75" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I75" t="str">
+      <c r="I75" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L75" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>0.01</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>125</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P75" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O75" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -32622,44 +32931,48 @@
         <v>4</v>
       </c>
       <c r="D76">
-        <v>10</v>
-      </c>
-      <c r="E76" s="8">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="11"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F76" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.05</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="I76" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="I76">
-        <f t="shared" ca="1" si="8"/>
-        <v>-20</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L76">
-        <v>0.01</v>
-      </c>
-      <c r="M76" t="s">
-        <v>35</v>
-      </c>
-      <c r="N76" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O76">
+      <c r="J76">
         <f t="shared" ca="1" si="9"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L76" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M76">
+        <v>0.01</v>
+      </c>
+      <c r="N76" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <f t="shared" ca="1" si="10"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -32670,44 +32983,48 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>10</v>
-      </c>
-      <c r="E77" s="8">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="11"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F77" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.05</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>35</v>
       </c>
-      <c r="H77" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="I77" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="I77">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
-      </c>
-      <c r="K77" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="L77">
-        <v>0.01</v>
-      </c>
-      <c r="M77" t="s">
-        <v>35</v>
-      </c>
-      <c r="N77" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O77">
+      <c r="J77">
         <f t="shared" ca="1" si="9"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="M77">
+        <v>0.01</v>
+      </c>
+      <c r="N77" t="s">
+        <v>35</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ca="1" si="10"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -32718,54 +33035,58 @@
         <v>6</v>
       </c>
       <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78" s="8">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="F78" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>0.05</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>35</v>
       </c>
-      <c r="H78" s="1">
-        <f t="shared" ca="1" si="7"/>
+      <c r="I78" s="1">
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
-      <c r="I78">
-        <f t="shared" ca="1" si="8"/>
+      <c r="J78">
+        <f t="shared" ca="1" si="9"/>
         <v>-5</v>
       </c>
-      <c r="K78" s="3">
+      <c r="L78" s="3">
         <v>1E-4</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>0.01</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>35</v>
       </c>
-      <c r="N78" s="1">
+      <c r="O78" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P78">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <f t="shared" ca="1" si="9"/>
         <v>-5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G78" xr:uid="{A65E98AA-2783-4D67-8DC2-8AC3346CD798}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H78" xr:uid="{A65E98AA-2783-4D67-8DC2-8AC3346CD798}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B78" xr:uid="{FDCB49CB-29AB-4F67-917C-4547EAB326E9}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(SUBSTITUTE(B$1,"|String","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(SUBSTITUTE(B$1,"|String","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M78" xr:uid="{CF832E8A-1AA8-49BB-8358-6B05BF9A42FD}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(SUBSTITUTE(M$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N78" xr:uid="{CF832E8A-1AA8-49BB-8358-6B05BF9A42FD}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(SUBSTITUTE(N$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(SUBSTITUTE(N$1,"amplify","")&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32781,12 +33102,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF958F-DA37-460F-97C3-92DB2D33B2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453947A9-158D-4D78-9E69-74EA69396632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
   </bookViews>
   <sheets>
@@ -818,6 +818,603 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7F181365-0EA5-44B2-99CB-A33D34A90BDD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무기의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배율을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고치면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>팝업창에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나오는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수치를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">한다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">EquipUI_LnEquipEnhance </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함
+소수점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이하가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적을수록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정수형으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>알려주는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오차가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적어진다
+반올림이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되지는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>준다는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자보다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>덜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상황이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생긴다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="193">
   <si>
@@ -1530,7 +2127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1558,6 +2155,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1618,7 +2223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1652,6 +2257,9 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1683,8 +2291,8 @@
       <sheetName val="WingPowerTable"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2">
@@ -1739,10 +2347,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2047,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:AM118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
@@ -10208,12 +10816,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:AG148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10235,7 +10843,7 @@
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -10334,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>IF(B2=0,1,C1*(1.09+MIN(4,A2)*0.005))</f>
+        <f t="shared" ref="C2:C34" si="0">IF(B2=0,1,C1*(1.1+MIN(4,A2)*0))</f>
         <v>1</v>
       </c>
       <c r="D2">
@@ -10380,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R33" si="0">IF(B2=0,0,
+        <f t="shared" ref="R2:R33" si="1">IF(B2=0,0,
 IF(B2=1,1,
 R1/IF(B2=5,1.2,
 IF(B2=10,1.3,
@@ -10392,59 +11000,59 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S33" si="1">1-(1-D2)^S$1</f>
+        <f t="shared" ref="S2:S33" si="2">1-(1-D2)^S$1</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T33" si="2">1-(1-E2)^T$1</f>
+        <f t="shared" ref="T2:T33" si="3">1-(1-E2)^T$1</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U33" si="3">1-(1-F2)^U$1</f>
+        <f t="shared" ref="U2:U33" si="4">1-(1-F2)^U$1</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V33" si="4">1-(1-G2)^V$1</f>
+        <f t="shared" ref="V2:V33" si="5">1-(1-G2)^V$1</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W33" si="5">1-(1-H2)^W$1</f>
+        <f t="shared" ref="W2:W33" si="6">1-(1-H2)^W$1</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X33" si="6">1-(1-I2)^X$1</f>
+        <f t="shared" ref="X2:X33" si="7">1-(1-I2)^X$1</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y33" si="7">1-(1-J2)^Y$1</f>
+        <f t="shared" ref="Y2:Y33" si="8">1-(1-J2)^Y$1</f>
         <v>0</v>
       </c>
       <c r="Z2" t="e">
-        <f t="shared" ref="Z2:Z33" si="8">SQRT((1-D2)/D2^2)</f>
+        <f t="shared" ref="Z2:Z33" si="9">SQRT((1-D2)/D2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA2" t="e">
-        <f t="shared" ref="AA2:AA33" si="9">SQRT((1-E2)/E2^2)</f>
+        <f t="shared" ref="AA2:AA33" si="10">SQRT((1-E2)/E2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB2" t="e">
-        <f t="shared" ref="AB2:AB33" si="10">SQRT((1-F2)/F2^2)</f>
+        <f t="shared" ref="AB2:AB33" si="11">SQRT((1-F2)/F2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC2" t="e">
-        <f t="shared" ref="AC2:AC33" si="11">SQRT((1-G2)/G2^2)</f>
+        <f t="shared" ref="AC2:AC33" si="12">SQRT((1-G2)/G2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD2" t="e">
-        <f t="shared" ref="AD2:AD33" si="12">SQRT((1-H2)/H2^2)</f>
+        <f t="shared" ref="AD2:AD33" si="13">SQRT((1-H2)/H2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE2" t="e">
-        <f t="shared" ref="AE2:AE33" si="13">SQRT((1-I2)/I2^2)</f>
+        <f t="shared" ref="AE2:AE33" si="14">SQRT((1-I2)/I2^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF2" t="e">
-        <f t="shared" ref="AF2:AF33" si="14">SQRT((1-J2)/J2^2)</f>
+        <f t="shared" ref="AF2:AF33" si="15">SQRT((1-J2)/J2^2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10456,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C34" si="15">IF(B3=0,1,C2*(1.1+MIN(4,A3)*0))</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="D3">
@@ -10502,63 +11110,63 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10570,7 +11178,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.2100000000000002</v>
       </c>
       <c r="D4">
@@ -10616,63 +11224,63 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.29393876913398159</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10684,7 +11292,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.3310000000000004</v>
       </c>
       <c r="D5">
@@ -10730,63 +11338,63 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8573388203017831</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.44055528597441695</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10798,7 +11406,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.4641000000000006</v>
       </c>
       <c r="D6">
@@ -10844,63 +11452,63 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79383224102016947</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57198105121061538</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10912,7 +11520,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.6105100000000008</v>
       </c>
       <c r="D7">
@@ -10958,63 +11566,63 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66152686751680789</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.87945700579355257</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11026,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8">
@@ -11072,65 +11680,65 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z8" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA8" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" t="e">
+      <c r="AA8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" t="e">
+      <c r="AB8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" t="e">
+      <c r="AC8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" t="e">
+      <c r="AD8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" t="e">
+      <c r="AE8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AF8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -11140,7 +11748,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="D9">
@@ -11186,63 +11794,63 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999995061464086</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9580398915498085</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.74833147735478822</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11254,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.2100000000000002</v>
       </c>
       <c r="D10">
@@ -11300,63 +11908,63 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999978735762995</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2416662382176251</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.87985453343152153</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11368,7 +11976,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.3310000000000004</v>
       </c>
       <c r="D11">
@@ -11414,63 +12022,63 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8573388203017831</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999920809691645</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5473355860420095</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0166603963959651</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11482,7 +12090,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.4641000000000006</v>
       </c>
       <c r="D12">
@@ -11528,63 +12136,63 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79383224102016947</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999740382739888</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8768825692899198</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1604640765531009</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11596,7 +12204,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.6105100000000008</v>
       </c>
       <c r="D13">
@@ -11642,63 +12250,63 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66152686751680789</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99997176178950831</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999998712</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.7646272316658909</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5370354352054305</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11710,7 +12318,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.7715610000000011</v>
       </c>
       <c r="D14">
@@ -11756,63 +12364,63 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61252487733037764</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99993354765013409</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999967981</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1900245931375331</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7141890131194943</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11824,7 +12432,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.9487171000000014</v>
       </c>
       <c r="D15">
@@ -11870,63 +12478,63 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56715266419479404</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99985509924802984</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999472933</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6490936467128954</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.903911432624616</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11938,7 +12546,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>2.1435888100000016</v>
       </c>
       <c r="D16">
@@ -11984,63 +12592,63 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52514135573592036</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99970493717493758</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99999999993827049</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1445625315657777</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1074473837237244</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26605598849718476</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -12052,7 +12660,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>2.3579476910000019</v>
       </c>
       <c r="D17">
@@ -12098,63 +12706,63 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48624199605177809</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99943504140278516</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99999999945655205</v>
       </c>
       <c r="U17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.6793737433258773</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3260934017264274</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41797097626143004</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -12166,7 +12774,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>2.5937424601000023</v>
       </c>
       <c r="D18">
@@ -12212,63 +12820,63 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37403230465521392</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9964858357074996</v>
       </c>
       <c r="T18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99999982205633386</v>
       </c>
       <c r="U18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.8433568819415775</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2042157275708933</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.86278712315759187</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -12280,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D19">
@@ -12326,63 +12934,63 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z19" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA19" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB19" t="e">
+      <c r="AA19" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" t="e">
+      <c r="AB19" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" t="e">
+      <c r="AC19" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE19" t="e">
+      <c r="AD19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AE19" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AF19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12394,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="D20">
@@ -12440,63 +13048,63 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98584787397433182</v>
       </c>
       <c r="T20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99998894836966268</v>
       </c>
       <c r="U20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="V20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.739356881873894</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.3714985988788788</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3717142559585798</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -12508,7 +13116,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.2100000000000002</v>
       </c>
       <c r="D21">
@@ -12554,63 +13162,63 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92592592592592582</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98035144384314532</v>
       </c>
       <c r="T21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99997168647845214</v>
       </c>
       <c r="U21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999998701</v>
       </c>
       <c r="V21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.720176885562557</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.7658434720414391</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5375442237542309</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -12622,7 +13230,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.3310000000000004</v>
       </c>
       <c r="D22">
@@ -12668,63 +13276,63 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8573388203017831</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97342613999255534</v>
       </c>
       <c r="T22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99993338635406659</v>
       </c>
       <c r="U22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999967693</v>
       </c>
       <c r="V22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.779331426451723</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.191337007900759</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7147333287529001</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -12736,7 +13344,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.4641000000000006</v>
       </c>
       <c r="D23">
@@ -12782,63 +13390,63 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79383224102016947</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96491158134123312</v>
       </c>
       <c r="T23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9998547786628128</v>
       </c>
       <c r="U23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999468814</v>
       </c>
       <c r="V23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.923098072678609</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6505100383846294</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9044949144121315</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -12850,7 +13458,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.6105100000000008</v>
       </c>
       <c r="D24">
@@ -12896,63 +13504,63 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66152686751680789</v>
       </c>
       <c r="S24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93769735634586593</v>
       </c>
       <c r="T24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99929096491649116</v>
       </c>
       <c r="U24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999999885489632</v>
       </c>
       <c r="V24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18.010827466970227</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.8889854863539268</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.4115542271720138</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.46841517560236395</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -12964,7 +13572,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.7715610000000011</v>
       </c>
       <c r="D25">
@@ -13010,63 +13618,63 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61252487733037764</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92306324850555088</v>
       </c>
       <c r="T25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99874027236830565</v>
       </c>
       <c r="U25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999999270148965</v>
       </c>
       <c r="V25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.492776134450729</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.4829891338668872</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6531675785858662</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.59859744726207254</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13078,7 +13686,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>1.9487171000000014</v>
       </c>
       <c r="D26">
@@ -13124,63 +13732,63 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56715266419479404</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90653895191136247</v>
       </c>
       <c r="T26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99786761625183396</v>
       </c>
       <c r="U26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999996177281458</v>
       </c>
       <c r="V26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.0931974800341</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.1242776499898302</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9132638382885485</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.72700115395004161</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13192,7 +13800,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>2.1435888100000016</v>
       </c>
       <c r="D27">
@@ -13238,63 +13846,63 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52514135573592036</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88816536062799811</v>
       </c>
       <c r="T27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99654540408633563</v>
       </c>
       <c r="U27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9999998310911693</v>
       </c>
       <c r="V27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.821575931476268</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.8166546868999838</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.193422448462949</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85785353742938342</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13306,7 +13914,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>2.3579476910000019</v>
       </c>
       <c r="D28">
@@ -13352,63 +13960,63 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48624199605177809</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86802257192653909</v>
       </c>
       <c r="T28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99462198629222121</v>
       </c>
       <c r="U28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999935656412742</v>
       </c>
       <c r="V28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.688154113152699</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.5642260817125422</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4953338150505755</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99365881133369804</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13420,7 +14028,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>2.5937424601000023</v>
       </c>
       <c r="D29">
@@ -13466,63 +14074,63 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37403230465521392</v>
       </c>
       <c r="S29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78784857974856237</v>
       </c>
       <c r="T29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98113014823424405</v>
       </c>
       <c r="U29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99997477023081061</v>
       </c>
       <c r="V29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999167</v>
       </c>
       <c r="W29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32.247305716491866</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.590548539651952</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7137450667341927</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5157365959997426</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13534,7 +14142,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>2.8531167061100029</v>
       </c>
       <c r="D30">
@@ -13580,63 +14188,63 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34632620801408692</v>
       </c>
       <c r="S30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7616328448068701</v>
       </c>
       <c r="T30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97439694392943166</v>
       </c>
       <c r="U30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99994002314185604</v>
       </c>
       <c r="V30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9999999999997804</v>
       </c>
       <c r="W30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34.867691522099037</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.639348944007711</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.135119454506385</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6914063022520935</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13648,7 +14256,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>3.1384283767210035</v>
       </c>
       <c r="D31">
@@ -13694,63 +14302,63 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32067241482785824</v>
       </c>
       <c r="S31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73454323393255239</v>
       </c>
       <c r="T31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96609360575807135</v>
       </c>
       <c r="U31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99986802739914704</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999621025</v>
       </c>
       <c r="W31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.697662714342506</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.771931797775837</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5898390958418318</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8794921141904293</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13762,7 +14370,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>3.4522712143931042</v>
       </c>
       <c r="D32">
@@ -13808,63 +14416,63 @@
         <v>0.94680772518618361</v>
       </c>
       <c r="R32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29691890261838721</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70678318816328656</v>
       </c>
       <c r="T32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95608354074418855</v>
       </c>
       <c r="U32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9997290633221223</v>
       </c>
       <c r="V32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99999999995384059</v>
       </c>
       <c r="W32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.753989628924046</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15.995009649900807</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0806065445044553</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0812335704222531</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="12"/>
-        <v>0.24359170155185281</v>
-      </c>
-      <c r="AE32">
         <f t="shared" si="13"/>
         <v>0.24359170155185281</v>
       </c>
+      <c r="AE32">
+        <f t="shared" si="14"/>
+        <v>0.24359170155185281</v>
+      </c>
       <c r="AF32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.24359170155185281</v>
       </c>
     </row>
@@ -13876,7 +14484,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>3.7974983358324148</v>
       </c>
       <c r="D33">
@@ -13922,63 +14530,63 @@
         <v>0.87667381961683655</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27492490983183998</v>
       </c>
       <c r="S33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67855414294644989</v>
       </c>
       <c r="T33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94426405057167195</v>
       </c>
       <c r="U33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9994774120832991</v>
       </c>
       <c r="V33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99999999957996144</v>
       </c>
       <c r="W33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="X33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44.054783948776482</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.315831169991487</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.6103365889179404</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2979197800687823</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="12"/>
-        <v>0.40058031448284692</v>
-      </c>
-      <c r="AE33">
         <f t="shared" si="13"/>
         <v>0.40058031448284692</v>
       </c>
+      <c r="AE33">
+        <f t="shared" si="14"/>
+        <v>0.40058031448284692</v>
+      </c>
       <c r="AF33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.40058031448284692</v>
       </c>
     </row>
@@ -13990,7 +14598,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>4.1772481694156562</v>
       </c>
       <c r="D34">
@@ -27128,6 +27736,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28869,9 +29478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29422,7 +30031,7 @@
         <v>0.14705882352941177</v>
       </c>
       <c r="F9" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -29477,7 +30086,7 @@
         <v>0.14705882352941177</v>
       </c>
       <c r="F10" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>24</v>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453947A9-158D-4D78-9E69-74EA69396632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C35388-7E96-4F0C-8DC4-4BB3DD489EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -2291,8 +2291,8 @@
       <sheetName val="WingPowerTable"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2">
@@ -2347,10 +2347,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2659,7 +2659,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -29480,7 +29480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30031,7 +30031,7 @@
         <v>0.14705882352941177</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -30086,7 +30086,7 @@
         <v>0.14705882352941177</v>
       </c>
       <c r="F10" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>24</v>
@@ -33711,7 +33711,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C35388-7E96-4F0C-8DC4-4BB3DD489EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C01879-5748-46E4-9048-1EF32CBBEDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">한다
-</t>
+          <t>한다
+글로벌</t>
         </r>
         <r>
           <rPr>
@@ -1015,7 +1015,45 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">EquipUI_LnEquipEnhance </t>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상수의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> LnEquipEnhance </t>
         </r>
         <r>
           <rPr>
@@ -10819,7 +10857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:AG148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -29478,7 +29516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1831AD9F-ED0A-47CF-B524-8603AB7A285B}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C01879-5748-46E4-9048-1EF32CBBEDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A02A9B4-7735-468D-A89C-E4B414864841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -818,641 +818,6 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoohoo</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7F181365-0EA5-44B2-99CB-A33D34A90BDD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>무기의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>강화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>배율을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>고치면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>강화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>팝업창에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>나오는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수치를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수정해야</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>한다
-글로벌</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>인트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상수의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> LnEquipEnhance </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>값을</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수정해야</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>함
-소수점</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이하가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적을수록</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정수형으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>알려주는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>값과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오차가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적어진다
-반올림이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>되지는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않게</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>것</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>준다는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>숫자보다</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>덜</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>주는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상황이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>생긴다</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="193">
   <si>
@@ -2165,7 +1530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,7 +1561,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -2702,7 +2066,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2726,7 +2090,7 @@
     <col min="39" max="39" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2836,7 +2200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A33" ca="1" si="0">"Equip"&amp;D2&amp;E2&amp;TEXT(G2,"00")</f>
         <v>Equip0001</v>
@@ -2964,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38">
       <c r="A3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0002</v>
@@ -3092,7 +2456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38">
       <c r="A4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0101</v>
@@ -3220,7 +2584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0102</v>
@@ -3342,7 +2706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0201</v>
@@ -3461,7 +2825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0202</v>
@@ -3574,7 +2938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0301</v>
@@ -3687,7 +3051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0302</v>
@@ -3800,7 +3164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0401</v>
@@ -3918,7 +3282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0402</v>
@@ -4030,7 +3394,7 @@
         <v>334.33157492276007</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0403</v>
@@ -4137,7 +3501,7 @@
         <v>361.88127598015717</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0404</v>
@@ -4244,7 +3608,7 @@
         <v>359.27704728890342</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip0405</v>
@@ -4351,7 +3715,7 @@
         <v>386.23108303072468</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1001</v>
@@ -4416,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1002</v>
@@ -4481,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1101</v>
@@ -4543,7 +3907,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1102</v>
@@ -4605,7 +3969,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1201</v>
@@ -4667,7 +4031,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1202</v>
@@ -4729,7 +4093,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1301</v>
@@ -4791,7 +4155,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1302</v>
@@ -4853,7 +4217,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1401</v>
@@ -4915,7 +4279,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1402</v>
@@ -4977,7 +4341,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1403</v>
@@ -5039,7 +4403,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1404</v>
@@ -5101,7 +4465,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip1405</v>
@@ -5163,7 +4527,7 @@
         <v>25.095065357147273</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip2001</v>
@@ -5225,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip2002</v>
@@ -5287,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip2101</v>
@@ -5349,7 +4713,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip2102</v>
@@ -5411,7 +4775,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip2201</v>
@@ -5473,7 +4837,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Equip2202</v>
@@ -5535,7 +4899,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A65" ca="1" si="20">"Equip"&amp;D34&amp;E34&amp;TEXT(G34,"00")</f>
         <v>Equip2301</v>
@@ -5600,7 +4964,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip2302</v>
@@ -5662,7 +5026,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip2401</v>
@@ -5724,7 +5088,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip2402</v>
@@ -5786,7 +5150,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip2403</v>
@@ -5848,7 +5212,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip2404</v>
@@ -5910,7 +5274,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip2405</v>
@@ -5972,7 +5336,7 @@
         <v>25.095065357147273</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3001</v>
@@ -6034,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3002</v>
@@ -6096,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3101</v>
@@ -6158,7 +5522,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3102</v>
@@ -6220,7 +5584,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3201</v>
@@ -6285,7 +5649,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3202</v>
@@ -6347,7 +5711,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3301</v>
@@ -6409,7 +5773,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3302</v>
@@ -6471,7 +5835,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3401</v>
@@ -6533,7 +5897,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3402</v>
@@ -6595,7 +5959,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3403</v>
@@ -6657,7 +6021,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3404</v>
@@ -6719,7 +6083,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip3405</v>
@@ -6781,7 +6145,7 @@
         <v>25.095065357147273</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4001</v>
@@ -6846,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4002</v>
@@ -6908,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4101</v>
@@ -6970,7 +6334,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4102</v>
@@ -7032,7 +6396,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4201</v>
@@ -7094,7 +6458,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4202</v>
@@ -7156,7 +6520,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4301</v>
@@ -7218,7 +6582,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4302</v>
@@ -7280,7 +6644,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4401</v>
@@ -7342,7 +6706,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4402</v>
@@ -7404,7 +6768,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4403</v>
@@ -7466,7 +6830,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>Equip4404</v>
@@ -7528,7 +6892,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A97" ca="1" si="23">"Equip"&amp;D66&amp;E66&amp;TEXT(G66,"00")</f>
         <v>Equip4405</v>
@@ -7590,7 +6954,7 @@
         <v>25.095065357147273</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5001</v>
@@ -7655,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5002</v>
@@ -7720,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19">
       <c r="A69" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5101</v>
@@ -7785,7 +7149,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19">
       <c r="A70" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5102</v>
@@ -7847,7 +7211,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5201</v>
@@ -7909,7 +7273,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5202</v>
@@ -7971,7 +7335,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5301</v>
@@ -8033,7 +7397,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="A74" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5302</v>
@@ -8095,7 +7459,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5401</v>
@@ -8162,7 +7526,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="A76" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5402</v>
@@ -8224,7 +7588,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="A77" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5403</v>
@@ -8286,7 +7650,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="A78" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5404</v>
@@ -8348,7 +7712,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19">
       <c r="A79" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip5405</v>
@@ -8410,7 +7774,7 @@
         <v>25.095065357147273</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="A80" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6001</v>
@@ -8475,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19">
       <c r="A81" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6002</v>
@@ -8537,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19">
       <c r="A82" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6101</v>
@@ -8599,7 +7963,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19">
       <c r="A83" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6102</v>
@@ -8661,7 +8025,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19">
       <c r="A84" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6201</v>
@@ -8723,7 +8087,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19">
       <c r="A85" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6202</v>
@@ -8785,7 +8149,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19">
       <c r="A86" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6301</v>
@@ -8847,7 +8211,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19">
       <c r="A87" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6302</v>
@@ -8909,7 +8273,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19">
       <c r="A88" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6401</v>
@@ -8971,7 +8335,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19">
       <c r="A89" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6402</v>
@@ -9033,7 +8397,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19">
       <c r="A90" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6403</v>
@@ -9095,7 +8459,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19">
       <c r="A91" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6404</v>
@@ -9157,7 +8521,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19">
       <c r="A92" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip6405</v>
@@ -9219,7 +8583,7 @@
         <v>25.095065357147273</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19">
       <c r="A93" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip7001</v>
@@ -9281,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19">
       <c r="A94" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip7002</v>
@@ -9343,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19">
       <c r="A95" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip7101</v>
@@ -9405,7 +8769,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19">
       <c r="A96" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip7102</v>
@@ -9467,7 +8831,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19">
       <c r="A97" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>Equip7201</v>
@@ -9529,7 +8893,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19">
       <c r="A98" t="str">
         <f t="shared" ref="A98:A118" ca="1" si="30">"Equip"&amp;D98&amp;E98&amp;TEXT(G98,"00")</f>
         <v>Equip7202</v>
@@ -9591,7 +8955,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19">
       <c r="A99" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip7301</v>
@@ -9653,7 +9017,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19">
       <c r="A100" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip7302</v>
@@ -9715,7 +9079,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19">
       <c r="A101" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip7401</v>
@@ -9780,7 +9144,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip7402</v>
@@ -9842,7 +9206,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="A103" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip7403</v>
@@ -9904,7 +9268,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19">
       <c r="A104" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip7404</v>
@@ -9966,7 +9330,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19">
       <c r="A105" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip7405</v>
@@ -10028,7 +9392,7 @@
         <v>25.095065357147273</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19">
       <c r="A106" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8001</v>
@@ -10093,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8002</v>
@@ -10158,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19">
       <c r="A108" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8101</v>
@@ -10220,7 +9584,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19">
       <c r="A109" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8102</v>
@@ -10282,7 +9646,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19">
       <c r="A110" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8201</v>
@@ -10344,7 +9708,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8202</v>
@@ -10406,7 +9770,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="A112" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8301</v>
@@ -10468,7 +9832,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="A113" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8302</v>
@@ -10530,7 +9894,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19">
       <c r="A114" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8401</v>
@@ -10592,7 +9956,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19">
       <c r="A115" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8402</v>
@@ -10654,7 +10018,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="A116" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8403</v>
@@ -10716,7 +10080,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19">
       <c r="A117" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8404</v>
@@ -10778,7 +10142,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19">
       <c r="A118" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Equip8405</v>
@@ -10854,7 +10218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:AG148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -10866,7 +10230,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -10874,7 +10238,7 @@
     <col min="33" max="33" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -10972,7 +10336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11094,7 +10458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11208,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11322,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11436,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11550,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11664,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11778,7 +11142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11892,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>1</v>
       </c>
@@ -12006,7 +11370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>1</v>
       </c>
@@ -12120,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>1</v>
       </c>
@@ -12234,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>1</v>
       </c>
@@ -12348,7 +11712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32">
       <c r="A14">
         <v>1</v>
       </c>
@@ -12462,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>1</v>
       </c>
@@ -12576,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>1</v>
       </c>
@@ -12690,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32">
       <c r="A17">
         <v>1</v>
       </c>
@@ -12804,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32">
       <c r="A18">
         <v>1</v>
       </c>
@@ -12918,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13032,7 +12396,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32">
       <c r="A20">
         <v>2</v>
       </c>
@@ -13146,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13260,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32">
       <c r="A22">
         <v>2</v>
       </c>
@@ -13374,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13488,7 +12852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32">
       <c r="A24">
         <v>2</v>
       </c>
@@ -13602,7 +12966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32">
       <c r="A25">
         <v>2</v>
       </c>
@@ -13716,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32">
       <c r="A26">
         <v>2</v>
       </c>
@@ -13830,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32">
       <c r="A27">
         <v>2</v>
       </c>
@@ -13944,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32">
       <c r="A28">
         <v>2</v>
       </c>
@@ -14058,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32">
       <c r="A29">
         <v>2</v>
       </c>
@@ -14172,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32">
       <c r="A30">
         <v>2</v>
       </c>
@@ -14286,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14400,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32">
       <c r="A32">
         <v>2</v>
       </c>
@@ -14514,7 +13878,7 @@
         <v>0.24359170155185281</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32">
       <c r="A33">
         <v>2</v>
       </c>
@@ -14628,7 +13992,7 @@
         <v>0.40058031448284692</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32">
       <c r="A34">
         <v>2</v>
       </c>
@@ -14750,7 +14114,7 @@
         <v>1.2271256845241072</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32">
       <c r="A35">
         <v>3</v>
       </c>
@@ -14864,7 +14228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32">
       <c r="A36">
         <v>3</v>
       </c>
@@ -14978,7 +14342,7 @@
         <v>0.32730071799493482</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32">
       <c r="A37">
         <v>3</v>
       </c>
@@ -15092,7 +14456,7 @@
         <v>0.46881139754063156</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32">
       <c r="A38">
         <v>3</v>
       </c>
@@ -15206,7 +14570,7 @@
         <v>0.59897867767359603</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32">
       <c r="A39">
         <v>3</v>
       </c>
@@ -15320,7 +14684,7 @@
         <v>0.72738468744756823</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32">
       <c r="A40">
         <v>3</v>
       </c>
@@ -15434,7 +14798,7 @@
         <v>1.0458134585937413</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32">
       <c r="A41">
         <v>3</v>
       </c>
@@ -15548,7 +14912,7 @@
         <v>1.1912497383759093</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32">
       <c r="A42">
         <v>3</v>
       </c>
@@ -15662,7 +15026,7 @@
         <v>1.3453745527478667</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32">
       <c r="A43">
         <v>3</v>
       </c>
@@ -15776,7 +15140,7 @@
         <v>1.5094470639897937</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32">
       <c r="A44">
         <v>3</v>
       </c>
@@ -15890,7 +15254,7 @@
         <v>1.6846798632697264</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32">
       <c r="A45">
         <v>3</v>
       </c>
@@ -16004,7 +15368,7 @@
         <v>2.382607587210491</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32">
       <c r="A46">
         <v>3</v>
       </c>
@@ -16118,7 +15482,7 @@
         <v>2.6220188578038188</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32">
       <c r="A47">
         <v>3</v>
       </c>
@@ -16232,7 +15596,7 @@
         <v>2.8797230174151798</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32">
       <c r="A48">
         <v>3</v>
       </c>
@@ -16346,7 +15710,7 @@
         <v>3.1572864827840914</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32">
       <c r="A49">
         <v>3</v>
       </c>
@@ -16460,7 +15824,7 @@
         <v>3.4563851584645136</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32">
       <c r="A50">
         <v>3</v>
       </c>
@@ -16574,7 +15938,7 @@
         <v>5.8665117539294807</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32">
       <c r="A51">
         <v>3</v>
       </c>
@@ -16688,7 +16052,7 @@
         <v>6.3792382124801383</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32">
       <c r="A52">
         <v>3</v>
       </c>
@@ -16802,7 +16166,7 @@
         <v>6.9327001618130399</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32">
       <c r="A53">
         <v>3</v>
       </c>
@@ -16916,7 +16280,7 @@
         <v>7.5301822427349014</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32">
       <c r="A54">
         <v>3</v>
       </c>
@@ -17030,7 +16394,7 @@
         <v>8.1752291385838749</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32">
       <c r="A55">
         <v>3</v>
       </c>
@@ -17144,7 +16508,7 @@
         <v>14.265098472974183</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32">
       <c r="A56">
         <v>4</v>
       </c>
@@ -17258,7 +16622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32">
       <c r="A57">
         <v>4</v>
       </c>
@@ -17372,7 +16736,7 @@
         <v>3.3039810168946184</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32">
       <c r="A58">
         <v>4</v>
       </c>
@@ -17486,7 +16850,7 @@
         <v>3.6145090329371152</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32">
       <c r="A59">
         <v>4</v>
       </c>
@@ -17600,7 +16964,7 @@
         <v>3.9493170219378722</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32">
       <c r="A60">
         <v>4</v>
       </c>
@@ -17714,7 +17078,7 @@
         <v>4.3104069380142827</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32">
       <c r="A61">
         <v>4</v>
       </c>
@@ -17828,7 +17192,7 @@
         <v>5.2835660104945772</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32">
       <c r="A62">
         <v>4</v>
       </c>
@@ -17942,7 +17306,7 @@
         <v>5.750047253820723</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32">
       <c r="A63">
         <v>4</v>
       </c>
@@ -18056,7 +17420,7 @@
         <v>6.2535280152469372</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32">
       <c r="A64">
         <v>4</v>
       </c>
@@ -18170,7 +17534,7 @@
         <v>6.7969980193215278</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32">
       <c r="A65">
         <v>4</v>
       </c>
@@ -18284,7 +17648,7 @@
         <v>7.3836829153028312</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32">
       <c r="A66">
         <v>4</v>
       </c>
@@ -18406,7 +17770,7 @@
         <v>9.7579689596213353</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32">
       <c r="A67">
         <v>4</v>
       </c>
@@ -18520,7 +17884,7 @@
         <v>10.580624794619146</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32">
       <c r="A68">
         <v>4</v>
       </c>
@@ -18634,7 +17998,7 @@
         <v>11.468932998889491</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32">
       <c r="A69">
         <v>4</v>
       </c>
@@ -18748,7 +18112,7 @@
         <v>12.428159242107688</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32">
       <c r="A70">
         <v>4</v>
       </c>
@@ -18862,7 +18226,7 @@
         <v>13.463989193474202</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32">
       <c r="A71">
         <v>4</v>
       </c>
@@ -18976,7 +18340,7 @@
         <v>21.851512350938815</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32">
       <c r="A72">
         <v>4</v>
       </c>
@@ -19090,7 +18454,7 @@
         <v>23.640523652899681</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32">
       <c r="A73">
         <v>4</v>
       </c>
@@ -19204,7 +18568,7 @@
         <v>25.572587860573996</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32">
       <c r="A74">
         <v>4</v>
       </c>
@@ -19318,7 +18682,7 @@
         <v>27.659154545031871</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32">
       <c r="A75">
         <v>4</v>
       </c>
@@ -19432,7 +18796,7 @@
         <v>29.912588802551134</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32">
       <c r="A76">
         <v>4</v>
       </c>
@@ -19546,7 +18910,7 @@
         <v>51.206063441609857</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32">
       <c r="A77">
         <v>4</v>
       </c>
@@ -19660,7 +19024,7 @@
         <v>55.342926262144871</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32">
       <c r="A78">
         <v>4</v>
       </c>
@@ -19774,7 +19138,7 @@
         <v>59.810709759279412</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32">
       <c r="A79">
         <v>4</v>
       </c>
@@ -19888,7 +19252,7 @@
         <v>64.635889740268098</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32">
       <c r="A80">
         <v>4</v>
       </c>
@@ -20002,7 +19366,7 @@
         <v>69.847059909717487</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32">
       <c r="A81">
         <v>4</v>
       </c>
@@ -20116,7 +19480,7 @@
         <v>140.19680742138519</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32">
       <c r="A82">
         <v>4</v>
       </c>
@@ -20230,7 +19594,7 @@
         <v>151.45268960609346</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32">
       <c r="A83">
         <v>4</v>
       </c>
@@ -20344,7 +19708,7 @@
         <v>163.60903212490163</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32">
       <c r="A84">
         <v>4</v>
       </c>
@@ -20458,7 +19822,7 @@
         <v>176.7378725700955</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32">
       <c r="A85">
         <v>4</v>
       </c>
@@ -20572,7 +19936,7 @@
         <v>190.91701148363151</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32">
       <c r="A86">
         <v>4</v>
       </c>
@@ -20686,7 +20050,7 @@
         <v>573.75278078792201</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32">
       <c r="A87">
         <v>5</v>
       </c>
@@ -20800,7 +20164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32">
       <c r="A88">
         <v>5</v>
       </c>
@@ -20914,7 +20278,7 @@
         <v>3.3039810168946184</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32">
       <c r="A89">
         <v>5</v>
       </c>
@@ -21028,7 +20392,7 @@
         <v>3.6145090329371152</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:32">
       <c r="A90">
         <v>5</v>
       </c>
@@ -21142,7 +20506,7 @@
         <v>3.9493170219378722</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:32">
       <c r="A91">
         <v>5</v>
       </c>
@@ -21256,7 +20620,7 @@
         <v>4.3104069380142827</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:32">
       <c r="A92">
         <v>5</v>
       </c>
@@ -21370,7 +20734,7 @@
         <v>5.2835660104945772</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32">
       <c r="A93">
         <v>5</v>
       </c>
@@ -21484,7 +20848,7 @@
         <v>5.750047253820723</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32">
       <c r="A94">
         <v>5</v>
       </c>
@@ -21598,7 +20962,7 @@
         <v>6.2535280152469372</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32">
       <c r="A95">
         <v>5</v>
       </c>
@@ -21712,7 +21076,7 @@
         <v>6.7969980193215278</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32">
       <c r="A96">
         <v>5</v>
       </c>
@@ -21826,7 +21190,7 @@
         <v>7.3836829153028312</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32">
       <c r="A97">
         <v>5</v>
       </c>
@@ -21940,7 +21304,7 @@
         <v>9.7579689596213353</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32">
       <c r="A98">
         <v>5</v>
       </c>
@@ -22062,7 +21426,7 @@
         <v>10.580624794619146</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32">
       <c r="A99">
         <v>5</v>
       </c>
@@ -22176,7 +21540,7 @@
         <v>11.468932998889491</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32">
       <c r="A100">
         <v>5</v>
       </c>
@@ -22290,7 +21654,7 @@
         <v>12.428159242107688</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32">
       <c r="A101">
         <v>5</v>
       </c>
@@ -22404,7 +21768,7 @@
         <v>13.463989193474202</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:32">
       <c r="A102">
         <v>5</v>
       </c>
@@ -22518,7 +21882,7 @@
         <v>21.851512350938815</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:32">
       <c r="A103">
         <v>5</v>
       </c>
@@ -22632,7 +21996,7 @@
         <v>23.640523652899681</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32">
       <c r="A104">
         <v>5</v>
       </c>
@@ -22746,7 +22110,7 @@
         <v>25.572587860573996</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:32">
       <c r="A105">
         <v>5</v>
       </c>
@@ -22860,7 +22224,7 @@
         <v>27.659154545031871</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:32">
       <c r="A106">
         <v>5</v>
       </c>
@@ -22974,7 +22338,7 @@
         <v>29.912588802551134</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32">
       <c r="A107">
         <v>5</v>
       </c>
@@ -23088,7 +22452,7 @@
         <v>51.206063441609857</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:32">
       <c r="A108">
         <v>5</v>
       </c>
@@ -23202,7 +22566,7 @@
         <v>55.342926262144871</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:32">
       <c r="A109">
         <v>5</v>
       </c>
@@ -23316,7 +22680,7 @@
         <v>59.810709759279412</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:32">
       <c r="A110">
         <v>5</v>
       </c>
@@ -23430,7 +22794,7 @@
         <v>64.635889740268098</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:32">
       <c r="A111">
         <v>5</v>
       </c>
@@ -23544,7 +22908,7 @@
         <v>69.847059909717487</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:32">
       <c r="A112">
         <v>5</v>
       </c>
@@ -23658,7 +23022,7 @@
         <v>140.19680742138519</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:32">
       <c r="A113">
         <v>5</v>
       </c>
@@ -23772,7 +23136,7 @@
         <v>151.45268960609346</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:32">
       <c r="A114">
         <v>5</v>
       </c>
@@ -23886,7 +23250,7 @@
         <v>163.60903212490163</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32">
       <c r="A115">
         <v>5</v>
       </c>
@@ -24000,7 +23364,7 @@
         <v>176.7378725700955</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:32">
       <c r="A116">
         <v>5</v>
       </c>
@@ -24114,7 +23478,7 @@
         <v>190.91701148363151</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:32">
       <c r="A117">
         <v>5</v>
       </c>
@@ -24228,7 +23592,7 @@
         <v>573.75278078792201</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:32">
       <c r="A118">
         <v>6</v>
       </c>
@@ -24342,7 +23706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:32">
       <c r="A119">
         <v>6</v>
       </c>
@@ -24456,7 +23820,7 @@
         <v>3.3039810168946184</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:32">
       <c r="A120">
         <v>6</v>
       </c>
@@ -24570,7 +23934,7 @@
         <v>3.6145090329371152</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:32">
       <c r="A121">
         <v>6</v>
       </c>
@@ -24684,7 +24048,7 @@
         <v>3.9493170219378722</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:32">
       <c r="A122">
         <v>6</v>
       </c>
@@ -24798,7 +24162,7 @@
         <v>4.3104069380142827</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:32">
       <c r="A123">
         <v>6</v>
       </c>
@@ -24912,7 +24276,7 @@
         <v>5.2835660104945772</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:32">
       <c r="A124">
         <v>6</v>
       </c>
@@ -25026,7 +24390,7 @@
         <v>5.750047253820723</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:32">
       <c r="A125">
         <v>6</v>
       </c>
@@ -25140,7 +24504,7 @@
         <v>6.2535280152469372</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:32">
       <c r="A126">
         <v>6</v>
       </c>
@@ -25254,7 +24618,7 @@
         <v>6.7969980193215278</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:32">
       <c r="A127">
         <v>6</v>
       </c>
@@ -25368,7 +24732,7 @@
         <v>7.3836829153028312</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:32">
       <c r="A128">
         <v>6</v>
       </c>
@@ -25482,7 +24846,7 @@
         <v>9.7579689596213353</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:32">
       <c r="A129">
         <v>6</v>
       </c>
@@ -25596,7 +24960,7 @@
         <v>10.580624794619146</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:32">
       <c r="A130">
         <v>6</v>
       </c>
@@ -25718,7 +25082,7 @@
         <v>11.468932998889491</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:32">
       <c r="A131">
         <v>6</v>
       </c>
@@ -25832,7 +25196,7 @@
         <v>12.428159242107688</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:32">
       <c r="A132">
         <v>6</v>
       </c>
@@ -25946,7 +25310,7 @@
         <v>13.463989193474202</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:32">
       <c r="A133">
         <v>6</v>
       </c>
@@ -26060,7 +25424,7 @@
         <v>21.851512350938815</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:32">
       <c r="A134">
         <v>6</v>
       </c>
@@ -26174,7 +25538,7 @@
         <v>23.640523652899681</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:32">
       <c r="A135">
         <v>6</v>
       </c>
@@ -26288,7 +25652,7 @@
         <v>25.572587860573996</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:32">
       <c r="A136">
         <v>6</v>
       </c>
@@ -26402,7 +25766,7 @@
         <v>27.659154545031871</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:32">
       <c r="A137">
         <v>6</v>
       </c>
@@ -26516,7 +25880,7 @@
         <v>29.912588802551134</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:32">
       <c r="A138">
         <v>6</v>
       </c>
@@ -26630,7 +25994,7 @@
         <v>51.206063441609857</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:32">
       <c r="A139">
         <v>6</v>
       </c>
@@ -26744,7 +26108,7 @@
         <v>55.342926262144871</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:32">
       <c r="A140">
         <v>6</v>
       </c>
@@ -26858,7 +26222,7 @@
         <v>59.810709759279412</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:32">
       <c r="A141">
         <v>6</v>
       </c>
@@ -26972,7 +26336,7 @@
         <v>64.635889740268098</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:32">
       <c r="A142">
         <v>6</v>
       </c>
@@ -27086,7 +26450,7 @@
         <v>69.847059909717487</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:32">
       <c r="A143">
         <v>6</v>
       </c>
@@ -27200,7 +26564,7 @@
         <v>140.19680742138519</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:32">
       <c r="A144">
         <v>6</v>
       </c>
@@ -27314,7 +26678,7 @@
         <v>151.45268960609346</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32">
       <c r="A145">
         <v>6</v>
       </c>
@@ -27428,7 +26792,7 @@
         <v>163.60903212490163</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32">
       <c r="A146">
         <v>6</v>
       </c>
@@ -27542,7 +26906,7 @@
         <v>176.7378725700955</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32">
       <c r="A147">
         <v>6</v>
       </c>
@@ -27656,7 +27020,7 @@
         <v>190.91701148363151</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32">
       <c r="A148">
         <v>6</v>
       </c>
@@ -27774,7 +27138,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27795,7 +27158,7 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="10" max="10" width="9" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -27814,7 +27177,7 @@
     <col min="63" max="63" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -27999,7 +27362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62">
       <c r="A2">
         <v>0</v>
       </c>
@@ -28220,7 +27583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62">
       <c r="A3">
         <v>1</v>
       </c>
@@ -28443,7 +27806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62">
       <c r="A4">
         <v>2</v>
       </c>
@@ -28661,7 +28024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62">
       <c r="A5">
         <v>3</v>
       </c>
@@ -28877,7 +28240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62">
       <c r="A6">
         <v>4</v>
       </c>
@@ -29090,7 +28453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62">
       <c r="A7">
         <v>5</v>
       </c>
@@ -29295,7 +28658,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62">
       <c r="A8">
         <v>6</v>
       </c>
@@ -29525,7 +28888,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
@@ -29543,7 +28906,7 @@
     <col min="25" max="25" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -29611,7 +28974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -29682,7 +29045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>0</v>
       </c>
@@ -29749,7 +29112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -29816,7 +29179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>0</v>
       </c>
@@ -29880,7 +29243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>0</v>
       </c>
@@ -29941,7 +29304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>0</v>
       </c>
@@ -29996,7 +29359,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>0</v>
       </c>
@@ -30051,7 +29414,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>0</v>
       </c>
@@ -30106,7 +29469,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>0</v>
       </c>
@@ -30161,7 +29524,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -30216,7 +29579,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>0</v>
       </c>
@@ -30271,7 +29634,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>0</v>
       </c>
@@ -30323,7 +29686,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>0</v>
       </c>
@@ -30375,7 +29738,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>0</v>
       </c>
@@ -30427,7 +29790,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>0</v>
       </c>
@@ -30479,7 +29842,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>0</v>
       </c>
@@ -30531,7 +29894,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>0</v>
       </c>
@@ -30583,7 +29946,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>0</v>
       </c>
@@ -30635,7 +29998,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>0</v>
       </c>
@@ -30687,7 +30050,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>0</v>
       </c>
@@ -30739,7 +30102,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>0</v>
       </c>
@@ -30791,7 +30154,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>0</v>
       </c>
@@ -30843,7 +30206,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>0</v>
       </c>
@@ -30895,7 +30258,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>0</v>
       </c>
@@ -30947,7 +30310,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>0</v>
       </c>
@@ -30999,7 +30362,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>0</v>
       </c>
@@ -31051,7 +30414,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>0</v>
       </c>
@@ -31103,7 +30466,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>0</v>
       </c>
@@ -31155,7 +30518,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>0</v>
       </c>
@@ -31207,7 +30570,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>0</v>
       </c>
@@ -31259,7 +30622,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>0</v>
       </c>
@@ -31311,7 +30674,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>0</v>
       </c>
@@ -31363,7 +30726,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>0</v>
       </c>
@@ -31425,7 +30788,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>0</v>
       </c>
@@ -31477,7 +30840,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>0</v>
       </c>
@@ -31529,7 +30892,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>0</v>
       </c>
@@ -31581,7 +30944,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>0</v>
       </c>
@@ -31633,7 +30996,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>0</v>
       </c>
@@ -31685,7 +31048,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>0</v>
       </c>
@@ -31737,7 +31100,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>0</v>
       </c>
@@ -31789,7 +31152,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>0</v>
       </c>
@@ -31841,7 +31204,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>0</v>
       </c>
@@ -31893,7 +31256,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>1</v>
       </c>
@@ -31945,7 +31308,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>1</v>
       </c>
@@ -31997,7 +31360,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>1</v>
       </c>
@@ -32049,7 +31412,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>1</v>
       </c>
@@ -32101,7 +31464,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>1</v>
       </c>
@@ -32153,7 +31516,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>1</v>
       </c>
@@ -32205,7 +31568,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>1</v>
       </c>
@@ -32257,7 +31620,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>1</v>
       </c>
@@ -32309,7 +31672,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>1</v>
       </c>
@@ -32361,7 +31724,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>1</v>
       </c>
@@ -32413,7 +31776,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>1</v>
       </c>
@@ -32465,7 +31828,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>1</v>
       </c>
@@ -32517,7 +31880,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>1</v>
       </c>
@@ -32569,7 +31932,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>1</v>
       </c>
@@ -32621,7 +31984,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>1</v>
       </c>
@@ -32673,7 +32036,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>1</v>
       </c>
@@ -32725,7 +32088,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>1</v>
       </c>
@@ -32777,7 +32140,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>1</v>
       </c>
@@ -32829,7 +32192,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>1</v>
       </c>
@@ -32881,7 +32244,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>1</v>
       </c>
@@ -32933,7 +32296,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>1</v>
       </c>
@@ -32985,7 +32348,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>1</v>
       </c>
@@ -33037,7 +32400,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>1</v>
       </c>
@@ -33099,7 +32462,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>1</v>
       </c>
@@ -33151,7 +32514,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>1</v>
       </c>
@@ -33203,7 +32566,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>1</v>
       </c>
@@ -33255,7 +32618,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>1</v>
       </c>
@@ -33307,7 +32670,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>1</v>
       </c>
@@ -33359,7 +32722,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>1</v>
       </c>
@@ -33411,7 +32774,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>1</v>
       </c>
@@ -33463,7 +32826,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>1</v>
       </c>
@@ -33515,7 +32878,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>1</v>
       </c>
@@ -33567,7 +32930,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>1</v>
       </c>
@@ -33619,7 +32982,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>1</v>
       </c>
@@ -33671,7 +33034,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>1</v>
       </c>
@@ -33751,7 +33114,7 @@
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="3" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="9" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -33761,7 +33124,7 @@
     <col min="23" max="23" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -33829,7 +33192,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>0</v>
       </c>
@@ -33912,7 +33275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>0</v>
       </c>
@@ -33996,7 +33359,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>0</v>
       </c>
@@ -34076,7 +33439,7 @@
         <v>1.2100000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>0</v>
       </c>
@@ -34156,7 +33519,7 @@
         <v>1.3310000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>0</v>
       </c>
@@ -34236,7 +33599,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>0</v>
       </c>
@@ -34320,7 +33683,7 @@
         <v>1.6105100000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>1</v>
       </c>
@@ -34400,7 +33763,7 @@
         <v>1.4641000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>1</v>
       </c>
@@ -34483,7 +33846,7 @@
         <v>1.6105100000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>1</v>
       </c>
@@ -34563,7 +33926,7 @@
         <v>1.7715610000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>1</v>
       </c>
@@ -34643,7 +34006,7 @@
         <v>1.9487171000000014</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>1</v>
       </c>
@@ -34723,7 +34086,7 @@
         <v>2.1435888100000016</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>1</v>
       </c>
@@ -34803,7 +34166,7 @@
         <v>2.3579476910000019</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>1</v>
       </c>
@@ -34883,7 +34246,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>1</v>
       </c>
@@ -34963,7 +34326,7 @@
         <v>2.8531167061100029</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>1</v>
       </c>
@@ -35043,7 +34406,7 @@
         <v>3.1384283767210035</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>1</v>
       </c>
@@ -35123,7 +34486,7 @@
         <v>3.4522712143931042</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>1</v>
       </c>
@@ -35207,7 +34570,7 @@
         <v>3.7974983358324148</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>2</v>
       </c>
@@ -35287,7 +34650,7 @@
         <v>2.5937424601000023</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>2</v>
       </c>
@@ -35367,7 +34730,7 @@
         <v>2.8531167061100029</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>2</v>
       </c>
@@ -35447,7 +34810,7 @@
         <v>3.1384283767210035</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>2</v>
       </c>
@@ -35527,7 +34890,7 @@
         <v>3.4522712143931042</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>2</v>
       </c>
@@ -35610,7 +34973,7 @@
         <v>3.7974983358324148</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>2</v>
       </c>
@@ -35690,7 +35053,7 @@
         <v>4.1772481694156562</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>2</v>
       </c>
@@ -35770,7 +35133,7 @@
         <v>4.594972986357222</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>2</v>
       </c>
@@ -35850,7 +35213,7 @@
         <v>5.0544702849929442</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>2</v>
       </c>
@@ -35930,7 +35293,7 @@
         <v>5.5599173134922388</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>2</v>
       </c>
@@ -36010,7 +35373,7 @@
         <v>6.1159090448414632</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>2</v>
       </c>
@@ -36090,7 +35453,7 @@
         <v>6.72749994932561</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>2</v>
       </c>
@@ -36170,7 +35533,7 @@
         <v>7.4002499442581717</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>2</v>
       </c>
@@ -36250,7 +35613,7 @@
         <v>8.140274938683989</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>2</v>
       </c>
@@ -36330,7 +35693,7 @@
         <v>8.9543024325523888</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>2</v>
       </c>
@@ -36410,7 +35773,7 @@
         <v>9.849732675807628</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>2</v>
       </c>
@@ -36494,7 +35857,7 @@
         <v>10.834705943388391</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>3</v>
       </c>
@@ -36574,7 +35937,7 @@
         <v>6.1159090448414624</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>3</v>
       </c>
@@ -36654,7 +36017,7 @@
         <v>6.7274999493256091</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>3</v>
       </c>
@@ -36734,7 +36097,7 @@
         <v>7.4002499442581708</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>3</v>
       </c>
@@ -36814,7 +36177,7 @@
         <v>8.140274938683989</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>3</v>
       </c>
@@ -36894,7 +36257,7 @@
         <v>8.9543024325523888</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>3</v>
       </c>
@@ -36974,7 +36337,7 @@
         <v>9.849732675807628</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>3</v>
       </c>
@@ -37057,7 +36420,7 @@
         <v>10.834705943388391</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>3</v>
       </c>
@@ -37137,7 +36500,7 @@
         <v>11.918176537727231</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>3</v>
       </c>
@@ -37217,7 +36580,7 @@
         <v>13.109994191499954</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>3</v>
       </c>
@@ -37297,7 +36660,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>3</v>
       </c>
@@ -37377,7 +36740,7 @@
         <v>15.863092971714948</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>3</v>
       </c>
@@ -37457,7 +36820,7 @@
         <v>17.449402268886445</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>3</v>
       </c>
@@ -37537,7 +36900,7 @@
         <v>19.194342495775089</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>3</v>
       </c>
@@ -37617,7 +36980,7 @@
         <v>21.113776745352599</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>3</v>
       </c>
@@ -37697,7 +37060,7 @@
         <v>23.225154419887861</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>3</v>
       </c>
@@ -37777,7 +37140,7 @@
         <v>25.547669861876649</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>3</v>
       </c>
@@ -37857,7 +37220,7 @@
         <v>28.102436848064315</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>3</v>
       </c>
@@ -37937,7 +37300,7 @@
         <v>30.912680532870748</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>3</v>
       </c>
@@ -38017,7 +37380,7 @@
         <v>34.003948586157826</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>3</v>
       </c>
@@ -38097,7 +37460,7 @@
         <v>37.404343444773609</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>3</v>
       </c>
@@ -38181,7 +37544,7 @@
         <v>41.144777789250973</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22">
       <c r="A56">
         <v>4</v>
       </c>
@@ -38261,7 +37624,7 @@
         <v>14.420993610649951</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22">
       <c r="A57">
         <v>4</v>
       </c>
@@ -38341,7 +37704,7 @@
         <v>15.863092971714948</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>4</v>
       </c>
@@ -38421,7 +37784,7 @@
         <v>17.449402268886445</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>4</v>
       </c>
@@ -38501,7 +37864,7 @@
         <v>19.194342495775089</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>4</v>
       </c>
@@ -38581,7 +37944,7 @@
         <v>21.113776745352599</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22">
       <c r="A61">
         <v>4</v>
       </c>
@@ -38661,7 +38024,7 @@
         <v>23.225154419887861</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22">
       <c r="A62">
         <v>4</v>
       </c>
@@ -38741,7 +38104,7 @@
         <v>25.547669861876649</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22">
       <c r="A63">
         <v>4</v>
       </c>
@@ -38821,7 +38184,7 @@
         <v>28.102436848064315</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22">
       <c r="A64">
         <v>4</v>
       </c>
@@ -38901,7 +38264,7 @@
         <v>30.912680532870748</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>4</v>
       </c>
@@ -38981,7 +38344,7 @@
         <v>34.003948586157826</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>4</v>
       </c>
@@ -39061,7 +38424,7 @@
         <v>37.404343444773609</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>4</v>
       </c>
@@ -39148,7 +38511,7 @@
         <v>41.144777789250973</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>4</v>
       </c>
@@ -39228,7 +38591,7 @@
         <v>45.259255568176073</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22">
       <c r="A69">
         <v>4</v>
       </c>
@@ -39308,7 +38671,7 @@
         <v>49.785181124993684</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22">
       <c r="A70">
         <v>4</v>
       </c>
@@ -39388,7 +38751,7 @@
         <v>54.763699237493057</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22">
       <c r="A71">
         <v>4</v>
       </c>
@@ -39468,7 +38831,7 @@
         <v>60.240069161242367</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22">
       <c r="A72">
         <v>4</v>
       </c>
@@ -39548,7 +38911,7 @@
         <v>66.26407607736661</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22">
       <c r="A73">
         <v>4</v>
       </c>
@@ -39628,7 +38991,7 @@
         <v>72.890483685103277</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22">
       <c r="A74">
         <v>4</v>
       </c>
@@ -39708,7 +39071,7 @@
         <v>80.179532053613613</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22">
       <c r="A75">
         <v>4</v>
       </c>
@@ -39788,7 +39151,7 @@
         <v>88.197485258974979</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22">
       <c r="A76">
         <v>4</v>
       </c>
@@ -39868,7 +39231,7 @@
         <v>97.017233784872488</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22">
       <c r="A77">
         <v>4</v>
       </c>
@@ -39948,7 +39311,7 @@
         <v>106.71895716335975</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22">
       <c r="A78">
         <v>4</v>
       </c>
@@ -40028,7 +39391,7 @@
         <v>117.39085287969573</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22">
       <c r="A79">
         <v>4</v>
       </c>
@@ -40108,7 +39471,7 @@
         <v>129.1299381676653</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22">
       <c r="A80">
         <v>4</v>
       </c>
@@ -40188,7 +39551,7 @@
         <v>142.04293198443185</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22">
       <c r="A81">
         <v>4</v>
       </c>
@@ -40268,7 +39631,7 @@
         <v>156.24722518287504</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22">
       <c r="A82">
         <v>4</v>
       </c>
@@ -40348,7 +39711,7 @@
         <v>171.87194770116255</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22">
       <c r="A83">
         <v>4</v>
       </c>
@@ -40428,7 +39791,7 @@
         <v>189.05914247127882</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22">
       <c r="A84">
         <v>4</v>
       </c>
@@ -40508,7 +39871,7 @@
         <v>207.96505671840671</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22">
       <c r="A85">
         <v>4</v>
       </c>
@@ -40588,7 +39951,7 @@
         <v>228.76156239024741</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22">
       <c r="A86">
         <v>4</v>
       </c>
@@ -40668,7 +40031,7 @@
         <v>251.63771862927217</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22">
       <c r="A87">
         <v>5</v>
       </c>
@@ -40751,7 +40114,7 @@
         <v>19.023558478220203</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22">
       <c r="A88">
         <v>5</v>
       </c>
@@ -40831,7 +40194,7 @@
         <v>20.925914326042225</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22">
       <c r="A89">
         <v>5</v>
       </c>
@@ -40911,7 +40274,7 @@
         <v>23.018505758646448</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22">
       <c r="A90">
         <v>5</v>
       </c>
@@ -40991,7 +40354,7 @@
         <v>25.320356334511096</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22">
       <c r="A91">
         <v>5</v>
       </c>
@@ -41071,7 +40434,7 @@
         <v>27.852391967962209</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22">
       <c r="A92">
         <v>5</v>
       </c>
@@ -41151,7 +40514,7 @@
         <v>30.637631164758432</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22">
       <c r="A93">
         <v>5</v>
       </c>
@@ -41231,7 +40594,7 @@
         <v>33.701394281234279</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22">
       <c r="A94">
         <v>5</v>
       </c>
@@ -41311,7 +40674,7 @@
         <v>37.071533709357709</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22">
       <c r="A95">
         <v>5</v>
       </c>
@@ -41391,7 +40754,7 @@
         <v>40.77868708029348</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22">
       <c r="A96">
         <v>5</v>
       </c>
@@ -41471,7 +40834,7 @@
         <v>44.856555788322829</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22">
       <c r="A97">
         <v>5</v>
       </c>
@@ -41551,7 +40914,7 @@
         <v>49.342211367155116</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22">
       <c r="A98">
         <v>5</v>
       </c>
@@ -41631,7 +40994,7 @@
         <v>54.27643250387063</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22">
       <c r="A99">
         <v>5</v>
       </c>
@@ -41711,7 +41074,7 @@
         <v>59.704075754257701</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22">
       <c r="A100">
         <v>5</v>
       </c>
@@ -41791,7 +41154,7 @@
         <v>65.674483329683483</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22">
       <c r="A101">
         <v>5</v>
       </c>
@@ -41871,7 +41234,7 @@
         <v>72.241931662651837</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22">
       <c r="A102">
         <v>5</v>
       </c>
@@ -41951,7 +41314,7 @@
         <v>79.466124828917032</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22">
       <c r="A103">
         <v>5</v>
       </c>
@@ -42031,7 +41394,7 @@
         <v>87.412737311808741</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22">
       <c r="A104">
         <v>5</v>
       </c>
@@ -42111,7 +41474,7 @@
         <v>96.154011042989623</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22">
       <c r="A105">
         <v>5</v>
       </c>
@@ -42191,7 +41554,7 @@
         <v>105.76941214728859</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22">
       <c r="A106">
         <v>5</v>
       </c>
@@ -42271,7 +41634,7 @@
         <v>116.34635336201745</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22">
       <c r="A107">
         <v>5</v>
       </c>
@@ -42351,7 +41714,7 @@
         <v>127.98098869821921</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22">
       <c r="A108">
         <v>5</v>
       </c>
@@ -42431,7 +41794,7 @@
         <v>140.77908756804115</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22">
       <c r="A109">
         <v>5</v>
       </c>
@@ -42511,7 +41874,7 @@
         <v>154.85699632484528</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22">
       <c r="A110">
         <v>5</v>
       </c>
@@ -42591,7 +41954,7 @@
         <v>170.34269595732982</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22">
       <c r="A111">
         <v>5</v>
       </c>
@@ -42671,7 +42034,7 @@
         <v>187.37696555306283</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22">
       <c r="A112">
         <v>5</v>
       </c>
@@ -42751,7 +42114,7 @@
         <v>206.11466210836912</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22">
       <c r="A113">
         <v>5</v>
       </c>
@@ -42831,7 +42194,7 @@
         <v>226.72612831920605</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22">
       <c r="A114">
         <v>5</v>
       </c>
@@ -42911,7 +42274,7 @@
         <v>249.39874115112667</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22">
       <c r="A115">
         <v>5</v>
       </c>
@@ -42991,7 +42354,7 @@
         <v>274.33861526623934</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22">
       <c r="A116">
         <v>5</v>
       </c>
@@ -43071,7 +42434,7 @@
         <v>301.7724767928633</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22">
       <c r="A117">
         <v>5</v>
       </c>
@@ -43151,7 +42514,7 @@
         <v>331.94972447214968</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22">
       <c r="A118">
         <v>6</v>
       </c>
@@ -43231,7 +42594,7 @@
         <v>25.095065357147273</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22">
       <c r="A119">
         <v>6</v>
       </c>
@@ -43311,7 +42674,7 @@
         <v>27.604571892862005</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22">
       <c r="A120">
         <v>6</v>
       </c>
@@ -43391,7 +42754,7 @@
         <v>30.365029082148208</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22">
       <c r="A121">
         <v>6</v>
       </c>
@@ -43471,7 +42834,7 @@
         <v>33.401531990363033</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22">
       <c r="A122">
         <v>6</v>
       </c>
@@ -43551,7 +42914,7 @@
         <v>36.741685189399341</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22">
       <c r="A123">
         <v>6</v>
       </c>
@@ -43631,7 +42994,7 @@
         <v>40.415853708339277</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22">
       <c r="A124">
         <v>6</v>
       </c>
@@ -43711,7 +43074,7 @@
         <v>44.457439079173206</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22">
       <c r="A125">
         <v>6</v>
       </c>
@@ -43791,7 +43154,7 @@
         <v>48.903182987090531</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22">
       <c r="A126">
         <v>6</v>
       </c>
@@ -43871,7 +43234,7 @@
         <v>53.793501285799586</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22">
       <c r="A127">
         <v>6</v>
       </c>
@@ -43951,7 +43314,7 @@
         <v>59.172851414379551</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22">
       <c r="A128">
         <v>6</v>
       </c>
@@ -44031,7 +43394,7 @@
         <v>65.090136555817509</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22">
       <c r="A129">
         <v>6</v>
       </c>
@@ -44111,7 +43474,7 @@
         <v>71.599150211399262</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22">
       <c r="A130">
         <v>6</v>
       </c>
@@ -44191,7 +43554,7 @@
         <v>78.7590652325392</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22">
       <c r="A131">
         <v>6</v>
       </c>
@@ -44275,7 +43638,7 @@
         <v>86.634971755793131</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22">
       <c r="A132">
         <v>6</v>
       </c>
@@ -44355,7 +43718,7 @@
         <v>95.298468931372454</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22">
       <c r="A133">
         <v>6</v>
       </c>
@@ -44435,7 +43798,7 @@
         <v>104.82831582450972</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22">
       <c r="A134">
         <v>6</v>
       </c>
@@ -44515,7 +43878,7 @@
         <v>115.3111474069607</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22">
       <c r="A135">
         <v>6</v>
       </c>
@@ -44595,7 +43958,7 @@
         <v>126.84226214765678</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22">
       <c r="A136">
         <v>6</v>
       </c>
@@ -44675,7 +44038,7 @@
         <v>139.52648836242247</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22">
       <c r="A137">
         <v>6</v>
       </c>
@@ -44755,7 +44118,7 @@
         <v>153.47913719866472</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22">
       <c r="A138">
         <v>6</v>
       </c>
@@ -44835,7 +44198,7 @@
         <v>168.8270509185312</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22">
       <c r="A139">
         <v>6</v>
       </c>
@@ -44915,7 +44278,7 @@
         <v>185.70975601038433</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22">
       <c r="A140">
         <v>6</v>
       </c>
@@ -44995,7 +44358,7 @@
         <v>204.28073161142277</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22">
       <c r="A141">
         <v>6</v>
       </c>
@@ -45075,7 +44438,7 @@
         <v>224.70880477256506</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22">
       <c r="A142">
         <v>6</v>
       </c>
@@ -45155,7 +44518,7 @@
         <v>247.17968524982157</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22">
       <c r="A143">
         <v>6</v>
       </c>
@@ -45235,7 +44598,7 @@
         <v>271.89765377480376</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22">
       <c r="A144">
         <v>6</v>
       </c>
@@ -45315,7 +44678,7 @@
         <v>299.08741915228416</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22">
       <c r="A145">
         <v>6</v>
       </c>
@@ -45395,7 +44758,7 @@
         <v>328.99616106751262</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22">
       <c r="A146">
         <v>6</v>
       </c>
@@ -45475,7 +44838,7 @@
         <v>361.89577717426391</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22">
       <c r="A147">
         <v>6</v>
       </c>
@@ -45555,7 +44918,7 @@
         <v>398.08535489169032</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22">
       <c r="A148">
         <v>6</v>
       </c>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A02A9B4-7735-468D-A89C-E4B414864841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE4EBC1-BE44-4603-9CE9-53F7F6E1F958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="194">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1522,6 +1522,10 @@
     <t>확률참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GirlMageStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2057,9 +2061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FDFEB-84DC-4FDB-9708-1D7DBC9715D5}">
   <dimension ref="A1:AM118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5822,13 +5826,16 @@
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
+      <c r="P48" t="s">
+        <v>193</v>
+      </c>
       <c r="Q48" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>Shot_GirlMageStaff</v>
       </c>
       <c r="R48" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>EquipName_GirlMageStaff</v>
       </c>
       <c r="S48">
         <f>VLOOKUP(F48,TransferTable!$A:$V,MATCH(TransferTable!$V$1,TransferTable!$A$1:$V$1,0),0)</f>
@@ -10221,7 +10228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D1C7CA-62FC-48B9-BBD8-4025BB82F174}">
   <dimension ref="A1:AG148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE4EBC1-BE44-4603-9CE9-53F7F6E1F958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F0B70-802E-4819-A01D-ED2091E9D8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="195">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1526,6 +1526,10 @@
     <t>GirlMageStaff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>WideBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2065,9 +2069,9 @@
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -7205,13 +7209,16 @@
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
+      <c r="P70" t="s">
+        <v>194</v>
+      </c>
       <c r="Q70" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>Shot_WideBlade</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>EquipName_WideBlade</v>
       </c>
       <c r="S70">
         <f>VLOOKUP(F70,TransferTable!$A:$V,MATCH(TransferTable!$V$1,TransferTable!$A$1:$V$1,0),0)</f>
@@ -33119,7 +33126,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView topLeftCell="A22" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F0B70-802E-4819-A01D-ED2091E9D8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900EB14-5871-4765-84A7-B94A503606AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="196">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1530,6 +1530,10 @@
     <t>WideBlade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>StylizedAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2070,8 +2074,8 @@
       <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2882,13 +2886,16 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
+      <c r="P7" t="s">
+        <v>195</v>
+      </c>
       <c r="Q7" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>Shot_StylizedAxe</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>EquipName_StylizedAxe</v>
       </c>
       <c r="S7">
         <f>VLOOKUP(F7,TransferTable!$A:$V,MATCH(TransferTable!$V$1,TransferTable!$A$1:$V$1,0),0)</f>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900EB14-5871-4765-84A7-B94A503606AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC358E5-18A7-4066-8ACA-EE5A7AE52D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
   </bookViews>
   <sheets>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="197">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1534,6 +1534,10 @@
     <t>StylizedAxe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>StylizedSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2074,8 +2078,8 @@
       <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -7281,13 +7285,16 @@
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
+      <c r="P71" t="s">
+        <v>196</v>
+      </c>
       <c r="Q71" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>Shot_StylizedSword</v>
       </c>
       <c r="R71" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>EquipName_StylizedSword</v>
       </c>
       <c r="S71">
         <f>VLOOKUP(F71,TransferTable!$A:$V,MATCH(TransferTable!$V$1,TransferTable!$A$1:$V$1,0),0)</f>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC358E5-18A7-4066-8ACA-EE5A7AE52D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3252411A-1F42-411B-A83D-CBA29DEFFF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{744FAB8B-2B4C-47C4-9B52-EAF29B7E3396}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{414219B6-7064-40CC-A492-ADCA17014BB4}"/>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="198">
   <si>
     <t>grade|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1538,6 +1538,10 @@
     <t>StylizedSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LowPolyHammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2074,8 +2078,8 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
@@ -6281,13 +6285,16 @@
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
+      <c r="P55" t="s">
+        <v>197</v>
+      </c>
       <c r="Q55" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>Shot_LowPolyHammer</v>
       </c>
       <c r="R55" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>EquipName_LowPolyHammer</v>
       </c>
       <c r="S55">
         <f>VLOOKUP(F55,TransferTable!$A:$V,MATCH(TransferTable!$V$1,TransferTable!$A$1:$V$1,0),0)</f>
